--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">41</t>
+      <t xml:space="preserve">42</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/10/2022</t>
+      <t xml:space="preserve">10/17/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/16/2022</t>
+      <t xml:space="preserve">10/23/2022</t>
     </r>
   </si>
   <si>
@@ -826,37 +826,37 @@
         <v>7</v>
       </c>
       <c r="D14" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" s="16">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G14" s="15">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="16">
-        <v>-31.111111111111</v>
+        <v>-41.860465116279</v>
       </c>
       <c r="I14" s="15">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="J14" s="15">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="K14" s="16">
-        <v>-14.75</v>
+        <v>-14.250614250614</v>
       </c>
       <c r="L14" s="16">
-        <v>-10.498687664042</v>
+        <v>-11.868686868686</v>
       </c>
       <c r="M14" s="16">
-        <v>-21.428571428571</v>
+        <v>-21.396396396396</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.294080203691</v>
+        <v>-78.309509011808</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D15" s="15">
         <v>26</v>
       </c>
       <c r="E15" s="16">
-        <v>42.307692307692</v>
+        <v>15.384615384615</v>
       </c>
       <c r="F15" s="15">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G15" s="15">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H15" s="16">
-        <v>13.793103448275</v>
+        <v>12.5</v>
       </c>
       <c r="I15" s="15">
-        <v>1323</v>
+        <v>1353</v>
       </c>
       <c r="J15" s="15">
-        <v>1192</v>
+        <v>1218</v>
       </c>
       <c r="K15" s="16">
-        <v>10.989932885906</v>
+        <v>11.083743842364</v>
       </c>
       <c r="L15" s="16">
-        <v>15.445026178010</v>
+        <v>14.953271028037</v>
       </c>
       <c r="M15" s="16">
-        <v>25.047258979206</v>
+        <v>24.242424242424</v>
       </c>
       <c r="N15" s="16">
-        <v>-49.310344827586</v>
+        <v>-49.306856500562</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="D16" s="15">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="E16" s="16">
-        <v>-9.322033898305</v>
+        <v>-1.006711409395</v>
       </c>
       <c r="F16" s="15">
-        <v>1380</v>
+        <v>1326</v>
       </c>
       <c r="G16" s="15">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="H16" s="16">
-        <v>4.783599088838</v>
+        <v>2</v>
       </c>
       <c r="I16" s="15">
-        <v>13866</v>
+        <v>14176</v>
       </c>
       <c r="J16" s="15">
-        <v>10336</v>
+        <v>10634</v>
       </c>
       <c r="K16" s="16">
-        <v>34.152476780185</v>
+        <v>33.308256535640</v>
       </c>
       <c r="L16" s="16">
-        <v>35.304449648711</v>
+        <v>34.714435047039</v>
       </c>
       <c r="M16" s="16">
-        <v>-7.952734997344</v>
+        <v>-8.789087633509</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.333780460541</v>
+        <v>-79.442261119248</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D17" s="15">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="E17" s="16">
-        <v>-12.476370510397</v>
+        <v>-9.054325955734</v>
       </c>
       <c r="F17" s="15">
-        <v>1852</v>
+        <v>1835</v>
       </c>
       <c r="G17" s="15">
-        <v>2083</v>
+        <v>2037</v>
       </c>
       <c r="H17" s="16">
-        <v>-11.089774363898</v>
+        <v>-9.916543937162</v>
       </c>
       <c r="I17" s="15">
-        <v>20780</v>
+        <v>21282</v>
       </c>
       <c r="J17" s="15">
-        <v>18147</v>
+        <v>18644</v>
       </c>
       <c r="K17" s="16">
-        <v>14.509285281313</v>
+        <v>14.149324179360</v>
       </c>
       <c r="L17" s="16">
-        <v>25.316608370522</v>
+        <v>25.114638447971</v>
       </c>
       <c r="M17" s="16">
-        <v>51.094306696720</v>
+        <v>51.570400968592</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.962741819918</v>
+        <v>-37.879097463440</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D18" s="15">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="E18" s="16">
-        <v>-3.525641025641</v>
+        <v>3.780068728522</v>
       </c>
       <c r="F18" s="15">
-        <v>1312</v>
+        <v>1265</v>
       </c>
       <c r="G18" s="15">
-        <v>1151</v>
+        <v>1158</v>
       </c>
       <c r="H18" s="16">
-        <v>13.987836663770</v>
+        <v>9.240069084628</v>
       </c>
       <c r="I18" s="15">
-        <v>12491</v>
+        <v>12805</v>
       </c>
       <c r="J18" s="15">
-        <v>9563</v>
+        <v>9855</v>
       </c>
       <c r="K18" s="16">
-        <v>30.618006901599</v>
+        <v>29.934043632673</v>
       </c>
       <c r="L18" s="16">
-        <v>2.528112944266</v>
+        <v>2.317219336795</v>
       </c>
       <c r="M18" s="16">
-        <v>-14.998298741068</v>
+        <v>-15.193059142989</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.268856340440</v>
+        <v>-84.284872732628</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>996</v>
+        <v>1114</v>
       </c>
       <c r="D19" s="15">
-        <v>917</v>
+        <v>970</v>
       </c>
       <c r="E19" s="16">
-        <v>8.615049073064</v>
+        <v>14.845360824742</v>
       </c>
       <c r="F19" s="15">
-        <v>4214</v>
+        <v>4316</v>
       </c>
       <c r="G19" s="15">
-        <v>3725</v>
+        <v>3779</v>
       </c>
       <c r="H19" s="16">
-        <v>13.127516778523</v>
+        <v>14.210108494310</v>
       </c>
       <c r="I19" s="15">
-        <v>40808</v>
+        <v>41956</v>
       </c>
       <c r="J19" s="15">
-        <v>29028</v>
+        <v>29998</v>
       </c>
       <c r="K19" s="16">
-        <v>40.581507509990</v>
+        <v>39.862657510500</v>
       </c>
       <c r="L19" s="16">
-        <v>45.982685841024</v>
+        <v>45.756470383880</v>
       </c>
       <c r="M19" s="16">
-        <v>38.215071972904</v>
+        <v>38.258749093785</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.981174255794</v>
+        <v>-39.786736319407</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="D20" s="15">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E20" s="16">
-        <v>31.535269709543</v>
+        <v>16.949152542372</v>
       </c>
       <c r="F20" s="15">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="G20" s="15">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H20" s="16">
-        <v>17.323651452282</v>
+        <v>15.170278637770</v>
       </c>
       <c r="I20" s="15">
-        <v>10724</v>
+        <v>10993</v>
       </c>
       <c r="J20" s="15">
-        <v>7900</v>
+        <v>8136</v>
       </c>
       <c r="K20" s="16">
-        <v>35.746835443038</v>
+        <v>35.115535889872</v>
       </c>
       <c r="L20" s="16">
-        <v>55.397768439356</v>
+        <v>54.678485999718</v>
       </c>
       <c r="M20" s="16">
-        <v>29.704886308659</v>
+        <v>30.110072197893</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.854764547328</v>
+        <v>-87.868989946920</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2442</v>
+        <v>2476</v>
       </c>
       <c r="D21" s="18">
-        <v>2389</v>
+        <v>2325</v>
       </c>
       <c r="E21" s="19">
-        <v>2.218501465048</v>
+        <v>6.494623655913</v>
       </c>
       <c r="F21" s="18">
-        <v>10052</v>
+        <v>10009</v>
       </c>
       <c r="G21" s="18">
-        <v>9401</v>
+        <v>9398</v>
       </c>
       <c r="H21" s="19">
-        <v>6.924795234549</v>
+        <v>6.501383273036</v>
       </c>
       <c r="I21" s="18">
-        <v>100333</v>
+        <v>102914</v>
       </c>
       <c r="J21" s="18">
-        <v>76566</v>
+        <v>78892</v>
       </c>
       <c r="K21" s="19">
-        <v>31.041193218922</v>
+        <v>30.449221720833</v>
       </c>
       <c r="L21" s="19">
-        <v>33.076463956495</v>
+        <v>32.769986969927</v>
       </c>
       <c r="M21" s="19">
-        <v>21.179511334951</v>
+        <v>21.061051640983</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.530597858810</v>
+        <v>-70.534880924431</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="15">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" s="16">
-        <v>46.875</v>
+        <v>44.117647058823</v>
       </c>
       <c r="F22" s="15">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G22" s="15">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H22" s="16">
-        <v>12.209302325581</v>
+        <v>28.476821192053</v>
       </c>
       <c r="I22" s="15">
-        <v>1813</v>
+        <v>1865</v>
       </c>
       <c r="J22" s="15">
-        <v>1282</v>
+        <v>1316</v>
       </c>
       <c r="K22" s="16">
-        <v>41.419656786271</v>
+        <v>41.717325227963</v>
       </c>
       <c r="L22" s="16">
-        <v>25.467128027681</v>
+        <v>25.589225589225</v>
       </c>
       <c r="M22" s="16">
-        <v>7.916666666666</v>
+        <v>8.367228355607</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D23" s="15">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E23" s="16">
-        <v>-12.068965517241</v>
+        <v>-16.814159292035</v>
       </c>
       <c r="F23" s="15">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="G23" s="15">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H23" s="16">
-        <v>-13.025210084033</v>
+        <v>-14.989293361884</v>
       </c>
       <c r="I23" s="15">
-        <v>4750</v>
+        <v>4850</v>
       </c>
       <c r="J23" s="15">
-        <v>4323</v>
+        <v>4436</v>
       </c>
       <c r="K23" s="16">
-        <v>9.877399953735</v>
+        <v>9.332732191163</v>
       </c>
       <c r="L23" s="16">
-        <v>17.081587379837</v>
+        <v>16.362763915547</v>
       </c>
       <c r="M23" s="16">
-        <v>42.258161126085</v>
+        <v>41.729982466393</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2218</v>
+        <v>2284</v>
       </c>
       <c r="D24" s="15">
-        <v>2020</v>
+        <v>2095</v>
       </c>
       <c r="E24" s="16">
-        <v>9.801980198019</v>
+        <v>9.021479713603</v>
       </c>
       <c r="F24" s="15">
-        <v>9234</v>
+        <v>9150</v>
       </c>
       <c r="G24" s="15">
-        <v>7720</v>
+        <v>8013</v>
       </c>
       <c r="H24" s="16">
-        <v>19.611398963730</v>
+        <v>14.189442156495</v>
       </c>
       <c r="I24" s="15">
-        <v>91433</v>
+        <v>93771</v>
       </c>
       <c r="J24" s="15">
-        <v>65275</v>
+        <v>67370</v>
       </c>
       <c r="K24" s="16">
-        <v>40.073535044044</v>
+        <v>39.188065904705</v>
       </c>
       <c r="L24" s="16">
-        <v>43.284962076098</v>
+        <v>42.810800932060</v>
       </c>
       <c r="M24" s="16">
-        <v>41.30965628091</v>
+        <v>41.053565787692</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>749</v>
+        <v>796</v>
       </c>
       <c r="D25" s="15">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="E25" s="16">
-        <v>-5.667506297229</v>
+        <v>-2.926829268292</v>
       </c>
       <c r="F25" s="15">
-        <v>3044</v>
+        <v>3057</v>
       </c>
       <c r="G25" s="15">
-        <v>3323</v>
+        <v>3298</v>
       </c>
       <c r="H25" s="16">
-        <v>-8.396027685826</v>
+        <v>-7.307459066100</v>
       </c>
       <c r="I25" s="15">
-        <v>32918</v>
+        <v>33728</v>
       </c>
       <c r="J25" s="15">
-        <v>28256</v>
+        <v>29075</v>
       </c>
       <c r="K25" s="16">
-        <v>16.499150622876</v>
+        <v>16.003439380911</v>
       </c>
       <c r="L25" s="16">
-        <v>23.399310241415</v>
+        <v>23.279359625717</v>
       </c>
       <c r="M25" s="16">
-        <v>-11.039645434154</v>
+        <v>-10.909186961804</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D26" s="15">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E26" s="16">
-        <v>54.054054054054</v>
+        <v>19.047619047619</v>
       </c>
       <c r="F26" s="15">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G26" s="15">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="H26" s="16">
-        <v>8.333333333333</v>
+        <v>13.483146067415</v>
       </c>
       <c r="I26" s="15">
-        <v>2112</v>
+        <v>2165</v>
       </c>
       <c r="J26" s="15">
-        <v>1944</v>
+        <v>1986</v>
       </c>
       <c r="K26" s="16">
-        <v>8.641975308641</v>
+        <v>9.013091641490</v>
       </c>
       <c r="L26" s="16">
-        <v>17.857142857142</v>
+        <v>16.963803349540</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D27" s="15">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E27" s="16">
-        <v>12.389380530973</v>
+        <v>11.538461538461</v>
       </c>
       <c r="F27" s="15">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G27" s="15">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H27" s="16">
-        <v>-1.822323462414</v>
+        <v>-2.901785714285</v>
       </c>
       <c r="I27" s="15">
-        <v>4123</v>
+        <v>4244</v>
       </c>
       <c r="J27" s="15">
-        <v>3868</v>
+        <v>3972</v>
       </c>
       <c r="K27" s="16">
-        <v>6.592554291623</v>
+        <v>6.847935548841</v>
       </c>
       <c r="L27" s="16">
-        <v>33.646677471637</v>
+        <v>34.516640253565</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D28" s="15">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E28" s="16">
-        <v>-13.888888888888</v>
+        <v>-62.5</v>
       </c>
       <c r="F28" s="15">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="G28" s="15">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H28" s="16">
-        <v>-13.698630136986</v>
+        <v>-31.690140845070</v>
       </c>
       <c r="I28" s="15">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="J28" s="15">
-        <v>1521</v>
+        <v>1553</v>
       </c>
       <c r="K28" s="16">
-        <v>-12.491781722551</v>
+        <v>-13.522215067611</v>
       </c>
       <c r="L28" s="16">
-        <v>-11.502659574468</v>
+        <v>-13.799743260590</v>
       </c>
       <c r="M28" s="16">
-        <v>-8.270158511371</v>
+        <v>-8.825526137135</v>
       </c>
       <c r="N28" s="16">
-        <v>-72.380161859306</v>
+        <v>-72.830265021242</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D29" s="15">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16">
-        <v>-3.125</v>
+        <v>-60.714285714285</v>
       </c>
       <c r="F29" s="15">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="G29" s="15">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H29" s="16">
-        <v>-15.447154471544</v>
+        <v>-33.057851239669</v>
       </c>
       <c r="I29" s="15">
-        <v>1094</v>
+        <v>1105</v>
       </c>
       <c r="J29" s="15">
-        <v>1266</v>
+        <v>1294</v>
       </c>
       <c r="K29" s="16">
-        <v>-13.586097946287</v>
+        <v>-14.605873261205</v>
       </c>
       <c r="L29" s="16">
-        <v>-10.620915032679</v>
+        <v>-12.648221343873</v>
       </c>
       <c r="M29" s="16">
-        <v>-9.060681629260</v>
+        <v>-9.426229508196</v>
       </c>
       <c r="N29" s="16">
-        <v>-74.670062514470</v>
+        <v>-75.056433408577</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D30" s="15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E30" s="16">
-        <v>-75</v>
+        <v>-36.363636363636</v>
       </c>
       <c r="F30" s="15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G30" s="15">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H30" s="16">
-        <v>-29.411764705882</v>
+        <v>0</v>
       </c>
       <c r="I30" s="15">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="J30" s="15">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="K30" s="16">
-        <v>12.064965197215</v>
+        <v>14.705882352941</v>
       </c>
       <c r="L30" s="16">
-        <v>117.567567567568</v>
+        <v>122.368421052632</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">42</t>
+      <t xml:space="preserve">43</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/17/2022</t>
+      <t xml:space="preserve">10/24/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/23/2022</t>
+      <t xml:space="preserve">10/30/2022</t>
     </r>
   </si>
   <si>
@@ -664,7 +664,7 @@
     <col min="3" max="3" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.699091" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.964413" bestFit="1" customWidth="1"/>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="F14" s="15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" s="15">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H14" s="16">
-        <v>-41.860465116279</v>
+        <v>-25.714285714285</v>
       </c>
       <c r="I14" s="15">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="J14" s="15">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K14" s="16">
-        <v>-14.250614250614</v>
+        <v>-13.801452784503</v>
       </c>
       <c r="L14" s="16">
-        <v>-11.868686868686</v>
+        <v>-12.315270935960</v>
       </c>
       <c r="M14" s="16">
-        <v>-21.396396396396</v>
+        <v>-21.929824561403</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.309509011808</v>
+        <v>-78.266178266178</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
+        <v>29</v>
+      </c>
+      <c r="D15" s="15">
         <v>30</v>
       </c>
-      <c r="D15" s="15">
-        <v>26</v>
-      </c>
       <c r="E15" s="16">
-        <v>15.384615384615</v>
+        <v>-3.333333333333</v>
       </c>
       <c r="F15" s="15">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G15" s="15">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="16">
-        <v>12.5</v>
+        <v>17.117117117117</v>
       </c>
       <c r="I15" s="15">
-        <v>1353</v>
+        <v>1384</v>
       </c>
       <c r="J15" s="15">
-        <v>1218</v>
+        <v>1248</v>
       </c>
       <c r="K15" s="16">
-        <v>11.083743842364</v>
+        <v>10.897435897435</v>
       </c>
       <c r="L15" s="16">
-        <v>14.953271028037</v>
+        <v>14.003294892916</v>
       </c>
       <c r="M15" s="16">
-        <v>24.242424242424</v>
+        <v>22.803904170363</v>
       </c>
       <c r="N15" s="16">
-        <v>-49.306856500562</v>
+        <v>-49.452154857560</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>295</v>
+        <v>363</v>
       </c>
       <c r="D16" s="15">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="E16" s="16">
-        <v>-1.006711409395</v>
+        <v>5.217391304347</v>
       </c>
       <c r="F16" s="15">
-        <v>1326</v>
+        <v>1348</v>
       </c>
       <c r="G16" s="15">
-        <v>1300</v>
+        <v>1321</v>
       </c>
       <c r="H16" s="16">
-        <v>2</v>
+        <v>2.043906131718</v>
       </c>
       <c r="I16" s="15">
-        <v>14176</v>
+        <v>14540</v>
       </c>
       <c r="J16" s="15">
-        <v>10634</v>
+        <v>10979</v>
       </c>
       <c r="K16" s="16">
-        <v>33.308256535640</v>
+        <v>32.434647964295</v>
       </c>
       <c r="L16" s="16">
-        <v>34.714435047039</v>
+        <v>34.779384501297</v>
       </c>
       <c r="M16" s="16">
-        <v>-8.789087633509</v>
+        <v>-9.283753431494</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.442261119248</v>
+        <v>-79.468206786506</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="D17" s="15">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="E17" s="16">
-        <v>-9.054325955734</v>
+        <v>5.664488017429</v>
       </c>
       <c r="F17" s="15">
-        <v>1835</v>
+        <v>1902</v>
       </c>
       <c r="G17" s="15">
-        <v>2037</v>
+        <v>1995</v>
       </c>
       <c r="H17" s="16">
-        <v>-9.916543937162</v>
+        <v>-4.661654135338</v>
       </c>
       <c r="I17" s="15">
-        <v>21282</v>
+        <v>21767</v>
       </c>
       <c r="J17" s="15">
-        <v>18644</v>
+        <v>19103</v>
       </c>
       <c r="K17" s="16">
-        <v>14.149324179360</v>
+        <v>13.945453593676</v>
       </c>
       <c r="L17" s="16">
-        <v>25.114638447971</v>
+        <v>24.753553415864</v>
       </c>
       <c r="M17" s="16">
-        <v>51.570400968592</v>
+        <v>51.559671354964</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.879097463440</v>
+        <v>-37.934475777708</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D18" s="15">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="E18" s="16">
-        <v>3.780068728522</v>
+        <v>4.248366013071</v>
       </c>
       <c r="F18" s="15">
-        <v>1265</v>
+        <v>1275</v>
       </c>
       <c r="G18" s="15">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="H18" s="16">
-        <v>9.240069084628</v>
+        <v>9.160958904109</v>
       </c>
       <c r="I18" s="15">
-        <v>12805</v>
+        <v>13122</v>
       </c>
       <c r="J18" s="15">
-        <v>9855</v>
+        <v>10161</v>
       </c>
       <c r="K18" s="16">
-        <v>29.934043632673</v>
+        <v>29.140832595217</v>
       </c>
       <c r="L18" s="16">
-        <v>2.317219336795</v>
+        <v>2.371664846309</v>
       </c>
       <c r="M18" s="16">
-        <v>-15.193059142989</v>
+        <v>-15.292750629397</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.284872732628</v>
+        <v>-84.300447464765</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>1114</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="15">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="E19" s="16">
-        <v>14.845360824742</v>
+        <v>5.783385909568</v>
       </c>
       <c r="F19" s="15">
-        <v>4316</v>
+        <v>4162</v>
       </c>
       <c r="G19" s="15">
-        <v>3779</v>
+        <v>3817</v>
       </c>
       <c r="H19" s="16">
-        <v>14.210108494310</v>
+        <v>9.038511920356</v>
       </c>
       <c r="I19" s="15">
-        <v>41956</v>
+        <v>42871</v>
       </c>
       <c r="J19" s="15">
-        <v>29998</v>
+        <v>30950</v>
       </c>
       <c r="K19" s="16">
-        <v>39.862657510500</v>
+        <v>38.516962843295</v>
       </c>
       <c r="L19" s="16">
-        <v>45.756470383880</v>
+        <v>44.956889264581</v>
       </c>
       <c r="M19" s="16">
-        <v>38.258749093785</v>
+        <v>37.283847828871</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.786736319407</v>
+        <v>-39.901871451601</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D20" s="15">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E20" s="16">
-        <v>16.949152542372</v>
+        <v>22.466960352422</v>
       </c>
       <c r="F20" s="15">
-        <v>1116</v>
+        <v>1138</v>
       </c>
       <c r="G20" s="15">
-        <v>969</v>
+        <v>943</v>
       </c>
       <c r="H20" s="16">
-        <v>15.170278637770</v>
+        <v>20.67868504772</v>
       </c>
       <c r="I20" s="15">
-        <v>10993</v>
+        <v>11247</v>
       </c>
       <c r="J20" s="15">
-        <v>8136</v>
+        <v>8363</v>
       </c>
       <c r="K20" s="16">
-        <v>35.115535889872</v>
+        <v>34.485232572043</v>
       </c>
       <c r="L20" s="16">
-        <v>54.678485999718</v>
+        <v>53.963039014373</v>
       </c>
       <c r="M20" s="16">
-        <v>30.110072197893</v>
+        <v>29.932994454713</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.868989946920</v>
+        <v>-87.906581649659</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2476</v>
+        <v>2485</v>
       </c>
       <c r="D21" s="18">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="E21" s="19">
-        <v>6.494623655913</v>
+        <v>6.927710843373</v>
       </c>
       <c r="F21" s="18">
-        <v>10009</v>
+        <v>9981</v>
       </c>
       <c r="G21" s="18">
-        <v>9398</v>
+        <v>9390</v>
       </c>
       <c r="H21" s="19">
-        <v>6.501383273036</v>
+        <v>6.293929712460</v>
       </c>
       <c r="I21" s="18">
-        <v>102914</v>
+        <v>105287</v>
       </c>
       <c r="J21" s="18">
-        <v>78892</v>
+        <v>81217</v>
       </c>
       <c r="K21" s="19">
-        <v>30.449221720833</v>
+        <v>29.636652424984</v>
       </c>
       <c r="L21" s="19">
-        <v>32.769986969927</v>
+        <v>32.346582195741</v>
       </c>
       <c r="M21" s="19">
-        <v>21.061051640983</v>
+        <v>20.537390667216</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.534880924431</v>
+        <v>-70.605167205498</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="15">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E22" s="16">
-        <v>44.117647058823</v>
+        <v>14.634146341463</v>
       </c>
       <c r="F22" s="15">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G22" s="15">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H22" s="16">
-        <v>28.476821192053</v>
+        <v>34.507042253521</v>
       </c>
       <c r="I22" s="15">
-        <v>1865</v>
+        <v>1910</v>
       </c>
       <c r="J22" s="15">
-        <v>1316</v>
+        <v>1357</v>
       </c>
       <c r="K22" s="16">
-        <v>41.717325227963</v>
+        <v>40.751658069270</v>
       </c>
       <c r="L22" s="16">
-        <v>25.589225589225</v>
+        <v>25.492772667542</v>
       </c>
       <c r="M22" s="16">
-        <v>8.367228355607</v>
+        <v>8.092812676853</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D23" s="15">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E23" s="16">
-        <v>-16.814159292035</v>
+        <v>-8.196721311475</v>
       </c>
       <c r="F23" s="15">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="G23" s="15">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H23" s="16">
-        <v>-14.989293361884</v>
+        <v>-10.173160173160</v>
       </c>
       <c r="I23" s="15">
-        <v>4850</v>
+        <v>4955</v>
       </c>
       <c r="J23" s="15">
-        <v>4436</v>
+        <v>4558</v>
       </c>
       <c r="K23" s="16">
-        <v>9.332732191163</v>
+        <v>8.709960508995</v>
       </c>
       <c r="L23" s="16">
-        <v>16.362763915547</v>
+        <v>15.689936960074</v>
       </c>
       <c r="M23" s="16">
-        <v>41.729982466393</v>
+        <v>41.127883793790</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2284</v>
+        <v>2209</v>
       </c>
       <c r="D24" s="15">
-        <v>2095</v>
+        <v>1880</v>
       </c>
       <c r="E24" s="16">
-        <v>9.021479713603</v>
+        <v>17.5</v>
       </c>
       <c r="F24" s="15">
-        <v>9150</v>
+        <v>8978</v>
       </c>
       <c r="G24" s="15">
-        <v>8013</v>
+        <v>7931</v>
       </c>
       <c r="H24" s="16">
-        <v>14.189442156495</v>
+        <v>13.201361745051</v>
       </c>
       <c r="I24" s="15">
-        <v>93771</v>
+        <v>96035</v>
       </c>
       <c r="J24" s="15">
-        <v>67370</v>
+        <v>69250</v>
       </c>
       <c r="K24" s="16">
-        <v>39.188065904705</v>
+        <v>38.678700361010</v>
       </c>
       <c r="L24" s="16">
-        <v>42.810800932060</v>
+        <v>42.491505556627</v>
       </c>
       <c r="M24" s="16">
-        <v>41.053565787692</v>
+        <v>40.834433201349</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D25" s="15">
-        <v>820</v>
+        <v>719</v>
       </c>
       <c r="E25" s="16">
-        <v>-2.926829268292</v>
+        <v>10.292072322670</v>
       </c>
       <c r="F25" s="15">
-        <v>3057</v>
+        <v>3103</v>
       </c>
       <c r="G25" s="15">
-        <v>3298</v>
+        <v>3157</v>
       </c>
       <c r="H25" s="16">
-        <v>-7.307459066100</v>
+        <v>-1.710484637313</v>
       </c>
       <c r="I25" s="15">
-        <v>33728</v>
+        <v>34562</v>
       </c>
       <c r="J25" s="15">
-        <v>29075</v>
+        <v>29794</v>
       </c>
       <c r="K25" s="16">
-        <v>16.003439380911</v>
+        <v>16.003222125260</v>
       </c>
       <c r="L25" s="16">
-        <v>23.279359625717</v>
+        <v>23.758370036165</v>
       </c>
       <c r="M25" s="16">
-        <v>-10.909186961804</v>
+        <v>-10.927271790113</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D26" s="15">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E26" s="16">
-        <v>19.047619047619</v>
+        <v>-20.754716981132</v>
       </c>
       <c r="F26" s="15">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G26" s="15">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H26" s="16">
-        <v>13.483146067415</v>
+        <v>15</v>
       </c>
       <c r="I26" s="15">
-        <v>2165</v>
+        <v>2208</v>
       </c>
       <c r="J26" s="15">
-        <v>1986</v>
+        <v>2039</v>
       </c>
       <c r="K26" s="16">
-        <v>9.013091641490</v>
+        <v>8.288376655223</v>
       </c>
       <c r="L26" s="16">
-        <v>16.963803349540</v>
+        <v>15.723270440251</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D27" s="15">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E27" s="16">
-        <v>11.538461538461</v>
+        <v>34</v>
       </c>
       <c r="F27" s="15">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="G27" s="15">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H27" s="16">
-        <v>-2.901785714285</v>
+        <v>8.314606741573</v>
       </c>
       <c r="I27" s="15">
-        <v>4244</v>
+        <v>4373</v>
       </c>
       <c r="J27" s="15">
-        <v>3972</v>
+        <v>4072</v>
       </c>
       <c r="K27" s="16">
-        <v>6.847935548841</v>
+        <v>7.391944990176</v>
       </c>
       <c r="L27" s="16">
-        <v>34.516640253565</v>
+        <v>35.470879801734</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D28" s="15">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16">
-        <v>-62.5</v>
+        <v>13.043478260869</v>
       </c>
       <c r="F28" s="15">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G28" s="15">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H28" s="16">
-        <v>-31.690140845070</v>
+        <v>-28.333333333333</v>
       </c>
       <c r="I28" s="15">
-        <v>1343</v>
+        <v>1368</v>
       </c>
       <c r="J28" s="15">
-        <v>1553</v>
+        <v>1576</v>
       </c>
       <c r="K28" s="16">
-        <v>-13.522215067611</v>
+        <v>-13.197969543147</v>
       </c>
       <c r="L28" s="16">
-        <v>-13.799743260590</v>
+        <v>-13.853904282115</v>
       </c>
       <c r="M28" s="16">
-        <v>-8.825526137135</v>
+        <v>-9.762532981530</v>
       </c>
       <c r="N28" s="16">
-        <v>-72.830265021242</v>
+        <v>-73.001776198934</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D29" s="15">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16">
-        <v>-60.714285714285</v>
+        <v>5</v>
       </c>
       <c r="F29" s="15">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G29" s="15">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="H29" s="16">
-        <v>-33.057851239669</v>
+        <v>-26.415094339622</v>
       </c>
       <c r="I29" s="15">
-        <v>1105</v>
+        <v>1125</v>
       </c>
       <c r="J29" s="15">
-        <v>1294</v>
+        <v>1314</v>
       </c>
       <c r="K29" s="16">
-        <v>-14.605873261205</v>
+        <v>-14.383561643835</v>
       </c>
       <c r="L29" s="16">
-        <v>-12.648221343873</v>
+        <v>-12.858249419055</v>
       </c>
       <c r="M29" s="16">
-        <v>-9.426229508196</v>
+        <v>-10</v>
       </c>
       <c r="N29" s="16">
-        <v>-75.056433408577</v>
+        <v>-75.236627779000</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D30" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" s="16">
-        <v>-36.363636363636</v>
+        <v>-88.888888888888</v>
       </c>
       <c r="F30" s="15">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G30" s="15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H30" s="16">
-        <v>0</v>
+        <v>-48.571428571428</v>
       </c>
       <c r="I30" s="15">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J30" s="15">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="K30" s="16">
-        <v>14.705882352941</v>
+        <v>12.638580931263</v>
       </c>
       <c r="L30" s="16">
-        <v>122.368421052632</v>
+        <v>118.965517241379</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">43</t>
+      <t xml:space="preserve">44</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/24/2022</t>
+      <t xml:space="preserve">10/31/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/30/2022</t>
+      <t xml:space="preserve">11/6/2022</t>
     </r>
   </si>
   <si>
@@ -664,7 +664,7 @@
     <col min="3" max="3" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.433768" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.699091" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.964413" bestFit="1" customWidth="1"/>
@@ -826,37 +826,37 @@
         <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E14" s="16">
-        <v>-16.666666666666</v>
+        <v>-54.545454545454</v>
       </c>
       <c r="F14" s="15">
         <v>26</v>
       </c>
       <c r="G14" s="15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="16">
-        <v>-25.714285714285</v>
+        <v>-23.529411764705</v>
       </c>
       <c r="I14" s="15">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="J14" s="15">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="K14" s="16">
-        <v>-13.801452784503</v>
+        <v>-14.386792452830</v>
       </c>
       <c r="L14" s="16">
-        <v>-12.315270935960</v>
+        <v>-12.530120481927</v>
       </c>
       <c r="M14" s="16">
-        <v>-21.929824561403</v>
+        <v>-21.428571428571</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.266178266178</v>
+        <v>-78.289473684210</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
+        <v>33</v>
+      </c>
+      <c r="D15" s="15">
         <v>29</v>
       </c>
-      <c r="D15" s="15">
-        <v>30</v>
-      </c>
       <c r="E15" s="16">
-        <v>-3.333333333333</v>
+        <v>13.793103448275</v>
       </c>
       <c r="F15" s="15">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G15" s="15">
         <v>111</v>
       </c>
       <c r="H15" s="16">
-        <v>17.117117117117</v>
+        <v>18.018018018018</v>
       </c>
       <c r="I15" s="15">
-        <v>1384</v>
+        <v>1416</v>
       </c>
       <c r="J15" s="15">
-        <v>1248</v>
+        <v>1277</v>
       </c>
       <c r="K15" s="16">
-        <v>10.897435897435</v>
+        <v>10.884886452623</v>
       </c>
       <c r="L15" s="16">
-        <v>14.003294892916</v>
+        <v>14.378029079159</v>
       </c>
       <c r="M15" s="16">
-        <v>22.803904170363</v>
+        <v>22.068965517241</v>
       </c>
       <c r="N15" s="16">
-        <v>-49.452154857560</v>
+        <v>-49.536707056307</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D16" s="15">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E16" s="16">
-        <v>5.217391304347</v>
+        <v>0.284900284900</v>
       </c>
       <c r="F16" s="15">
+        <v>1361</v>
+      </c>
+      <c r="G16" s="15">
         <v>1348</v>
       </c>
-      <c r="G16" s="15">
-        <v>1321</v>
-      </c>
       <c r="H16" s="16">
-        <v>2.043906131718</v>
+        <v>0.964391691394</v>
       </c>
       <c r="I16" s="15">
-        <v>14540</v>
+        <v>14898</v>
       </c>
       <c r="J16" s="15">
-        <v>10979</v>
+        <v>11330</v>
       </c>
       <c r="K16" s="16">
-        <v>32.434647964295</v>
+        <v>31.491615180935</v>
       </c>
       <c r="L16" s="16">
-        <v>34.779384501297</v>
+        <v>34.373590691801</v>
       </c>
       <c r="M16" s="16">
-        <v>-9.283753431494</v>
+        <v>-9.296803652968</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.468206786506</v>
+        <v>-79.508129074853</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="D17" s="15">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="E17" s="16">
-        <v>5.664488017429</v>
+        <v>6.097560975609</v>
       </c>
       <c r="F17" s="15">
-        <v>1902</v>
+        <v>2009</v>
       </c>
       <c r="G17" s="15">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="H17" s="16">
-        <v>-4.661654135338</v>
+        <v>1.618614061709</v>
       </c>
       <c r="I17" s="15">
-        <v>21767</v>
+        <v>22319</v>
       </c>
       <c r="J17" s="15">
-        <v>19103</v>
+        <v>19595</v>
       </c>
       <c r="K17" s="16">
-        <v>13.945453593676</v>
+        <v>13.901505486093</v>
       </c>
       <c r="L17" s="16">
-        <v>24.753553415864</v>
+        <v>25.029410117080</v>
       </c>
       <c r="M17" s="16">
-        <v>51.559671354964</v>
+        <v>52.223434729232</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.934475777708</v>
+        <v>-37.623319638914</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="D18" s="15">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="E18" s="16">
-        <v>4.248366013071</v>
+        <v>-4.744525547445</v>
       </c>
       <c r="F18" s="15">
-        <v>1275</v>
+        <v>1207</v>
       </c>
       <c r="G18" s="15">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="H18" s="16">
-        <v>9.160958904109</v>
+        <v>2.028740490278</v>
       </c>
       <c r="I18" s="15">
-        <v>13122</v>
+        <v>13397</v>
       </c>
       <c r="J18" s="15">
-        <v>10161</v>
+        <v>10435</v>
       </c>
       <c r="K18" s="16">
-        <v>29.140832595217</v>
+        <v>28.385241974125</v>
       </c>
       <c r="L18" s="16">
-        <v>2.371664846309</v>
+        <v>2.150209683568</v>
       </c>
       <c r="M18" s="16">
-        <v>-15.292750629397</v>
+        <v>-15.492335835488</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.300447464765</v>
+        <v>-84.325861100711</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>1006</v>
+        <v>1128</v>
       </c>
       <c r="D19" s="15">
-        <v>951</v>
+        <v>991</v>
       </c>
       <c r="E19" s="16">
-        <v>5.783385909568</v>
+        <v>13.824419778002</v>
       </c>
       <c r="F19" s="15">
-        <v>4162</v>
+        <v>4300</v>
       </c>
       <c r="G19" s="15">
-        <v>3817</v>
+        <v>3830</v>
       </c>
       <c r="H19" s="16">
-        <v>9.038511920356</v>
+        <v>12.271540469973</v>
       </c>
       <c r="I19" s="15">
-        <v>42871</v>
+        <v>44020</v>
       </c>
       <c r="J19" s="15">
-        <v>30950</v>
+        <v>31941</v>
       </c>
       <c r="K19" s="16">
-        <v>38.516962843295</v>
+        <v>37.816599355060</v>
       </c>
       <c r="L19" s="16">
-        <v>44.956889264581</v>
+        <v>45.318896078172</v>
       </c>
       <c r="M19" s="16">
-        <v>37.283847828871</v>
+        <v>37.485164594915</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.901871451601</v>
+        <v>-39.667224034428</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D20" s="15">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E20" s="16">
-        <v>22.466960352422</v>
+        <v>24.444444444444</v>
       </c>
       <c r="F20" s="15">
-        <v>1138</v>
+        <v>1151</v>
       </c>
       <c r="G20" s="15">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="H20" s="16">
-        <v>20.67868504772</v>
+        <v>23.896663078579</v>
       </c>
       <c r="I20" s="15">
-        <v>11247</v>
+        <v>11524</v>
       </c>
       <c r="J20" s="15">
-        <v>8363</v>
+        <v>8589</v>
       </c>
       <c r="K20" s="16">
-        <v>34.485232572043</v>
+        <v>34.171614856211</v>
       </c>
       <c r="L20" s="16">
-        <v>53.963039014373</v>
+        <v>52.736911862160</v>
       </c>
       <c r="M20" s="16">
-        <v>29.932994454713</v>
+        <v>30.317765464209</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.906581649659</v>
+        <v>-87.907152451309</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2485</v>
+        <v>2581</v>
       </c>
       <c r="D21" s="18">
-        <v>2324</v>
+        <v>2373</v>
       </c>
       <c r="E21" s="19">
-        <v>6.927710843373</v>
+        <v>8.765276021913</v>
       </c>
       <c r="F21" s="18">
-        <v>9981</v>
+        <v>10185</v>
       </c>
       <c r="G21" s="18">
-        <v>9390</v>
+        <v>9412</v>
       </c>
       <c r="H21" s="19">
-        <v>6.293929712460</v>
+        <v>8.212919677008</v>
       </c>
       <c r="I21" s="18">
-        <v>105287</v>
+        <v>107937</v>
       </c>
       <c r="J21" s="18">
-        <v>81217</v>
+        <v>83591</v>
       </c>
       <c r="K21" s="19">
-        <v>29.636652424984</v>
+        <v>29.125145051500</v>
       </c>
       <c r="L21" s="19">
-        <v>32.346582195741</v>
+        <v>32.368198373864</v>
       </c>
       <c r="M21" s="19">
-        <v>20.537390667216</v>
+        <v>20.703845766749</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.605167205498</v>
+        <v>-70.564589804494</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D22" s="15">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E22" s="16">
-        <v>14.634146341463</v>
+        <v>28.301886792452</v>
       </c>
       <c r="F22" s="15">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G22" s="15">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="H22" s="16">
-        <v>34.507042253521</v>
+        <v>32.5</v>
       </c>
       <c r="I22" s="15">
-        <v>1910</v>
+        <v>1977</v>
       </c>
       <c r="J22" s="15">
-        <v>1357</v>
+        <v>1410</v>
       </c>
       <c r="K22" s="16">
-        <v>40.751658069270</v>
+        <v>40.212765957446</v>
       </c>
       <c r="L22" s="16">
-        <v>25.492772667542</v>
+        <v>27.795733678086</v>
       </c>
       <c r="M22" s="16">
-        <v>8.092812676853</v>
+        <v>9.105960264900</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D23" s="15">
         <v>122</v>
       </c>
       <c r="E23" s="16">
-        <v>-8.196721311475</v>
+        <v>-4.098360655737</v>
       </c>
       <c r="F23" s="15">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="G23" s="15">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="H23" s="16">
-        <v>-10.173160173160</v>
+        <v>-6.553911205074</v>
       </c>
       <c r="I23" s="15">
-        <v>4955</v>
+        <v>5077</v>
       </c>
       <c r="J23" s="15">
-        <v>4558</v>
+        <v>4680</v>
       </c>
       <c r="K23" s="16">
-        <v>8.709960508995</v>
+        <v>8.482905982905</v>
       </c>
       <c r="L23" s="16">
-        <v>15.689936960074</v>
+        <v>15.49135577798</v>
       </c>
       <c r="M23" s="16">
-        <v>41.127883793790</v>
+        <v>41.736460078168</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2209</v>
+        <v>2221</v>
       </c>
       <c r="D24" s="15">
-        <v>1880</v>
+        <v>1959</v>
       </c>
       <c r="E24" s="16">
-        <v>17.5</v>
+        <v>13.374170495150</v>
       </c>
       <c r="F24" s="15">
-        <v>8978</v>
+        <v>9068</v>
       </c>
       <c r="G24" s="15">
-        <v>7931</v>
+        <v>7954</v>
       </c>
       <c r="H24" s="16">
-        <v>13.201361745051</v>
+        <v>14.005531807895</v>
       </c>
       <c r="I24" s="15">
-        <v>96035</v>
+        <v>98307</v>
       </c>
       <c r="J24" s="15">
-        <v>69250</v>
+        <v>71209</v>
       </c>
       <c r="K24" s="16">
-        <v>38.678700361010</v>
+        <v>38.054178544846</v>
       </c>
       <c r="L24" s="16">
-        <v>42.491505556627</v>
+        <v>42.490433673469</v>
       </c>
       <c r="M24" s="16">
-        <v>40.834433201349</v>
+        <v>40.988426291106</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>793</v>
+        <v>843</v>
       </c>
       <c r="D25" s="15">
-        <v>719</v>
+        <v>782</v>
       </c>
       <c r="E25" s="16">
-        <v>10.292072322670</v>
+        <v>7.800511508951</v>
       </c>
       <c r="F25" s="15">
-        <v>3103</v>
+        <v>3278</v>
       </c>
       <c r="G25" s="15">
-        <v>3157</v>
+        <v>3115</v>
       </c>
       <c r="H25" s="16">
-        <v>-1.710484637313</v>
+        <v>5.232744783306</v>
       </c>
       <c r="I25" s="15">
-        <v>34562</v>
+        <v>35438</v>
       </c>
       <c r="J25" s="15">
-        <v>29794</v>
+        <v>30575</v>
       </c>
       <c r="K25" s="16">
-        <v>16.003222125260</v>
+        <v>15.905151267375</v>
       </c>
       <c r="L25" s="16">
-        <v>23.758370036165</v>
+        <v>23.857122885502</v>
       </c>
       <c r="M25" s="16">
-        <v>-10.927271790113</v>
+        <v>-10.600403632694</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D26" s="15">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E26" s="16">
-        <v>-20.754716981132</v>
+        <v>-17.857142857142</v>
       </c>
       <c r="F26" s="15">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G26" s="15">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H26" s="16">
-        <v>15</v>
+        <v>6.382978723404</v>
       </c>
       <c r="I26" s="15">
-        <v>2208</v>
+        <v>2254</v>
       </c>
       <c r="J26" s="15">
-        <v>2039</v>
+        <v>2095</v>
       </c>
       <c r="K26" s="16">
-        <v>8.288376655223</v>
+        <v>7.589498806682</v>
       </c>
       <c r="L26" s="16">
-        <v>15.723270440251</v>
+        <v>16.245487364620</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D27" s="15">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E27" s="16">
-        <v>34</v>
+        <v>7.142857142857</v>
       </c>
       <c r="F27" s="15">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G27" s="15">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="H27" s="16">
-        <v>8.314606741573</v>
+        <v>18.072289156626</v>
       </c>
       <c r="I27" s="15">
-        <v>4373</v>
+        <v>4480</v>
       </c>
       <c r="J27" s="15">
-        <v>4072</v>
+        <v>4170</v>
       </c>
       <c r="K27" s="16">
-        <v>7.391944990176</v>
+        <v>7.434052757793</v>
       </c>
       <c r="L27" s="16">
-        <v>35.470879801734</v>
+        <v>35.798726886935</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="15">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E28" s="16">
-        <v>13.043478260869</v>
+        <v>-29.411764705882</v>
       </c>
       <c r="F28" s="15">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G28" s="15">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H28" s="16">
-        <v>-28.333333333333</v>
+        <v>-26.4</v>
       </c>
       <c r="I28" s="15">
-        <v>1368</v>
+        <v>1391</v>
       </c>
       <c r="J28" s="15">
-        <v>1576</v>
+        <v>1610</v>
       </c>
       <c r="K28" s="16">
-        <v>-13.197969543147</v>
+        <v>-13.602484472049</v>
       </c>
       <c r="L28" s="16">
-        <v>-13.853904282115</v>
+        <v>-14.505224339274</v>
       </c>
       <c r="M28" s="16">
-        <v>-9.762532981530</v>
+        <v>-9.909326424870</v>
       </c>
       <c r="N28" s="16">
-        <v>-73.001776198934</v>
+        <v>-73.073945025164</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1441,37 +1441,37 @@
         <v>21</v>
       </c>
       <c r="D29" s="15">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16">
-        <v>5</v>
+        <v>-25</v>
       </c>
       <c r="F29" s="15">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G29" s="15">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H29" s="16">
-        <v>-26.415094339622</v>
+        <v>-23.148148148148</v>
       </c>
       <c r="I29" s="15">
-        <v>1125</v>
+        <v>1145</v>
       </c>
       <c r="J29" s="15">
-        <v>1314</v>
+        <v>1342</v>
       </c>
       <c r="K29" s="16">
-        <v>-14.383561643835</v>
+        <v>-14.679582712369</v>
       </c>
       <c r="L29" s="16">
-        <v>-12.858249419055</v>
+        <v>-13.519637462235</v>
       </c>
       <c r="M29" s="16">
-        <v>-10</v>
+        <v>-10.054988216810</v>
       </c>
       <c r="N29" s="16">
-        <v>-75.236627779000</v>
+        <v>-75.296655879180</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D30" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30" s="16">
-        <v>-88.888888888888</v>
+        <v>-36.363636363636</v>
       </c>
       <c r="F30" s="15">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G30" s="15">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H30" s="16">
-        <v>-48.571428571428</v>
+        <v>-25.641025641025</v>
       </c>
       <c r="I30" s="15">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="J30" s="15">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="K30" s="16">
-        <v>12.638580931263</v>
+        <v>14.069264069264</v>
       </c>
       <c r="L30" s="16">
-        <v>118.965517241379</v>
+        <v>124.255319148936</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">44</t>
+      <t xml:space="preserve">45</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/31/2022</t>
+      <t xml:space="preserve">11/7/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/6/2022</t>
+      <t xml:space="preserve">11/13/2022</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" s="15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E14" s="16">
-        <v>-54.545454545454</v>
+        <v>133.333333333333</v>
       </c>
       <c r="F14" s="15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="15">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H14" s="16">
-        <v>-23.529411764705</v>
+        <v>-7.407407407407</v>
       </c>
       <c r="I14" s="15">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="J14" s="15">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K14" s="16">
-        <v>-14.386792452830</v>
+        <v>-13.114754098360</v>
       </c>
       <c r="L14" s="16">
-        <v>-12.530120481927</v>
+        <v>-11.876484560570</v>
       </c>
       <c r="M14" s="16">
-        <v>-21.428571428571</v>
+        <v>-22.058823529411</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.289473684210</v>
+        <v>-78.253223915592</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D15" s="15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="16">
-        <v>13.793103448275</v>
+        <v>3.703703703703</v>
       </c>
       <c r="F15" s="15">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G15" s="15">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H15" s="16">
-        <v>18.018018018018</v>
+        <v>8.928571428571</v>
       </c>
       <c r="I15" s="15">
-        <v>1416</v>
+        <v>1440</v>
       </c>
       <c r="J15" s="15">
-        <v>1277</v>
+        <v>1305</v>
       </c>
       <c r="K15" s="16">
-        <v>10.884886452623</v>
+        <v>10.344827586206</v>
       </c>
       <c r="L15" s="16">
-        <v>14.378029079159</v>
+        <v>13.029827315541</v>
       </c>
       <c r="M15" s="16">
-        <v>22.068965517241</v>
+        <v>21.724429416737</v>
       </c>
       <c r="N15" s="16">
-        <v>-49.536707056307</v>
+        <v>-49.87817612252</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="D16" s="15">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E16" s="16">
-        <v>0.284900284900</v>
+        <v>8.659217877094</v>
       </c>
       <c r="F16" s="15">
-        <v>1361</v>
+        <v>1430</v>
       </c>
       <c r="G16" s="15">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="H16" s="16">
-        <v>0.964391691394</v>
+        <v>5.769230769230</v>
       </c>
       <c r="I16" s="15">
-        <v>14898</v>
+        <v>15303</v>
       </c>
       <c r="J16" s="15">
-        <v>11330</v>
+        <v>11689</v>
       </c>
       <c r="K16" s="16">
-        <v>31.491615180935</v>
+        <v>30.917957053640</v>
       </c>
       <c r="L16" s="16">
-        <v>34.373590691801</v>
+        <v>34.816315743106</v>
       </c>
       <c r="M16" s="16">
-        <v>-9.296803652968</v>
+        <v>-9.245641086466</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.508129074853</v>
+        <v>-79.460714573323</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>522</v>
+        <v>447</v>
       </c>
       <c r="D17" s="15">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="E17" s="16">
-        <v>6.097560975609</v>
+        <v>-3.455723542116</v>
       </c>
       <c r="F17" s="15">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="G17" s="15">
-        <v>1977</v>
+        <v>1911</v>
       </c>
       <c r="H17" s="16">
-        <v>1.618614061709</v>
+        <v>4.552590266875</v>
       </c>
       <c r="I17" s="15">
-        <v>22319</v>
+        <v>22824</v>
       </c>
       <c r="J17" s="15">
-        <v>19595</v>
+        <v>20063</v>
       </c>
       <c r="K17" s="16">
-        <v>13.901505486093</v>
+        <v>13.761650799980</v>
       </c>
       <c r="L17" s="16">
-        <v>25.029410117080</v>
+        <v>24.809974298682</v>
       </c>
       <c r="M17" s="16">
-        <v>52.223434729232</v>
+        <v>52.302148672094</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.623319638914</v>
+        <v>-37.542073721369</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="D18" s="15">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="E18" s="16">
-        <v>-4.744525547445</v>
+        <v>-3.436426116838</v>
       </c>
       <c r="F18" s="15">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="G18" s="15">
-        <v>1183</v>
+        <v>1162</v>
       </c>
       <c r="H18" s="16">
-        <v>2.028740490278</v>
+        <v>2.065404475043</v>
       </c>
       <c r="I18" s="15">
-        <v>13397</v>
+        <v>13694</v>
       </c>
       <c r="J18" s="15">
-        <v>10435</v>
+        <v>10727</v>
       </c>
       <c r="K18" s="16">
-        <v>28.385241974125</v>
+        <v>27.659177775706</v>
       </c>
       <c r="L18" s="16">
-        <v>2.150209683568</v>
+        <v>1.814126394052</v>
       </c>
       <c r="M18" s="16">
-        <v>-15.492335835488</v>
+        <v>-15.666954058381</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.325861100711</v>
+        <v>-84.339691688394</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>1128</v>
+        <v>911</v>
       </c>
       <c r="D19" s="15">
-        <v>991</v>
+        <v>973</v>
       </c>
       <c r="E19" s="16">
-        <v>13.824419778002</v>
+        <v>-6.372045220966</v>
       </c>
       <c r="F19" s="15">
-        <v>4300</v>
+        <v>4228</v>
       </c>
       <c r="G19" s="15">
-        <v>3830</v>
+        <v>3886</v>
       </c>
       <c r="H19" s="16">
-        <v>12.271540469973</v>
+        <v>8.800823468862</v>
       </c>
       <c r="I19" s="15">
-        <v>44020</v>
+        <v>44966</v>
       </c>
       <c r="J19" s="15">
-        <v>31941</v>
+        <v>32916</v>
       </c>
       <c r="K19" s="16">
-        <v>37.816599355060</v>
+        <v>36.608336371369</v>
       </c>
       <c r="L19" s="16">
-        <v>45.318896078172</v>
+        <v>44.413398850242</v>
       </c>
       <c r="M19" s="16">
-        <v>37.485164594915</v>
+        <v>37.120726984417</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.667224034428</v>
+        <v>-39.724668570126</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D20" s="15">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E20" s="16">
-        <v>24.444444444444</v>
+        <v>17.030567685589</v>
       </c>
       <c r="F20" s="15">
-        <v>1151</v>
+        <v>1107</v>
       </c>
       <c r="G20" s="15">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="H20" s="16">
-        <v>23.896663078579</v>
+        <v>20.719738276990</v>
       </c>
       <c r="I20" s="15">
-        <v>11524</v>
+        <v>11796</v>
       </c>
       <c r="J20" s="15">
-        <v>8589</v>
+        <v>8818</v>
       </c>
       <c r="K20" s="16">
-        <v>34.171614856211</v>
+        <v>33.771830347017</v>
       </c>
       <c r="L20" s="16">
-        <v>52.736911862160</v>
+        <v>51.600051407274</v>
       </c>
       <c r="M20" s="16">
-        <v>30.317765464209</v>
+        <v>30.848585690515</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.907152451309</v>
+        <v>-87.902779202133</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2581</v>
+        <v>2331</v>
       </c>
       <c r="D21" s="18">
-        <v>2373</v>
+        <v>2344</v>
       </c>
       <c r="E21" s="19">
-        <v>8.765276021913</v>
+        <v>-0.554607508532</v>
       </c>
       <c r="F21" s="18">
-        <v>10185</v>
+        <v>10096</v>
       </c>
       <c r="G21" s="18">
-        <v>9412</v>
+        <v>9367</v>
       </c>
       <c r="H21" s="19">
-        <v>8.212919677008</v>
+        <v>7.782641187146</v>
       </c>
       <c r="I21" s="18">
-        <v>107937</v>
+        <v>110394</v>
       </c>
       <c r="J21" s="18">
-        <v>83591</v>
+        <v>85945</v>
       </c>
       <c r="K21" s="19">
-        <v>29.125145051500</v>
+        <v>28.447262784338</v>
       </c>
       <c r="L21" s="19">
-        <v>32.368198373864</v>
+        <v>31.890897360844</v>
       </c>
       <c r="M21" s="19">
-        <v>20.703845766749</v>
+        <v>20.579336559151</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.564589804494</v>
+        <v>-70.575958932041</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D22" s="15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="16">
-        <v>28.301886792452</v>
+        <v>-26.923076923076</v>
       </c>
       <c r="F22" s="15">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G22" s="15">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="H22" s="16">
-        <v>32.5</v>
+        <v>13.333333333333</v>
       </c>
       <c r="I22" s="15">
-        <v>1977</v>
+        <v>2019</v>
       </c>
       <c r="J22" s="15">
-        <v>1410</v>
+        <v>1462</v>
       </c>
       <c r="K22" s="16">
-        <v>40.212765957446</v>
+        <v>38.098495212038</v>
       </c>
       <c r="L22" s="16">
-        <v>27.795733678086</v>
+        <v>28.762755102040</v>
       </c>
       <c r="M22" s="16">
-        <v>9.105960264900</v>
+        <v>8.958445763626</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D23" s="15">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E23" s="16">
-        <v>-4.098360655737</v>
+        <v>6.521739130434</v>
       </c>
       <c r="F23" s="15">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G23" s="15">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="H23" s="16">
-        <v>-6.553911205074</v>
+        <v>-2.449888641425</v>
       </c>
       <c r="I23" s="15">
-        <v>5077</v>
+        <v>5179</v>
       </c>
       <c r="J23" s="15">
-        <v>4680</v>
+        <v>4774</v>
       </c>
       <c r="K23" s="16">
-        <v>8.482905982905</v>
+        <v>8.483452031839</v>
       </c>
       <c r="L23" s="16">
-        <v>15.49135577798</v>
+        <v>15.037760995113</v>
       </c>
       <c r="M23" s="16">
-        <v>41.736460078168</v>
+        <v>41.271140207310</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2221</v>
+        <v>2099</v>
       </c>
       <c r="D24" s="15">
-        <v>1959</v>
+        <v>2061</v>
       </c>
       <c r="E24" s="16">
-        <v>13.374170495150</v>
+        <v>1.843765162542</v>
       </c>
       <c r="F24" s="15">
-        <v>9068</v>
+        <v>8943</v>
       </c>
       <c r="G24" s="15">
-        <v>7954</v>
+        <v>7994</v>
       </c>
       <c r="H24" s="16">
-        <v>14.005531807895</v>
+        <v>11.871403552664</v>
       </c>
       <c r="I24" s="15">
-        <v>98307</v>
+        <v>100447</v>
       </c>
       <c r="J24" s="15">
-        <v>71209</v>
+        <v>73271</v>
       </c>
       <c r="K24" s="16">
-        <v>38.054178544846</v>
+        <v>37.089708070041</v>
       </c>
       <c r="L24" s="16">
-        <v>42.490433673469</v>
+        <v>42.179537991167</v>
       </c>
       <c r="M24" s="16">
-        <v>40.988426291106</v>
+        <v>40.889262921663</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>843</v>
+        <v>795</v>
       </c>
       <c r="D25" s="15">
-        <v>782</v>
+        <v>812</v>
       </c>
       <c r="E25" s="16">
-        <v>7.800511508951</v>
+        <v>-2.093596059113</v>
       </c>
       <c r="F25" s="15">
-        <v>3278</v>
+        <v>3330</v>
       </c>
       <c r="G25" s="15">
-        <v>3115</v>
+        <v>3133</v>
       </c>
       <c r="H25" s="16">
-        <v>5.232744783306</v>
+        <v>6.287902968400</v>
       </c>
       <c r="I25" s="15">
-        <v>35438</v>
+        <v>36255</v>
       </c>
       <c r="J25" s="15">
-        <v>30575</v>
+        <v>31387</v>
       </c>
       <c r="K25" s="16">
-        <v>15.905151267375</v>
+        <v>15.509605887787</v>
       </c>
       <c r="L25" s="16">
-        <v>23.857122885502</v>
+        <v>23.978387990288</v>
       </c>
       <c r="M25" s="16">
-        <v>-10.600403632694</v>
+        <v>-10.346447736096</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="15">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E26" s="16">
-        <v>-17.857142857142</v>
+        <v>-4.255319148936</v>
       </c>
       <c r="F26" s="15">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G26" s="15">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H26" s="16">
-        <v>6.382978723404</v>
+        <v>-3.535353535353</v>
       </c>
       <c r="I26" s="15">
-        <v>2254</v>
+        <v>2302</v>
       </c>
       <c r="J26" s="15">
-        <v>2095</v>
+        <v>2143</v>
       </c>
       <c r="K26" s="16">
-        <v>7.589498806682</v>
+        <v>7.419505366308</v>
       </c>
       <c r="L26" s="16">
-        <v>16.245487364620</v>
+        <v>15.157578789394</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D27" s="15">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E27" s="16">
-        <v>7.142857142857</v>
+        <v>-20.535714285714</v>
       </c>
       <c r="F27" s="15">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="G27" s="15">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H27" s="16">
-        <v>18.072289156626</v>
+        <v>8.454106280193</v>
       </c>
       <c r="I27" s="15">
-        <v>4480</v>
+        <v>4565</v>
       </c>
       <c r="J27" s="15">
-        <v>4170</v>
+        <v>4283</v>
       </c>
       <c r="K27" s="16">
-        <v>7.434052757793</v>
+        <v>6.584169974317</v>
       </c>
       <c r="L27" s="16">
-        <v>35.798726886935</v>
+        <v>35.019225081336</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D28" s="15">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E28" s="16">
-        <v>-29.411764705882</v>
+        <v>-26.829268292682</v>
       </c>
       <c r="F28" s="15">
         <v>92</v>
       </c>
       <c r="G28" s="15">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H28" s="16">
-        <v>-26.4</v>
+        <v>-29.230769230769</v>
       </c>
       <c r="I28" s="15">
-        <v>1391</v>
+        <v>1422</v>
       </c>
       <c r="J28" s="15">
-        <v>1610</v>
+        <v>1651</v>
       </c>
       <c r="K28" s="16">
-        <v>-13.602484472049</v>
+        <v>-13.870381586917</v>
       </c>
       <c r="L28" s="16">
-        <v>-14.505224339274</v>
+        <v>-14.182257091128</v>
       </c>
       <c r="M28" s="16">
-        <v>-9.909326424870</v>
+        <v>-9.885931558935</v>
       </c>
       <c r="N28" s="16">
-        <v>-73.073945025164</v>
+        <v>-72.960638904734</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D29" s="15">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E29" s="16">
-        <v>-25</v>
+        <v>-36.111111111111</v>
       </c>
       <c r="F29" s="15">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G29" s="15">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H29" s="16">
-        <v>-23.148148148148</v>
+        <v>-32.142857142857</v>
       </c>
       <c r="I29" s="15">
-        <v>1145</v>
+        <v>1169</v>
       </c>
       <c r="J29" s="15">
-        <v>1342</v>
+        <v>1378</v>
       </c>
       <c r="K29" s="16">
-        <v>-14.679582712369</v>
+        <v>-15.166908563135</v>
       </c>
       <c r="L29" s="16">
-        <v>-13.519637462235</v>
+        <v>-13.343217197924</v>
       </c>
       <c r="M29" s="16">
-        <v>-10.054988216810</v>
+        <v>-10.215053763440</v>
       </c>
       <c r="N29" s="16">
-        <v>-75.296655879180</v>
+        <v>-75.238296970980</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30" s="15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16">
-        <v>-36.363636363636</v>
+        <v>-23.076923076923</v>
       </c>
       <c r="F30" s="15">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G30" s="15">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H30" s="16">
-        <v>-25.641025641025</v>
+        <v>0</v>
       </c>
       <c r="I30" s="15">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="J30" s="15">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="K30" s="16">
-        <v>14.069264069264</v>
+        <v>16</v>
       </c>
       <c r="L30" s="16">
-        <v>124.255319148936</v>
+        <v>131.512605042017</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">45</t>
+      <t xml:space="preserve">46</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/7/2022</t>
+      <t xml:space="preserve">11/14/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/13/2022</t>
+      <t xml:space="preserve">11/20/2022</t>
     </r>
   </si>
   <si>
@@ -664,7 +664,7 @@
     <col min="3" max="3" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.699091" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.964413" bestFit="1" customWidth="1"/>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="16">
-        <v>133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F14" s="15">
         <v>25</v>
       </c>
       <c r="G14" s="15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H14" s="16">
-        <v>-7.407407407407</v>
+        <v>0</v>
       </c>
       <c r="I14" s="15">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="J14" s="15">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K14" s="16">
-        <v>-13.114754098360</v>
+        <v>-12.268518518518</v>
       </c>
       <c r="L14" s="16">
-        <v>-11.876484560570</v>
+        <v>-11.448598130841</v>
       </c>
       <c r="M14" s="16">
-        <v>-22.058823529411</v>
+        <v>-21.369294605809</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.253223915592</v>
+        <v>-78.168202764977</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="15">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E15" s="16">
-        <v>3.703703703703</v>
+        <v>-6.451612903225</v>
       </c>
       <c r="F15" s="15">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G15" s="15">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H15" s="16">
-        <v>8.928571428571</v>
+        <v>0.854700854700</v>
       </c>
       <c r="I15" s="15">
-        <v>1440</v>
+        <v>1471</v>
       </c>
       <c r="J15" s="15">
-        <v>1305</v>
+        <v>1336</v>
       </c>
       <c r="K15" s="16">
-        <v>10.344827586206</v>
+        <v>10.104790419161</v>
       </c>
       <c r="L15" s="16">
-        <v>13.029827315541</v>
+        <v>12.633996937212</v>
       </c>
       <c r="M15" s="16">
-        <v>21.724429416737</v>
+        <v>19.788273615635</v>
       </c>
       <c r="N15" s="16">
-        <v>-49.87817612252</v>
+        <v>-49.846573474258</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="D16" s="15">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E16" s="16">
-        <v>8.659217877094</v>
+        <v>-5.523255813953</v>
       </c>
       <c r="F16" s="15">
-        <v>1430</v>
+        <v>1452</v>
       </c>
       <c r="G16" s="15">
-        <v>1352</v>
+        <v>1398</v>
       </c>
       <c r="H16" s="16">
-        <v>5.769230769230</v>
+        <v>3.862660944206</v>
       </c>
       <c r="I16" s="15">
-        <v>15303</v>
+        <v>15639</v>
       </c>
       <c r="J16" s="15">
-        <v>11689</v>
+        <v>12033</v>
       </c>
       <c r="K16" s="16">
-        <v>30.917957053640</v>
+        <v>29.967589129892</v>
       </c>
       <c r="L16" s="16">
-        <v>34.816315743106</v>
+        <v>34.935289042277</v>
       </c>
       <c r="M16" s="16">
-        <v>-9.245641086466</v>
+        <v>-9.543640465035</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.460714573323</v>
+        <v>-79.480686470032</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="D17" s="15">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="E17" s="16">
-        <v>-3.455723542116</v>
+        <v>-18.181818181818</v>
       </c>
       <c r="F17" s="15">
-        <v>1998</v>
+        <v>1945</v>
       </c>
       <c r="G17" s="15">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H17" s="16">
-        <v>4.552590266875</v>
+        <v>1.832460732984</v>
       </c>
       <c r="I17" s="15">
-        <v>22824</v>
+        <v>23270</v>
       </c>
       <c r="J17" s="15">
-        <v>20063</v>
+        <v>20563</v>
       </c>
       <c r="K17" s="16">
-        <v>13.761650799980</v>
+        <v>13.164421533822</v>
       </c>
       <c r="L17" s="16">
-        <v>24.809974298682</v>
+        <v>24.899361279587</v>
       </c>
       <c r="M17" s="16">
-        <v>52.302148672094</v>
+        <v>51.863212164719</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.542073721369</v>
+        <v>-37.660737248178</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D18" s="15">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E18" s="16">
-        <v>-3.436426116838</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="F18" s="15">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="G18" s="15">
-        <v>1162</v>
+        <v>1179</v>
       </c>
       <c r="H18" s="16">
-        <v>2.065404475043</v>
+        <v>-0.339270568278</v>
       </c>
       <c r="I18" s="15">
-        <v>13694</v>
+        <v>14000</v>
       </c>
       <c r="J18" s="15">
-        <v>10727</v>
+        <v>11035</v>
       </c>
       <c r="K18" s="16">
-        <v>27.659177775706</v>
+        <v>26.86905301314</v>
       </c>
       <c r="L18" s="16">
-        <v>1.814126394052</v>
+        <v>1.699840185965</v>
       </c>
       <c r="M18" s="16">
-        <v>-15.666954058381</v>
+        <v>-15.96134221742</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.339691688394</v>
+        <v>-84.363307383869</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>911</v>
+        <v>963</v>
       </c>
       <c r="D19" s="15">
-        <v>973</v>
+        <v>999</v>
       </c>
       <c r="E19" s="16">
-        <v>-6.372045220966</v>
+        <v>-3.603603603603</v>
       </c>
       <c r="F19" s="15">
-        <v>4228</v>
+        <v>4096</v>
       </c>
       <c r="G19" s="15">
-        <v>3886</v>
+        <v>3916</v>
       </c>
       <c r="H19" s="16">
-        <v>8.800823468862</v>
+        <v>4.596527068437</v>
       </c>
       <c r="I19" s="15">
-        <v>44966</v>
+        <v>45960</v>
       </c>
       <c r="J19" s="15">
-        <v>32916</v>
+        <v>33918</v>
       </c>
       <c r="K19" s="16">
-        <v>36.608336371369</v>
+        <v>35.503272598620</v>
       </c>
       <c r="L19" s="16">
-        <v>44.413398850242</v>
+        <v>44.079751716354</v>
       </c>
       <c r="M19" s="16">
-        <v>37.120726984417</v>
+        <v>36.554060076655</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.724668570126</v>
+        <v>-39.787763657801</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D20" s="15">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="E20" s="16">
-        <v>17.030567685589</v>
+        <v>-6.949806949806</v>
       </c>
       <c r="F20" s="15">
-        <v>1107</v>
+        <v>1065</v>
       </c>
       <c r="G20" s="15">
-        <v>917</v>
+        <v>940</v>
       </c>
       <c r="H20" s="16">
-        <v>20.719738276990</v>
+        <v>13.297872340425</v>
       </c>
       <c r="I20" s="15">
-        <v>11796</v>
+        <v>12036</v>
       </c>
       <c r="J20" s="15">
-        <v>8818</v>
+        <v>9077</v>
       </c>
       <c r="K20" s="16">
-        <v>33.771830347017</v>
+        <v>32.598876280709</v>
       </c>
       <c r="L20" s="16">
-        <v>51.600051407274</v>
+        <v>50.676014021031</v>
       </c>
       <c r="M20" s="16">
-        <v>30.848585690515</v>
+        <v>30.287941112795</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.902779202133</v>
+        <v>-87.937220629798</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2331</v>
+        <v>2248</v>
       </c>
       <c r="D21" s="18">
-        <v>2344</v>
+        <v>2441</v>
       </c>
       <c r="E21" s="19">
-        <v>-0.554607508532</v>
+        <v>-7.906595657517</v>
       </c>
       <c r="F21" s="18">
-        <v>10096</v>
+        <v>9876</v>
       </c>
       <c r="G21" s="18">
-        <v>9367</v>
+        <v>9485</v>
       </c>
       <c r="H21" s="19">
-        <v>7.782641187146</v>
+        <v>4.122298365840</v>
       </c>
       <c r="I21" s="18">
-        <v>110394</v>
+        <v>112755</v>
       </c>
       <c r="J21" s="18">
-        <v>85945</v>
+        <v>88394</v>
       </c>
       <c r="K21" s="19">
-        <v>28.447262784338</v>
+        <v>27.559562866257</v>
       </c>
       <c r="L21" s="19">
-        <v>31.890897360844</v>
+        <v>31.710821418559</v>
       </c>
       <c r="M21" s="19">
-        <v>20.579336559151</v>
+        <v>20.110571392049</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.575958932041</v>
+        <v>-70.625550339452</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="15">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E22" s="16">
-        <v>-26.923076923076</v>
+        <v>-38.983050847457</v>
       </c>
       <c r="F22" s="15">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G22" s="15">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="H22" s="16">
-        <v>13.333333333333</v>
+        <v>-5.853658536585</v>
       </c>
       <c r="I22" s="15">
-        <v>2019</v>
+        <v>2056</v>
       </c>
       <c r="J22" s="15">
-        <v>1462</v>
+        <v>1521</v>
       </c>
       <c r="K22" s="16">
-        <v>38.098495212038</v>
+        <v>35.174227481919</v>
       </c>
       <c r="L22" s="16">
-        <v>28.762755102040</v>
+        <v>28.259513412351</v>
       </c>
       <c r="M22" s="16">
-        <v>8.958445763626</v>
+        <v>8.496042216358</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D23" s="15">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E23" s="16">
-        <v>6.521739130434</v>
+        <v>-6.870229007633</v>
       </c>
       <c r="F23" s="15">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="G23" s="15">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="H23" s="16">
-        <v>-2.449888641425</v>
+        <v>-1.498929336188</v>
       </c>
       <c r="I23" s="15">
-        <v>5179</v>
+        <v>5305</v>
       </c>
       <c r="J23" s="15">
-        <v>4774</v>
+        <v>4906</v>
       </c>
       <c r="K23" s="16">
-        <v>8.483452031839</v>
+        <v>8.132898491642</v>
       </c>
       <c r="L23" s="16">
-        <v>15.037760995113</v>
+        <v>15.956284153005</v>
       </c>
       <c r="M23" s="16">
-        <v>41.271140207310</v>
+        <v>40.977943130481</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2099</v>
+        <v>2324</v>
       </c>
       <c r="D24" s="15">
-        <v>2061</v>
+        <v>2014</v>
       </c>
       <c r="E24" s="16">
-        <v>1.843765162542</v>
+        <v>15.392254220456</v>
       </c>
       <c r="F24" s="15">
-        <v>8943</v>
+        <v>8973</v>
       </c>
       <c r="G24" s="15">
-        <v>7994</v>
+        <v>7913</v>
       </c>
       <c r="H24" s="16">
-        <v>11.871403552664</v>
+        <v>13.395677998230</v>
       </c>
       <c r="I24" s="15">
-        <v>100447</v>
+        <v>102820</v>
       </c>
       <c r="J24" s="15">
-        <v>73271</v>
+        <v>75285</v>
       </c>
       <c r="K24" s="16">
-        <v>37.089708070041</v>
+        <v>36.574350800292</v>
       </c>
       <c r="L24" s="16">
-        <v>42.179537991167</v>
+        <v>42.100971571513</v>
       </c>
       <c r="M24" s="16">
-        <v>40.889262921663</v>
+        <v>40.924603555324</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>795</v>
+        <v>687</v>
       </c>
       <c r="D25" s="15">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="E25" s="16">
-        <v>-2.093596059113</v>
+        <v>-13.257575757575</v>
       </c>
       <c r="F25" s="15">
-        <v>3330</v>
+        <v>3214</v>
       </c>
       <c r="G25" s="15">
-        <v>3133</v>
+        <v>3105</v>
       </c>
       <c r="H25" s="16">
-        <v>6.287902968400</v>
+        <v>3.510466988727</v>
       </c>
       <c r="I25" s="15">
-        <v>36255</v>
+        <v>36967</v>
       </c>
       <c r="J25" s="15">
-        <v>31387</v>
+        <v>32178</v>
       </c>
       <c r="K25" s="16">
-        <v>15.509605887787</v>
+        <v>14.882839206911</v>
       </c>
       <c r="L25" s="16">
-        <v>23.978387990288</v>
+        <v>24.021203073103</v>
       </c>
       <c r="M25" s="16">
-        <v>-10.346447736096</v>
+        <v>-10.504527187333</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="15">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E26" s="16">
-        <v>-4.255319148936</v>
+        <v>-13.725490196078</v>
       </c>
       <c r="F26" s="15">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G26" s="15">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H26" s="16">
-        <v>-3.535353535353</v>
+        <v>-13.043478260869</v>
       </c>
       <c r="I26" s="15">
-        <v>2302</v>
+        <v>2347</v>
       </c>
       <c r="J26" s="15">
-        <v>2143</v>
+        <v>2194</v>
       </c>
       <c r="K26" s="16">
-        <v>7.419505366308</v>
+        <v>6.973564266180</v>
       </c>
       <c r="L26" s="16">
-        <v>15.157578789394</v>
+        <v>14.767726161369</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D27" s="15">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E27" s="16">
-        <v>-20.535714285714</v>
+        <v>4.901960784313</v>
       </c>
       <c r="F27" s="15">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G27" s="15">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H27" s="16">
-        <v>8.454106280193</v>
+        <v>7.766990291262</v>
       </c>
       <c r="I27" s="15">
-        <v>4565</v>
+        <v>4671</v>
       </c>
       <c r="J27" s="15">
-        <v>4283</v>
+        <v>4385</v>
       </c>
       <c r="K27" s="16">
-        <v>6.584169974317</v>
+        <v>6.522234891676</v>
       </c>
       <c r="L27" s="16">
-        <v>35.019225081336</v>
+        <v>35.509138381201</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D28" s="15">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E28" s="16">
-        <v>-26.829268292682</v>
+        <v>-56.756756756756</v>
       </c>
       <c r="F28" s="15">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G28" s="15">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H28" s="16">
-        <v>-29.230769230769</v>
+        <v>-28.888888888888</v>
       </c>
       <c r="I28" s="15">
-        <v>1422</v>
+        <v>1438</v>
       </c>
       <c r="J28" s="15">
-        <v>1651</v>
+        <v>1688</v>
       </c>
       <c r="K28" s="16">
-        <v>-13.870381586917</v>
+        <v>-14.810426540284</v>
       </c>
       <c r="L28" s="16">
-        <v>-14.182257091128</v>
+        <v>-14.709371293001</v>
       </c>
       <c r="M28" s="16">
-        <v>-9.885931558935</v>
+        <v>-10.293200249532</v>
       </c>
       <c r="N28" s="16">
-        <v>-72.960638904734</v>
+        <v>-73.166635566337</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D29" s="15">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16">
-        <v>-36.111111111111</v>
+        <v>-44</v>
       </c>
       <c r="F29" s="15">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G29" s="15">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H29" s="16">
-        <v>-32.142857142857</v>
+        <v>-27.522935779816</v>
       </c>
       <c r="I29" s="15">
-        <v>1169</v>
+        <v>1183</v>
       </c>
       <c r="J29" s="15">
-        <v>1378</v>
+        <v>1403</v>
       </c>
       <c r="K29" s="16">
-        <v>-15.166908563135</v>
+        <v>-15.680684248039</v>
       </c>
       <c r="L29" s="16">
-        <v>-13.343217197924</v>
+        <v>-13.901018922853</v>
       </c>
       <c r="M29" s="16">
-        <v>-10.215053763440</v>
+        <v>-10.514372163388</v>
       </c>
       <c r="N29" s="16">
-        <v>-75.238296970980</v>
+        <v>-75.420735507999</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D30" s="15">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E30" s="16">
-        <v>-23.076923076923</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F30" s="15">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G30" s="15">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H30" s="16">
         <v>0</v>
       </c>
       <c r="I30" s="15">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="J30" s="15">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K30" s="16">
-        <v>16</v>
+        <v>15.592515592515</v>
       </c>
       <c r="L30" s="16">
-        <v>131.512605042017</v>
+        <v>128.80658436214</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">46</t>
+      <t xml:space="preserve">47</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/14/2022</t>
+      <t xml:space="preserve">11/21/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/20/2022</t>
+      <t xml:space="preserve">11/27/2022</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" s="15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F14" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G14" s="15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H14" s="16">
-        <v>0</v>
+        <v>11.111111111111</v>
       </c>
       <c r="I14" s="15">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="J14" s="15">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K14" s="16">
-        <v>-12.268518518518</v>
+        <v>-11.136363636363</v>
       </c>
       <c r="L14" s="16">
-        <v>-11.448598130841</v>
+        <v>-10.114942528735</v>
       </c>
       <c r="M14" s="16">
-        <v>-21.369294605809</v>
+        <v>-20.366598778004</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.168202764977</v>
+        <v>-77.695379349686</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
+        <v>16</v>
+      </c>
+      <c r="D15" s="15">
         <v>29</v>
       </c>
-      <c r="D15" s="15">
-        <v>31</v>
-      </c>
       <c r="E15" s="16">
-        <v>-6.451612903225</v>
+        <v>-44.827586206896</v>
       </c>
       <c r="F15" s="15">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G15" s="15">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="16">
-        <v>0.854700854700</v>
+        <v>-11.206896551724</v>
       </c>
       <c r="I15" s="15">
-        <v>1471</v>
+        <v>1487</v>
       </c>
       <c r="J15" s="15">
-        <v>1336</v>
+        <v>1365</v>
       </c>
       <c r="K15" s="16">
-        <v>10.104790419161</v>
+        <v>8.937728937728</v>
       </c>
       <c r="L15" s="16">
-        <v>12.633996937212</v>
+        <v>11.804511278195</v>
       </c>
       <c r="M15" s="16">
-        <v>19.788273615635</v>
+        <v>18.675179569034</v>
       </c>
       <c r="N15" s="16">
-        <v>-49.846573474258</v>
+        <v>-50.067159167226</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D16" s="15">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="E16" s="16">
-        <v>-5.523255813953</v>
+        <v>8.191126279863</v>
       </c>
       <c r="F16" s="15">
-        <v>1452</v>
+        <v>1417</v>
       </c>
       <c r="G16" s="15">
-        <v>1398</v>
+        <v>1346</v>
       </c>
       <c r="H16" s="16">
-        <v>3.862660944206</v>
+        <v>5.274888558692</v>
       </c>
       <c r="I16" s="15">
-        <v>15639</v>
+        <v>15972</v>
       </c>
       <c r="J16" s="15">
-        <v>12033</v>
+        <v>12326</v>
       </c>
       <c r="K16" s="16">
-        <v>29.967589129892</v>
+        <v>29.579750121694</v>
       </c>
       <c r="L16" s="16">
-        <v>34.935289042277</v>
+        <v>34.727962884858</v>
       </c>
       <c r="M16" s="16">
-        <v>-9.543640465035</v>
+        <v>-9.563444878545</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.480686470032</v>
+        <v>-79.451684699404</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="D17" s="15">
-        <v>495</v>
+        <v>420</v>
       </c>
       <c r="E17" s="16">
-        <v>-18.181818181818</v>
+        <v>5</v>
       </c>
       <c r="F17" s="15">
-        <v>1945</v>
+        <v>1899</v>
       </c>
       <c r="G17" s="15">
-        <v>1910</v>
+        <v>1870</v>
       </c>
       <c r="H17" s="16">
-        <v>1.832460732984</v>
+        <v>1.550802139037</v>
       </c>
       <c r="I17" s="15">
-        <v>23270</v>
+        <v>23747</v>
       </c>
       <c r="J17" s="15">
-        <v>20563</v>
+        <v>20983</v>
       </c>
       <c r="K17" s="16">
-        <v>13.164421533822</v>
+        <v>13.172568269551</v>
       </c>
       <c r="L17" s="16">
-        <v>24.899361279587</v>
+        <v>24.938180670279</v>
       </c>
       <c r="M17" s="16">
-        <v>51.863212164719</v>
+        <v>51.525012761613</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.660737248178</v>
+        <v>-37.532552939629</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D18" s="15">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E18" s="16">
-        <v>-9.090909090909</v>
+        <v>-13.607594936708</v>
       </c>
       <c r="F18" s="15">
-        <v>1175</v>
+        <v>1123</v>
       </c>
       <c r="G18" s="15">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="H18" s="16">
-        <v>-0.339270568278</v>
+        <v>-5.550883095037</v>
       </c>
       <c r="I18" s="15">
-        <v>14000</v>
+        <v>14281</v>
       </c>
       <c r="J18" s="15">
-        <v>11035</v>
+        <v>11351</v>
       </c>
       <c r="K18" s="16">
-        <v>26.86905301314</v>
+        <v>25.812703726543</v>
       </c>
       <c r="L18" s="16">
-        <v>1.699840185965</v>
+        <v>1.607968694414</v>
       </c>
       <c r="M18" s="16">
-        <v>-15.96134221742</v>
+        <v>-16.147026011391</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.363307383869</v>
+        <v>-84.375957288521</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>963</v>
+        <v>853</v>
       </c>
       <c r="D19" s="15">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="16">
-        <v>-3.603603603603</v>
+        <v>-15.039840637450</v>
       </c>
       <c r="F19" s="15">
-        <v>4096</v>
+        <v>3900</v>
       </c>
       <c r="G19" s="15">
-        <v>3916</v>
+        <v>3969</v>
       </c>
       <c r="H19" s="16">
-        <v>4.596527068437</v>
+        <v>-1.738473167044</v>
       </c>
       <c r="I19" s="15">
-        <v>45960</v>
+        <v>46821</v>
       </c>
       <c r="J19" s="15">
-        <v>33918</v>
+        <v>34923</v>
       </c>
       <c r="K19" s="16">
-        <v>35.503272598620</v>
+        <v>34.069238037969</v>
       </c>
       <c r="L19" s="16">
-        <v>44.079751716354</v>
+        <v>43.834480216269</v>
       </c>
       <c r="M19" s="16">
-        <v>36.554060076655</v>
+        <v>36.159013580713</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.787763657801</v>
+        <v>-39.916845252608</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D20" s="15">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E20" s="16">
-        <v>-6.949806949806</v>
+        <v>-2.671755725190</v>
       </c>
       <c r="F20" s="15">
-        <v>1065</v>
+        <v>1047</v>
       </c>
       <c r="G20" s="15">
-        <v>940</v>
+        <v>975</v>
       </c>
       <c r="H20" s="16">
-        <v>13.297872340425</v>
+        <v>7.384615384615</v>
       </c>
       <c r="I20" s="15">
-        <v>12036</v>
+        <v>12297</v>
       </c>
       <c r="J20" s="15">
-        <v>9077</v>
+        <v>9339</v>
       </c>
       <c r="K20" s="16">
-        <v>32.598876280709</v>
+        <v>31.673626726630</v>
       </c>
       <c r="L20" s="16">
-        <v>50.676014021031</v>
+        <v>50.054911531421</v>
       </c>
       <c r="M20" s="16">
-        <v>30.287941112795</v>
+        <v>30.777411464426</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.937220629798</v>
+        <v>-87.931694391285</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2248</v>
+        <v>2164</v>
       </c>
       <c r="D21" s="18">
-        <v>2441</v>
+        <v>2332</v>
       </c>
       <c r="E21" s="19">
-        <v>-7.906595657517</v>
+        <v>-7.204116638078</v>
       </c>
       <c r="F21" s="18">
-        <v>9876</v>
+        <v>9519</v>
       </c>
       <c r="G21" s="18">
-        <v>9485</v>
+        <v>9492</v>
       </c>
       <c r="H21" s="19">
-        <v>4.122298365840</v>
+        <v>0.284450063211</v>
       </c>
       <c r="I21" s="18">
-        <v>112755</v>
+        <v>114996</v>
       </c>
       <c r="J21" s="18">
-        <v>88394</v>
+        <v>90727</v>
       </c>
       <c r="K21" s="19">
-        <v>27.559562866257</v>
+        <v>26.749479206851</v>
       </c>
       <c r="L21" s="19">
-        <v>31.710821418559</v>
+        <v>31.53072779055</v>
       </c>
       <c r="M21" s="19">
-        <v>20.110571392049</v>
+        <v>19.914909591440</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.625550339452</v>
+        <v>-70.641892668132</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" s="15">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E22" s="16">
-        <v>-38.983050847457</v>
+        <v>-22.448979591836</v>
       </c>
       <c r="F22" s="15">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G22" s="15">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H22" s="16">
-        <v>-5.853658536585</v>
+        <v>-13.145539906103</v>
       </c>
       <c r="I22" s="15">
-        <v>2056</v>
+        <v>2096</v>
       </c>
       <c r="J22" s="15">
-        <v>1521</v>
+        <v>1570</v>
       </c>
       <c r="K22" s="16">
-        <v>35.174227481919</v>
+        <v>33.503184713375</v>
       </c>
       <c r="L22" s="16">
-        <v>28.259513412351</v>
+        <v>28.826060233558</v>
       </c>
       <c r="M22" s="16">
-        <v>8.496042216358</v>
+        <v>8.376421923474</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D23" s="15">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E23" s="16">
-        <v>-6.870229007633</v>
+        <v>6.796116504854</v>
       </c>
       <c r="F23" s="15">
         <v>460</v>
       </c>
       <c r="G23" s="15">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="H23" s="16">
-        <v>-1.498929336188</v>
+        <v>2.678571428571</v>
       </c>
       <c r="I23" s="15">
-        <v>5305</v>
+        <v>5422</v>
       </c>
       <c r="J23" s="15">
-        <v>4906</v>
+        <v>5009</v>
       </c>
       <c r="K23" s="16">
-        <v>8.132898491642</v>
+        <v>8.245158714314</v>
       </c>
       <c r="L23" s="16">
-        <v>15.956284153005</v>
+        <v>15.978609625668</v>
       </c>
       <c r="M23" s="16">
-        <v>40.977943130481</v>
+        <v>40.612033195020</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2324</v>
+        <v>1845</v>
       </c>
       <c r="D24" s="15">
-        <v>2014</v>
+        <v>1899</v>
       </c>
       <c r="E24" s="16">
-        <v>15.392254220456</v>
+        <v>-2.843601895734</v>
       </c>
       <c r="F24" s="15">
-        <v>8973</v>
+        <v>8630</v>
       </c>
       <c r="G24" s="15">
-        <v>7913</v>
+        <v>7933</v>
       </c>
       <c r="H24" s="16">
-        <v>13.395677998230</v>
+        <v>8.786083448884</v>
       </c>
       <c r="I24" s="15">
-        <v>102820</v>
+        <v>104726</v>
       </c>
       <c r="J24" s="15">
-        <v>75285</v>
+        <v>77184</v>
       </c>
       <c r="K24" s="16">
-        <v>36.574350800292</v>
+        <v>35.683561359867</v>
       </c>
       <c r="L24" s="16">
-        <v>42.100971571513</v>
+        <v>41.759164004548</v>
       </c>
       <c r="M24" s="16">
-        <v>40.924603555324</v>
+        <v>40.675666599503</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="D25" s="15">
-        <v>792</v>
+        <v>727</v>
       </c>
       <c r="E25" s="16">
-        <v>-13.257575757575</v>
+        <v>-3.163686382393</v>
       </c>
       <c r="F25" s="15">
-        <v>3214</v>
+        <v>3113</v>
       </c>
       <c r="G25" s="15">
-        <v>3105</v>
+        <v>3113</v>
       </c>
       <c r="H25" s="16">
-        <v>3.510466988727</v>
+        <v>0</v>
       </c>
       <c r="I25" s="15">
-        <v>36967</v>
+        <v>37696</v>
       </c>
       <c r="J25" s="15">
-        <v>32178</v>
+        <v>32905</v>
       </c>
       <c r="K25" s="16">
-        <v>14.882839206911</v>
+        <v>14.560097249658</v>
       </c>
       <c r="L25" s="16">
-        <v>24.021203073103</v>
+        <v>23.865540695955</v>
       </c>
       <c r="M25" s="16">
-        <v>-10.504527187333</v>
+        <v>-10.409734765662</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D26" s="15">
         <v>51</v>
       </c>
       <c r="E26" s="16">
-        <v>-13.725490196078</v>
+        <v>-41.176470588235</v>
       </c>
       <c r="F26" s="15">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G26" s="15">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H26" s="16">
-        <v>-13.043478260869</v>
+        <v>-19.512195121951</v>
       </c>
       <c r="I26" s="15">
-        <v>2347</v>
+        <v>2380</v>
       </c>
       <c r="J26" s="15">
-        <v>2194</v>
+        <v>2245</v>
       </c>
       <c r="K26" s="16">
-        <v>6.973564266180</v>
+        <v>6.013363028953</v>
       </c>
       <c r="L26" s="16">
-        <v>14.767726161369</v>
+        <v>14.754098360655</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D27" s="15">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E27" s="16">
-        <v>4.901960784313</v>
+        <v>-13.953488372093</v>
       </c>
       <c r="F27" s="15">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="G27" s="15">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H27" s="16">
-        <v>7.766990291262</v>
+        <v>-2.512562814070</v>
       </c>
       <c r="I27" s="15">
-        <v>4671</v>
+        <v>4747</v>
       </c>
       <c r="J27" s="15">
-        <v>4385</v>
+        <v>4471</v>
       </c>
       <c r="K27" s="16">
-        <v>6.522234891676</v>
+        <v>6.173115634086</v>
       </c>
       <c r="L27" s="16">
-        <v>35.509138381201</v>
+        <v>36.017191977077</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D28" s="15">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E28" s="16">
-        <v>-56.756756756756</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F28" s="15">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G28" s="15">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="H28" s="16">
-        <v>-28.888888888888</v>
+        <v>-35.862068965517</v>
       </c>
       <c r="I28" s="15">
-        <v>1438</v>
+        <v>1461</v>
       </c>
       <c r="J28" s="15">
-        <v>1688</v>
+        <v>1721</v>
       </c>
       <c r="K28" s="16">
-        <v>-14.810426540284</v>
+        <v>-15.107495642068</v>
       </c>
       <c r="L28" s="16">
-        <v>-14.709371293001</v>
+        <v>-15.255220417633</v>
       </c>
       <c r="M28" s="16">
-        <v>-10.293200249532</v>
+        <v>-10.860280658938</v>
       </c>
       <c r="N28" s="16">
-        <v>-73.166635566337</v>
+        <v>-73.054223533751</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D29" s="15">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E29" s="16">
-        <v>-44</v>
+        <v>-34.375</v>
       </c>
       <c r="F29" s="15">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" s="15">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H29" s="16">
-        <v>-27.522935779816</v>
+        <v>-33.884297520661</v>
       </c>
       <c r="I29" s="15">
-        <v>1183</v>
+        <v>1205</v>
       </c>
       <c r="J29" s="15">
-        <v>1403</v>
+        <v>1435</v>
       </c>
       <c r="K29" s="16">
-        <v>-15.680684248039</v>
+        <v>-16.027874564459</v>
       </c>
       <c r="L29" s="16">
-        <v>-13.901018922853</v>
+        <v>-14.173789173789</v>
       </c>
       <c r="M29" s="16">
-        <v>-10.514372163388</v>
+        <v>-10.806809770540</v>
       </c>
       <c r="N29" s="16">
-        <v>-75.420735507999</v>
+        <v>-75.276979893311</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1482,31 +1482,31 @@
         <v>4</v>
       </c>
       <c r="D30" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30" s="16">
-        <v>-33.333333333333</v>
+        <v>33.333333333333</v>
       </c>
       <c r="F30" s="15">
         <v>39</v>
       </c>
       <c r="G30" s="15">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H30" s="16">
-        <v>0</v>
+        <v>18.181818181818</v>
       </c>
       <c r="I30" s="15">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="J30" s="15">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K30" s="16">
-        <v>15.592515592515</v>
+        <v>17.768595041322</v>
       </c>
       <c r="L30" s="16">
-        <v>128.80658436214</v>
+        <v>132.65306122449</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">47</t>
+      <t xml:space="preserve">48</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/21/2022</t>
+      <t xml:space="preserve">11/28/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/27/2022</t>
+      <t xml:space="preserve">12/4/2022</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" s="15">
         <v>8</v>
       </c>
       <c r="E14" s="16">
-        <v>12.5</v>
+        <v>-75</v>
       </c>
       <c r="F14" s="15">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G14" s="15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H14" s="16">
-        <v>11.111111111111</v>
+        <v>8.333333333333</v>
       </c>
       <c r="I14" s="15">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J14" s="15">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="K14" s="16">
-        <v>-11.136363636363</v>
+        <v>-12.276785714285</v>
       </c>
       <c r="L14" s="16">
-        <v>-10.114942528735</v>
+        <v>-10.068649885583</v>
       </c>
       <c r="M14" s="16">
-        <v>-20.366598778004</v>
+        <v>-21.556886227544</v>
       </c>
       <c r="N14" s="16">
-        <v>-77.695379349686</v>
+        <v>-78.032420346562</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D15" s="15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="16">
-        <v>-44.827586206896</v>
+        <v>-13.333333333333</v>
       </c>
       <c r="F15" s="15">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G15" s="15">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H15" s="16">
-        <v>-11.206896551724</v>
+        <v>-17.094017094017</v>
       </c>
       <c r="I15" s="15">
-        <v>1487</v>
+        <v>1512</v>
       </c>
       <c r="J15" s="15">
-        <v>1365</v>
+        <v>1395</v>
       </c>
       <c r="K15" s="16">
-        <v>8.937728937728</v>
+        <v>8.387096774193</v>
       </c>
       <c r="L15" s="16">
-        <v>11.804511278195</v>
+        <v>11.094783247612</v>
       </c>
       <c r="M15" s="16">
-        <v>18.675179569034</v>
+        <v>17.757009345794</v>
       </c>
       <c r="N15" s="16">
-        <v>-50.067159167226</v>
+        <v>-50.049554013875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D16" s="15">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="E16" s="16">
-        <v>8.191126279863</v>
+        <v>-18.579234972677</v>
       </c>
       <c r="F16" s="15">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="G16" s="15">
-        <v>1346</v>
+        <v>1361</v>
       </c>
       <c r="H16" s="16">
-        <v>5.274888558692</v>
+        <v>-0.293901542983</v>
       </c>
       <c r="I16" s="15">
-        <v>15972</v>
+        <v>16274</v>
       </c>
       <c r="J16" s="15">
-        <v>12326</v>
+        <v>12693</v>
       </c>
       <c r="K16" s="16">
-        <v>29.579750121694</v>
+        <v>28.212400535728</v>
       </c>
       <c r="L16" s="16">
-        <v>34.727962884858</v>
+        <v>34.185356200527</v>
       </c>
       <c r="M16" s="16">
-        <v>-9.563444878545</v>
+        <v>-10.003871039097</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.451684699404</v>
+        <v>-79.525696672328</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D17" s="15">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="E17" s="16">
-        <v>5</v>
+        <v>-7.674943566591</v>
       </c>
       <c r="F17" s="15">
-        <v>1899</v>
+        <v>1784</v>
       </c>
       <c r="G17" s="15">
-        <v>1870</v>
+        <v>1821</v>
       </c>
       <c r="H17" s="16">
-        <v>1.550802139037</v>
+        <v>-2.031850631521</v>
       </c>
       <c r="I17" s="15">
-        <v>23747</v>
+        <v>24208</v>
       </c>
       <c r="J17" s="15">
-        <v>20983</v>
+        <v>21429</v>
       </c>
       <c r="K17" s="16">
-        <v>13.172568269551</v>
+        <v>12.968407298520</v>
       </c>
       <c r="L17" s="16">
-        <v>24.938180670279</v>
+        <v>24.815674142820</v>
       </c>
       <c r="M17" s="16">
-        <v>51.525012761613</v>
+        <v>51.546262676849</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.532552939629</v>
+        <v>-37.479338842975</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="D18" s="15">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E18" s="16">
-        <v>-13.607594936708</v>
+        <v>-6.811145510835</v>
       </c>
       <c r="F18" s="15">
-        <v>1123</v>
+        <v>1165</v>
       </c>
       <c r="G18" s="15">
-        <v>1189</v>
+        <v>1238</v>
       </c>
       <c r="H18" s="16">
-        <v>-5.550883095037</v>
+        <v>-5.896607431340</v>
       </c>
       <c r="I18" s="15">
-        <v>14281</v>
+        <v>14602</v>
       </c>
       <c r="J18" s="15">
-        <v>11351</v>
+        <v>11674</v>
       </c>
       <c r="K18" s="16">
-        <v>25.812703726543</v>
+        <v>25.081377419907</v>
       </c>
       <c r="L18" s="16">
-        <v>1.607968694414</v>
+        <v>1.269158748873</v>
       </c>
       <c r="M18" s="16">
-        <v>-16.147026011391</v>
+        <v>-16.123843988741</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.375957288521</v>
+        <v>-84.384557801304</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>853</v>
+        <v>986</v>
       </c>
       <c r="D19" s="15">
-        <v>1004</v>
+        <v>1400</v>
       </c>
       <c r="E19" s="16">
-        <v>-15.039840637450</v>
+        <v>-29.571428571428</v>
       </c>
       <c r="F19" s="15">
-        <v>3900</v>
+        <v>3748</v>
       </c>
       <c r="G19" s="15">
-        <v>3969</v>
+        <v>4379</v>
       </c>
       <c r="H19" s="16">
-        <v>-1.738473167044</v>
+        <v>-14.409682575930</v>
       </c>
       <c r="I19" s="15">
-        <v>46821</v>
+        <v>47821</v>
       </c>
       <c r="J19" s="15">
-        <v>34923</v>
+        <v>36326</v>
       </c>
       <c r="K19" s="16">
-        <v>34.069238037969</v>
+        <v>31.644001541595</v>
       </c>
       <c r="L19" s="16">
-        <v>43.834480216269</v>
+        <v>43.658375390531</v>
       </c>
       <c r="M19" s="16">
-        <v>36.159013580713</v>
+        <v>35.839677309396</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.916845252608</v>
+        <v>-39.893917874335</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="D20" s="15">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="E20" s="16">
-        <v>-2.671755725190</v>
+        <v>36.666666666666</v>
       </c>
       <c r="F20" s="15">
-        <v>1047</v>
+        <v>1064</v>
       </c>
       <c r="G20" s="15">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="H20" s="16">
-        <v>7.384615384615</v>
+        <v>10.833333333333</v>
       </c>
       <c r="I20" s="15">
-        <v>12297</v>
+        <v>12596</v>
       </c>
       <c r="J20" s="15">
-        <v>9339</v>
+        <v>9549</v>
       </c>
       <c r="K20" s="16">
-        <v>31.673626726630</v>
+        <v>31.909100429364</v>
       </c>
       <c r="L20" s="16">
-        <v>50.054911531421</v>
+        <v>50.256471430275</v>
       </c>
       <c r="M20" s="16">
-        <v>30.777411464426</v>
+        <v>31.249348754819</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.931694391285</v>
+        <v>-87.901955511160</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2164</v>
+        <v>2309</v>
       </c>
       <c r="D21" s="18">
-        <v>2332</v>
+        <v>2780</v>
       </c>
       <c r="E21" s="19">
-        <v>-7.204116638078</v>
+        <v>-16.942446043165</v>
       </c>
       <c r="F21" s="18">
-        <v>9519</v>
+        <v>9241</v>
       </c>
       <c r="G21" s="18">
-        <v>9492</v>
+        <v>9900</v>
       </c>
       <c r="H21" s="19">
-        <v>0.284450063211</v>
+        <v>-6.656565656565</v>
       </c>
       <c r="I21" s="18">
-        <v>114996</v>
+        <v>117406</v>
       </c>
       <c r="J21" s="18">
-        <v>90727</v>
+        <v>93514</v>
       </c>
       <c r="K21" s="19">
-        <v>26.749479206851</v>
+        <v>25.549115640438</v>
       </c>
       <c r="L21" s="19">
-        <v>31.53072779055</v>
+        <v>31.310465155294</v>
       </c>
       <c r="M21" s="19">
-        <v>19.914909591440</v>
+        <v>19.738506098804</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.641892668132</v>
+        <v>-70.663754847479</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D22" s="15">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E22" s="16">
-        <v>-22.448979591836</v>
+        <v>-15.517241379310</v>
       </c>
       <c r="F22" s="15">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="G22" s="15">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H22" s="16">
-        <v>-13.145539906103</v>
+        <v>-25.688073394495</v>
       </c>
       <c r="I22" s="15">
-        <v>2096</v>
+        <v>2147</v>
       </c>
       <c r="J22" s="15">
-        <v>1570</v>
+        <v>1629</v>
       </c>
       <c r="K22" s="16">
-        <v>33.503184713375</v>
+        <v>31.798649478207</v>
       </c>
       <c r="L22" s="16">
-        <v>28.826060233558</v>
+        <v>29.728096676737</v>
       </c>
       <c r="M22" s="16">
-        <v>8.376421923474</v>
+        <v>8.324924318869</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D23" s="15">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="E23" s="16">
-        <v>6.796116504854</v>
+        <v>-25.78125</v>
       </c>
       <c r="F23" s="15">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="G23" s="15">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="H23" s="16">
-        <v>2.678571428571</v>
+        <v>-4.405286343612</v>
       </c>
       <c r="I23" s="15">
-        <v>5422</v>
+        <v>5519</v>
       </c>
       <c r="J23" s="15">
-        <v>5009</v>
+        <v>5137</v>
       </c>
       <c r="K23" s="16">
-        <v>8.245158714314</v>
+        <v>7.436246836675</v>
       </c>
       <c r="L23" s="16">
-        <v>15.978609625668</v>
+        <v>15.291414246918</v>
       </c>
       <c r="M23" s="16">
-        <v>40.612033195020</v>
+        <v>40.218495934959</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1845</v>
+        <v>2404</v>
       </c>
       <c r="D24" s="15">
-        <v>1899</v>
+        <v>2181</v>
       </c>
       <c r="E24" s="16">
-        <v>-2.843601895734</v>
+        <v>10.224667583677</v>
       </c>
       <c r="F24" s="15">
-        <v>8630</v>
+        <v>8829</v>
       </c>
       <c r="G24" s="15">
-        <v>7933</v>
+        <v>8155</v>
       </c>
       <c r="H24" s="16">
-        <v>8.786083448884</v>
+        <v>8.264868179031</v>
       </c>
       <c r="I24" s="15">
-        <v>104726</v>
+        <v>107193</v>
       </c>
       <c r="J24" s="15">
-        <v>77184</v>
+        <v>79365</v>
       </c>
       <c r="K24" s="16">
-        <v>35.683561359867</v>
+        <v>35.063315063315</v>
       </c>
       <c r="L24" s="16">
-        <v>41.759164004548</v>
+        <v>41.60986049461</v>
       </c>
       <c r="M24" s="16">
-        <v>40.675666599503</v>
+        <v>40.785930994628</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="D25" s="15">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="E25" s="16">
-        <v>-3.163686382393</v>
+        <v>-4.634831460674</v>
       </c>
       <c r="F25" s="15">
-        <v>3113</v>
+        <v>2950</v>
       </c>
       <c r="G25" s="15">
-        <v>3113</v>
+        <v>3043</v>
       </c>
       <c r="H25" s="16">
-        <v>0</v>
+        <v>-3.056194544857</v>
       </c>
       <c r="I25" s="15">
-        <v>37696</v>
+        <v>38411</v>
       </c>
       <c r="J25" s="15">
-        <v>32905</v>
+        <v>33617</v>
       </c>
       <c r="K25" s="16">
-        <v>14.560097249658</v>
+        <v>14.260641937115</v>
       </c>
       <c r="L25" s="16">
-        <v>23.865540695955</v>
+        <v>23.70692431562</v>
       </c>
       <c r="M25" s="16">
-        <v>-10.409734765662</v>
+        <v>-10.359393232205</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D26" s="15">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E26" s="16">
-        <v>-41.176470588235</v>
+        <v>-33.928571428571</v>
       </c>
       <c r="F26" s="15">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G26" s="15">
         <v>205</v>
       </c>
       <c r="H26" s="16">
-        <v>-19.512195121951</v>
+        <v>-21.951219512195</v>
       </c>
       <c r="I26" s="15">
-        <v>2380</v>
+        <v>2422</v>
       </c>
       <c r="J26" s="15">
-        <v>2245</v>
+        <v>2301</v>
       </c>
       <c r="K26" s="16">
-        <v>6.013363028953</v>
+        <v>5.258583224684</v>
       </c>
       <c r="L26" s="16">
-        <v>14.754098360655</v>
+        <v>14.299197734780</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D27" s="15">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E27" s="16">
-        <v>-13.953488372093</v>
+        <v>-25.233644859813</v>
       </c>
       <c r="F27" s="15">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="G27" s="15">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="H27" s="16">
-        <v>-2.512562814070</v>
+        <v>-10.810810810810</v>
       </c>
       <c r="I27" s="15">
-        <v>4747</v>
+        <v>4829</v>
       </c>
       <c r="J27" s="15">
-        <v>4471</v>
+        <v>4578</v>
       </c>
       <c r="K27" s="16">
-        <v>6.173115634086</v>
+        <v>5.482743556138</v>
       </c>
       <c r="L27" s="16">
-        <v>36.017191977077</v>
+        <v>35.341928251121</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D28" s="15">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E28" s="16">
-        <v>-33.333333333333</v>
+        <v>-63.888888888888</v>
       </c>
       <c r="F28" s="15">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G28" s="15">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H28" s="16">
-        <v>-35.862068965517</v>
+        <v>-44.217687074829</v>
       </c>
       <c r="I28" s="15">
-        <v>1461</v>
+        <v>1474</v>
       </c>
       <c r="J28" s="15">
-        <v>1721</v>
+        <v>1757</v>
       </c>
       <c r="K28" s="16">
-        <v>-15.107495642068</v>
+        <v>-16.107000569152</v>
       </c>
       <c r="L28" s="16">
-        <v>-15.255220417633</v>
+        <v>-15.723270440251</v>
       </c>
       <c r="M28" s="16">
-        <v>-10.860280658938</v>
+        <v>-11.524609843937</v>
       </c>
       <c r="N28" s="16">
-        <v>-73.054223533751</v>
+        <v>-73.369467028003</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D29" s="15">
         <v>32</v>
       </c>
       <c r="E29" s="16">
-        <v>-34.375</v>
+        <v>-59.375</v>
       </c>
       <c r="F29" s="15">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G29" s="15">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H29" s="16">
-        <v>-33.884297520661</v>
+        <v>-42.4</v>
       </c>
       <c r="I29" s="15">
-        <v>1205</v>
+        <v>1218</v>
       </c>
       <c r="J29" s="15">
-        <v>1435</v>
+        <v>1467</v>
       </c>
       <c r="K29" s="16">
-        <v>-16.027874564459</v>
+        <v>-16.973415132924</v>
       </c>
       <c r="L29" s="16">
-        <v>-14.173789173789</v>
+        <v>-14.586255259467</v>
       </c>
       <c r="M29" s="16">
-        <v>-10.806809770540</v>
+        <v>-11.418181818181</v>
       </c>
       <c r="N29" s="16">
-        <v>-75.276979893311</v>
+        <v>-75.488025759710</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" s="15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E30" s="16">
-        <v>33.333333333333</v>
+        <v>-90.909090909090</v>
       </c>
       <c r="F30" s="15">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G30" s="15">
         <v>33</v>
       </c>
       <c r="H30" s="16">
-        <v>18.181818181818</v>
+        <v>-21.212121212121</v>
       </c>
       <c r="I30" s="15">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J30" s="15">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="K30" s="16">
-        <v>17.768595041322</v>
+        <v>15.353535353535</v>
       </c>
       <c r="L30" s="16">
-        <v>132.65306122449</v>
+        <v>130.241935483871</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">48</t>
+      <t xml:space="preserve">49</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/28/2022</t>
+      <t xml:space="preserve">12/5/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/4/2022</t>
+      <t xml:space="preserve">12/11/2022</t>
     </r>
   </si>
   <si>
@@ -665,7 +665,7 @@
     <col min="4" max="4" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.433768" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.433768" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.699091" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.964413" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.964413" bestFit="1" customWidth="1"/>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="16">
-        <v>-75</v>
+        <v>11.111111111111</v>
       </c>
       <c r="F14" s="15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G14" s="15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H14" s="16">
-        <v>8.333333333333</v>
+        <v>-3.333333333333</v>
       </c>
       <c r="I14" s="15">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="J14" s="15">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K14" s="16">
-        <v>-12.276785714285</v>
+        <v>-11.378555798687</v>
       </c>
       <c r="L14" s="16">
-        <v>-10.068649885583</v>
+        <v>-8.371040723981</v>
       </c>
       <c r="M14" s="16">
-        <v>-21.556886227544</v>
+        <v>-21.052631578947</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.032420346562</v>
+        <v>-77.747252747252</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D15" s="15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="16">
-        <v>-13.333333333333</v>
+        <v>-31.034482758620</v>
       </c>
       <c r="F15" s="15">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G15" s="15">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H15" s="16">
-        <v>-17.094017094017</v>
+        <v>-22.689075630252</v>
       </c>
       <c r="I15" s="15">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="J15" s="15">
-        <v>1395</v>
+        <v>1424</v>
       </c>
       <c r="K15" s="16">
-        <v>8.387096774193</v>
+        <v>7.794943820224</v>
       </c>
       <c r="L15" s="16">
-        <v>11.094783247612</v>
+        <v>10.830324909747</v>
       </c>
       <c r="M15" s="16">
-        <v>17.757009345794</v>
+        <v>16.464339908953</v>
       </c>
       <c r="N15" s="16">
-        <v>-50.049554013875</v>
+        <v>-50.403877221324</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D16" s="15">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="E16" s="16">
-        <v>-18.579234972677</v>
+        <v>-7.166123778501</v>
       </c>
       <c r="F16" s="15">
-        <v>1357</v>
+        <v>1251</v>
       </c>
       <c r="G16" s="15">
-        <v>1361</v>
+        <v>1310</v>
       </c>
       <c r="H16" s="16">
-        <v>-0.293901542983</v>
+        <v>-4.503816793893</v>
       </c>
       <c r="I16" s="15">
-        <v>16274</v>
+        <v>16576</v>
       </c>
       <c r="J16" s="15">
-        <v>12693</v>
+        <v>13000</v>
       </c>
       <c r="K16" s="16">
-        <v>28.212400535728</v>
+        <v>27.507692307692</v>
       </c>
       <c r="L16" s="16">
-        <v>34.185356200527</v>
+        <v>33.958299660578</v>
       </c>
       <c r="M16" s="16">
-        <v>-10.003871039097</v>
+        <v>-10.254466702761</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.525696672328</v>
+        <v>-79.606048302759</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="D17" s="15">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="E17" s="16">
-        <v>-7.674943566591</v>
+        <v>-4.516129032258</v>
       </c>
       <c r="F17" s="15">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="G17" s="15">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="H17" s="16">
-        <v>-2.031850631521</v>
+        <v>-2.358749314317</v>
       </c>
       <c r="I17" s="15">
-        <v>24208</v>
+        <v>24690</v>
       </c>
       <c r="J17" s="15">
-        <v>21429</v>
+        <v>21896</v>
       </c>
       <c r="K17" s="16">
-        <v>12.968407298520</v>
+        <v>12.760321519912</v>
       </c>
       <c r="L17" s="16">
-        <v>24.815674142820</v>
+        <v>25.031650377272</v>
       </c>
       <c r="M17" s="16">
-        <v>51.546262676849</v>
+        <v>51.677110210099</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.479338842975</v>
+        <v>-37.277715679300</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D18" s="15">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E18" s="16">
-        <v>-6.811145510835</v>
+        <v>-4.575163398692</v>
       </c>
       <c r="F18" s="15">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G18" s="15">
-        <v>1238</v>
+        <v>1253</v>
       </c>
       <c r="H18" s="16">
-        <v>-5.896607431340</v>
+        <v>-6.943335993615</v>
       </c>
       <c r="I18" s="15">
-        <v>14602</v>
+        <v>14909</v>
       </c>
       <c r="J18" s="15">
-        <v>11674</v>
+        <v>11981</v>
       </c>
       <c r="K18" s="16">
-        <v>25.081377419907</v>
+        <v>24.438694599783</v>
       </c>
       <c r="L18" s="16">
-        <v>1.269158748873</v>
+        <v>1.256452051073</v>
       </c>
       <c r="M18" s="16">
-        <v>-16.123843988741</v>
+        <v>-16.048200912213</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.384557801304</v>
+        <v>-84.397304142160</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D19" s="15">
-        <v>1400</v>
+        <v>1416</v>
       </c>
       <c r="E19" s="16">
-        <v>-29.571428571428</v>
+        <v>-30.296610169491</v>
       </c>
       <c r="F19" s="15">
-        <v>3748</v>
+        <v>3830</v>
       </c>
       <c r="G19" s="15">
-        <v>4379</v>
+        <v>4821</v>
       </c>
       <c r="H19" s="16">
-        <v>-14.409682575930</v>
+        <v>-20.555901265297</v>
       </c>
       <c r="I19" s="15">
-        <v>47821</v>
+        <v>48859</v>
       </c>
       <c r="J19" s="15">
-        <v>36326</v>
+        <v>37746</v>
       </c>
       <c r="K19" s="16">
-        <v>31.644001541595</v>
+        <v>29.441530228368</v>
       </c>
       <c r="L19" s="16">
-        <v>43.658375390531</v>
+        <v>43.774828590766</v>
       </c>
       <c r="M19" s="16">
-        <v>35.839677309396</v>
+        <v>35.734526058450</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.893917874335</v>
+        <v>-39.876945794622</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D20" s="15">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E20" s="16">
-        <v>36.666666666666</v>
+        <v>44.711538461538</v>
       </c>
       <c r="F20" s="15">
-        <v>1064</v>
+        <v>1105</v>
       </c>
       <c r="G20" s="15">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="H20" s="16">
-        <v>10.833333333333</v>
+        <v>17.678381256656</v>
       </c>
       <c r="I20" s="15">
-        <v>12596</v>
+        <v>12901</v>
       </c>
       <c r="J20" s="15">
-        <v>9549</v>
+        <v>9757</v>
       </c>
       <c r="K20" s="16">
-        <v>31.909100429364</v>
+        <v>32.223019370708</v>
       </c>
       <c r="L20" s="16">
-        <v>50.256471430275</v>
+        <v>49.959316517493</v>
       </c>
       <c r="M20" s="16">
-        <v>31.249348754819</v>
+        <v>31.535481239804</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.901955511160</v>
+        <v>-87.849763135836</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2309</v>
+        <v>2339</v>
       </c>
       <c r="D21" s="18">
-        <v>2780</v>
+        <v>2740</v>
       </c>
       <c r="E21" s="19">
-        <v>-16.942446043165</v>
+        <v>-14.635036496350</v>
       </c>
       <c r="F21" s="18">
-        <v>9241</v>
+        <v>9253</v>
       </c>
       <c r="G21" s="18">
-        <v>9900</v>
+        <v>10295</v>
       </c>
       <c r="H21" s="19">
-        <v>-6.656565656565</v>
+        <v>-10.121418164157</v>
       </c>
       <c r="I21" s="18">
-        <v>117406</v>
+        <v>119875</v>
       </c>
       <c r="J21" s="18">
-        <v>93514</v>
+        <v>96261</v>
       </c>
       <c r="K21" s="19">
-        <v>25.549115640438</v>
+        <v>24.531222405751</v>
       </c>
       <c r="L21" s="19">
-        <v>31.310465155294</v>
+        <v>31.358346665497</v>
       </c>
       <c r="M21" s="19">
-        <v>19.738506098804</v>
+        <v>19.705018873200</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.663754847479</v>
+        <v>-70.658857047748</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D22" s="15">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="16">
-        <v>-15.517241379310</v>
+        <v>-20</v>
       </c>
       <c r="F22" s="15">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G22" s="15">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H22" s="16">
-        <v>-25.688073394495</v>
+        <v>-23.529411764705</v>
       </c>
       <c r="I22" s="15">
-        <v>2147</v>
+        <v>2192</v>
       </c>
       <c r="J22" s="15">
-        <v>1629</v>
+        <v>1684</v>
       </c>
       <c r="K22" s="16">
-        <v>31.798649478207</v>
+        <v>30.166270783848</v>
       </c>
       <c r="L22" s="16">
-        <v>29.728096676737</v>
+        <v>30.321046373365</v>
       </c>
       <c r="M22" s="16">
-        <v>8.324924318869</v>
+        <v>6.926829268292</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="15">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E23" s="16">
-        <v>-25.78125</v>
+        <v>-18.644067796610</v>
       </c>
       <c r="F23" s="15">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G23" s="15">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="H23" s="16">
-        <v>-4.405286343612</v>
+        <v>-8.125</v>
       </c>
       <c r="I23" s="15">
-        <v>5519</v>
+        <v>5634</v>
       </c>
       <c r="J23" s="15">
-        <v>5137</v>
+        <v>5255</v>
       </c>
       <c r="K23" s="16">
-        <v>7.436246836675</v>
+        <v>7.212178877259</v>
       </c>
       <c r="L23" s="16">
-        <v>15.291414246918</v>
+        <v>15.261865793780</v>
       </c>
       <c r="M23" s="16">
-        <v>40.218495934959</v>
+        <v>40.603943099575</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2404</v>
+        <v>2317</v>
       </c>
       <c r="D24" s="15">
-        <v>2181</v>
+        <v>2055</v>
       </c>
       <c r="E24" s="16">
-        <v>10.224667583677</v>
+        <v>12.749391727493</v>
       </c>
       <c r="F24" s="15">
-        <v>8829</v>
+        <v>9059</v>
       </c>
       <c r="G24" s="15">
-        <v>8155</v>
+        <v>8149</v>
       </c>
       <c r="H24" s="16">
-        <v>8.264868179031</v>
+        <v>11.167014357589</v>
       </c>
       <c r="I24" s="15">
-        <v>107193</v>
+        <v>109563</v>
       </c>
       <c r="J24" s="15">
-        <v>79365</v>
+        <v>81419</v>
       </c>
       <c r="K24" s="16">
-        <v>35.063315063315</v>
+        <v>34.566870140876</v>
       </c>
       <c r="L24" s="16">
-        <v>41.60986049461</v>
+        <v>41.417231364956</v>
       </c>
       <c r="M24" s="16">
-        <v>40.785930994628</v>
+        <v>41.280464216634</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>679</v>
+        <v>733</v>
       </c>
       <c r="D25" s="15">
-        <v>712</v>
+        <v>790</v>
       </c>
       <c r="E25" s="16">
-        <v>-4.634831460674</v>
+        <v>-7.215189873417</v>
       </c>
       <c r="F25" s="15">
-        <v>2950</v>
+        <v>2880</v>
       </c>
       <c r="G25" s="15">
-        <v>3043</v>
+        <v>3021</v>
       </c>
       <c r="H25" s="16">
-        <v>-3.056194544857</v>
+        <v>-4.667328699106</v>
       </c>
       <c r="I25" s="15">
-        <v>38411</v>
+        <v>39169</v>
       </c>
       <c r="J25" s="15">
-        <v>33617</v>
+        <v>34407</v>
       </c>
       <c r="K25" s="16">
-        <v>14.260641937115</v>
+        <v>13.840206934635</v>
       </c>
       <c r="L25" s="16">
-        <v>23.70692431562</v>
+        <v>23.932922006011</v>
       </c>
       <c r="M25" s="16">
-        <v>-10.359393232205</v>
+        <v>-10.125739984397</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D26" s="15">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E26" s="16">
-        <v>-33.928571428571</v>
+        <v>0</v>
       </c>
       <c r="F26" s="15">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G26" s="15">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H26" s="16">
-        <v>-21.951219512195</v>
+        <v>-19.289340101522</v>
       </c>
       <c r="I26" s="15">
-        <v>2422</v>
+        <v>2468</v>
       </c>
       <c r="J26" s="15">
-        <v>2301</v>
+        <v>2340</v>
       </c>
       <c r="K26" s="16">
-        <v>5.258583224684</v>
+        <v>5.470085470085</v>
       </c>
       <c r="L26" s="16">
-        <v>14.299197734780</v>
+        <v>14.259259259259</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D27" s="15">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E27" s="16">
-        <v>-25.233644859813</v>
+        <v>-19.008264462809</v>
       </c>
       <c r="F27" s="15">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="G27" s="15">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H27" s="16">
-        <v>-10.810810810810</v>
+        <v>-9.375</v>
       </c>
       <c r="I27" s="15">
-        <v>4829</v>
+        <v>4928</v>
       </c>
       <c r="J27" s="15">
-        <v>4578</v>
+        <v>4699</v>
       </c>
       <c r="K27" s="16">
-        <v>5.482743556138</v>
+        <v>4.873377314322</v>
       </c>
       <c r="L27" s="16">
-        <v>35.341928251121</v>
+        <v>35.720187276232</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D28" s="15">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16">
-        <v>-63.888888888888</v>
+        <v>-6.666666666666</v>
       </c>
       <c r="F28" s="15">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G28" s="15">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H28" s="16">
-        <v>-44.217687074829</v>
+        <v>-41.176470588235</v>
       </c>
       <c r="I28" s="15">
-        <v>1474</v>
+        <v>1502</v>
       </c>
       <c r="J28" s="15">
-        <v>1757</v>
+        <v>1787</v>
       </c>
       <c r="K28" s="16">
-        <v>-16.107000569152</v>
+        <v>-15.948517067711</v>
       </c>
       <c r="L28" s="16">
-        <v>-15.723270440251</v>
+        <v>-15.759955131800</v>
       </c>
       <c r="M28" s="16">
-        <v>-11.524609843937</v>
+        <v>-11.281748375664</v>
       </c>
       <c r="N28" s="16">
-        <v>-73.369467028003</v>
+        <v>-73.221608129791</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D29" s="15">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16">
-        <v>-59.375</v>
+        <v>-4.347826086956</v>
       </c>
       <c r="F29" s="15">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="15">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H29" s="16">
-        <v>-42.4</v>
+        <v>-36.607142857142</v>
       </c>
       <c r="I29" s="15">
-        <v>1218</v>
+        <v>1240</v>
       </c>
       <c r="J29" s="15">
-        <v>1467</v>
+        <v>1490</v>
       </c>
       <c r="K29" s="16">
-        <v>-16.973415132924</v>
+        <v>-16.778523489932</v>
       </c>
       <c r="L29" s="16">
-        <v>-14.586255259467</v>
+        <v>-14.951989026063</v>
       </c>
       <c r="M29" s="16">
-        <v>-11.418181818181</v>
+        <v>-11.428571428571</v>
       </c>
       <c r="N29" s="16">
-        <v>-75.488025759710</v>
+        <v>-75.391942845802</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16">
-        <v>-90.909090909090</v>
+        <v>-70</v>
       </c>
       <c r="F30" s="15">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G30" s="15">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H30" s="16">
-        <v>-21.212121212121</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I30" s="15">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="J30" s="15">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="K30" s="16">
-        <v>15.353535353535</v>
+        <v>14.229249011857</v>
       </c>
       <c r="L30" s="16">
-        <v>130.241935483871</v>
+        <v>131.2</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">49</t>
+      <t xml:space="preserve">50</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/5/2022</t>
+      <t xml:space="preserve">12/12/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/11/2022</t>
+      <t xml:space="preserve">12/18/2022</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E14" s="16">
-        <v>11.111111111111</v>
+        <v>-50</v>
       </c>
       <c r="F14" s="15">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14" s="15">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H14" s="16">
-        <v>-3.333333333333</v>
+        <v>-24.390243902439</v>
       </c>
       <c r="I14" s="15">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="J14" s="15">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="K14" s="16">
-        <v>-11.378555798687</v>
+        <v>-12.473572938689</v>
       </c>
       <c r="L14" s="16">
-        <v>-8.371040723981</v>
+        <v>-7.589285714285</v>
       </c>
       <c r="M14" s="16">
-        <v>-21.052631578947</v>
+        <v>-20.231213872832</v>
       </c>
       <c r="N14" s="16">
-        <v>-77.747252747252</v>
+        <v>-77.741935483871</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D15" s="15">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E15" s="16">
-        <v>-31.034482758620</v>
+        <v>3.030303030303</v>
       </c>
       <c r="F15" s="15">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G15" s="15">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H15" s="16">
-        <v>-22.689075630252</v>
+        <v>-20.661157024793</v>
       </c>
       <c r="I15" s="15">
-        <v>1535</v>
+        <v>1567</v>
       </c>
       <c r="J15" s="15">
-        <v>1424</v>
+        <v>1456</v>
       </c>
       <c r="K15" s="16">
-        <v>7.794943820224</v>
+        <v>7.623626373626</v>
       </c>
       <c r="L15" s="16">
-        <v>10.830324909747</v>
+        <v>11.134751773049</v>
       </c>
       <c r="M15" s="16">
-        <v>16.464339908953</v>
+        <v>17.290419161676</v>
       </c>
       <c r="N15" s="16">
-        <v>-50.403877221324</v>
+        <v>-50.111429481057</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="15">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E16" s="16">
-        <v>-7.166123778501</v>
+        <v>-8.974358974358</v>
       </c>
       <c r="F16" s="15">
-        <v>1251</v>
+        <v>1202</v>
       </c>
       <c r="G16" s="15">
-        <v>1310</v>
+        <v>1279</v>
       </c>
       <c r="H16" s="16">
-        <v>-4.503816793893</v>
+        <v>-6.020328381548</v>
       </c>
       <c r="I16" s="15">
-        <v>16576</v>
+        <v>16868</v>
       </c>
       <c r="J16" s="15">
-        <v>13000</v>
+        <v>13313</v>
       </c>
       <c r="K16" s="16">
-        <v>27.507692307692</v>
+        <v>26.703222414181</v>
       </c>
       <c r="L16" s="16">
-        <v>33.958299660578</v>
+        <v>32.996925017740</v>
       </c>
       <c r="M16" s="16">
-        <v>-10.254466702761</v>
+        <v>-10.666242982734</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.606048302759</v>
+        <v>-79.668779982161</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
+        <v>397</v>
+      </c>
+      <c r="D17" s="15">
         <v>444</v>
       </c>
-      <c r="D17" s="15">
-        <v>465</v>
-      </c>
       <c r="E17" s="16">
-        <v>-4.516129032258</v>
+        <v>-10.585585585585</v>
       </c>
       <c r="F17" s="15">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="G17" s="15">
-        <v>1823</v>
+        <v>1772</v>
       </c>
       <c r="H17" s="16">
-        <v>-2.358749314317</v>
+        <v>-0.169300225733</v>
       </c>
       <c r="I17" s="15">
-        <v>24690</v>
+        <v>25123</v>
       </c>
       <c r="J17" s="15">
-        <v>21896</v>
+        <v>22340</v>
       </c>
       <c r="K17" s="16">
-        <v>12.760321519912</v>
+        <v>12.457475380483</v>
       </c>
       <c r="L17" s="16">
-        <v>25.031650377272</v>
+        <v>24.983831650166</v>
       </c>
       <c r="M17" s="16">
-        <v>51.677110210099</v>
+        <v>51.773092490787</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.277715679300</v>
+        <v>-37.238002448225</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="D18" s="15">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E18" s="16">
-        <v>-4.575163398692</v>
+        <v>-4.561403508771</v>
       </c>
       <c r="F18" s="15">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G18" s="15">
-        <v>1253</v>
+        <v>1230</v>
       </c>
       <c r="H18" s="16">
-        <v>-6.943335993615</v>
+        <v>-5.365853658536</v>
       </c>
       <c r="I18" s="15">
-        <v>14909</v>
+        <v>15198</v>
       </c>
       <c r="J18" s="15">
-        <v>11981</v>
+        <v>12266</v>
       </c>
       <c r="K18" s="16">
-        <v>24.438694599783</v>
+        <v>23.903473014837</v>
       </c>
       <c r="L18" s="16">
-        <v>1.256452051073</v>
+        <v>1.158146964856</v>
       </c>
       <c r="M18" s="16">
-        <v>-16.048200912213</v>
+        <v>-16.130456376579</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.397304142160</v>
+        <v>-84.419019499292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="D19" s="15">
-        <v>1416</v>
+        <v>1336</v>
       </c>
       <c r="E19" s="16">
-        <v>-30.296610169491</v>
+        <v>-25.673652694610</v>
       </c>
       <c r="F19" s="15">
-        <v>3830</v>
+        <v>3846</v>
       </c>
       <c r="G19" s="15">
-        <v>4821</v>
+        <v>5155</v>
       </c>
       <c r="H19" s="16">
-        <v>-20.555901265297</v>
+        <v>-25.392822502424</v>
       </c>
       <c r="I19" s="15">
-        <v>48859</v>
+        <v>49853</v>
       </c>
       <c r="J19" s="15">
-        <v>37746</v>
+        <v>39083</v>
       </c>
       <c r="K19" s="16">
-        <v>29.441530228368</v>
+        <v>27.556738223780</v>
       </c>
       <c r="L19" s="16">
-        <v>43.774828590766</v>
+        <v>44.154642454385</v>
       </c>
       <c r="M19" s="16">
-        <v>35.734526058450</v>
+        <v>35.264271760364</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.876945794622</v>
+        <v>-39.880370946540</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D20" s="15">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E20" s="16">
-        <v>44.711538461538</v>
+        <v>16.317991631799</v>
       </c>
       <c r="F20" s="15">
-        <v>1105</v>
+        <v>1134</v>
       </c>
       <c r="G20" s="15">
-        <v>939</v>
+        <v>919</v>
       </c>
       <c r="H20" s="16">
-        <v>17.678381256656</v>
+        <v>23.394994559303</v>
       </c>
       <c r="I20" s="15">
-        <v>12901</v>
+        <v>13182</v>
       </c>
       <c r="J20" s="15">
-        <v>9757</v>
+        <v>9996</v>
       </c>
       <c r="K20" s="16">
-        <v>32.223019370708</v>
+        <v>31.872749099639</v>
       </c>
       <c r="L20" s="16">
-        <v>49.959316517493</v>
+        <v>50.376454483230</v>
       </c>
       <c r="M20" s="16">
-        <v>31.535481239804</v>
+        <v>31.714628297362</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.849763135836</v>
+        <v>-87.807427276511</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2339</v>
+        <v>2266</v>
       </c>
       <c r="D21" s="18">
-        <v>2740</v>
+        <v>2665</v>
       </c>
       <c r="E21" s="19">
-        <v>-14.635036496350</v>
+        <v>-14.971857410881</v>
       </c>
       <c r="F21" s="18">
-        <v>9253</v>
+        <v>9242</v>
       </c>
       <c r="G21" s="18">
-        <v>10295</v>
+        <v>10517</v>
       </c>
       <c r="H21" s="19">
-        <v>-10.121418164157</v>
+        <v>-12.123229057716</v>
       </c>
       <c r="I21" s="18">
-        <v>119875</v>
+        <v>122205</v>
       </c>
       <c r="J21" s="18">
-        <v>96261</v>
+        <v>98927</v>
       </c>
       <c r="K21" s="19">
-        <v>24.531222405751</v>
+        <v>23.530482072639</v>
       </c>
       <c r="L21" s="19">
-        <v>31.358346665497</v>
+        <v>31.382035155620</v>
       </c>
       <c r="M21" s="19">
-        <v>19.705018873200</v>
+        <v>19.486678073820</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.658857047748</v>
+        <v>-70.664416577047</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1154,34 +1154,34 @@
         <v>44</v>
       </c>
       <c r="D22" s="15">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" s="16">
-        <v>-20</v>
+        <v>-15.384615384615</v>
       </c>
       <c r="F22" s="15">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G22" s="15">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H22" s="16">
-        <v>-23.529411764705</v>
+        <v>-17.757009345794</v>
       </c>
       <c r="I22" s="15">
-        <v>2192</v>
+        <v>2237</v>
       </c>
       <c r="J22" s="15">
-        <v>1684</v>
+        <v>1736</v>
       </c>
       <c r="K22" s="16">
-        <v>30.166270783848</v>
+        <v>28.859447004608</v>
       </c>
       <c r="L22" s="16">
-        <v>30.321046373365</v>
+        <v>31.125439624853</v>
       </c>
       <c r="M22" s="16">
-        <v>6.926829268292</v>
+        <v>6.018957345971</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D23" s="15">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E23" s="16">
-        <v>-18.644067796610</v>
+        <v>-7.476635514018</v>
       </c>
       <c r="F23" s="15">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="G23" s="15">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="H23" s="16">
-        <v>-8.125</v>
+        <v>-9.210526315789</v>
       </c>
       <c r="I23" s="15">
-        <v>5634</v>
+        <v>5737</v>
       </c>
       <c r="J23" s="15">
-        <v>5255</v>
+        <v>5362</v>
       </c>
       <c r="K23" s="16">
-        <v>7.212178877259</v>
+        <v>6.993659082431</v>
       </c>
       <c r="L23" s="16">
-        <v>15.261865793780</v>
+        <v>14.717056588682</v>
       </c>
       <c r="M23" s="16">
-        <v>40.603943099575</v>
+        <v>40.543851053405</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2317</v>
+        <v>2132</v>
       </c>
       <c r="D24" s="15">
-        <v>2055</v>
+        <v>2017</v>
       </c>
       <c r="E24" s="16">
-        <v>12.749391727493</v>
+        <v>5.701536936043</v>
       </c>
       <c r="F24" s="15">
-        <v>9059</v>
+        <v>8861</v>
       </c>
       <c r="G24" s="15">
-        <v>8149</v>
+        <v>8152</v>
       </c>
       <c r="H24" s="16">
-        <v>11.167014357589</v>
+        <v>8.697252208047</v>
       </c>
       <c r="I24" s="15">
-        <v>109563</v>
+        <v>111754</v>
       </c>
       <c r="J24" s="15">
-        <v>81419</v>
+        <v>83435</v>
       </c>
       <c r="K24" s="16">
-        <v>34.566870140876</v>
+        <v>33.941391502367</v>
       </c>
       <c r="L24" s="16">
-        <v>41.417231364956</v>
+        <v>41.237282780410</v>
       </c>
       <c r="M24" s="16">
-        <v>41.280464216634</v>
+        <v>41.333738032907</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>733</v>
+        <v>643</v>
       </c>
       <c r="D25" s="15">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="E25" s="16">
-        <v>-7.215189873417</v>
+        <v>-15.616797900262</v>
       </c>
       <c r="F25" s="15">
-        <v>2880</v>
+        <v>2832</v>
       </c>
       <c r="G25" s="15">
-        <v>3021</v>
+        <v>2991</v>
       </c>
       <c r="H25" s="16">
-        <v>-4.667328699106</v>
+        <v>-5.315947843530</v>
       </c>
       <c r="I25" s="15">
-        <v>39169</v>
+        <v>39828</v>
       </c>
       <c r="J25" s="15">
-        <v>34407</v>
+        <v>35169</v>
       </c>
       <c r="K25" s="16">
-        <v>13.840206934635</v>
+        <v>13.247462253689</v>
       </c>
       <c r="L25" s="16">
-        <v>23.932922006011</v>
+        <v>23.885657407695</v>
       </c>
       <c r="M25" s="16">
-        <v>-10.125739984397</v>
+        <v>-10.198191698045</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D26" s="15">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E26" s="16">
-        <v>0</v>
+        <v>-5.769230769230</v>
       </c>
       <c r="F26" s="15">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G26" s="15">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H26" s="16">
-        <v>-19.289340101522</v>
+        <v>-17.171717171717</v>
       </c>
       <c r="I26" s="15">
-        <v>2468</v>
+        <v>2513</v>
       </c>
       <c r="J26" s="15">
-        <v>2340</v>
+        <v>2392</v>
       </c>
       <c r="K26" s="16">
-        <v>5.470085470085</v>
+        <v>5.058528428093</v>
       </c>
       <c r="L26" s="16">
-        <v>14.259259259259</v>
+        <v>14.331210191082</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D27" s="15">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="E27" s="16">
-        <v>-19.008264462809</v>
+        <v>-16.842105263157</v>
       </c>
       <c r="F27" s="15">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="G27" s="15">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H27" s="16">
-        <v>-9.375</v>
+        <v>-17.603911980440</v>
       </c>
       <c r="I27" s="15">
-        <v>4928</v>
+        <v>5005</v>
       </c>
       <c r="J27" s="15">
-        <v>4699</v>
+        <v>4794</v>
       </c>
       <c r="K27" s="16">
-        <v>4.873377314322</v>
+        <v>4.401335002085</v>
       </c>
       <c r="L27" s="16">
-        <v>35.720187276232</v>
+        <v>35.710412147505</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D28" s="15">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E28" s="16">
-        <v>-6.666666666666</v>
+        <v>-42.105263157894</v>
       </c>
       <c r="F28" s="15">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G28" s="15">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H28" s="16">
-        <v>-41.176470588235</v>
+        <v>-37.956204379562</v>
       </c>
       <c r="I28" s="15">
-        <v>1502</v>
+        <v>1524</v>
       </c>
       <c r="J28" s="15">
-        <v>1787</v>
+        <v>1825</v>
       </c>
       <c r="K28" s="16">
-        <v>-15.948517067711</v>
+        <v>-16.493150684931</v>
       </c>
       <c r="L28" s="16">
-        <v>-15.759955131800</v>
+        <v>-16.171617161716</v>
       </c>
       <c r="M28" s="16">
-        <v>-11.281748375664</v>
+        <v>-11.395348837209</v>
       </c>
       <c r="N28" s="16">
-        <v>-73.221608129791</v>
+        <v>-73.323997899527</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D29" s="15">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E29" s="16">
-        <v>-4.347826086956</v>
+        <v>-48.484848484848</v>
       </c>
       <c r="F29" s="15">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G29" s="15">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H29" s="16">
-        <v>-36.607142857142</v>
+        <v>-39.166666666666</v>
       </c>
       <c r="I29" s="15">
-        <v>1240</v>
+        <v>1257</v>
       </c>
       <c r="J29" s="15">
-        <v>1490</v>
+        <v>1523</v>
       </c>
       <c r="K29" s="16">
-        <v>-16.778523489932</v>
+        <v>-17.465528562048</v>
       </c>
       <c r="L29" s="16">
-        <v>-14.951989026063</v>
+        <v>-15.46738399462</v>
       </c>
       <c r="M29" s="16">
-        <v>-11.428571428571</v>
+        <v>-11.789473684210</v>
       </c>
       <c r="N29" s="16">
-        <v>-75.391942845802</v>
+        <v>-75.511396843950</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30" s="16">
-        <v>-70</v>
+        <v>-83.333333333333</v>
       </c>
       <c r="F30" s="15">
         <v>20</v>
       </c>
       <c r="G30" s="15">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H30" s="16">
-        <v>-33.333333333333</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="I30" s="15">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="J30" s="15">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="K30" s="16">
-        <v>14.229249011857</v>
+        <v>16.216216216216</v>
       </c>
       <c r="L30" s="16">
-        <v>131.2</v>
+        <v>135.15625</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58" xml:space="preserve">
   <si>
     <t>Police Department</t>
   </si>
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">50</t>
+      <t xml:space="preserve">51</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/12/2022</t>
+      <t xml:space="preserve">12/19/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/18/2022</t>
+      <t xml:space="preserve">12/25/2022</t>
     </r>
   </si>
   <si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>Hate Crimes</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Historical Perspective</t>
@@ -823,40 +826,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
+        <v>4</v>
+      </c>
+      <c r="D14" s="15">
         <v>8</v>
-      </c>
-      <c r="D14" s="15">
-        <v>16</v>
       </c>
       <c r="E14" s="16">
         <v>-50</v>
       </c>
       <c r="F14" s="15">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G14" s="15">
         <v>41</v>
       </c>
       <c r="H14" s="16">
-        <v>-24.390243902439</v>
+        <v>-36.585365853658</v>
       </c>
       <c r="I14" s="15">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J14" s="15">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="K14" s="16">
-        <v>-12.473572938689</v>
+        <v>-13.097713097713</v>
       </c>
       <c r="L14" s="16">
-        <v>-7.589285714285</v>
+        <v>-8.733624454148</v>
       </c>
       <c r="M14" s="16">
-        <v>-20.231213872832</v>
+        <v>-20.076481835564</v>
       </c>
       <c r="N14" s="16">
-        <v>-77.741935483871</v>
+        <v>-78.057742782152</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +867,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D15" s="15">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E15" s="16">
-        <v>3.030303030303</v>
+        <v>0</v>
       </c>
       <c r="F15" s="15">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G15" s="15">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H15" s="16">
-        <v>-20.661157024793</v>
+        <v>-11.965811965812</v>
       </c>
       <c r="I15" s="15">
-        <v>1567</v>
+        <v>1591</v>
       </c>
       <c r="J15" s="15">
-        <v>1456</v>
+        <v>1481</v>
       </c>
       <c r="K15" s="16">
-        <v>7.623626373626</v>
+        <v>7.427413909520</v>
       </c>
       <c r="L15" s="16">
-        <v>11.134751773049</v>
+        <v>11.258741258741</v>
       </c>
       <c r="M15" s="16">
-        <v>17.290419161676</v>
+        <v>17.677514792899</v>
       </c>
       <c r="N15" s="16">
-        <v>-50.111429481057</v>
+        <v>-50.141021623315</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +908,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D16" s="15">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="E16" s="16">
-        <v>-8.974358974358</v>
+        <v>-5.755395683453</v>
       </c>
       <c r="F16" s="15">
-        <v>1202</v>
+        <v>1151</v>
       </c>
       <c r="G16" s="15">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="H16" s="16">
-        <v>-6.020328381548</v>
+        <v>-8.867775138558</v>
       </c>
       <c r="I16" s="15">
-        <v>16868</v>
+        <v>17138</v>
       </c>
       <c r="J16" s="15">
-        <v>13313</v>
+        <v>13592</v>
       </c>
       <c r="K16" s="16">
-        <v>26.703222414181</v>
+        <v>26.088875809299</v>
       </c>
       <c r="L16" s="16">
-        <v>32.996925017740</v>
+        <v>32.534220091253</v>
       </c>
       <c r="M16" s="16">
-        <v>-10.666242982734</v>
+        <v>-11.045364891518</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.668779982161</v>
+        <v>-79.755956388721</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +949,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="D17" s="15">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="E17" s="16">
-        <v>-10.585585585585</v>
+        <v>6.329113924050</v>
       </c>
       <c r="F17" s="15">
-        <v>1769</v>
+        <v>1748</v>
       </c>
       <c r="G17" s="15">
-        <v>1772</v>
+        <v>1748</v>
       </c>
       <c r="H17" s="16">
-        <v>-0.169300225733</v>
+        <v>0</v>
       </c>
       <c r="I17" s="15">
-        <v>25123</v>
+        <v>25596</v>
       </c>
       <c r="J17" s="15">
-        <v>22340</v>
+        <v>22738</v>
       </c>
       <c r="K17" s="16">
-        <v>12.457475380483</v>
+        <v>12.569267305831</v>
       </c>
       <c r="L17" s="16">
-        <v>24.983831650166</v>
+        <v>24.992675065924</v>
       </c>
       <c r="M17" s="16">
-        <v>51.773092490787</v>
+        <v>51.914060181613</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.238002448225</v>
+        <v>-37.053340874996</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +990,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D18" s="15">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="E18" s="16">
-        <v>-4.561403508771</v>
+        <v>-13.245033112582</v>
       </c>
       <c r="F18" s="15">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="G18" s="15">
-        <v>1230</v>
+        <v>1216</v>
       </c>
       <c r="H18" s="16">
-        <v>-5.365853658536</v>
+        <v>-5.180921052631</v>
       </c>
       <c r="I18" s="15">
-        <v>15198</v>
+        <v>15481</v>
       </c>
       <c r="J18" s="15">
-        <v>12266</v>
+        <v>12568</v>
       </c>
       <c r="K18" s="16">
-        <v>23.903473014837</v>
+        <v>23.177912157861</v>
       </c>
       <c r="L18" s="16">
-        <v>1.158146964856</v>
+        <v>0.991584578250</v>
       </c>
       <c r="M18" s="16">
-        <v>-16.130456376579</v>
+        <v>-16.237420192619</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.419019499292</v>
+        <v>-84.435261707989</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1031,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>993</v>
+        <v>827</v>
       </c>
       <c r="D19" s="15">
-        <v>1336</v>
+        <v>1076</v>
       </c>
       <c r="E19" s="16">
-        <v>-25.673652694610</v>
+        <v>-23.141263940520</v>
       </c>
       <c r="F19" s="15">
-        <v>3846</v>
+        <v>3813</v>
       </c>
       <c r="G19" s="15">
-        <v>5155</v>
+        <v>5229</v>
       </c>
       <c r="H19" s="16">
-        <v>-25.392822502424</v>
+        <v>-27.079747561675</v>
       </c>
       <c r="I19" s="15">
-        <v>49853</v>
+        <v>50698</v>
       </c>
       <c r="J19" s="15">
-        <v>39083</v>
+        <v>40166</v>
       </c>
       <c r="K19" s="16">
-        <v>27.556738223780</v>
+        <v>26.221182094308</v>
       </c>
       <c r="L19" s="16">
-        <v>44.154642454385</v>
+        <v>44.044777815660</v>
       </c>
       <c r="M19" s="16">
-        <v>35.264271760364</v>
+        <v>34.802839745805</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.880370946540</v>
+        <v>-40.015144702903</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1072,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D20" s="15">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E20" s="16">
-        <v>16.317991631799</v>
+        <v>28.251121076233</v>
       </c>
       <c r="F20" s="15">
-        <v>1134</v>
+        <v>1162</v>
       </c>
       <c r="G20" s="15">
-        <v>919</v>
+        <v>880</v>
       </c>
       <c r="H20" s="16">
-        <v>23.394994559303</v>
+        <v>32.045454545454</v>
       </c>
       <c r="I20" s="15">
-        <v>13182</v>
+        <v>13475</v>
       </c>
       <c r="J20" s="15">
-        <v>9996</v>
+        <v>10219</v>
       </c>
       <c r="K20" s="16">
-        <v>31.872749099639</v>
+        <v>31.862217438105</v>
       </c>
       <c r="L20" s="16">
-        <v>50.376454483230</v>
+        <v>51.404494382022</v>
       </c>
       <c r="M20" s="16">
-        <v>31.714628297362</v>
+        <v>32.043116119549</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.807427276511</v>
+        <v>-87.753339998182</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1113,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2266</v>
+        <v>2086</v>
       </c>
       <c r="D21" s="18">
-        <v>2665</v>
+        <v>2307</v>
       </c>
       <c r="E21" s="19">
-        <v>-14.971857410881</v>
+        <v>-9.579540528825</v>
       </c>
       <c r="F21" s="18">
-        <v>9242</v>
+        <v>9156</v>
       </c>
       <c r="G21" s="18">
-        <v>10517</v>
+        <v>10494</v>
       </c>
       <c r="H21" s="19">
-        <v>-12.123229057716</v>
+        <v>-12.750142938822</v>
       </c>
       <c r="I21" s="18">
-        <v>122205</v>
+        <v>124397</v>
       </c>
       <c r="J21" s="18">
-        <v>98927</v>
+        <v>101245</v>
       </c>
       <c r="K21" s="19">
-        <v>23.530482072639</v>
+        <v>22.867302088992</v>
       </c>
       <c r="L21" s="19">
-        <v>31.382035155620</v>
+        <v>31.328519245793</v>
       </c>
       <c r="M21" s="19">
-        <v>19.486678073820</v>
+        <v>19.284467713787</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.664416577047</v>
+        <v>-70.690532625239</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1154,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D22" s="15">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E22" s="16">
-        <v>-15.384615384615</v>
+        <v>54.838709677419</v>
       </c>
       <c r="F22" s="15">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G22" s="15">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="H22" s="16">
-        <v>-17.757009345794</v>
+        <v>-6.632653061224</v>
       </c>
       <c r="I22" s="15">
-        <v>2237</v>
+        <v>2288</v>
       </c>
       <c r="J22" s="15">
-        <v>1736</v>
+        <v>1767</v>
       </c>
       <c r="K22" s="16">
-        <v>28.859447004608</v>
+        <v>29.485002829654</v>
       </c>
       <c r="L22" s="16">
-        <v>31.125439624853</v>
+        <v>31.873198847262</v>
       </c>
       <c r="M22" s="16">
-        <v>6.018957345971</v>
+        <v>6.073249884098</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1195,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D23" s="15">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="16">
-        <v>-7.476635514018</v>
+        <v>-2.830188679245</v>
       </c>
       <c r="F23" s="15">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G23" s="15">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H23" s="16">
-        <v>-9.210526315789</v>
+        <v>-10.675381263616</v>
       </c>
       <c r="I23" s="15">
-        <v>5737</v>
+        <v>5852</v>
       </c>
       <c r="J23" s="15">
-        <v>5362</v>
+        <v>5468</v>
       </c>
       <c r="K23" s="16">
-        <v>6.993659082431</v>
+        <v>7.022677395757</v>
       </c>
       <c r="L23" s="16">
-        <v>14.717056588682</v>
+        <v>14.880251276011</v>
       </c>
       <c r="M23" s="16">
-        <v>40.543851053405</v>
+        <v>40.910185408138</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1236,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2132</v>
+        <v>1805</v>
       </c>
       <c r="D24" s="15">
-        <v>2017</v>
+        <v>1814</v>
       </c>
       <c r="E24" s="16">
-        <v>5.701536936043</v>
+        <v>-0.496141124586</v>
       </c>
       <c r="F24" s="15">
-        <v>8861</v>
+        <v>8828</v>
       </c>
       <c r="G24" s="15">
-        <v>8152</v>
+        <v>8067</v>
       </c>
       <c r="H24" s="16">
-        <v>8.697252208047</v>
+        <v>9.433494483699</v>
       </c>
       <c r="I24" s="15">
-        <v>111754</v>
+        <v>113618</v>
       </c>
       <c r="J24" s="15">
-        <v>83435</v>
+        <v>85247</v>
       </c>
       <c r="K24" s="16">
-        <v>33.941391502367</v>
+        <v>33.280936572548</v>
       </c>
       <c r="L24" s="16">
-        <v>41.237282780410</v>
+        <v>40.993249280254</v>
       </c>
       <c r="M24" s="16">
-        <v>41.333738032907</v>
+        <v>41.136866164815</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1277,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="D25" s="15">
-        <v>762</v>
+        <v>684</v>
       </c>
       <c r="E25" s="16">
-        <v>-15.616797900262</v>
+        <v>-14.327485380117</v>
       </c>
       <c r="F25" s="15">
-        <v>2832</v>
+        <v>2723</v>
       </c>
       <c r="G25" s="15">
-        <v>2991</v>
+        <v>2947</v>
       </c>
       <c r="H25" s="16">
-        <v>-5.315947843530</v>
+        <v>-7.600950118764</v>
       </c>
       <c r="I25" s="15">
-        <v>39828</v>
+        <v>40448</v>
       </c>
       <c r="J25" s="15">
-        <v>35169</v>
+        <v>35851</v>
       </c>
       <c r="K25" s="16">
-        <v>13.247462253689</v>
+        <v>12.822515411006</v>
       </c>
       <c r="L25" s="16">
-        <v>23.885657407695</v>
+        <v>23.62236009658</v>
       </c>
       <c r="M25" s="16">
-        <v>-10.198191698045</v>
+        <v>-10.249184547451</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1318,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D26" s="15">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E26" s="16">
-        <v>-5.769230769230</v>
+        <v>-16.279069767441</v>
       </c>
       <c r="F26" s="15">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G26" s="15">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H26" s="16">
-        <v>-17.171717171717</v>
+        <v>-12.631578947368</v>
       </c>
       <c r="I26" s="15">
-        <v>2513</v>
+        <v>2551</v>
       </c>
       <c r="J26" s="15">
-        <v>2392</v>
+        <v>2435</v>
       </c>
       <c r="K26" s="16">
-        <v>5.058528428093</v>
+        <v>4.763860369609</v>
       </c>
       <c r="L26" s="16">
-        <v>14.331210191082</v>
+        <v>14.445939883355</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1359,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D27" s="15">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="E27" s="16">
-        <v>-16.842105263157</v>
+        <v>19.354838709677</v>
       </c>
       <c r="F27" s="15">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G27" s="15">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="H27" s="16">
-        <v>-17.603911980440</v>
+        <v>-12.207792207792</v>
       </c>
       <c r="I27" s="15">
-        <v>5005</v>
+        <v>5079</v>
       </c>
       <c r="J27" s="15">
-        <v>4794</v>
+        <v>4856</v>
       </c>
       <c r="K27" s="16">
-        <v>4.401335002085</v>
+        <v>4.592257001647</v>
       </c>
       <c r="L27" s="16">
-        <v>35.710412147505</v>
+        <v>35.693294149078</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1400,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D28" s="15">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16">
-        <v>-42.105263157894</v>
+        <v>-3.846153846153</v>
       </c>
       <c r="F28" s="15">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G28" s="15">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H28" s="16">
-        <v>-37.956204379562</v>
+        <v>-32.307692307692</v>
       </c>
       <c r="I28" s="15">
-        <v>1524</v>
+        <v>1549</v>
       </c>
       <c r="J28" s="15">
-        <v>1825</v>
+        <v>1851</v>
       </c>
       <c r="K28" s="16">
-        <v>-16.493150684931</v>
+        <v>-16.315505132360</v>
       </c>
       <c r="L28" s="16">
-        <v>-16.171617161716</v>
+        <v>-16.043360433604</v>
       </c>
       <c r="M28" s="16">
-        <v>-11.395348837209</v>
+        <v>-10.977011494252</v>
       </c>
       <c r="N28" s="16">
-        <v>-73.323997899527</v>
+        <v>-73.311509303928</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,75 +1441,75 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D29" s="15">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16">
-        <v>-48.484848484848</v>
+        <v>15</v>
       </c>
       <c r="F29" s="15">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G29" s="15">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H29" s="16">
-        <v>-39.166666666666</v>
+        <v>-30.555555555555</v>
       </c>
       <c r="I29" s="15">
-        <v>1257</v>
+        <v>1280</v>
       </c>
       <c r="J29" s="15">
-        <v>1523</v>
+        <v>1543</v>
       </c>
       <c r="K29" s="16">
-        <v>-17.465528562048</v>
+        <v>-17.044718081659</v>
       </c>
       <c r="L29" s="16">
-        <v>-15.46738399462</v>
+        <v>-15.287888815354</v>
       </c>
       <c r="M29" s="16">
-        <v>-11.789473684210</v>
+        <v>-11.357340720221</v>
       </c>
       <c r="N29" s="16">
-        <v>-75.511396843950</v>
+        <v>-75.455417066155</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="15">
-        <v>2</v>
+      <c r="C30" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D30" s="15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E30" s="16">
-        <v>-83.333333333333</v>
+        <v>-100</v>
       </c>
       <c r="F30" s="15">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G30" s="15">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H30" s="16">
-        <v>-44.444444444444</v>
+        <v>-55.263157894736</v>
       </c>
       <c r="I30" s="15">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="J30" s="15">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K30" s="16">
-        <v>16.216216216216</v>
+        <v>15.487571701720</v>
       </c>
       <c r="L30" s="16">
-        <v>135.15625</v>
+        <v>135.019455252918</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>
@@ -1517,7 +1520,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -1535,7 +1538,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1568,45 +1571,45 @@
         <v>17</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35" s="21">
         <v>2021</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1867,42 +1870,42 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:11" customHeight="1" ht="29.250000">
       <c r="A53" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>7</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="54" spans="1:1" customHeight="1" ht="29.250000">
       <c r="A54" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -51,7 +51,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">29</t>
+      <t xml:space="preserve">30</t>
     </r>
     <r>
       <rPr>
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">51</t>
+      <t xml:space="preserve">52</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/19/2022</t>
+      <t xml:space="preserve">12/26/2022</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/25/2022</t>
+      <t xml:space="preserve">1/1/2023</t>
     </r>
   </si>
   <si>
@@ -139,7 +139,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12</t>
+      <t xml:space="preserve">13</t>
     </r>
     <r>
       <rPr>
@@ -168,7 +168,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">29</t>
+      <t xml:space="preserve">30</t>
     </r>
     <r>
       <rPr>
@@ -274,16 +274,16 @@
     <t>%Chg  </t>
   </si>
   <si>
-    <t>'21 vs '01</t>
-  </si>
-  <si>
-    <t>'21 vs '98</t>
-  </si>
-  <si>
-    <t>'21 vs '93</t>
-  </si>
-  <si>
-    <t>'21 vs '90</t>
+    <t>'22 vs '01</t>
+  </si>
+  <si>
+    <t>'22 vs '98</t>
+  </si>
+  <si>
+    <t>'22 vs '93</t>
+  </si>
+  <si>
+    <t>'22 vs '90</t>
   </si>
   <si>
     <t>Figures are preliminary and subject to further analysis and revision.</t>
@@ -785,28 +785,28 @@
         <v>17</v>
       </c>
       <c r="C13" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D13" s="12">
         <v>2022</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2021</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="12">
+        <v>2023</v>
+      </c>
+      <c r="G13" s="12">
         <v>2022</v>
-      </c>
-      <c r="G13" s="12">
-        <v>2021</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="12">
+        <v>2023</v>
+      </c>
+      <c r="J13" s="12">
         <v>2022</v>
-      </c>
-      <c r="J13" s="12">
-        <v>2021</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>18</v>
@@ -826,40 +826,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="16">
+        <v>11.111111111111</v>
+      </c>
+      <c r="F14" s="15">
+        <v>34</v>
+      </c>
+      <c r="G14" s="15">
+        <v>42</v>
+      </c>
+      <c r="H14" s="16">
+        <v>-19.047619047619</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
+        <v>2</v>
+      </c>
+      <c r="K14" s="16">
         <v>-50</v>
       </c>
-      <c r="F14" s="15">
-        <v>26</v>
-      </c>
-      <c r="G14" s="15">
-        <v>41</v>
-      </c>
-      <c r="H14" s="16">
-        <v>-36.585365853658</v>
-      </c>
-      <c r="I14" s="15">
-        <v>418</v>
-      </c>
-      <c r="J14" s="15">
-        <v>481</v>
-      </c>
-      <c r="K14" s="16">
-        <v>-13.097713097713</v>
-      </c>
       <c r="L14" s="16">
-        <v>-8.733624454148</v>
+        <v>0</v>
       </c>
       <c r="M14" s="16">
-        <v>-20.076481835564</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.057742782152</v>
+        <v>-85.714285714285</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -867,40 +867,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="16">
-        <v>0</v>
+        <v>-4.347826086956</v>
       </c>
       <c r="F15" s="15">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G15" s="15">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H15" s="16">
-        <v>-11.965811965812</v>
+        <v>-10</v>
       </c>
       <c r="I15" s="15">
-        <v>1591</v>
+        <v>3</v>
       </c>
       <c r="J15" s="15">
-        <v>1481</v>
+        <v>4</v>
       </c>
       <c r="K15" s="16">
-        <v>7.427413909520</v>
+        <v>-25</v>
       </c>
       <c r="L15" s="16">
-        <v>11.258741258741</v>
+        <v>-57.142857142857</v>
       </c>
       <c r="M15" s="16">
-        <v>17.677514792899</v>
+        <v>-40</v>
       </c>
       <c r="N15" s="16">
-        <v>-50.141021623315</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,40 +908,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D16" s="15">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="E16" s="16">
-        <v>-5.755395683453</v>
+        <v>-10.443037974683</v>
       </c>
       <c r="F16" s="15">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="G16" s="15">
-        <v>1263</v>
+        <v>1213</v>
       </c>
       <c r="H16" s="16">
-        <v>-8.867775138558</v>
+        <v>-6.265457543281</v>
       </c>
       <c r="I16" s="15">
-        <v>17138</v>
+        <v>28</v>
       </c>
       <c r="J16" s="15">
-        <v>13592</v>
+        <v>38</v>
       </c>
       <c r="K16" s="16">
-        <v>26.088875809299</v>
+        <v>-26.315789473684</v>
       </c>
       <c r="L16" s="16">
-        <v>32.534220091253</v>
+        <v>-26.315789473684</v>
       </c>
       <c r="M16" s="16">
-        <v>-11.045364891518</v>
+        <v>-24.324324324324</v>
       </c>
       <c r="N16" s="16">
-        <v>-79.755956388721</v>
+        <v>-85.185185185185</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -949,40 +949,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="D17" s="15">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E17" s="16">
-        <v>6.329113924050</v>
+        <v>16.707616707616</v>
       </c>
       <c r="F17" s="15">
-        <v>1748</v>
+        <v>1812</v>
       </c>
       <c r="G17" s="15">
-        <v>1748</v>
+        <v>1711</v>
       </c>
       <c r="H17" s="16">
-        <v>0</v>
+        <v>5.902980713033</v>
       </c>
       <c r="I17" s="15">
-        <v>25596</v>
+        <v>95</v>
       </c>
       <c r="J17" s="15">
-        <v>22738</v>
+        <v>89</v>
       </c>
       <c r="K17" s="16">
-        <v>12.569267305831</v>
+        <v>6.741573033707</v>
       </c>
       <c r="L17" s="16">
-        <v>24.992675065924</v>
+        <v>7.954545454545</v>
       </c>
       <c r="M17" s="16">
-        <v>51.914060181613</v>
+        <v>18.75</v>
       </c>
       <c r="N17" s="16">
-        <v>-37.053340874996</v>
+        <v>-53.431372549019</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -990,40 +990,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D18" s="15">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="E18" s="16">
-        <v>-13.245033112582</v>
+        <v>-26.315789473684</v>
       </c>
       <c r="F18" s="15">
-        <v>1153</v>
+        <v>1112</v>
       </c>
       <c r="G18" s="15">
-        <v>1216</v>
+        <v>1235</v>
       </c>
       <c r="H18" s="16">
-        <v>-5.180921052631</v>
+        <v>-9.959514170040</v>
       </c>
       <c r="I18" s="15">
-        <v>15481</v>
+        <v>25</v>
       </c>
       <c r="J18" s="15">
-        <v>12568</v>
+        <v>32</v>
       </c>
       <c r="K18" s="16">
-        <v>23.177912157861</v>
+        <v>-21.875</v>
       </c>
       <c r="L18" s="16">
-        <v>0.991584578250</v>
+        <v>-3.846153846153</v>
       </c>
       <c r="M18" s="16">
-        <v>-16.237420192619</v>
+        <v>-37.5</v>
       </c>
       <c r="N18" s="16">
-        <v>-84.435261707989</v>
+        <v>-88.479262672811</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1031,40 +1031,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>827</v>
+        <v>892</v>
       </c>
       <c r="D19" s="15">
         <v>1076</v>
       </c>
       <c r="E19" s="16">
-        <v>-23.141263940520</v>
+        <v>-17.100371747211</v>
       </c>
       <c r="F19" s="15">
-        <v>3813</v>
+        <v>3730</v>
       </c>
       <c r="G19" s="15">
-        <v>5229</v>
+        <v>4907</v>
       </c>
       <c r="H19" s="16">
-        <v>-27.079747561675</v>
+        <v>-23.986142245771</v>
       </c>
       <c r="I19" s="15">
-        <v>50698</v>
+        <v>68</v>
       </c>
       <c r="J19" s="15">
-        <v>40166</v>
+        <v>67</v>
       </c>
       <c r="K19" s="16">
-        <v>26.221182094308</v>
+        <v>1.492537313432</v>
       </c>
       <c r="L19" s="16">
-        <v>44.044777815660</v>
+        <v>88.888888888888</v>
       </c>
       <c r="M19" s="16">
-        <v>34.802839745805</v>
+        <v>78.947368421052</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.015144702903</v>
+        <v>-44.262295081967</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1072,40 +1072,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D20" s="15">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E20" s="16">
-        <v>28.251121076233</v>
+        <v>43.127962085308</v>
       </c>
       <c r="F20" s="15">
-        <v>1162</v>
+        <v>1182</v>
       </c>
       <c r="G20" s="15">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H20" s="16">
-        <v>32.045454545454</v>
+        <v>34.165720771850</v>
       </c>
       <c r="I20" s="15">
-        <v>13475</v>
+        <v>24</v>
       </c>
       <c r="J20" s="15">
-        <v>10219</v>
+        <v>18</v>
       </c>
       <c r="K20" s="16">
-        <v>31.862217438105</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L20" s="16">
-        <v>51.404494382022</v>
+        <v>41.176470588235</v>
       </c>
       <c r="M20" s="16">
-        <v>32.043116119549</v>
+        <v>9.090909090909</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.753339998182</v>
+        <v>-89.285714285714</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1113,40 +1113,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2086</v>
+        <v>2236</v>
       </c>
       <c r="D21" s="18">
-        <v>2307</v>
+        <v>2384</v>
       </c>
       <c r="E21" s="19">
-        <v>-9.579540528825</v>
+        <v>-6.208053691275</v>
       </c>
       <c r="F21" s="18">
-        <v>9156</v>
+        <v>9106</v>
       </c>
       <c r="G21" s="18">
-        <v>10494</v>
+        <v>10099</v>
       </c>
       <c r="H21" s="19">
-        <v>-12.750142938822</v>
+        <v>-9.832656698683</v>
       </c>
       <c r="I21" s="18">
-        <v>124397</v>
+        <v>244</v>
       </c>
       <c r="J21" s="18">
-        <v>101245</v>
+        <v>250</v>
       </c>
       <c r="K21" s="19">
-        <v>22.867302088992</v>
+        <v>-2.4</v>
       </c>
       <c r="L21" s="19">
-        <v>31.328519245793</v>
+        <v>14.553990610328</v>
       </c>
       <c r="M21" s="19">
-        <v>19.284467713787</v>
+        <v>8.444444444444</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.690532625239</v>
+        <v>-74.922918807810</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1154,37 +1154,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D22" s="15">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E22" s="16">
-        <v>54.838709677419</v>
+        <v>48.571428571428</v>
       </c>
       <c r="F22" s="15">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G22" s="15">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="H22" s="16">
-        <v>-6.632653061224</v>
+        <v>8.670520231213</v>
       </c>
       <c r="I22" s="15">
-        <v>2288</v>
+        <v>7</v>
       </c>
       <c r="J22" s="15">
-        <v>1767</v>
+        <v>3</v>
       </c>
       <c r="K22" s="16">
-        <v>29.485002829654</v>
+        <v>133.333333333333</v>
       </c>
       <c r="L22" s="16">
-        <v>31.873198847262</v>
+        <v>600</v>
       </c>
       <c r="M22" s="16">
-        <v>6.073249884098</v>
+        <v>40</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1195,37 +1195,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D23" s="15">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E23" s="16">
-        <v>-2.830188679245</v>
+        <v>-17.647058823529</v>
       </c>
       <c r="F23" s="15">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G23" s="15">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="H23" s="16">
-        <v>-10.675381263616</v>
+        <v>-10.222222222222</v>
       </c>
       <c r="I23" s="15">
-        <v>5852</v>
+        <v>18</v>
       </c>
       <c r="J23" s="15">
-        <v>5468</v>
+        <v>16</v>
       </c>
       <c r="K23" s="16">
-        <v>7.022677395757</v>
+        <v>12.5</v>
       </c>
       <c r="L23" s="16">
-        <v>14.880251276011</v>
+        <v>80</v>
       </c>
       <c r="M23" s="16">
-        <v>40.910185408138</v>
+        <v>20</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1236,37 +1236,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1805</v>
+        <v>2028</v>
       </c>
       <c r="D24" s="15">
-        <v>1814</v>
+        <v>1894</v>
       </c>
       <c r="E24" s="16">
-        <v>-0.496141124586</v>
+        <v>7.074973600844</v>
       </c>
       <c r="F24" s="15">
-        <v>8828</v>
+        <v>8452</v>
       </c>
       <c r="G24" s="15">
-        <v>8067</v>
+        <v>7780</v>
       </c>
       <c r="H24" s="16">
-        <v>9.433494483699</v>
+        <v>8.637532133676</v>
       </c>
       <c r="I24" s="15">
-        <v>113618</v>
+        <v>52</v>
       </c>
       <c r="J24" s="15">
-        <v>85247</v>
+        <v>89</v>
       </c>
       <c r="K24" s="16">
-        <v>33.280936572548</v>
+        <v>-41.573033707865</v>
       </c>
       <c r="L24" s="16">
-        <v>40.993249280254</v>
+        <v>-24.637681159420</v>
       </c>
       <c r="M24" s="16">
-        <v>41.136866164815</v>
+        <v>-45.833333333333</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1277,37 +1277,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>586</v>
+        <v>788</v>
       </c>
       <c r="D25" s="15">
-        <v>684</v>
+        <v>730</v>
       </c>
       <c r="E25" s="16">
-        <v>-14.327485380117</v>
+        <v>7.945205479452</v>
       </c>
       <c r="F25" s="15">
-        <v>2723</v>
+        <v>2873</v>
       </c>
       <c r="G25" s="15">
-        <v>2947</v>
+        <v>2966</v>
       </c>
       <c r="H25" s="16">
-        <v>-7.600950118764</v>
+        <v>-3.135536075522</v>
       </c>
       <c r="I25" s="15">
-        <v>40448</v>
+        <v>103</v>
       </c>
       <c r="J25" s="15">
-        <v>35851</v>
+        <v>125</v>
       </c>
       <c r="K25" s="16">
-        <v>12.822515411006</v>
+        <v>-17.6</v>
       </c>
       <c r="L25" s="16">
-        <v>23.62236009658</v>
+        <v>4.040404040404</v>
       </c>
       <c r="M25" s="16">
-        <v>-10.249184547451</v>
+        <v>-35.625</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1318,34 +1318,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D26" s="15">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E26" s="16">
-        <v>-16.279069767441</v>
+        <v>-5.882352941176</v>
       </c>
       <c r="F26" s="15">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G26" s="15">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="H26" s="16">
-        <v>-12.631578947368</v>
+        <v>-5.952380952380</v>
       </c>
       <c r="I26" s="15">
-        <v>2551</v>
+        <v>4</v>
       </c>
       <c r="J26" s="15">
-        <v>2435</v>
+        <v>6</v>
       </c>
       <c r="K26" s="16">
-        <v>4.763860369609</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L26" s="16">
-        <v>14.445939883355</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1359,34 +1359,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="15">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E27" s="16">
-        <v>19.354838709677</v>
+        <v>41.509433962264</v>
       </c>
       <c r="F27" s="15">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G27" s="15">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="H27" s="16">
-        <v>-12.207792207792</v>
+        <v>1.208459214501</v>
       </c>
       <c r="I27" s="15">
-        <v>5079</v>
+        <v>11</v>
       </c>
       <c r="J27" s="15">
-        <v>4856</v>
+        <v>7</v>
       </c>
       <c r="K27" s="16">
-        <v>4.592257001647</v>
+        <v>57.142857142857</v>
       </c>
       <c r="L27" s="16">
-        <v>35.693294149078</v>
+        <v>0</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1400,40 +1400,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D28" s="15">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16">
-        <v>-3.846153846153</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F28" s="15">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G28" s="15">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H28" s="16">
-        <v>-32.307692307692</v>
+        <v>-23.387096774193</v>
       </c>
       <c r="I28" s="15">
-        <v>1549</v>
+        <v>3</v>
       </c>
       <c r="J28" s="15">
-        <v>1851</v>
+        <v>5</v>
       </c>
       <c r="K28" s="16">
-        <v>-16.315505132360</v>
+        <v>-40</v>
       </c>
       <c r="L28" s="16">
-        <v>-16.043360433604</v>
+        <v>-72.727272727272</v>
       </c>
       <c r="M28" s="16">
-        <v>-10.977011494252</v>
+        <v>-62.5</v>
       </c>
       <c r="N28" s="16">
-        <v>-73.311509303928</v>
+        <v>-91.666666666666</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1441,75 +1441,75 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D29" s="15">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16">
-        <v>15</v>
+        <v>-29.166666666666</v>
       </c>
       <c r="F29" s="15">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G29" s="15">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H29" s="16">
-        <v>-30.555555555555</v>
+        <v>-21</v>
       </c>
       <c r="I29" s="15">
-        <v>1280</v>
+        <v>3</v>
       </c>
       <c r="J29" s="15">
-        <v>1543</v>
+        <v>5</v>
       </c>
       <c r="K29" s="16">
-        <v>-17.044718081659</v>
+        <v>-40</v>
       </c>
       <c r="L29" s="16">
-        <v>-15.287888815354</v>
+        <v>-62.5</v>
       </c>
       <c r="M29" s="16">
-        <v>-11.357340720221</v>
+        <v>-62.5</v>
       </c>
       <c r="N29" s="16">
-        <v>-75.455417066155</v>
+        <v>-90.909090909090</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15">
+        <v>9</v>
+      </c>
+      <c r="E30" s="16">
+        <v>-88.888888888888</v>
+      </c>
+      <c r="F30" s="15">
+        <v>15</v>
+      </c>
+      <c r="G30" s="15">
+        <v>36</v>
+      </c>
+      <c r="H30" s="16">
+        <v>-58.333333333333</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="15">
-        <v>5</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="J30" s="15">
+        <v>1</v>
+      </c>
+      <c r="K30" s="16">
         <v>-100</v>
       </c>
-      <c r="F30" s="15">
-        <v>17</v>
-      </c>
-      <c r="G30" s="15">
-        <v>38</v>
-      </c>
-      <c r="H30" s="16">
-        <v>-55.263157894736</v>
-      </c>
-      <c r="I30" s="15">
-        <v>604</v>
-      </c>
-      <c r="J30" s="15">
-        <v>523</v>
-      </c>
-      <c r="K30" s="16">
-        <v>15.487571701720</v>
-      </c>
-      <c r="L30" s="16">
-        <v>135.019455252918</v>
+      <c r="L30" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>
@@ -1597,7 +1597,7 @@
         <v>43</v>
       </c>
       <c r="J35" s="21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>45</v>
@@ -1629,19 +1629,19 @@
         <v>649</v>
       </c>
       <c r="J36" s="15">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="K36" s="16">
-        <v>-24.807395993836</v>
+        <v>-33.127889060092</v>
       </c>
       <c r="L36" s="16">
-        <v>-22.416534181240</v>
+        <v>-31.001589825119</v>
       </c>
       <c r="M36" s="16">
-        <v>-74.675661650233</v>
+        <v>-77.477944992215</v>
       </c>
       <c r="N36" s="16">
-        <v>-78.426171529619</v>
+        <v>-80.813439434129</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1661,19 +1661,19 @@
         <v>1930</v>
       </c>
       <c r="J37" s="15">
-        <v>1491</v>
+        <v>1615</v>
       </c>
       <c r="K37" s="16">
-        <v>-22.746113989637</v>
+        <v>-16.321243523316</v>
       </c>
       <c r="L37" s="16">
-        <v>-39.781906300484</v>
+        <v>-34.773828756058</v>
       </c>
       <c r="M37" s="16">
-        <v>-53.767441860465</v>
+        <v>-49.922480620155</v>
       </c>
       <c r="N37" s="16">
-        <v>-52.303262955854</v>
+        <v>-48.336532309660</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -1693,19 +1693,19 @@
         <v>27873</v>
       </c>
       <c r="J38" s="15">
-        <v>13831</v>
+        <v>17408</v>
       </c>
       <c r="K38" s="16">
-        <v>-50.378502493452</v>
+        <v>-37.545294729666</v>
       </c>
       <c r="L38" s="16">
-        <v>-64.538625233956</v>
+        <v>-55.367535830577</v>
       </c>
       <c r="M38" s="16">
-        <v>-83.897219764355</v>
+        <v>-79.732687561123</v>
       </c>
       <c r="N38" s="16">
-        <v>-86.207618667730</v>
+        <v>-82.640606302353</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -1725,19 +1725,19 @@
         <v>23020</v>
       </c>
       <c r="J39" s="15">
-        <v>22835</v>
+        <v>26039</v>
       </c>
       <c r="K39" s="16">
-        <v>-0.803649000868</v>
+        <v>13.114682884448</v>
       </c>
       <c r="L39" s="16">
-        <v>-20.843732667775</v>
+        <v>-9.737243483083</v>
       </c>
       <c r="M39" s="16">
-        <v>-44.468762919189</v>
+        <v>-36.677123610807</v>
       </c>
       <c r="N39" s="16">
-        <v>-48.245773083722</v>
+        <v>-40.984089569829</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -1757,19 +1757,19 @@
         <v>32694</v>
       </c>
       <c r="J40" s="15">
-        <v>12811</v>
+        <v>15731</v>
       </c>
       <c r="K40" s="16">
-        <v>-60.815440141922</v>
+        <v>-51.884137762280</v>
       </c>
       <c r="L40" s="16">
-        <v>-72.847120662978</v>
+        <v>-66.658188677645</v>
       </c>
       <c r="M40" s="16">
-        <v>-87.307799001347</v>
+        <v>-84.414876753586</v>
       </c>
       <c r="N40" s="16">
-        <v>-89.503912170742</v>
+        <v>-87.111548072590</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -1789,19 +1789,19 @@
         <v>46291</v>
       </c>
       <c r="J41" s="15">
-        <v>40870</v>
+        <v>51557</v>
       </c>
       <c r="K41" s="16">
-        <v>-11.710699704046</v>
+        <v>11.375861398544</v>
       </c>
       <c r="L41" s="16">
-        <v>-20.580633878082</v>
+        <v>0.186549037134</v>
       </c>
       <c r="M41" s="16">
-        <v>-52.330965627442</v>
+        <v>-39.866102149597</v>
       </c>
       <c r="N41" s="16">
-        <v>-62.327283453317</v>
+        <v>-52.476333569920</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -1821,19 +1821,19 @@
         <v>29607</v>
       </c>
       <c r="J42" s="15">
-        <v>10415</v>
+        <v>13762</v>
       </c>
       <c r="K42" s="16">
-        <v>-64.822508190630</v>
+        <v>-53.517749180936</v>
       </c>
       <c r="L42" s="16">
-        <v>-75.955211820385</v>
+        <v>-68.228096502366</v>
       </c>
       <c r="M42" s="16">
-        <v>-90.669402089193</v>
+        <v>-87.670889251222</v>
       </c>
       <c r="N42" s="16">
-        <v>-92.911349327888</v>
+        <v>-90.633316317849</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -1853,19 +1853,19 @@
         <v>162064</v>
       </c>
       <c r="J43" s="18">
-        <v>102741</v>
+        <v>126546</v>
       </c>
       <c r="K43" s="22">
-        <v>-36.604674696416</v>
+        <v>-21.916033172080</v>
       </c>
       <c r="L43" s="22">
-        <v>-51.745078975919</v>
+        <v>-40.564455904524</v>
       </c>
       <c r="M43" s="22">
-        <v>-76.132277098917</v>
+        <v>-70.602146540909</v>
       </c>
       <c r="N43" s="22">
-        <v>-80.514056712381</v>
+        <v>-75.999180665216</v>
       </c>
     </row>
     <row r="46" spans="1:1">

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57" xml:space="preserve">
   <si>
     <t>Police Department</t>
   </si>
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">52</t>
+      <t xml:space="preserve">1</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/26/2022</t>
+      <t xml:space="preserve">1/2/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/1/2023</t>
+      <t xml:space="preserve">1/8/2023</t>
     </r>
   </si>
   <si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>Hate Crimes</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Historical Perspective</t>
@@ -668,7 +665,7 @@
     <col min="4" max="4" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.433768" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.699091" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.964413" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.964413" bestFit="1" customWidth="1"/>
@@ -826,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" s="16">
-        <v>11.111111111111</v>
+        <v>20</v>
       </c>
       <c r="F14" s="15">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14" s="15">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H14" s="16">
-        <v>-19.047619047619</v>
+        <v>-21.052631578947</v>
       </c>
       <c r="I14" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J14" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K14" s="16">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L14" s="16">
+        <v>16.666666666666</v>
+      </c>
+      <c r="M14" s="16">
         <v>0</v>
       </c>
-      <c r="M14" s="16">
-        <v>-66.666666666666</v>
-      </c>
       <c r="N14" s="16">
-        <v>-85.714285714285</v>
+        <v>-84.090909090909</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -867,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D15" s="15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E15" s="16">
-        <v>-4.347826086956</v>
+        <v>41.379310344827</v>
       </c>
       <c r="F15" s="15">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G15" s="15">
         <v>110</v>
       </c>
       <c r="H15" s="16">
-        <v>-10</v>
+        <v>11.818181818181</v>
       </c>
       <c r="I15" s="15">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="J15" s="15">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="K15" s="16">
-        <v>-25</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L15" s="16">
-        <v>-57.142857142857</v>
+        <v>37.5</v>
       </c>
       <c r="M15" s="16">
-        <v>-40</v>
+        <v>69.230769230769</v>
       </c>
       <c r="N15" s="16">
-        <v>-70</v>
+        <v>-44.303797468354</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="D16" s="15">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E16" s="16">
-        <v>-10.443037974683</v>
+        <v>15.140845070422</v>
       </c>
       <c r="F16" s="15">
-        <v>1137</v>
+        <v>1179</v>
       </c>
       <c r="G16" s="15">
-        <v>1213</v>
+        <v>1190</v>
       </c>
       <c r="H16" s="16">
-        <v>-6.265457543281</v>
+        <v>-0.924369747899</v>
       </c>
       <c r="I16" s="15">
-        <v>28</v>
+        <v>364</v>
       </c>
       <c r="J16" s="15">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="K16" s="16">
-        <v>-26.315789473684</v>
+        <v>13.043478260869</v>
       </c>
       <c r="L16" s="16">
-        <v>-26.315789473684</v>
+        <v>37.878787878787</v>
       </c>
       <c r="M16" s="16">
-        <v>-24.324324324324</v>
+        <v>-14.553990610328</v>
       </c>
       <c r="N16" s="16">
-        <v>-85.185185185185</v>
+        <v>-83.101207056638</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -949,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D17" s="15">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="E17" s="16">
-        <v>16.707616707616</v>
+        <v>19.280205655527</v>
       </c>
       <c r="F17" s="15">
-        <v>1812</v>
+        <v>1835</v>
       </c>
       <c r="G17" s="15">
-        <v>1711</v>
+        <v>1635</v>
       </c>
       <c r="H17" s="16">
-        <v>5.902980713033</v>
+        <v>12.232415902140</v>
       </c>
       <c r="I17" s="15">
-        <v>95</v>
+        <v>575</v>
       </c>
       <c r="J17" s="15">
-        <v>89</v>
+        <v>478</v>
       </c>
       <c r="K17" s="16">
-        <v>6.741573033707</v>
+        <v>20.292887029288</v>
       </c>
       <c r="L17" s="16">
-        <v>7.954545454545</v>
+        <v>34.345794392523</v>
       </c>
       <c r="M17" s="16">
-        <v>18.75</v>
+        <v>81.962025316455</v>
       </c>
       <c r="N17" s="16">
-        <v>-53.431372549019</v>
+        <v>-38.959660297239</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -990,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="D18" s="15">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="E18" s="16">
-        <v>-26.315789473684</v>
+        <v>14.181818181818</v>
       </c>
       <c r="F18" s="15">
-        <v>1112</v>
+        <v>1133</v>
       </c>
       <c r="G18" s="15">
-        <v>1235</v>
+        <v>1204</v>
       </c>
       <c r="H18" s="16">
-        <v>-9.959514170040</v>
+        <v>-5.897009966777</v>
       </c>
       <c r="I18" s="15">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c r="J18" s="15">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="K18" s="16">
-        <v>-21.875</v>
+        <v>11.726384364820</v>
       </c>
       <c r="L18" s="16">
-        <v>-3.846153846153</v>
+        <v>4.892966360856</v>
       </c>
       <c r="M18" s="16">
-        <v>-37.5</v>
+        <v>-23.4375</v>
       </c>
       <c r="N18" s="16">
-        <v>-88.479262672811</v>
+        <v>-85.954135954135</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1031,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>892</v>
+        <v>917</v>
       </c>
       <c r="D19" s="15">
-        <v>1076</v>
+        <v>954</v>
       </c>
       <c r="E19" s="16">
-        <v>-17.100371747211</v>
+        <v>-3.878406708595</v>
       </c>
       <c r="F19" s="15">
-        <v>3730</v>
+        <v>3653</v>
       </c>
       <c r="G19" s="15">
-        <v>4907</v>
+        <v>4443</v>
       </c>
       <c r="H19" s="16">
-        <v>-23.986142245771</v>
+        <v>-17.780778753094</v>
       </c>
       <c r="I19" s="15">
-        <v>68</v>
+        <v>993</v>
       </c>
       <c r="J19" s="15">
-        <v>67</v>
+        <v>1021</v>
       </c>
       <c r="K19" s="16">
-        <v>1.492537313432</v>
+        <v>-2.742409402546</v>
       </c>
       <c r="L19" s="16">
-        <v>88.888888888888</v>
+        <v>59.646302250803</v>
       </c>
       <c r="M19" s="16">
-        <v>78.947368421052</v>
+        <v>32.754010695187</v>
       </c>
       <c r="N19" s="16">
-        <v>-44.262295081967</v>
+        <v>-45.856052344602</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1072,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D20" s="15">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="E20" s="16">
-        <v>43.127962085308</v>
+        <v>7.865168539325</v>
       </c>
       <c r="F20" s="15">
-        <v>1182</v>
+        <v>1165</v>
       </c>
       <c r="G20" s="15">
-        <v>881</v>
+        <v>940</v>
       </c>
       <c r="H20" s="16">
-        <v>34.165720771850</v>
+        <v>23.936170212766</v>
       </c>
       <c r="I20" s="15">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="J20" s="15">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="K20" s="16">
-        <v>33.333333333333</v>
+        <v>10.526315789473</v>
       </c>
       <c r="L20" s="16">
-        <v>41.176470588235</v>
+        <v>78.977272727272</v>
       </c>
       <c r="M20" s="16">
-        <v>9.090909090909</v>
+        <v>48.584905660377</v>
       </c>
       <c r="N20" s="16">
-        <v>-89.285714285714</v>
+        <v>-88.28125</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1113,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2236</v>
+        <v>2357</v>
       </c>
       <c r="D21" s="18">
-        <v>2384</v>
+        <v>2203</v>
       </c>
       <c r="E21" s="19">
-        <v>-6.208053691275</v>
+        <v>6.990467544257</v>
       </c>
       <c r="F21" s="18">
-        <v>9106</v>
+        <v>9118</v>
       </c>
       <c r="G21" s="18">
-        <v>10099</v>
+        <v>9560</v>
       </c>
       <c r="H21" s="19">
-        <v>-9.832656698683</v>
+        <v>-4.623430962343</v>
       </c>
       <c r="I21" s="18">
-        <v>244</v>
+        <v>2641</v>
       </c>
       <c r="J21" s="18">
-        <v>250</v>
+        <v>2453</v>
       </c>
       <c r="K21" s="19">
-        <v>-2.4</v>
+        <v>7.664084794129</v>
       </c>
       <c r="L21" s="19">
-        <v>14.553990610328</v>
+        <v>42.371967654986</v>
       </c>
       <c r="M21" s="19">
-        <v>8.444444444444</v>
+        <v>20.980302336234</v>
       </c>
       <c r="N21" s="19">
-        <v>-74.922918807810</v>
+        <v>-74.064617499754</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1154,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
+        <v>38</v>
+      </c>
+      <c r="D22" s="15">
+        <v>49</v>
+      </c>
+      <c r="E22" s="16">
+        <v>-22.448979591836</v>
+      </c>
+      <c r="F22" s="15">
+        <v>181</v>
+      </c>
+      <c r="G22" s="15">
+        <v>167</v>
+      </c>
+      <c r="H22" s="16">
+        <v>8.383233532934</v>
+      </c>
+      <c r="I22" s="15">
+        <v>45</v>
+      </c>
+      <c r="J22" s="15">
         <v>52</v>
       </c>
-      <c r="D22" s="15">
-        <v>35</v>
-      </c>
-      <c r="E22" s="16">
-        <v>48.571428571428</v>
-      </c>
-      <c r="F22" s="15">
-        <v>188</v>
-      </c>
-      <c r="G22" s="15">
-        <v>173</v>
-      </c>
-      <c r="H22" s="16">
-        <v>8.670520231213</v>
-      </c>
-      <c r="I22" s="15">
-        <v>7</v>
-      </c>
-      <c r="J22" s="15">
-        <v>3</v>
-      </c>
       <c r="K22" s="16">
-        <v>133.333333333333</v>
+        <v>-13.461538461538</v>
       </c>
       <c r="L22" s="16">
-        <v>600</v>
+        <v>125</v>
       </c>
       <c r="M22" s="16">
-        <v>40</v>
+        <v>4.651162790697</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1195,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D23" s="15">
+        <v>103</v>
+      </c>
+      <c r="E23" s="16">
+        <v>13.592233009708</v>
+      </c>
+      <c r="F23" s="15">
+        <v>430</v>
+      </c>
+      <c r="G23" s="15">
+        <v>435</v>
+      </c>
+      <c r="H23" s="16">
+        <v>-1.149425287356</v>
+      </c>
+      <c r="I23" s="15">
+        <v>138</v>
+      </c>
+      <c r="J23" s="15">
         <v>119</v>
       </c>
-      <c r="E23" s="16">
-        <v>-17.647058823529</v>
-      </c>
-      <c r="F23" s="15">
-        <v>404</v>
-      </c>
-      <c r="G23" s="15">
-        <v>450</v>
-      </c>
-      <c r="H23" s="16">
-        <v>-10.222222222222</v>
-      </c>
-      <c r="I23" s="15">
-        <v>18</v>
-      </c>
-      <c r="J23" s="15">
-        <v>16</v>
-      </c>
       <c r="K23" s="16">
-        <v>12.5</v>
+        <v>15.966386554621</v>
       </c>
       <c r="L23" s="16">
-        <v>80</v>
+        <v>36.633663366336</v>
       </c>
       <c r="M23" s="16">
-        <v>20</v>
+        <v>56.818181818181</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1236,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2028</v>
+        <v>1947</v>
       </c>
       <c r="D24" s="15">
-        <v>1894</v>
+        <v>1647</v>
       </c>
       <c r="E24" s="16">
-        <v>7.074973600844</v>
+        <v>18.214936247723</v>
       </c>
       <c r="F24" s="15">
-        <v>8452</v>
+        <v>8044</v>
       </c>
       <c r="G24" s="15">
-        <v>7780</v>
+        <v>7372</v>
       </c>
       <c r="H24" s="16">
-        <v>8.637532133676</v>
+        <v>9.115572436245</v>
       </c>
       <c r="I24" s="15">
-        <v>52</v>
+        <v>2008</v>
       </c>
       <c r="J24" s="15">
-        <v>89</v>
+        <v>1736</v>
       </c>
       <c r="K24" s="16">
-        <v>-41.573033707865</v>
+        <v>15.668202764977</v>
       </c>
       <c r="L24" s="16">
-        <v>-24.637681159420</v>
+        <v>29.298132646490</v>
       </c>
       <c r="M24" s="16">
-        <v>-45.833333333333</v>
+        <v>28.800513149454</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1277,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>788</v>
+        <v>700</v>
       </c>
       <c r="D25" s="15">
-        <v>730</v>
+        <v>561</v>
       </c>
       <c r="E25" s="16">
-        <v>7.945205479452</v>
+        <v>24.777183600713</v>
       </c>
       <c r="F25" s="15">
-        <v>2873</v>
+        <v>2832</v>
       </c>
       <c r="G25" s="15">
-        <v>2966</v>
+        <v>2737</v>
       </c>
       <c r="H25" s="16">
-        <v>-3.135536075522</v>
+        <v>3.470953598830</v>
       </c>
       <c r="I25" s="15">
-        <v>103</v>
+        <v>825</v>
       </c>
       <c r="J25" s="15">
-        <v>125</v>
+        <v>686</v>
       </c>
       <c r="K25" s="16">
-        <v>-17.6</v>
+        <v>20.262390670553</v>
       </c>
       <c r="L25" s="16">
-        <v>4.040404040404</v>
+        <v>33.928571428571</v>
       </c>
       <c r="M25" s="16">
-        <v>-35.625</v>
+        <v>-8.435072142064</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1318,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D26" s="15">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E26" s="16">
-        <v>-5.882352941176</v>
+        <v>35.897435897435</v>
       </c>
       <c r="F26" s="15">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G26" s="15">
         <v>168</v>
       </c>
       <c r="H26" s="16">
-        <v>-5.952380952380</v>
+        <v>3.571428571428</v>
       </c>
       <c r="I26" s="15">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="J26" s="15">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="K26" s="16">
-        <v>-33.333333333333</v>
+        <v>24.444444444444</v>
       </c>
       <c r="L26" s="16">
-        <v>-42.857142857142</v>
+        <v>40</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1359,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D27" s="15">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E27" s="16">
-        <v>41.509433962264</v>
+        <v>27.397260273972</v>
       </c>
       <c r="F27" s="15">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G27" s="15">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="H27" s="16">
-        <v>1.208459214501</v>
+        <v>17.314487632508</v>
       </c>
       <c r="I27" s="15">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="J27" s="15">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="K27" s="16">
-        <v>57.142857142857</v>
+        <v>35</v>
       </c>
       <c r="L27" s="16">
-        <v>0</v>
+        <v>33.333333333333</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1400,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
+        <v>17</v>
+      </c>
+      <c r="D28" s="15">
+        <v>22</v>
+      </c>
+      <c r="E28" s="16">
+        <v>-22.727272727272</v>
+      </c>
+      <c r="F28" s="15">
+        <v>84</v>
+      </c>
+      <c r="G28" s="15">
+        <v>116</v>
+      </c>
+      <c r="H28" s="16">
+        <v>-27.586206896551</v>
+      </c>
+      <c r="I28" s="15">
         <v>20</v>
       </c>
-      <c r="D28" s="15">
-        <v>30</v>
-      </c>
-      <c r="E28" s="16">
+      <c r="J28" s="15">
+        <v>27</v>
+      </c>
+      <c r="K28" s="16">
+        <v>-25.925925925925</v>
+      </c>
+      <c r="L28" s="16">
         <v>-33.333333333333</v>
       </c>
-      <c r="F28" s="15">
-        <v>95</v>
-      </c>
-      <c r="G28" s="15">
-        <v>124</v>
-      </c>
-      <c r="H28" s="16">
-        <v>-23.387096774193</v>
-      </c>
-      <c r="I28" s="15">
-        <v>3</v>
-      </c>
-      <c r="J28" s="15">
-        <v>5</v>
-      </c>
-      <c r="K28" s="16">
-        <v>-40</v>
-      </c>
-      <c r="L28" s="16">
-        <v>-72.727272727272</v>
-      </c>
       <c r="M28" s="16">
-        <v>-62.5</v>
+        <v>-4.761904761904</v>
       </c>
       <c r="N28" s="16">
-        <v>-91.666666666666</v>
+        <v>-86.842105263157</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1441,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="15">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16">
-        <v>-29.166666666666</v>
+        <v>-23.809523809523</v>
       </c>
       <c r="F29" s="15">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G29" s="15">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H29" s="16">
-        <v>-21</v>
+        <v>-25.510204081632</v>
       </c>
       <c r="I29" s="15">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J29" s="15">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K29" s="16">
-        <v>-40</v>
+        <v>-26.923076923076</v>
       </c>
       <c r="L29" s="16">
-        <v>-62.5</v>
+        <v>-24</v>
       </c>
       <c r="M29" s="16">
-        <v>-62.5</v>
+        <v>0</v>
       </c>
       <c r="N29" s="16">
-        <v>-90.909090909090</v>
+        <v>-86.231884057971</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1482,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="16">
-        <v>-88.888888888888</v>
+        <v>-71.428571428571</v>
       </c>
       <c r="F30" s="15">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G30" s="15">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H30" s="16">
-        <v>-58.333333333333</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>37</v>
+        <v>-66.666666666666</v>
+      </c>
+      <c r="I30" s="15">
+        <v>2</v>
       </c>
       <c r="J30" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K30" s="16">
-        <v>-100</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>28</v>
+        <v>-75</v>
+      </c>
+      <c r="L30" s="16">
+        <v>-77.777777777777</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>
@@ -1520,7 +1517,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -1538,7 +1535,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1571,45 +1568,45 @@
         <v>17</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="G35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="I35" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="J35" s="21">
         <v>2022</v>
       </c>
       <c r="K35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="M35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="N35" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1629,19 +1626,19 @@
         <v>649</v>
       </c>
       <c r="J36" s="15">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K36" s="16">
-        <v>-33.127889060092</v>
+        <v>-32.973805855161</v>
       </c>
       <c r="L36" s="16">
-        <v>-31.001589825119</v>
+        <v>-30.842607313195</v>
       </c>
       <c r="M36" s="16">
-        <v>-77.477944992215</v>
+        <v>-77.426050856253</v>
       </c>
       <c r="N36" s="16">
-        <v>-80.813439434129</v>
+        <v>-80.769230769230</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1661,19 +1658,19 @@
         <v>1930</v>
       </c>
       <c r="J37" s="15">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="K37" s="16">
-        <v>-16.321243523316</v>
+        <v>-16.217616580310</v>
       </c>
       <c r="L37" s="16">
-        <v>-34.773828756058</v>
+        <v>-34.693053311793</v>
       </c>
       <c r="M37" s="16">
-        <v>-49.922480620155</v>
+        <v>-49.860465116279</v>
       </c>
       <c r="N37" s="16">
-        <v>-48.336532309660</v>
+        <v>-48.272552783109</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -1725,19 +1722,19 @@
         <v>23020</v>
       </c>
       <c r="J39" s="15">
-        <v>26039</v>
+        <v>26056</v>
       </c>
       <c r="K39" s="16">
-        <v>13.114682884448</v>
+        <v>13.188531711555</v>
       </c>
       <c r="L39" s="16">
-        <v>-9.737243483083</v>
+        <v>-9.678313921242</v>
       </c>
       <c r="M39" s="16">
-        <v>-36.677123610807</v>
+        <v>-36.635782203740</v>
       </c>
       <c r="N39" s="16">
-        <v>-40.984089569829</v>
+        <v>-40.945560038076</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -1757,19 +1754,19 @@
         <v>32694</v>
       </c>
       <c r="J40" s="15">
-        <v>15731</v>
+        <v>15742</v>
       </c>
       <c r="K40" s="16">
-        <v>-51.884137762280</v>
+        <v>-51.850492445097</v>
       </c>
       <c r="L40" s="16">
-        <v>-66.658188677645</v>
+        <v>-66.634874207837</v>
       </c>
       <c r="M40" s="16">
-        <v>-84.414876753586</v>
+        <v>-84.403978758817</v>
       </c>
       <c r="N40" s="16">
-        <v>-87.111548072590</v>
+        <v>-87.102535742083</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -1789,19 +1786,19 @@
         <v>46291</v>
       </c>
       <c r="J41" s="15">
-        <v>51557</v>
+        <v>51559</v>
       </c>
       <c r="K41" s="16">
-        <v>11.375861398544</v>
+        <v>11.380181892808</v>
       </c>
       <c r="L41" s="16">
-        <v>0.186549037134</v>
+        <v>0.190435475408</v>
       </c>
       <c r="M41" s="16">
-        <v>-39.866102149597</v>
+        <v>-39.863769434433</v>
       </c>
       <c r="N41" s="16">
-        <v>-52.476333569920</v>
+        <v>-52.474490031063</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -1821,19 +1818,19 @@
         <v>29607</v>
       </c>
       <c r="J42" s="15">
-        <v>13762</v>
+        <v>13753</v>
       </c>
       <c r="K42" s="16">
-        <v>-53.517749180936</v>
+        <v>-53.548147397574</v>
       </c>
       <c r="L42" s="16">
-        <v>-68.228096502366</v>
+        <v>-68.248874523837</v>
       </c>
       <c r="M42" s="16">
-        <v>-87.670889251222</v>
+        <v>-87.678952177886</v>
       </c>
       <c r="N42" s="16">
-        <v>-90.633316317849</v>
+        <v>-90.639441892121</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -1853,59 +1850,59 @@
         <v>162064</v>
       </c>
       <c r="J43" s="18">
-        <v>126546</v>
+        <v>126570</v>
       </c>
       <c r="K43" s="22">
-        <v>-21.916033172080</v>
+        <v>-21.901224207720</v>
       </c>
       <c r="L43" s="22">
-        <v>-40.564455904524</v>
+        <v>-40.553183694748</v>
       </c>
       <c r="M43" s="22">
-        <v>-70.602146540909</v>
+        <v>-70.596571109975</v>
       </c>
       <c r="N43" s="22">
-        <v>-75.999180665216</v>
+        <v>-75.994628805307</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:11" customHeight="1" ht="29.250000">
       <c r="A53" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>7</v>
@@ -1913,7 +1910,7 @@
     </row>
     <row r="54" spans="1:1" customHeight="1" ht="29.250000">
       <c r="A54" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t xml:space="preserve">2</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/2/2023</t>
+      <t xml:space="preserve">1/9/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/8/2023</t>
+      <t xml:space="preserve">1/15/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E14" s="16">
-        <v>20</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="F14" s="15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="15">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H14" s="16">
-        <v>-21.052631578947</v>
+        <v>-6.451612903225</v>
       </c>
       <c r="I14" s="15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J14" s="15">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K14" s="16">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="L14" s="16">
-        <v>16.666666666666</v>
+        <v>-12.5</v>
       </c>
       <c r="M14" s="16">
-        <v>0</v>
+        <v>7.692307692307</v>
       </c>
       <c r="N14" s="16">
-        <v>-84.090909090909</v>
+        <v>-84.444444444444</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D15" s="15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="16">
-        <v>41.379310344827</v>
+        <v>3.333333333333</v>
       </c>
       <c r="F15" s="15">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G15" s="15">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H15" s="16">
-        <v>11.818181818181</v>
+        <v>11.214953271028</v>
       </c>
       <c r="I15" s="15">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J15" s="15">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="K15" s="16">
-        <v>33.333333333333</v>
+        <v>15.873015873015</v>
       </c>
       <c r="L15" s="16">
-        <v>37.5</v>
+        <v>32.727272727272</v>
       </c>
       <c r="M15" s="16">
-        <v>69.230769230769</v>
+        <v>40.384615384615</v>
       </c>
       <c r="N15" s="16">
-        <v>-44.303797468354</v>
+        <v>-42.519685039370</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="D16" s="15">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E16" s="16">
-        <v>15.140845070422</v>
+        <v>4.946996466431</v>
       </c>
       <c r="F16" s="15">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="G16" s="15">
-        <v>1190</v>
+        <v>1161</v>
       </c>
       <c r="H16" s="16">
-        <v>-0.924369747899</v>
+        <v>2.411714039621</v>
       </c>
       <c r="I16" s="15">
-        <v>364</v>
+        <v>662</v>
       </c>
       <c r="J16" s="15">
-        <v>322</v>
+        <v>605</v>
       </c>
       <c r="K16" s="16">
-        <v>13.043478260869</v>
+        <v>9.421487603305</v>
       </c>
       <c r="L16" s="16">
-        <v>37.878787878787</v>
+        <v>38.493723849372</v>
       </c>
       <c r="M16" s="16">
-        <v>-14.553990610328</v>
+        <v>-19.268292682926</v>
       </c>
       <c r="N16" s="16">
-        <v>-83.101207056638</v>
+        <v>-83.150928989564</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="D17" s="15">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E17" s="16">
-        <v>19.280205655527</v>
+        <v>8.638743455497</v>
       </c>
       <c r="F17" s="15">
-        <v>1835</v>
+        <v>1849</v>
       </c>
       <c r="G17" s="15">
-        <v>1635</v>
+        <v>1573</v>
       </c>
       <c r="H17" s="16">
-        <v>12.232415902140</v>
+        <v>17.546090273363</v>
       </c>
       <c r="I17" s="15">
-        <v>575</v>
+        <v>1017</v>
       </c>
       <c r="J17" s="15">
-        <v>478</v>
+        <v>860</v>
       </c>
       <c r="K17" s="16">
-        <v>20.292887029288</v>
+        <v>18.255813953488</v>
       </c>
       <c r="L17" s="16">
-        <v>34.345794392523</v>
+        <v>31.395348837209</v>
       </c>
       <c r="M17" s="16">
-        <v>81.962025316455</v>
+        <v>73.549488054607</v>
       </c>
       <c r="N17" s="16">
-        <v>-38.959660297239</v>
+        <v>-33.529411764705</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="D18" s="15">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="E18" s="16">
-        <v>14.181818181818</v>
+        <v>-3.071672354948</v>
       </c>
       <c r="F18" s="15">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="G18" s="15">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="H18" s="16">
-        <v>-5.897009966777</v>
+        <v>-6.023102310231</v>
       </c>
       <c r="I18" s="15">
-        <v>343</v>
+        <v>633</v>
       </c>
       <c r="J18" s="15">
-        <v>307</v>
+        <v>600</v>
       </c>
       <c r="K18" s="16">
-        <v>11.726384364820</v>
+        <v>5.5</v>
       </c>
       <c r="L18" s="16">
-        <v>4.892966360856</v>
+        <v>5.5</v>
       </c>
       <c r="M18" s="16">
-        <v>-23.4375</v>
+        <v>-23.458282950423</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.954135954135</v>
+        <v>-85.955180829820</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="D19" s="15">
-        <v>954</v>
+        <v>1011</v>
       </c>
       <c r="E19" s="16">
-        <v>-3.878406708595</v>
+        <v>-7.616221562809</v>
       </c>
       <c r="F19" s="15">
-        <v>3653</v>
+        <v>3596</v>
       </c>
       <c r="G19" s="15">
-        <v>4443</v>
+        <v>4118</v>
       </c>
       <c r="H19" s="16">
-        <v>-17.780778753094</v>
+        <v>-12.676056338028</v>
       </c>
       <c r="I19" s="15">
-        <v>993</v>
+        <v>1932</v>
       </c>
       <c r="J19" s="15">
-        <v>1021</v>
+        <v>2032</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.742409402546</v>
+        <v>-4.921259842519</v>
       </c>
       <c r="L19" s="16">
-        <v>59.646302250803</v>
+        <v>56.818181818181</v>
       </c>
       <c r="M19" s="16">
-        <v>32.754010695187</v>
+        <v>33.241379310344</v>
       </c>
       <c r="N19" s="16">
-        <v>-45.856052344602</v>
+        <v>-43.492249195671</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D20" s="15">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="E20" s="16">
-        <v>7.865168539325</v>
+        <v>-7.741935483870</v>
       </c>
       <c r="F20" s="15">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="G20" s="15">
-        <v>940</v>
+        <v>1011</v>
       </c>
       <c r="H20" s="16">
-        <v>23.936170212766</v>
+        <v>15.628090999010</v>
       </c>
       <c r="I20" s="15">
-        <v>315</v>
+        <v>603</v>
       </c>
       <c r="J20" s="15">
-        <v>285</v>
+        <v>595</v>
       </c>
       <c r="K20" s="16">
-        <v>10.526315789473</v>
+        <v>1.344537815126</v>
       </c>
       <c r="L20" s="16">
-        <v>78.977272727272</v>
+        <v>97.058823529411</v>
       </c>
       <c r="M20" s="16">
-        <v>48.584905660377</v>
+        <v>52.272727272727</v>
       </c>
       <c r="N20" s="16">
-        <v>-88.28125</v>
+        <v>-88.073575949367</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2357</v>
+        <v>2254</v>
       </c>
       <c r="D21" s="18">
-        <v>2203</v>
+        <v>2318</v>
       </c>
       <c r="E21" s="19">
-        <v>6.990467544257</v>
+        <v>-2.761000862812</v>
       </c>
       <c r="F21" s="18">
-        <v>9118</v>
+        <v>9090</v>
       </c>
       <c r="G21" s="18">
-        <v>9560</v>
+        <v>9213</v>
       </c>
       <c r="H21" s="19">
-        <v>-4.623430962343</v>
+        <v>-1.335070009768</v>
       </c>
       <c r="I21" s="18">
-        <v>2641</v>
+        <v>4934</v>
       </c>
       <c r="J21" s="18">
-        <v>2453</v>
+        <v>4771</v>
       </c>
       <c r="K21" s="19">
-        <v>7.664084794129</v>
+        <v>3.416474533640</v>
       </c>
       <c r="L21" s="19">
-        <v>42.371967654986</v>
+        <v>42.559953770586</v>
       </c>
       <c r="M21" s="19">
-        <v>20.980302336234</v>
+        <v>19.063706563706</v>
       </c>
       <c r="N21" s="19">
-        <v>-74.064617499754</v>
+        <v>-73.555579376138</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D22" s="15">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E22" s="16">
-        <v>-22.448979591836</v>
+        <v>-41.304347826087</v>
       </c>
       <c r="F22" s="15">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G22" s="15">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H22" s="16">
-        <v>8.383233532934</v>
+        <v>3.105590062111</v>
       </c>
       <c r="I22" s="15">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J22" s="15">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="K22" s="16">
-        <v>-13.461538461538</v>
+        <v>-26.530612244898</v>
       </c>
       <c r="L22" s="16">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="M22" s="16">
-        <v>4.651162790697</v>
+        <v>-24.210526315789</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D23" s="15">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="16">
-        <v>13.592233009708</v>
+        <v>7.843137254901</v>
       </c>
       <c r="F23" s="15">
+        <v>440</v>
+      </c>
+      <c r="G23" s="15">
         <v>430</v>
       </c>
-      <c r="G23" s="15">
-        <v>435</v>
-      </c>
       <c r="H23" s="16">
-        <v>-1.149425287356</v>
+        <v>2.325581395348</v>
       </c>
       <c r="I23" s="15">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="J23" s="15">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="K23" s="16">
-        <v>15.966386554621</v>
+        <v>11.764705882352</v>
       </c>
       <c r="L23" s="16">
-        <v>36.633663366336</v>
+        <v>34.239130434782</v>
       </c>
       <c r="M23" s="16">
-        <v>56.818181818181</v>
+        <v>61.437908496732</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1947</v>
+        <v>1993</v>
       </c>
       <c r="D24" s="15">
-        <v>1647</v>
+        <v>1806</v>
       </c>
       <c r="E24" s="16">
-        <v>18.214936247723</v>
+        <v>10.354374307862</v>
       </c>
       <c r="F24" s="15">
-        <v>8044</v>
+        <v>7876</v>
       </c>
       <c r="G24" s="15">
-        <v>7372</v>
+        <v>7161</v>
       </c>
       <c r="H24" s="16">
-        <v>9.115572436245</v>
+        <v>9.984639016897</v>
       </c>
       <c r="I24" s="15">
-        <v>2008</v>
+        <v>4039</v>
       </c>
       <c r="J24" s="15">
-        <v>1736</v>
+        <v>3542</v>
       </c>
       <c r="K24" s="16">
-        <v>15.668202764977</v>
+        <v>14.031620553359</v>
       </c>
       <c r="L24" s="16">
-        <v>29.298132646490</v>
+        <v>30.500807754442</v>
       </c>
       <c r="M24" s="16">
-        <v>28.800513149454</v>
+        <v>31.435079726651</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="D25" s="15">
-        <v>561</v>
+        <v>638</v>
       </c>
       <c r="E25" s="16">
-        <v>24.777183600713</v>
+        <v>3.134796238244</v>
       </c>
       <c r="F25" s="15">
-        <v>2832</v>
+        <v>2828</v>
       </c>
       <c r="G25" s="15">
-        <v>2737</v>
+        <v>2613</v>
       </c>
       <c r="H25" s="16">
-        <v>3.470953598830</v>
+        <v>8.228090317642</v>
       </c>
       <c r="I25" s="15">
-        <v>825</v>
+        <v>1510</v>
       </c>
       <c r="J25" s="15">
-        <v>686</v>
+        <v>1324</v>
       </c>
       <c r="K25" s="16">
-        <v>20.262390670553</v>
+        <v>14.048338368580</v>
       </c>
       <c r="L25" s="16">
-        <v>33.928571428571</v>
+        <v>34.341637010676</v>
       </c>
       <c r="M25" s="16">
-        <v>-8.435072142064</v>
+        <v>-7.926829268292</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D26" s="15">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E26" s="16">
-        <v>35.897435897435</v>
+        <v>4.166666666666</v>
       </c>
       <c r="F26" s="15">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G26" s="15">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H26" s="16">
-        <v>3.571428571428</v>
+        <v>4.878048780487</v>
       </c>
       <c r="I26" s="15">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="J26" s="15">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K26" s="16">
-        <v>24.444444444444</v>
+        <v>11.827956989247</v>
       </c>
       <c r="L26" s="16">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D27" s="15">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E27" s="16">
-        <v>27.397260273972</v>
+        <v>24.675324675324</v>
       </c>
       <c r="F27" s="15">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="G27" s="15">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="H27" s="16">
-        <v>17.314487632508</v>
+        <v>30.566037735849</v>
       </c>
       <c r="I27" s="15">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="J27" s="15">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="K27" s="16">
-        <v>35</v>
+        <v>31.847133757961</v>
       </c>
       <c r="L27" s="16">
-        <v>33.333333333333</v>
+        <v>51.094890510948</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16">
-        <v>-22.727272727272</v>
+        <v>-34.782608695652</v>
       </c>
       <c r="F28" s="15">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G28" s="15">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H28" s="16">
-        <v>-27.586206896551</v>
+        <v>-24.752475247524</v>
       </c>
       <c r="I28" s="15">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J28" s="15">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K28" s="16">
-        <v>-25.925925925925</v>
+        <v>-32</v>
       </c>
       <c r="L28" s="16">
-        <v>-33.333333333333</v>
+        <v>-29.166666666666</v>
       </c>
       <c r="M28" s="16">
-        <v>-4.761904761904</v>
+        <v>-20.930232558139</v>
       </c>
       <c r="N28" s="16">
-        <v>-86.842105263157</v>
+        <v>-86.71875</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16">
-        <v>-23.809523809523</v>
+        <v>-21.052631578947</v>
       </c>
       <c r="F29" s="15">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G29" s="15">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H29" s="16">
-        <v>-25.510204081632</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="I29" s="15">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J29" s="15">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="K29" s="16">
-        <v>-26.923076923076</v>
+        <v>-26.666666666666</v>
       </c>
       <c r="L29" s="16">
-        <v>-24</v>
+        <v>-19.512195121951</v>
       </c>
       <c r="M29" s="16">
-        <v>0</v>
+        <v>-10.810810810810</v>
       </c>
       <c r="N29" s="16">
-        <v>-86.231884057971</v>
+        <v>-85.652173913043</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16">
-        <v>-71.428571428571</v>
+        <v>-90</v>
       </c>
       <c r="F30" s="15">
         <v>11</v>
       </c>
       <c r="G30" s="15">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H30" s="16">
-        <v>-66.666666666666</v>
+        <v>-64.516129032258</v>
       </c>
       <c r="I30" s="15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J30" s="15">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K30" s="16">
-        <v>-75</v>
+        <v>-55.555555555555</v>
       </c>
       <c r="L30" s="16">
-        <v>-77.777777777777</v>
+        <v>-27.272727272727</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>
@@ -1626,19 +1626,19 @@
         <v>649</v>
       </c>
       <c r="J36" s="15">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K36" s="16">
-        <v>-32.973805855161</v>
+        <v>-32.511556240369</v>
       </c>
       <c r="L36" s="16">
-        <v>-30.842607313195</v>
+        <v>-30.365659777424</v>
       </c>
       <c r="M36" s="16">
-        <v>-77.426050856253</v>
+        <v>-77.270368448365</v>
       </c>
       <c r="N36" s="16">
-        <v>-80.769230769230</v>
+        <v>-80.636604774535</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1690,19 +1690,19 @@
         <v>27873</v>
       </c>
       <c r="J38" s="15">
-        <v>17408</v>
+        <v>17411</v>
       </c>
       <c r="K38" s="16">
-        <v>-37.545294729666</v>
+        <v>-37.534531625587</v>
       </c>
       <c r="L38" s="16">
-        <v>-55.367535830577</v>
+        <v>-55.359844114555</v>
       </c>
       <c r="M38" s="16">
-        <v>-79.732687561123</v>
+        <v>-79.729194802775</v>
       </c>
       <c r="N38" s="16">
-        <v>-82.640606302353</v>
+        <v>-82.637614678899</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -1722,19 +1722,19 @@
         <v>23020</v>
       </c>
       <c r="J39" s="15">
-        <v>26056</v>
+        <v>26061</v>
       </c>
       <c r="K39" s="16">
-        <v>13.188531711555</v>
+        <v>13.210251954821</v>
       </c>
       <c r="L39" s="16">
-        <v>-9.678313921242</v>
+        <v>-9.660981697171</v>
       </c>
       <c r="M39" s="16">
-        <v>-36.635782203740</v>
+        <v>-36.623622966367</v>
       </c>
       <c r="N39" s="16">
-        <v>-40.945560038076</v>
+        <v>-40.934227822854</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -1754,19 +1754,19 @@
         <v>32694</v>
       </c>
       <c r="J40" s="15">
-        <v>15742</v>
+        <v>15745</v>
       </c>
       <c r="K40" s="16">
-        <v>-51.850492445097</v>
+        <v>-51.841316449501</v>
       </c>
       <c r="L40" s="16">
-        <v>-66.634874207837</v>
+        <v>-66.628515716072</v>
       </c>
       <c r="M40" s="16">
-        <v>-84.403978758817</v>
+        <v>-84.401006578425</v>
       </c>
       <c r="N40" s="16">
-        <v>-87.102535742083</v>
+        <v>-87.100077833763</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -1786,19 +1786,19 @@
         <v>46291</v>
       </c>
       <c r="J41" s="15">
-        <v>51559</v>
+        <v>51566</v>
       </c>
       <c r="K41" s="16">
-        <v>11.380181892808</v>
+        <v>11.395303622734</v>
       </c>
       <c r="L41" s="16">
-        <v>0.190435475408</v>
+        <v>0.204038009366</v>
       </c>
       <c r="M41" s="16">
-        <v>-39.863769434433</v>
+        <v>-39.855604931359</v>
       </c>
       <c r="N41" s="16">
-        <v>-52.474490031063</v>
+        <v>-52.468037645063</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -1818,19 +1818,19 @@
         <v>29607</v>
       </c>
       <c r="J42" s="15">
-        <v>13753</v>
+        <v>13750</v>
       </c>
       <c r="K42" s="16">
-        <v>-53.548147397574</v>
+        <v>-53.558280136454</v>
       </c>
       <c r="L42" s="16">
-        <v>-68.248874523837</v>
+        <v>-68.255800530993</v>
       </c>
       <c r="M42" s="16">
-        <v>-87.678952177886</v>
+        <v>-87.681639820107</v>
       </c>
       <c r="N42" s="16">
-        <v>-90.639441892121</v>
+        <v>-90.641483750212</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -1850,19 +1850,19 @@
         <v>162064</v>
       </c>
       <c r="J43" s="18">
-        <v>126570</v>
+        <v>126588</v>
       </c>
       <c r="K43" s="22">
-        <v>-21.901224207720</v>
+        <v>-21.890117484450</v>
       </c>
       <c r="L43" s="22">
-        <v>-40.553183694748</v>
+        <v>-40.544729537416</v>
       </c>
       <c r="M43" s="22">
-        <v>-70.596571109975</v>
+        <v>-70.592389536774</v>
       </c>
       <c r="N43" s="22">
-        <v>-75.994628805307</v>
+        <v>-75.991214910375</v>
       </c>
     </row>
     <row r="46" spans="1:1">

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t xml:space="preserve">3</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/9/2023</t>
+      <t xml:space="preserve">1/16/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/15/2023</t>
+      <t xml:space="preserve">1/22/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15">
         <v>7</v>
       </c>
-      <c r="D14" s="15">
-        <v>9</v>
-      </c>
       <c r="E14" s="16">
-        <v>-22.222222222222</v>
+        <v>28.571428571428</v>
       </c>
       <c r="F14" s="15">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" s="15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="16">
-        <v>-6.451612903225</v>
+        <v>6.666666666666</v>
       </c>
       <c r="I14" s="15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J14" s="15">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K14" s="16">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L14" s="16">
-        <v>-12.5</v>
+        <v>-8</v>
       </c>
       <c r="M14" s="16">
-        <v>7.692307692307</v>
+        <v>9.523809523809</v>
       </c>
       <c r="N14" s="16">
-        <v>-84.444444444444</v>
+        <v>-83.916083916083</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="15">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" s="16">
-        <v>3.333333333333</v>
+        <v>-23.529411764705</v>
       </c>
       <c r="F15" s="15">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="15">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H15" s="16">
-        <v>11.214953271028</v>
+        <v>1.724137931034</v>
       </c>
       <c r="I15" s="15">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="J15" s="15">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="K15" s="16">
-        <v>15.873015873015</v>
+        <v>2.061855670103</v>
       </c>
       <c r="L15" s="16">
-        <v>32.727272727272</v>
+        <v>30.263157894736</v>
       </c>
       <c r="M15" s="16">
-        <v>40.384615384615</v>
+        <v>41.428571428571</v>
       </c>
       <c r="N15" s="16">
-        <v>-42.519685039370</v>
+        <v>-43.103448275862</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="D16" s="15">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E16" s="16">
-        <v>4.946996466431</v>
+        <v>-17.475728155339</v>
       </c>
       <c r="F16" s="15">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="G16" s="15">
-        <v>1161</v>
+        <v>1192</v>
       </c>
       <c r="H16" s="16">
-        <v>2.411714039621</v>
+        <v>0</v>
       </c>
       <c r="I16" s="15">
-        <v>662</v>
+        <v>937</v>
       </c>
       <c r="J16" s="15">
-        <v>605</v>
+        <v>914</v>
       </c>
       <c r="K16" s="16">
-        <v>9.421487603305</v>
+        <v>2.516411378555</v>
       </c>
       <c r="L16" s="16">
-        <v>38.493723849372</v>
+        <v>35.404624277456</v>
       </c>
       <c r="M16" s="16">
-        <v>-19.268292682926</v>
+        <v>-24.068071312803</v>
       </c>
       <c r="N16" s="16">
-        <v>-83.150928989564</v>
+        <v>-83.523826270441</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="D17" s="15">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="E17" s="16">
-        <v>8.638743455497</v>
+        <v>4.662004662004</v>
       </c>
       <c r="F17" s="15">
-        <v>1849</v>
+        <v>1875</v>
       </c>
       <c r="G17" s="15">
-        <v>1573</v>
+        <v>1607</v>
       </c>
       <c r="H17" s="16">
-        <v>17.546090273363</v>
+        <v>16.677037958929</v>
       </c>
       <c r="I17" s="15">
-        <v>1017</v>
+        <v>1491</v>
       </c>
       <c r="J17" s="15">
-        <v>860</v>
+        <v>1289</v>
       </c>
       <c r="K17" s="16">
-        <v>18.255813953488</v>
+        <v>15.671062839410</v>
       </c>
       <c r="L17" s="16">
-        <v>31.395348837209</v>
+        <v>33.363148479427</v>
       </c>
       <c r="M17" s="16">
-        <v>73.549488054607</v>
+        <v>70.205479452054</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.529411764705</v>
+        <v>-32.010943912448</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="D18" s="15">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E18" s="16">
-        <v>-3.071672354948</v>
+        <v>-3.971119133574</v>
       </c>
       <c r="F18" s="15">
-        <v>1139</v>
+        <v>1146</v>
       </c>
       <c r="G18" s="15">
-        <v>1212</v>
+        <v>1187</v>
       </c>
       <c r="H18" s="16">
-        <v>-6.023102310231</v>
+        <v>-3.454085930918</v>
       </c>
       <c r="I18" s="15">
-        <v>633</v>
+        <v>908</v>
       </c>
       <c r="J18" s="15">
-        <v>600</v>
+        <v>877</v>
       </c>
       <c r="K18" s="16">
-        <v>5.5</v>
+        <v>3.534777651083</v>
       </c>
       <c r="L18" s="16">
-        <v>5.5</v>
+        <v>7.328605200945</v>
       </c>
       <c r="M18" s="16">
-        <v>-23.458282950423</v>
+        <v>-25.451559934318</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.955180829820</v>
+        <v>-85.974667902378</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>934</v>
+        <v>885</v>
       </c>
       <c r="D19" s="15">
-        <v>1011</v>
+        <v>974</v>
       </c>
       <c r="E19" s="16">
-        <v>-7.616221562809</v>
+        <v>-9.137577002053</v>
       </c>
       <c r="F19" s="15">
-        <v>3596</v>
+        <v>3639</v>
       </c>
       <c r="G19" s="15">
-        <v>4118</v>
+        <v>4016</v>
       </c>
       <c r="H19" s="16">
-        <v>-12.676056338028</v>
+        <v>-9.387450199203</v>
       </c>
       <c r="I19" s="15">
-        <v>1932</v>
+        <v>2825</v>
       </c>
       <c r="J19" s="15">
-        <v>2032</v>
+        <v>3007</v>
       </c>
       <c r="K19" s="16">
-        <v>-4.921259842519</v>
+        <v>-6.052544063851</v>
       </c>
       <c r="L19" s="16">
-        <v>56.818181818181</v>
+        <v>54.455986878075</v>
       </c>
       <c r="M19" s="16">
-        <v>33.241379310344</v>
+        <v>31.517690875232</v>
       </c>
       <c r="N19" s="16">
-        <v>-43.492249195671</v>
+        <v>-42.110655737704</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="D20" s="15">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="E20" s="16">
-        <v>-7.741935483870</v>
+        <v>-10.909090909090</v>
       </c>
       <c r="F20" s="15">
-        <v>1169</v>
+        <v>1124</v>
       </c>
       <c r="G20" s="15">
-        <v>1011</v>
+        <v>1063</v>
       </c>
       <c r="H20" s="16">
-        <v>15.628090999010</v>
+        <v>5.738476011288</v>
       </c>
       <c r="I20" s="15">
-        <v>603</v>
+        <v>847</v>
       </c>
       <c r="J20" s="15">
-        <v>595</v>
+        <v>870</v>
       </c>
       <c r="K20" s="16">
-        <v>1.344537815126</v>
+        <v>-2.643678160919</v>
       </c>
       <c r="L20" s="16">
-        <v>97.058823529411</v>
+        <v>87.804878048780</v>
       </c>
       <c r="M20" s="16">
-        <v>52.272727272727</v>
+        <v>44.539249146757</v>
       </c>
       <c r="N20" s="16">
-        <v>-88.073575949367</v>
+        <v>-88.518367900230</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2254</v>
+        <v>2135</v>
       </c>
       <c r="D21" s="18">
-        <v>2318</v>
+        <v>2305</v>
       </c>
       <c r="E21" s="19">
-        <v>-2.761000862812</v>
+        <v>-7.375271149674</v>
       </c>
       <c r="F21" s="18">
-        <v>9090</v>
+        <v>9126</v>
       </c>
       <c r="G21" s="18">
-        <v>9213</v>
+        <v>9211</v>
       </c>
       <c r="H21" s="19">
-        <v>-1.335070009768</v>
+        <v>-0.922809684073</v>
       </c>
       <c r="I21" s="18">
-        <v>4934</v>
+        <v>7130</v>
       </c>
       <c r="J21" s="18">
-        <v>4771</v>
+        <v>7077</v>
       </c>
       <c r="K21" s="19">
-        <v>3.416474533640</v>
+        <v>0.748904903207</v>
       </c>
       <c r="L21" s="19">
-        <v>42.559953770586</v>
+        <v>41.552511415525</v>
       </c>
       <c r="M21" s="19">
-        <v>19.063706563706</v>
+        <v>15.878433284576</v>
       </c>
       <c r="N21" s="19">
-        <v>-73.555579376138</v>
+        <v>-73.521984551396</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D22" s="15">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="16">
-        <v>-41.304347826087</v>
+        <v>-29.787234042553</v>
       </c>
       <c r="F22" s="15">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G22" s="15">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="H22" s="16">
-        <v>3.105590062111</v>
+        <v>-15.254237288135</v>
       </c>
       <c r="I22" s="15">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="J22" s="15">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="K22" s="16">
-        <v>-26.530612244898</v>
+        <v>-27.586206896551</v>
       </c>
       <c r="L22" s="16">
-        <v>44</v>
+        <v>36.363636363636</v>
       </c>
       <c r="M22" s="16">
-        <v>-24.210526315789</v>
+        <v>-22.794117647058</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D23" s="15">
         <v>102</v>
       </c>
       <c r="E23" s="16">
-        <v>7.843137254901</v>
+        <v>-1.960784313725</v>
       </c>
       <c r="F23" s="15">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G23" s="15">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H23" s="16">
-        <v>2.325581395348</v>
+        <v>2.816901408450</v>
       </c>
       <c r="I23" s="15">
-        <v>247</v>
+        <v>353</v>
       </c>
       <c r="J23" s="15">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="K23" s="16">
-        <v>11.764705882352</v>
+        <v>9.287925696594</v>
       </c>
       <c r="L23" s="16">
-        <v>34.239130434782</v>
+        <v>26.978417266187</v>
       </c>
       <c r="M23" s="16">
-        <v>61.437908496732</v>
+        <v>59.728506787330</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="D24" s="15">
-        <v>1806</v>
+        <v>1893</v>
       </c>
       <c r="E24" s="16">
-        <v>10.354374307862</v>
+        <v>6.603275224511</v>
       </c>
       <c r="F24" s="15">
-        <v>7876</v>
+        <v>8097</v>
       </c>
       <c r="G24" s="15">
-        <v>7161</v>
+        <v>7240</v>
       </c>
       <c r="H24" s="16">
-        <v>9.984639016897</v>
+        <v>11.837016574585</v>
       </c>
       <c r="I24" s="15">
-        <v>4039</v>
+        <v>6118</v>
       </c>
       <c r="J24" s="15">
-        <v>3542</v>
+        <v>5435</v>
       </c>
       <c r="K24" s="16">
-        <v>14.031620553359</v>
+        <v>12.566697332106</v>
       </c>
       <c r="L24" s="16">
-        <v>30.500807754442</v>
+        <v>28.556419415843</v>
       </c>
       <c r="M24" s="16">
-        <v>31.435079726651</v>
+        <v>31.485063399957</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>658</v>
+        <v>755</v>
       </c>
       <c r="D25" s="15">
-        <v>638</v>
+        <v>675</v>
       </c>
       <c r="E25" s="16">
-        <v>3.134796238244</v>
+        <v>11.851851851851</v>
       </c>
       <c r="F25" s="15">
-        <v>2828</v>
+        <v>2968</v>
       </c>
       <c r="G25" s="15">
-        <v>2613</v>
+        <v>2604</v>
       </c>
       <c r="H25" s="16">
-        <v>8.228090317642</v>
+        <v>13.978494623655</v>
       </c>
       <c r="I25" s="15">
-        <v>1510</v>
+        <v>2292</v>
       </c>
       <c r="J25" s="15">
-        <v>1324</v>
+        <v>1999</v>
       </c>
       <c r="K25" s="16">
-        <v>14.048338368580</v>
+        <v>14.657328664332</v>
       </c>
       <c r="L25" s="16">
-        <v>34.341637010676</v>
+        <v>37.163375224416</v>
       </c>
       <c r="M25" s="16">
-        <v>-7.926829268292</v>
+        <v>-6.601466992665</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D26" s="15">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E26" s="16">
-        <v>4.166666666666</v>
+        <v>-2.325581395348</v>
       </c>
       <c r="F26" s="15">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G26" s="15">
         <v>164</v>
       </c>
       <c r="H26" s="16">
-        <v>4.878048780487</v>
+        <v>7.317073170731</v>
       </c>
       <c r="I26" s="15">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="J26" s="15">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="K26" s="16">
-        <v>11.827956989247</v>
+        <v>8.088235294117</v>
       </c>
       <c r="L26" s="16">
-        <v>30</v>
+        <v>16.666666666666</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1359,31 +1359,31 @@
         <v>96</v>
       </c>
       <c r="D27" s="15">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E27" s="16">
-        <v>24.675324675324</v>
+        <v>37.142857142857</v>
       </c>
       <c r="F27" s="15">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="G27" s="15">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H27" s="16">
-        <v>30.566037735849</v>
+        <v>31.868131868131</v>
       </c>
       <c r="I27" s="15">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="J27" s="15">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="K27" s="16">
-        <v>31.847133757961</v>
+        <v>31.718061674008</v>
       </c>
       <c r="L27" s="16">
-        <v>51.094890510948</v>
+        <v>38.425925925925</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D28" s="15">
         <v>23</v>
       </c>
       <c r="E28" s="16">
-        <v>-34.782608695652</v>
+        <v>56.521739130434</v>
       </c>
       <c r="F28" s="15">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G28" s="15">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H28" s="16">
-        <v>-24.752475247524</v>
+        <v>-12.244897959183</v>
       </c>
       <c r="I28" s="15">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="J28" s="15">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K28" s="16">
-        <v>-32</v>
+        <v>-5.479452054794</v>
       </c>
       <c r="L28" s="16">
-        <v>-29.166666666666</v>
+        <v>9.523809523809</v>
       </c>
       <c r="M28" s="16">
-        <v>-20.930232558139</v>
+        <v>7.8125</v>
       </c>
       <c r="N28" s="16">
-        <v>-86.71875</v>
+        <v>-81.401617250673</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D29" s="15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16">
-        <v>-21.052631578947</v>
+        <v>19.047619047619</v>
       </c>
       <c r="F29" s="15">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G29" s="15">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" s="16">
-        <v>-16.666666666666</v>
+        <v>-16.470588235294</v>
       </c>
       <c r="I29" s="15">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="J29" s="15">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="K29" s="16">
-        <v>-26.666666666666</v>
+        <v>-13.636363636363</v>
       </c>
       <c r="L29" s="16">
-        <v>-19.512195121951</v>
+        <v>3.636363636363</v>
       </c>
       <c r="M29" s="16">
-        <v>-10.810810810810</v>
+        <v>0</v>
       </c>
       <c r="N29" s="16">
-        <v>-85.652173913043</v>
+        <v>-83.235294117647</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="15">
         <v>10</v>
       </c>
       <c r="E30" s="16">
-        <v>-90</v>
+        <v>-70</v>
       </c>
       <c r="F30" s="15">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G30" s="15">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H30" s="16">
-        <v>-64.516129032258</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="I30" s="15">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J30" s="15">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K30" s="16">
-        <v>-55.555555555555</v>
+        <v>-39.285714285714</v>
       </c>
       <c r="L30" s="16">
-        <v>-27.272727272727</v>
+        <v>21.428571428571</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t xml:space="preserve">4</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/16/2023</t>
+      <t xml:space="preserve">1/23/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/22/2023</t>
+      <t xml:space="preserve">1/29/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D14" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="16">
-        <v>28.571428571428</v>
+        <v>-50</v>
       </c>
       <c r="F14" s="15">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G14" s="15">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="16">
-        <v>6.666666666666</v>
+        <v>-3.703703703703</v>
       </c>
       <c r="I14" s="15">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J14" s="15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K14" s="16">
-        <v>0</v>
+        <v>-6.896551724137</v>
       </c>
       <c r="L14" s="16">
-        <v>-8</v>
+        <v>-12.903225806451</v>
       </c>
       <c r="M14" s="16">
-        <v>9.523809523809</v>
+        <v>-6.896551724137</v>
       </c>
       <c r="N14" s="16">
-        <v>-83.916083916083</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="15">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" s="16">
-        <v>-23.529411764705</v>
+        <v>-6.896551724137</v>
       </c>
       <c r="F15" s="15">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G15" s="15">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H15" s="16">
-        <v>1.724137931034</v>
+        <v>0</v>
       </c>
       <c r="I15" s="15">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J15" s="15">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="K15" s="16">
-        <v>2.061855670103</v>
+        <v>-0.793650793650</v>
       </c>
       <c r="L15" s="16">
-        <v>30.263157894736</v>
+        <v>32.978723404255</v>
       </c>
       <c r="M15" s="16">
-        <v>41.428571428571</v>
+        <v>34.408602150537</v>
       </c>
       <c r="N15" s="16">
-        <v>-43.103448275862</v>
+        <v>-46.120689655172</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="D16" s="15">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="E16" s="16">
-        <v>-17.475728155339</v>
+        <v>4.379562043795</v>
       </c>
       <c r="F16" s="15">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="G16" s="15">
-        <v>1192</v>
+        <v>1150</v>
       </c>
       <c r="H16" s="16">
-        <v>0</v>
+        <v>3.913043478260</v>
       </c>
       <c r="I16" s="15">
-        <v>937</v>
+        <v>1231</v>
       </c>
       <c r="J16" s="15">
-        <v>914</v>
+        <v>1188</v>
       </c>
       <c r="K16" s="16">
-        <v>2.516411378555</v>
+        <v>3.619528619528</v>
       </c>
       <c r="L16" s="16">
-        <v>35.404624277456</v>
+        <v>40.045506257110</v>
       </c>
       <c r="M16" s="16">
-        <v>-24.068071312803</v>
+        <v>-24.432166973603</v>
       </c>
       <c r="N16" s="16">
-        <v>-83.523826270441</v>
+        <v>-83.283541553503</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="D17" s="15">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="E17" s="16">
-        <v>4.662004662004</v>
+        <v>-3.491271820448</v>
       </c>
       <c r="F17" s="15">
-        <v>1875</v>
+        <v>1791</v>
       </c>
       <c r="G17" s="15">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="H17" s="16">
-        <v>16.677037958929</v>
+        <v>11.867582760774</v>
       </c>
       <c r="I17" s="15">
-        <v>1491</v>
+        <v>1902</v>
       </c>
       <c r="J17" s="15">
-        <v>1289</v>
+        <v>1690</v>
       </c>
       <c r="K17" s="16">
-        <v>15.671062839410</v>
+        <v>12.544378698224</v>
       </c>
       <c r="L17" s="16">
-        <v>33.363148479427</v>
+        <v>30.991735537190</v>
       </c>
       <c r="M17" s="16">
-        <v>70.205479452054</v>
+        <v>60.506329113924</v>
       </c>
       <c r="N17" s="16">
-        <v>-32.010943912448</v>
+        <v>-34.436401240951</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D18" s="15">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E18" s="16">
-        <v>-3.971119133574</v>
+        <v>-1.470588235294</v>
       </c>
       <c r="F18" s="15">
-        <v>1146</v>
+        <v>1162</v>
       </c>
       <c r="G18" s="15">
-        <v>1187</v>
+        <v>1117</v>
       </c>
       <c r="H18" s="16">
-        <v>-3.454085930918</v>
+        <v>4.028648164726</v>
       </c>
       <c r="I18" s="15">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="J18" s="15">
-        <v>877</v>
+        <v>1149</v>
       </c>
       <c r="K18" s="16">
-        <v>3.534777651083</v>
+        <v>3.655352480417</v>
       </c>
       <c r="L18" s="16">
-        <v>7.328605200945</v>
+        <v>13.105413105413</v>
       </c>
       <c r="M18" s="16">
-        <v>-25.451559934318</v>
+        <v>-26.070763500931</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.974667902378</v>
+        <v>-86.086448598130</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>885</v>
+        <v>851</v>
       </c>
       <c r="D19" s="15">
-        <v>974</v>
+        <v>872</v>
       </c>
       <c r="E19" s="16">
-        <v>-9.137577002053</v>
+        <v>-2.408256880733</v>
       </c>
       <c r="F19" s="15">
-        <v>3639</v>
+        <v>3633</v>
       </c>
       <c r="G19" s="15">
-        <v>4016</v>
+        <v>3811</v>
       </c>
       <c r="H19" s="16">
-        <v>-9.387450199203</v>
+        <v>-4.670690107583</v>
       </c>
       <c r="I19" s="15">
-        <v>2825</v>
+        <v>3709</v>
       </c>
       <c r="J19" s="15">
-        <v>3007</v>
+        <v>3878</v>
       </c>
       <c r="K19" s="16">
-        <v>-6.052544063851</v>
+        <v>-4.357916451779</v>
       </c>
       <c r="L19" s="16">
-        <v>54.455986878075</v>
+        <v>52.948453608247</v>
       </c>
       <c r="M19" s="16">
-        <v>31.517690875232</v>
+        <v>30.552622316085</v>
       </c>
       <c r="N19" s="16">
-        <v>-42.110655737704</v>
+        <v>-41.755653266331</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="D20" s="15">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="E20" s="16">
-        <v>-10.909090909090</v>
+        <v>17.796610169491</v>
       </c>
       <c r="F20" s="15">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="G20" s="15">
-        <v>1063</v>
+        <v>1088</v>
       </c>
       <c r="H20" s="16">
-        <v>5.738476011288</v>
+        <v>1.654411764705</v>
       </c>
       <c r="I20" s="15">
-        <v>847</v>
+        <v>1133</v>
       </c>
       <c r="J20" s="15">
-        <v>870</v>
+        <v>1106</v>
       </c>
       <c r="K20" s="16">
-        <v>-2.643678160919</v>
+        <v>2.441229656419</v>
       </c>
       <c r="L20" s="16">
-        <v>87.804878048780</v>
+        <v>94.006849315068</v>
       </c>
       <c r="M20" s="16">
-        <v>44.539249146757</v>
+        <v>43.417721518987</v>
       </c>
       <c r="N20" s="16">
-        <v>-88.518367900230</v>
+        <v>-88.41157819372</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2135</v>
+        <v>2100</v>
       </c>
       <c r="D21" s="18">
-        <v>2305</v>
+        <v>2090</v>
       </c>
       <c r="E21" s="19">
-        <v>-7.375271149674</v>
+        <v>0.478468899521</v>
       </c>
       <c r="F21" s="18">
-        <v>9126</v>
+        <v>9035</v>
       </c>
       <c r="G21" s="18">
-        <v>9211</v>
+        <v>8916</v>
       </c>
       <c r="H21" s="19">
-        <v>-0.922809684073</v>
+        <v>1.334679228353</v>
       </c>
       <c r="I21" s="18">
-        <v>7130</v>
+        <v>9318</v>
       </c>
       <c r="J21" s="18">
-        <v>7077</v>
+        <v>9166</v>
       </c>
       <c r="K21" s="19">
-        <v>0.748904903207</v>
+        <v>1.658302421994</v>
       </c>
       <c r="L21" s="19">
-        <v>41.552511415525</v>
+        <v>42.957962565204</v>
       </c>
       <c r="M21" s="19">
-        <v>15.878433284576</v>
+        <v>13.939838591342</v>
       </c>
       <c r="N21" s="19">
-        <v>-73.521984551396</v>
+        <v>-73.664575207732</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="15">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="16">
-        <v>-29.787234042553</v>
+        <v>-29.166666666666</v>
       </c>
       <c r="F22" s="15">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G22" s="15">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="H22" s="16">
-        <v>-15.254237288135</v>
+        <v>-31.052631578947</v>
       </c>
       <c r="I22" s="15">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="J22" s="15">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="K22" s="16">
-        <v>-27.586206896551</v>
+        <v>-29.015544041450</v>
       </c>
       <c r="L22" s="16">
-        <v>36.363636363636</v>
+        <v>28.037383177570</v>
       </c>
       <c r="M22" s="16">
-        <v>-22.794117647058</v>
+        <v>-24.309392265193</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D23" s="15">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E23" s="16">
-        <v>-1.960784313725</v>
+        <v>-5.813953488372</v>
       </c>
       <c r="F23" s="15">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="G23" s="15">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="H23" s="16">
-        <v>2.816901408450</v>
+        <v>5.597964376590</v>
       </c>
       <c r="I23" s="15">
-        <v>353</v>
+        <v>436</v>
       </c>
       <c r="J23" s="15">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="K23" s="16">
-        <v>9.287925696594</v>
+        <v>6.601466992665</v>
       </c>
       <c r="L23" s="16">
-        <v>26.978417266187</v>
+        <v>13.246753246753</v>
       </c>
       <c r="M23" s="16">
-        <v>59.728506787330</v>
+        <v>44.850498338870</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2018</v>
+        <v>2156</v>
       </c>
       <c r="D24" s="15">
-        <v>1893</v>
+        <v>1925</v>
       </c>
       <c r="E24" s="16">
-        <v>6.603275224511</v>
+        <v>12</v>
       </c>
       <c r="F24" s="15">
-        <v>8097</v>
+        <v>8254</v>
       </c>
       <c r="G24" s="15">
-        <v>7240</v>
+        <v>7271</v>
       </c>
       <c r="H24" s="16">
-        <v>11.837016574585</v>
+        <v>13.519460871957</v>
       </c>
       <c r="I24" s="15">
-        <v>6118</v>
+        <v>8315</v>
       </c>
       <c r="J24" s="15">
-        <v>5435</v>
+        <v>7360</v>
       </c>
       <c r="K24" s="16">
-        <v>12.566697332106</v>
+        <v>12.975543478260</v>
       </c>
       <c r="L24" s="16">
-        <v>28.556419415843</v>
+        <v>32.446639057024</v>
       </c>
       <c r="M24" s="16">
-        <v>31.485063399957</v>
+        <v>33.125200128082</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>755</v>
+        <v>706</v>
       </c>
       <c r="D25" s="15">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="E25" s="16">
-        <v>11.851851851851</v>
+        <v>1.875901875901</v>
       </c>
       <c r="F25" s="15">
-        <v>2968</v>
+        <v>2921</v>
       </c>
       <c r="G25" s="15">
-        <v>2604</v>
+        <v>2567</v>
       </c>
       <c r="H25" s="16">
-        <v>13.978494623655</v>
+        <v>13.790416828983</v>
       </c>
       <c r="I25" s="15">
-        <v>2292</v>
+        <v>3047</v>
       </c>
       <c r="J25" s="15">
-        <v>1999</v>
+        <v>2692</v>
       </c>
       <c r="K25" s="16">
-        <v>14.657328664332</v>
+        <v>13.187221396731</v>
       </c>
       <c r="L25" s="16">
-        <v>37.163375224416</v>
+        <v>41.918956683744</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.601466992665</v>
+        <v>-6.043786617329</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1318,31 +1318,31 @@
         <v>42</v>
       </c>
       <c r="D26" s="15">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E26" s="16">
-        <v>-2.325581395348</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="F26" s="15">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G26" s="15">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H26" s="16">
-        <v>7.317073170731</v>
+        <v>3.910614525139</v>
       </c>
       <c r="I26" s="15">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="J26" s="15">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="K26" s="16">
-        <v>8.088235294117</v>
+        <v>2.162162162162</v>
       </c>
       <c r="L26" s="16">
-        <v>16.666666666666</v>
+        <v>15.243902439024</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D27" s="15">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E27" s="16">
-        <v>37.142857142857</v>
+        <v>32.258064516129</v>
       </c>
       <c r="F27" s="15">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G27" s="15">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H27" s="16">
-        <v>31.868131868131</v>
+        <v>28.368794326241</v>
       </c>
       <c r="I27" s="15">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="J27" s="15">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="K27" s="16">
-        <v>31.718061674008</v>
+        <v>31.141868512110</v>
       </c>
       <c r="L27" s="16">
-        <v>38.425925925925</v>
+        <v>32.517482517482</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D28" s="15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E28" s="16">
-        <v>56.521739130434</v>
+        <v>-58.620689655172</v>
       </c>
       <c r="F28" s="15">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G28" s="15">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="16">
-        <v>-12.244897959183</v>
+        <v>-18.556701030927</v>
       </c>
       <c r="I28" s="15">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="J28" s="15">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="K28" s="16">
-        <v>-5.479452054794</v>
+        <v>-20.588235294117</v>
       </c>
       <c r="L28" s="16">
-        <v>9.523809523809</v>
+        <v>5.194805194805</v>
       </c>
       <c r="M28" s="16">
-        <v>7.8125</v>
+        <v>-4.705882352941</v>
       </c>
       <c r="N28" s="16">
-        <v>-81.401617250673</v>
+        <v>-83.264462809917</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D29" s="15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16">
-        <v>19.047619047619</v>
+        <v>-57.692307692307</v>
       </c>
       <c r="F29" s="15">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G29" s="15">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" s="16">
-        <v>-16.470588235294</v>
+        <v>-24.137931034482</v>
       </c>
       <c r="I29" s="15">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J29" s="15">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K29" s="16">
-        <v>-13.636363636363</v>
+        <v>-26.086956521739</v>
       </c>
       <c r="L29" s="16">
-        <v>3.636363636363</v>
+        <v>-1.449275362318</v>
       </c>
       <c r="M29" s="16">
-        <v>0</v>
+        <v>-11.688311688311</v>
       </c>
       <c r="N29" s="16">
-        <v>-83.235294117647</v>
+        <v>-84.684684684684</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="16">
-        <v>-70</v>
+        <v>-77.777777777777</v>
       </c>
       <c r="F30" s="15">
         <v>20</v>
@@ -1497,16 +1497,16 @@
         <v>-44.444444444444</v>
       </c>
       <c r="I30" s="15">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J30" s="15">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K30" s="16">
-        <v>-39.285714285714</v>
+        <v>-43.243243243243</v>
       </c>
       <c r="L30" s="16">
-        <v>21.428571428571</v>
+        <v>50</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4</t>
+      <t xml:space="preserve">5</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/23/2023</t>
+      <t xml:space="preserve">1/30/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/29/2023</t>
+      <t xml:space="preserve">2/5/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15">
         <v>6</v>
       </c>
       <c r="E14" s="16">
-        <v>-50</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="F14" s="15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" s="16">
-        <v>-3.703703703703</v>
+        <v>-10.714285714285</v>
       </c>
       <c r="I14" s="15">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J14" s="15">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K14" s="16">
-        <v>-6.896551724137</v>
+        <v>-8.571428571428</v>
       </c>
       <c r="L14" s="16">
-        <v>-12.903225806451</v>
+        <v>-13.513513513513</v>
       </c>
       <c r="M14" s="16">
-        <v>-6.896551724137</v>
+        <v>-27.272727272727</v>
       </c>
       <c r="N14" s="16">
-        <v>-85</v>
+        <v>-84.466019417475</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D15" s="15">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E15" s="16">
-        <v>-6.896551724137</v>
+        <v>-39.393939393939</v>
       </c>
       <c r="F15" s="15">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G15" s="15">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H15" s="16">
-        <v>0</v>
+        <v>-19.047619047619</v>
       </c>
       <c r="I15" s="15">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="J15" s="15">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="K15" s="16">
-        <v>-0.793650793650</v>
+        <v>-8.805031446540</v>
       </c>
       <c r="L15" s="16">
-        <v>32.978723404255</v>
+        <v>27.192982456140</v>
       </c>
       <c r="M15" s="16">
-        <v>34.408602150537</v>
+        <v>21.848739495798</v>
       </c>
       <c r="N15" s="16">
-        <v>-46.120689655172</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D16" s="15">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="E16" s="16">
-        <v>4.379562043795</v>
+        <v>14.574898785425</v>
       </c>
       <c r="F16" s="15">
-        <v>1195</v>
+        <v>1157</v>
       </c>
       <c r="G16" s="15">
-        <v>1150</v>
+        <v>1113</v>
       </c>
       <c r="H16" s="16">
-        <v>3.913043478260</v>
+        <v>3.953279424977</v>
       </c>
       <c r="I16" s="15">
-        <v>1231</v>
+        <v>1525</v>
       </c>
       <c r="J16" s="15">
-        <v>1188</v>
+        <v>1435</v>
       </c>
       <c r="K16" s="16">
-        <v>3.619528619528</v>
+        <v>6.271777003484</v>
       </c>
       <c r="L16" s="16">
-        <v>40.045506257110</v>
+        <v>45.793499043977</v>
       </c>
       <c r="M16" s="16">
-        <v>-24.432166973603</v>
+        <v>-21.794871794871</v>
       </c>
       <c r="N16" s="16">
-        <v>-83.283541553503</v>
+        <v>-82.934198746642</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="D17" s="15">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E17" s="16">
-        <v>-3.491271820448</v>
+        <v>3.856041131105</v>
       </c>
       <c r="F17" s="15">
-        <v>1791</v>
+        <v>1730</v>
       </c>
       <c r="G17" s="15">
         <v>1601</v>
       </c>
       <c r="H17" s="16">
-        <v>11.867582760774</v>
+        <v>8.057464084946</v>
       </c>
       <c r="I17" s="15">
-        <v>1902</v>
+        <v>2333</v>
       </c>
       <c r="J17" s="15">
-        <v>1690</v>
+        <v>2079</v>
       </c>
       <c r="K17" s="16">
-        <v>12.544378698224</v>
+        <v>12.217412217412</v>
       </c>
       <c r="L17" s="16">
-        <v>30.991735537190</v>
+        <v>30.627099664053</v>
       </c>
       <c r="M17" s="16">
-        <v>60.506329113924</v>
+        <v>62.352122477383</v>
       </c>
       <c r="N17" s="16">
-        <v>-34.436401240951</v>
+        <v>-33.740414654927</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D18" s="15">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E18" s="16">
-        <v>-1.470588235294</v>
+        <v>-3.773584905660</v>
       </c>
       <c r="F18" s="15">
-        <v>1162</v>
+        <v>1099</v>
       </c>
       <c r="G18" s="15">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="H18" s="16">
-        <v>4.028648164726</v>
+        <v>-0.722673893405</v>
       </c>
       <c r="I18" s="15">
-        <v>1191</v>
+        <v>1452</v>
       </c>
       <c r="J18" s="15">
-        <v>1149</v>
+        <v>1414</v>
       </c>
       <c r="K18" s="16">
-        <v>3.655352480417</v>
+        <v>2.687411598302</v>
       </c>
       <c r="L18" s="16">
-        <v>13.105413105413</v>
+        <v>17.952883834281</v>
       </c>
       <c r="M18" s="16">
-        <v>-26.070763500931</v>
+        <v>-25.538461538461</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.086448598130</v>
+        <v>-86.063921681543</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>851</v>
+        <v>912</v>
       </c>
       <c r="D19" s="15">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="E19" s="16">
-        <v>-2.408256880733</v>
+        <v>3.167420814479</v>
       </c>
       <c r="F19" s="15">
-        <v>3633</v>
+        <v>3624</v>
       </c>
       <c r="G19" s="15">
-        <v>3811</v>
+        <v>3741</v>
       </c>
       <c r="H19" s="16">
-        <v>-4.670690107583</v>
+        <v>-3.127506014434</v>
       </c>
       <c r="I19" s="15">
-        <v>3709</v>
+        <v>4620</v>
       </c>
       <c r="J19" s="15">
-        <v>3878</v>
+        <v>4762</v>
       </c>
       <c r="K19" s="16">
-        <v>-4.357916451779</v>
+        <v>-2.981940361192</v>
       </c>
       <c r="L19" s="16">
-        <v>52.948453608247</v>
+        <v>60.027710426047</v>
       </c>
       <c r="M19" s="16">
-        <v>30.552622316085</v>
+        <v>31.25</v>
       </c>
       <c r="N19" s="16">
-        <v>-41.755653266331</v>
+        <v>-41.754916792738</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D20" s="15">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E20" s="16">
-        <v>17.796610169491</v>
+        <v>14.977973568281</v>
       </c>
       <c r="F20" s="15">
-        <v>1106</v>
+        <v>1082</v>
       </c>
       <c r="G20" s="15">
-        <v>1088</v>
+        <v>1048</v>
       </c>
       <c r="H20" s="16">
-        <v>1.654411764705</v>
+        <v>3.244274809160</v>
       </c>
       <c r="I20" s="15">
-        <v>1133</v>
+        <v>1397</v>
       </c>
       <c r="J20" s="15">
-        <v>1106</v>
+        <v>1333</v>
       </c>
       <c r="K20" s="16">
-        <v>2.441229656419</v>
+        <v>4.801200300075</v>
       </c>
       <c r="L20" s="16">
-        <v>94.006849315068</v>
+        <v>100.143266475645</v>
       </c>
       <c r="M20" s="16">
-        <v>43.417721518987</v>
+        <v>40.826612903225</v>
       </c>
       <c r="N20" s="16">
-        <v>-88.41157819372</v>
+        <v>-88.273314866112</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2100</v>
+        <v>2140</v>
       </c>
       <c r="D21" s="18">
-        <v>2090</v>
+        <v>2051</v>
       </c>
       <c r="E21" s="19">
-        <v>0.478468899521</v>
+        <v>4.339346660165</v>
       </c>
       <c r="F21" s="18">
-        <v>9035</v>
+        <v>8819</v>
       </c>
       <c r="G21" s="18">
-        <v>8916</v>
+        <v>8764</v>
       </c>
       <c r="H21" s="19">
-        <v>1.334679228353</v>
+        <v>0.627567320858</v>
       </c>
       <c r="I21" s="18">
-        <v>9318</v>
+        <v>11504</v>
       </c>
       <c r="J21" s="18">
-        <v>9166</v>
+        <v>11217</v>
       </c>
       <c r="K21" s="19">
-        <v>1.658302421994</v>
+        <v>2.558616385842</v>
       </c>
       <c r="L21" s="19">
-        <v>42.957962565204</v>
+        <v>47.506090524426</v>
       </c>
       <c r="M21" s="19">
-        <v>13.939838591342</v>
+        <v>14.902117459049</v>
       </c>
       <c r="N21" s="19">
-        <v>-73.664575207732</v>
+        <v>-73.380845500613</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1154,34 +1154,34 @@
         <v>34</v>
       </c>
       <c r="D22" s="15">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E22" s="16">
-        <v>-29.166666666666</v>
+        <v>-2.857142857142</v>
       </c>
       <c r="F22" s="15">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G22" s="15">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="H22" s="16">
-        <v>-31.052631578947</v>
+        <v>-28.977272727272</v>
       </c>
       <c r="I22" s="15">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="J22" s="15">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K22" s="16">
-        <v>-29.015544041450</v>
+        <v>-25.877192982456</v>
       </c>
       <c r="L22" s="16">
-        <v>28.037383177570</v>
+        <v>32.03125</v>
       </c>
       <c r="M22" s="16">
-        <v>-24.309392265193</v>
+        <v>-25.877192982456</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D23" s="15">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E23" s="16">
-        <v>-5.813953488372</v>
+        <v>-0.900900900900</v>
       </c>
       <c r="F23" s="15">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G23" s="15">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H23" s="16">
-        <v>5.597964376590</v>
+        <v>2.992518703241</v>
       </c>
       <c r="I23" s="15">
-        <v>436</v>
+        <v>552</v>
       </c>
       <c r="J23" s="15">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="K23" s="16">
-        <v>6.601466992665</v>
+        <v>6.153846153846</v>
       </c>
       <c r="L23" s="16">
-        <v>13.246753246753</v>
+        <v>16.949152542372</v>
       </c>
       <c r="M23" s="16">
-        <v>44.850498338870</v>
+        <v>52.908587257617</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2156</v>
+        <v>1911</v>
       </c>
       <c r="D24" s="15">
-        <v>1925</v>
+        <v>1792</v>
       </c>
       <c r="E24" s="16">
-        <v>12</v>
+        <v>6.640625</v>
       </c>
       <c r="F24" s="15">
-        <v>8254</v>
+        <v>8240</v>
       </c>
       <c r="G24" s="15">
-        <v>7271</v>
+        <v>7416</v>
       </c>
       <c r="H24" s="16">
-        <v>13.519460871957</v>
+        <v>11.111111111111</v>
       </c>
       <c r="I24" s="15">
-        <v>8315</v>
+        <v>10287</v>
       </c>
       <c r="J24" s="15">
-        <v>7360</v>
+        <v>9152</v>
       </c>
       <c r="K24" s="16">
-        <v>12.975543478260</v>
+        <v>12.401660839160</v>
       </c>
       <c r="L24" s="16">
-        <v>32.446639057024</v>
+        <v>37.913929481163</v>
       </c>
       <c r="M24" s="16">
-        <v>33.125200128082</v>
+        <v>34.242463787028</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>706</v>
+        <v>735</v>
       </c>
       <c r="D25" s="15">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="E25" s="16">
-        <v>1.875901875901</v>
+        <v>0.823045267489</v>
       </c>
       <c r="F25" s="15">
-        <v>2921</v>
+        <v>2964</v>
       </c>
       <c r="G25" s="15">
-        <v>2567</v>
+        <v>2735</v>
       </c>
       <c r="H25" s="16">
-        <v>13.790416828983</v>
+        <v>8.372943327239</v>
       </c>
       <c r="I25" s="15">
-        <v>3047</v>
+        <v>3816</v>
       </c>
       <c r="J25" s="15">
-        <v>2692</v>
+        <v>3421</v>
       </c>
       <c r="K25" s="16">
-        <v>13.187221396731</v>
+        <v>11.546331482022</v>
       </c>
       <c r="L25" s="16">
-        <v>41.918956683744</v>
+        <v>42.760942760942</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.043786617329</v>
+        <v>-4.647676161919</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D26" s="15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="16">
-        <v>-14.285714285714</v>
+        <v>-10</v>
       </c>
       <c r="F26" s="15">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G26" s="15">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H26" s="16">
-        <v>3.910614525139</v>
+        <v>-3.684210526315</v>
       </c>
       <c r="I26" s="15">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="J26" s="15">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="K26" s="16">
-        <v>2.162162162162</v>
+        <v>0.851063829787</v>
       </c>
       <c r="L26" s="16">
-        <v>15.243902439024</v>
+        <v>15.609756097561</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D27" s="15">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E27" s="16">
-        <v>32.258064516129</v>
+        <v>0</v>
       </c>
       <c r="F27" s="15">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G27" s="15">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H27" s="16">
-        <v>28.368794326241</v>
+        <v>20</v>
       </c>
       <c r="I27" s="15">
-        <v>379</v>
+        <v>462</v>
       </c>
       <c r="J27" s="15">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="K27" s="16">
-        <v>31.141868512110</v>
+        <v>23.2</v>
       </c>
       <c r="L27" s="16">
-        <v>32.517482517482</v>
+        <v>35.882352941176</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D28" s="15">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16">
-        <v>-58.620689655172</v>
+        <v>-36</v>
       </c>
       <c r="F28" s="15">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="15">
+        <v>100</v>
+      </c>
+      <c r="H28" s="16">
+        <v>-22</v>
+      </c>
+      <c r="I28" s="15">
         <v>97</v>
       </c>
-      <c r="H28" s="16">
-        <v>-18.556701030927</v>
-      </c>
-      <c r="I28" s="15">
-        <v>81</v>
-      </c>
       <c r="J28" s="15">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K28" s="16">
-        <v>-20.588235294117</v>
+        <v>-23.622047244094</v>
       </c>
       <c r="L28" s="16">
-        <v>5.194805194805</v>
+        <v>2.105263157894</v>
       </c>
       <c r="M28" s="16">
-        <v>-4.705882352941</v>
+        <v>-11.818181818181</v>
       </c>
       <c r="N28" s="16">
-        <v>-83.264462809917</v>
+        <v>-83.130434782608</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" s="15">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16">
-        <v>-57.692307692307</v>
+        <v>-31.818181818181</v>
       </c>
       <c r="F29" s="15">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="15">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" s="16">
-        <v>-24.137931034482</v>
+        <v>-26.136363636363</v>
       </c>
       <c r="I29" s="15">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J29" s="15">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="K29" s="16">
-        <v>-26.086956521739</v>
+        <v>-27.192982456140</v>
       </c>
       <c r="L29" s="16">
-        <v>-1.449275362318</v>
+        <v>-4.597701149425</v>
       </c>
       <c r="M29" s="16">
-        <v>-11.688311688311</v>
+        <v>-15.306122448979</v>
       </c>
       <c r="N29" s="16">
-        <v>-84.684684684684</v>
+        <v>-84.339622641509</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D30" s="15">
         <v>9</v>
       </c>
       <c r="E30" s="16">
-        <v>-77.777777777777</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F30" s="15">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G30" s="15">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H30" s="16">
-        <v>-44.444444444444</v>
+        <v>-28.947368421052</v>
       </c>
       <c r="I30" s="15">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J30" s="15">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K30" s="16">
-        <v>-43.243243243243</v>
+        <v>-23.913043478260</v>
       </c>
       <c r="L30" s="16">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5</t>
+      <t xml:space="preserve">6</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/30/2023</t>
+      <t xml:space="preserve">2/6/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/5/2023</t>
+      <t xml:space="preserve">2/12/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E14" s="16">
-        <v>-16.666666666666</v>
+        <v>-23.076923076923</v>
       </c>
       <c r="F14" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G14" s="15">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H14" s="16">
-        <v>-10.714285714285</v>
+        <v>-6.25</v>
       </c>
       <c r="I14" s="15">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J14" s="15">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K14" s="16">
-        <v>-8.571428571428</v>
+        <v>-8.333333333333</v>
       </c>
       <c r="L14" s="16">
-        <v>-13.513513513513</v>
+        <v>-6.382978723404</v>
       </c>
       <c r="M14" s="16">
-        <v>-27.272727272727</v>
+        <v>-6.382978723404</v>
       </c>
       <c r="N14" s="16">
-        <v>-84.466019417475</v>
+        <v>-81.893004115226</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D15" s="15">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E15" s="16">
-        <v>-39.393939393939</v>
+        <v>12</v>
       </c>
       <c r="F15" s="15">
         <v>102</v>
       </c>
       <c r="G15" s="15">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H15" s="16">
-        <v>-19.047619047619</v>
+        <v>-15.702479338843</v>
       </c>
       <c r="I15" s="15">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="J15" s="15">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="K15" s="16">
-        <v>-8.805031446540</v>
+        <v>-3.804347826086</v>
       </c>
       <c r="L15" s="16">
-        <v>27.192982456140</v>
+        <v>23.776223776223</v>
       </c>
       <c r="M15" s="16">
-        <v>21.848739495798</v>
+        <v>27.338129496402</v>
       </c>
       <c r="N15" s="16">
-        <v>-50</v>
+        <v>-50.696378830083</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D16" s="15">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="E16" s="16">
-        <v>14.574898785425</v>
+        <v>-16.719242902208</v>
       </c>
       <c r="F16" s="15">
-        <v>1157</v>
+        <v>1102</v>
       </c>
       <c r="G16" s="15">
-        <v>1113</v>
+        <v>1147</v>
       </c>
       <c r="H16" s="16">
-        <v>3.953279424977</v>
+        <v>-3.923278116826</v>
       </c>
       <c r="I16" s="15">
-        <v>1525</v>
+        <v>1790</v>
       </c>
       <c r="J16" s="15">
-        <v>1435</v>
+        <v>1752</v>
       </c>
       <c r="K16" s="16">
-        <v>6.271777003484</v>
+        <v>2.168949771689</v>
       </c>
       <c r="L16" s="16">
-        <v>45.793499043977</v>
+        <v>41.838351822504</v>
       </c>
       <c r="M16" s="16">
-        <v>-21.794871794871</v>
+        <v>-19.946332737030</v>
       </c>
       <c r="N16" s="16">
-        <v>-82.934198746642</v>
+        <v>-82.746987951807</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="D17" s="15">
-        <v>389</v>
+        <v>473</v>
       </c>
       <c r="E17" s="16">
-        <v>3.856041131105</v>
+        <v>-0.845665961945</v>
       </c>
       <c r="F17" s="15">
-        <v>1730</v>
+        <v>1783</v>
       </c>
       <c r="G17" s="15">
-        <v>1601</v>
+        <v>1692</v>
       </c>
       <c r="H17" s="16">
-        <v>8.057464084946</v>
+        <v>5.378250591016</v>
       </c>
       <c r="I17" s="15">
-        <v>2333</v>
+        <v>2833</v>
       </c>
       <c r="J17" s="15">
-        <v>2079</v>
+        <v>2552</v>
       </c>
       <c r="K17" s="16">
-        <v>12.217412217412</v>
+        <v>11.010971786833</v>
       </c>
       <c r="L17" s="16">
-        <v>30.627099664053</v>
+        <v>34.648288973384</v>
       </c>
       <c r="M17" s="16">
-        <v>62.352122477383</v>
+        <v>67.336089781453</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.740414654927</v>
+        <v>-30.699608610567</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="D18" s="15">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="E18" s="16">
-        <v>-3.773584905660</v>
+        <v>-11.98738170347</v>
       </c>
       <c r="F18" s="15">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="G18" s="15">
-        <v>1107</v>
+        <v>1131</v>
       </c>
       <c r="H18" s="16">
-        <v>-0.722673893405</v>
+        <v>-3.625110521662</v>
       </c>
       <c r="I18" s="15">
-        <v>1452</v>
+        <v>1735</v>
       </c>
       <c r="J18" s="15">
-        <v>1414</v>
+        <v>1731</v>
       </c>
       <c r="K18" s="16">
-        <v>2.687411598302</v>
+        <v>0.231080300404</v>
       </c>
       <c r="L18" s="16">
-        <v>17.952883834281</v>
+        <v>21.498599439775</v>
       </c>
       <c r="M18" s="16">
-        <v>-25.538461538461</v>
+        <v>-22.991566799822</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.063921681543</v>
+        <v>-85.777522747766</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="D19" s="15">
-        <v>884</v>
+        <v>987</v>
       </c>
       <c r="E19" s="16">
-        <v>3.167420814479</v>
+        <v>-9.219858156028</v>
       </c>
       <c r="F19" s="15">
-        <v>3624</v>
+        <v>3589</v>
       </c>
       <c r="G19" s="15">
-        <v>3741</v>
+        <v>3716</v>
       </c>
       <c r="H19" s="16">
-        <v>-3.127506014434</v>
+        <v>-3.417653390742</v>
       </c>
       <c r="I19" s="15">
-        <v>4620</v>
+        <v>5530</v>
       </c>
       <c r="J19" s="15">
-        <v>4762</v>
+        <v>5749</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.981940361192</v>
+        <v>-3.809358149243</v>
       </c>
       <c r="L19" s="16">
-        <v>60.027710426047</v>
+        <v>61.507009345794</v>
       </c>
       <c r="M19" s="16">
-        <v>31.25</v>
+        <v>34.582623509369</v>
       </c>
       <c r="N19" s="16">
-        <v>-41.754916792738</v>
+        <v>-40.332326283987</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="D20" s="15">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="E20" s="16">
-        <v>14.977973568281</v>
+        <v>0.335570469798</v>
       </c>
       <c r="F20" s="15">
-        <v>1082</v>
+        <v>1095</v>
       </c>
       <c r="G20" s="15">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="H20" s="16">
-        <v>3.244274809160</v>
+        <v>5.694980694980</v>
       </c>
       <c r="I20" s="15">
-        <v>1397</v>
+        <v>1696</v>
       </c>
       <c r="J20" s="15">
-        <v>1333</v>
+        <v>1631</v>
       </c>
       <c r="K20" s="16">
-        <v>4.801200300075</v>
+        <v>3.985285101164</v>
       </c>
       <c r="L20" s="16">
-        <v>100.143266475645</v>
+        <v>100.236127508855</v>
       </c>
       <c r="M20" s="16">
-        <v>40.826612903225</v>
+        <v>48.641542506573</v>
       </c>
       <c r="N20" s="16">
-        <v>-88.273314866112</v>
+        <v>-87.831826660927</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2140</v>
+        <v>2245</v>
       </c>
       <c r="D21" s="18">
-        <v>2051</v>
+        <v>2430</v>
       </c>
       <c r="E21" s="19">
-        <v>4.339346660165</v>
+        <v>-7.613168724279</v>
       </c>
       <c r="F21" s="18">
-        <v>8819</v>
+        <v>8791</v>
       </c>
       <c r="G21" s="18">
-        <v>8764</v>
+        <v>8875</v>
       </c>
       <c r="H21" s="19">
-        <v>0.627567320858</v>
+        <v>-0.946478873239</v>
       </c>
       <c r="I21" s="18">
-        <v>11504</v>
+        <v>13805</v>
       </c>
       <c r="J21" s="18">
-        <v>11217</v>
+        <v>13647</v>
       </c>
       <c r="K21" s="19">
-        <v>2.558616385842</v>
+        <v>1.157763611050</v>
       </c>
       <c r="L21" s="19">
-        <v>47.506090524426</v>
+        <v>49.162614802809</v>
       </c>
       <c r="M21" s="19">
-        <v>14.902117459049</v>
+        <v>18.824238250989</v>
       </c>
       <c r="N21" s="19">
-        <v>-73.380845500613</v>
+        <v>-72.647117099266</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D22" s="15">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E22" s="16">
-        <v>-2.857142857142</v>
+        <v>-6.382978723404</v>
       </c>
       <c r="F22" s="15">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="G22" s="15">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H22" s="16">
-        <v>-28.977272727272</v>
+        <v>-19.209039548022</v>
       </c>
       <c r="I22" s="15">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="J22" s="15">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="K22" s="16">
-        <v>-25.877192982456</v>
+        <v>-21.818181818181</v>
       </c>
       <c r="L22" s="16">
-        <v>32.03125</v>
+        <v>34.375</v>
       </c>
       <c r="M22" s="16">
-        <v>-25.877192982456</v>
+        <v>-16.015625</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D23" s="15">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E23" s="16">
-        <v>-0.900900900900</v>
+        <v>-7.03125</v>
       </c>
       <c r="F23" s="15">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="G23" s="15">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="H23" s="16">
-        <v>2.992518703241</v>
+        <v>0</v>
       </c>
       <c r="I23" s="15">
-        <v>552</v>
+        <v>682</v>
       </c>
       <c r="J23" s="15">
-        <v>520</v>
+        <v>648</v>
       </c>
       <c r="K23" s="16">
-        <v>6.153846153846</v>
+        <v>5.246913580246</v>
       </c>
       <c r="L23" s="16">
-        <v>16.949152542372</v>
+        <v>23.550724637681</v>
       </c>
       <c r="M23" s="16">
-        <v>52.908587257617</v>
+        <v>58.236658932714</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1911</v>
+        <v>1948</v>
       </c>
       <c r="D24" s="15">
-        <v>1792</v>
+        <v>2077</v>
       </c>
       <c r="E24" s="16">
-        <v>6.640625</v>
+        <v>-6.210881078478</v>
       </c>
       <c r="F24" s="15">
-        <v>8240</v>
+        <v>8183</v>
       </c>
       <c r="G24" s="15">
-        <v>7416</v>
+        <v>7687</v>
       </c>
       <c r="H24" s="16">
-        <v>11.111111111111</v>
+        <v>6.452452192012</v>
       </c>
       <c r="I24" s="15">
-        <v>10287</v>
+        <v>12291</v>
       </c>
       <c r="J24" s="15">
-        <v>9152</v>
+        <v>11229</v>
       </c>
       <c r="K24" s="16">
-        <v>12.401660839160</v>
+        <v>9.457654288004</v>
       </c>
       <c r="L24" s="16">
-        <v>37.913929481163</v>
+        <v>39.306358381502</v>
       </c>
       <c r="M24" s="16">
-        <v>34.242463787028</v>
+        <v>38.771593090211</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D25" s="15">
-        <v>729</v>
+        <v>769</v>
       </c>
       <c r="E25" s="16">
-        <v>0.823045267489</v>
+        <v>-8.582574772431</v>
       </c>
       <c r="F25" s="15">
-        <v>2964</v>
+        <v>3015</v>
       </c>
       <c r="G25" s="15">
-        <v>2735</v>
+        <v>2866</v>
       </c>
       <c r="H25" s="16">
-        <v>8.372943327239</v>
+        <v>5.198883461270</v>
       </c>
       <c r="I25" s="15">
-        <v>3816</v>
+        <v>4551</v>
       </c>
       <c r="J25" s="15">
-        <v>3421</v>
+        <v>4190</v>
       </c>
       <c r="K25" s="16">
-        <v>11.546331482022</v>
+        <v>8.615751789976</v>
       </c>
       <c r="L25" s="16">
-        <v>42.760942760942</v>
+        <v>43.428931610463</v>
       </c>
       <c r="M25" s="16">
-        <v>-4.647676161919</v>
+        <v>-3.784355179704</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D26" s="15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="16">
-        <v>-10</v>
+        <v>-18.367346938775</v>
       </c>
       <c r="F26" s="15">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G26" s="15">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H26" s="16">
-        <v>-3.684210526315</v>
+        <v>-8.376963350785</v>
       </c>
       <c r="I26" s="15">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="J26" s="15">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="K26" s="16">
-        <v>0.851063829787</v>
+        <v>-1.056338028169</v>
       </c>
       <c r="L26" s="16">
-        <v>15.609756097561</v>
+        <v>14.227642276422</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D27" s="15">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E27" s="16">
-        <v>0</v>
+        <v>-14.545454545454</v>
       </c>
       <c r="F27" s="15">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G27" s="15">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="H27" s="16">
-        <v>20</v>
+        <v>9.146341463414</v>
       </c>
       <c r="I27" s="15">
-        <v>462</v>
+        <v>561</v>
       </c>
       <c r="J27" s="15">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="K27" s="16">
-        <v>23.2</v>
+        <v>15.670103092783</v>
       </c>
       <c r="L27" s="16">
-        <v>35.882352941176</v>
+        <v>36.496350364963</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D28" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16">
-        <v>-36</v>
+        <v>23.333333333333</v>
       </c>
       <c r="F28" s="15">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G28" s="15">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H28" s="16">
-        <v>-22</v>
+        <v>-5.607476635514</v>
       </c>
       <c r="I28" s="15">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="J28" s="15">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="K28" s="16">
-        <v>-23.622047244094</v>
+        <v>-14.649681528662</v>
       </c>
       <c r="L28" s="16">
-        <v>2.105263157894</v>
+        <v>19.642857142857</v>
       </c>
       <c r="M28" s="16">
-        <v>-11.818181818181</v>
+        <v>-2.898550724637</v>
       </c>
       <c r="N28" s="16">
-        <v>-83.130434782608</v>
+        <v>-79.696969696969</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D29" s="15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16">
-        <v>-31.818181818181</v>
+        <v>8</v>
       </c>
       <c r="F29" s="15">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G29" s="15">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H29" s="16">
-        <v>-26.136363636363</v>
+        <v>-17.021276595744</v>
       </c>
       <c r="I29" s="15">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="J29" s="15">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="K29" s="16">
-        <v>-27.192982456140</v>
+        <v>-20.863309352518</v>
       </c>
       <c r="L29" s="16">
-        <v>-4.597701149425</v>
+        <v>7.843137254901</v>
       </c>
       <c r="M29" s="16">
-        <v>-15.306122448979</v>
+        <v>-10.569105691056</v>
       </c>
       <c r="N29" s="16">
-        <v>-84.339622641509</v>
+        <v>-81.996726677577</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" s="15">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16">
-        <v>-33.333333333333</v>
+        <v>-82.608695652173</v>
       </c>
       <c r="F30" s="15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G30" s="15">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16">
-        <v>-28.947368421052</v>
+        <v>-52.941176470588</v>
       </c>
       <c r="I30" s="15">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J30" s="15">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="K30" s="16">
-        <v>-23.913043478260</v>
+        <v>-43.478260869565</v>
       </c>
       <c r="L30" s="16">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6</t>
+      <t xml:space="preserve">7</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/6/2023</t>
+      <t xml:space="preserve">2/13/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/12/2023</t>
+      <t xml:space="preserve">2/19/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" s="16">
-        <v>-23.076923076923</v>
+        <v>-37.5</v>
       </c>
       <c r="F14" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G14" s="15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="16">
-        <v>-6.25</v>
+        <v>-24.242424242424</v>
       </c>
       <c r="I14" s="15">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J14" s="15">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K14" s="16">
-        <v>-8.333333333333</v>
+        <v>-12.5</v>
       </c>
       <c r="L14" s="16">
-        <v>-6.382978723404</v>
+        <v>-2</v>
       </c>
       <c r="M14" s="16">
-        <v>-6.382978723404</v>
+        <v>-9.259259259259</v>
       </c>
       <c r="N14" s="16">
-        <v>-81.893004115226</v>
+        <v>-82.246376811594</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="15">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E15" s="16">
-        <v>12</v>
+        <v>-26.829268292682</v>
       </c>
       <c r="F15" s="15">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G15" s="15">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H15" s="16">
-        <v>-15.702479338843</v>
+        <v>-16.40625</v>
       </c>
       <c r="I15" s="15">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="J15" s="15">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K15" s="16">
-        <v>-3.804347826086</v>
+        <v>-6.666666666666</v>
       </c>
       <c r="L15" s="16">
-        <v>23.776223776223</v>
+        <v>26.506024096385</v>
       </c>
       <c r="M15" s="16">
-        <v>27.338129496402</v>
+        <v>36.363636363636</v>
       </c>
       <c r="N15" s="16">
-        <v>-50.696378830083</v>
+        <v>-48.780487804878</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="D16" s="15">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="E16" s="16">
-        <v>-16.719242902208</v>
+        <v>-15.258855585831</v>
       </c>
       <c r="F16" s="15">
-        <v>1102</v>
+        <v>1164</v>
       </c>
       <c r="G16" s="15">
-        <v>1147</v>
+        <v>1205</v>
       </c>
       <c r="H16" s="16">
-        <v>-3.923278116826</v>
+        <v>-3.402489626556</v>
       </c>
       <c r="I16" s="15">
-        <v>1790</v>
+        <v>2110</v>
       </c>
       <c r="J16" s="15">
-        <v>1752</v>
+        <v>2119</v>
       </c>
       <c r="K16" s="16">
-        <v>2.168949771689</v>
+        <v>-0.424728645587</v>
       </c>
       <c r="L16" s="16">
-        <v>41.838351822504</v>
+        <v>43.245078071962</v>
       </c>
       <c r="M16" s="16">
-        <v>-19.946332737030</v>
+        <v>-16.036609629924</v>
       </c>
       <c r="N16" s="16">
-        <v>-82.746987951807</v>
+        <v>-82.180559074402</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="D17" s="15">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="E17" s="16">
-        <v>-0.845665961945</v>
+        <v>7.333333333333</v>
       </c>
       <c r="F17" s="15">
-        <v>1783</v>
+        <v>1819</v>
       </c>
       <c r="G17" s="15">
-        <v>1692</v>
+        <v>1713</v>
       </c>
       <c r="H17" s="16">
-        <v>5.378250591016</v>
+        <v>6.187974314068</v>
       </c>
       <c r="I17" s="15">
-        <v>2833</v>
+        <v>3348</v>
       </c>
       <c r="J17" s="15">
-        <v>2552</v>
+        <v>3002</v>
       </c>
       <c r="K17" s="16">
-        <v>11.010971786833</v>
+        <v>11.525649566955</v>
       </c>
       <c r="L17" s="16">
-        <v>34.648288973384</v>
+        <v>37.721102426984</v>
       </c>
       <c r="M17" s="16">
-        <v>67.336089781453</v>
+        <v>70.816326530612</v>
       </c>
       <c r="N17" s="16">
-        <v>-30.699608610567</v>
+        <v>-28.856778580535</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D18" s="15">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E18" s="16">
-        <v>-11.98738170347</v>
+        <v>-14.696485623003</v>
       </c>
       <c r="F18" s="15">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="G18" s="15">
-        <v>1131</v>
+        <v>1167</v>
       </c>
       <c r="H18" s="16">
-        <v>-3.625110521662</v>
+        <v>-7.626392459297</v>
       </c>
       <c r="I18" s="15">
-        <v>1735</v>
+        <v>2007</v>
       </c>
       <c r="J18" s="15">
-        <v>1731</v>
+        <v>2044</v>
       </c>
       <c r="K18" s="16">
-        <v>0.231080300404</v>
+        <v>-1.810176125244</v>
       </c>
       <c r="L18" s="16">
-        <v>21.498599439775</v>
+        <v>21.415607985480</v>
       </c>
       <c r="M18" s="16">
-        <v>-22.991566799822</v>
+        <v>-20.703279336230</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.777522747766</v>
+        <v>-85.588108573890</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>896</v>
+        <v>849</v>
       </c>
       <c r="D19" s="15">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="E19" s="16">
-        <v>-9.219858156028</v>
+        <v>-11.838006230529</v>
       </c>
       <c r="F19" s="15">
-        <v>3589</v>
+        <v>3553</v>
       </c>
       <c r="G19" s="15">
-        <v>3716</v>
+        <v>3706</v>
       </c>
       <c r="H19" s="16">
-        <v>-3.417653390742</v>
+        <v>-4.128440366972</v>
       </c>
       <c r="I19" s="15">
-        <v>5530</v>
+        <v>6405</v>
       </c>
       <c r="J19" s="15">
-        <v>5749</v>
+        <v>6712</v>
       </c>
       <c r="K19" s="16">
-        <v>-3.809358149243</v>
+        <v>-4.573897497020</v>
       </c>
       <c r="L19" s="16">
-        <v>61.507009345794</v>
+        <v>62.604722010662</v>
       </c>
       <c r="M19" s="16">
-        <v>34.582623509369</v>
+        <v>35.987261146496</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.332326283987</v>
+        <v>-39.655172413793</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D20" s="15">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E20" s="16">
-        <v>0.335570469798</v>
+        <v>-0.716845878136</v>
       </c>
       <c r="F20" s="15">
-        <v>1095</v>
+        <v>1128</v>
       </c>
       <c r="G20" s="15">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="H20" s="16">
-        <v>5.694980694980</v>
+        <v>8.461538461538</v>
       </c>
       <c r="I20" s="15">
-        <v>1696</v>
+        <v>1980</v>
       </c>
       <c r="J20" s="15">
-        <v>1631</v>
+        <v>1910</v>
       </c>
       <c r="K20" s="16">
-        <v>3.985285101164</v>
+        <v>3.664921465968</v>
       </c>
       <c r="L20" s="16">
-        <v>100.236127508855</v>
+        <v>102.453987730061</v>
       </c>
       <c r="M20" s="16">
-        <v>48.641542506573</v>
+        <v>53.132250580046</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.831826660927</v>
+        <v>-87.648930197741</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2245</v>
+        <v>2222</v>
       </c>
       <c r="D21" s="18">
-        <v>2430</v>
+        <v>2421</v>
       </c>
       <c r="E21" s="19">
-        <v>-7.613168724279</v>
+        <v>-8.219743907476</v>
       </c>
       <c r="F21" s="18">
-        <v>8791</v>
+        <v>8874</v>
       </c>
       <c r="G21" s="18">
-        <v>8875</v>
+        <v>8992</v>
       </c>
       <c r="H21" s="19">
-        <v>-0.946478873239</v>
+        <v>-1.312277580071</v>
       </c>
       <c r="I21" s="18">
-        <v>13805</v>
+        <v>16109</v>
       </c>
       <c r="J21" s="18">
-        <v>13647</v>
+        <v>16068</v>
       </c>
       <c r="K21" s="19">
-        <v>1.157763611050</v>
+        <v>0.255165546427</v>
       </c>
       <c r="L21" s="19">
-        <v>49.162614802809</v>
+        <v>50.692235734331</v>
       </c>
       <c r="M21" s="19">
-        <v>18.824238250989</v>
+        <v>21.899356791524</v>
       </c>
       <c r="N21" s="19">
-        <v>-72.647117099266</v>
+        <v>-72.131686388485</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="15">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="16">
-        <v>-6.382978723404</v>
+        <v>-10.416666666666</v>
       </c>
       <c r="F22" s="15">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G22" s="15">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H22" s="16">
-        <v>-19.209039548022</v>
+        <v>-12.359550561797</v>
       </c>
       <c r="I22" s="15">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="J22" s="15">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="K22" s="16">
-        <v>-21.818181818181</v>
+        <v>-19.814241486068</v>
       </c>
       <c r="L22" s="16">
-        <v>34.375</v>
+        <v>32.820512820512</v>
       </c>
       <c r="M22" s="16">
-        <v>-16.015625</v>
+        <v>-8.480565371024</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D23" s="15">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E23" s="16">
-        <v>-7.03125</v>
+        <v>-10.169491525423</v>
       </c>
       <c r="F23" s="15">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="G23" s="15">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="H23" s="16">
-        <v>0</v>
+        <v>-1.354401805869</v>
       </c>
       <c r="I23" s="15">
-        <v>682</v>
+        <v>797</v>
       </c>
       <c r="J23" s="15">
-        <v>648</v>
+        <v>766</v>
       </c>
       <c r="K23" s="16">
-        <v>5.246913580246</v>
+        <v>4.046997389033</v>
       </c>
       <c r="L23" s="16">
-        <v>23.550724637681</v>
+        <v>23.374613003096</v>
       </c>
       <c r="M23" s="16">
-        <v>58.236658932714</v>
+        <v>60.040160642570</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="D24" s="15">
-        <v>2077</v>
+        <v>2094</v>
       </c>
       <c r="E24" s="16">
-        <v>-6.210881078478</v>
+        <v>-6.829035339063</v>
       </c>
       <c r="F24" s="15">
-        <v>8183</v>
+        <v>8121</v>
       </c>
       <c r="G24" s="15">
-        <v>7687</v>
+        <v>7888</v>
       </c>
       <c r="H24" s="16">
-        <v>6.452452192012</v>
+        <v>2.953853955375</v>
       </c>
       <c r="I24" s="15">
-        <v>12291</v>
+        <v>14285</v>
       </c>
       <c r="J24" s="15">
-        <v>11229</v>
+        <v>13323</v>
       </c>
       <c r="K24" s="16">
-        <v>9.457654288004</v>
+        <v>7.220595961870</v>
       </c>
       <c r="L24" s="16">
-        <v>39.306358381502</v>
+        <v>39.542834814887</v>
       </c>
       <c r="M24" s="16">
-        <v>38.771593090211</v>
+        <v>43.021625951141</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="D25" s="15">
-        <v>769</v>
+        <v>726</v>
       </c>
       <c r="E25" s="16">
-        <v>-8.582574772431</v>
+        <v>2.617079889807</v>
       </c>
       <c r="F25" s="15">
-        <v>3015</v>
+        <v>3005</v>
       </c>
       <c r="G25" s="15">
-        <v>2866</v>
+        <v>2917</v>
       </c>
       <c r="H25" s="16">
-        <v>5.198883461270</v>
+        <v>3.016798080219</v>
       </c>
       <c r="I25" s="15">
-        <v>4551</v>
+        <v>5348</v>
       </c>
       <c r="J25" s="15">
-        <v>4190</v>
+        <v>4916</v>
       </c>
       <c r="K25" s="16">
-        <v>8.615751789976</v>
+        <v>8.787632221318</v>
       </c>
       <c r="L25" s="16">
-        <v>43.428931610463</v>
+        <v>43.763440860215</v>
       </c>
       <c r="M25" s="16">
-        <v>-3.784355179704</v>
+        <v>-1.655020228025</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" s="15">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E26" s="16">
-        <v>-18.367346938775</v>
+        <v>-15.254237288135</v>
       </c>
       <c r="F26" s="15">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G26" s="15">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H26" s="16">
-        <v>-8.376963350785</v>
+        <v>-11.594202898550</v>
       </c>
       <c r="I26" s="15">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="J26" s="15">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="K26" s="16">
-        <v>-1.056338028169</v>
+        <v>-2.332361516034</v>
       </c>
       <c r="L26" s="16">
-        <v>14.227642276422</v>
+        <v>16.724738675958</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D27" s="15">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E27" s="16">
-        <v>-14.545454545454</v>
+        <v>-16.037735849056</v>
       </c>
       <c r="F27" s="15">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G27" s="15">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="H27" s="16">
-        <v>9.146341463414</v>
+        <v>-1.373626373626</v>
       </c>
       <c r="I27" s="15">
-        <v>561</v>
+        <v>653</v>
       </c>
       <c r="J27" s="15">
-        <v>485</v>
+        <v>591</v>
       </c>
       <c r="K27" s="16">
-        <v>15.670103092783</v>
+        <v>10.490693739424</v>
       </c>
       <c r="L27" s="16">
-        <v>36.496350364963</v>
+        <v>34.086242299794</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D28" s="15">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16">
-        <v>23.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F28" s="15">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G28" s="15">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H28" s="16">
-        <v>-5.607476635514</v>
+        <v>-20</v>
       </c>
       <c r="I28" s="15">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J28" s="15">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K28" s="16">
-        <v>-14.649681528662</v>
+        <v>-13.872832369942</v>
       </c>
       <c r="L28" s="16">
-        <v>19.642857142857</v>
+        <v>13.740458015267</v>
       </c>
       <c r="M28" s="16">
-        <v>-2.898550724637</v>
+        <v>-4.487179487179</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.696969696969</v>
+        <v>-80.186170212766</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D29" s="15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16">
-        <v>8</v>
+        <v>-6.666666666666</v>
       </c>
       <c r="F29" s="15">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G29" s="15">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H29" s="16">
-        <v>-17.021276595744</v>
+        <v>-25</v>
       </c>
       <c r="I29" s="15">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="J29" s="15">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K29" s="16">
-        <v>-20.863309352518</v>
+        <v>-20.129870129870</v>
       </c>
       <c r="L29" s="16">
-        <v>7.843137254901</v>
+        <v>2.5</v>
       </c>
       <c r="M29" s="16">
-        <v>-10.569105691056</v>
+        <v>-11.510791366906</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.996726677577</v>
+        <v>-82.327586206896</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1482,31 +1482,31 @@
         <v>4</v>
       </c>
       <c r="D30" s="15">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E30" s="16">
-        <v>-82.608695652173</v>
+        <v>-85.185185185185</v>
       </c>
       <c r="F30" s="15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30" s="15">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H30" s="16">
-        <v>-52.941176470588</v>
+        <v>-67.647058823529</v>
       </c>
       <c r="I30" s="15">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J30" s="15">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="K30" s="16">
-        <v>-43.478260869565</v>
+        <v>-53.125</v>
       </c>
       <c r="L30" s="16">
-        <v>50</v>
+        <v>36.363636363636</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7</t>
+      <t xml:space="preserve">9</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/13/2023</t>
+      <t xml:space="preserve">2/27/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/19/2023</t>
+      <t xml:space="preserve">3/5/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="15">
         <v>8</v>
       </c>
       <c r="E14" s="16">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="F14" s="15">
         <v>25</v>
       </c>
       <c r="G14" s="15">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H14" s="16">
-        <v>-24.242424242424</v>
+        <v>-34.210526315789</v>
       </c>
       <c r="I14" s="15">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J14" s="15">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K14" s="16">
-        <v>-12.5</v>
+        <v>-19.178082191780</v>
       </c>
       <c r="L14" s="16">
-        <v>-2</v>
+        <v>-7.8125</v>
       </c>
       <c r="M14" s="16">
-        <v>-9.259259259259</v>
+        <v>-22.368421052631</v>
       </c>
       <c r="N14" s="16">
-        <v>-82.246376811594</v>
+        <v>-82.544378698224</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="15">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="16">
-        <v>-26.829268292682</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F15" s="15">
         <v>107</v>
       </c>
       <c r="G15" s="15">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="H15" s="16">
-        <v>-16.40625</v>
+        <v>-22.463768115942</v>
       </c>
       <c r="I15" s="15">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="J15" s="15">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="K15" s="16">
-        <v>-6.666666666666</v>
+        <v>-13.468013468013</v>
       </c>
       <c r="L15" s="16">
-        <v>26.506024096385</v>
+        <v>17.351598173516</v>
       </c>
       <c r="M15" s="16">
-        <v>36.363636363636</v>
+        <v>27.860696517412</v>
       </c>
       <c r="N15" s="16">
-        <v>-48.780487804878</v>
+        <v>-51.233396584440</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="D16" s="15">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="E16" s="16">
-        <v>-15.258855585831</v>
+        <v>-6.271777003484</v>
       </c>
       <c r="F16" s="15">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="G16" s="15">
-        <v>1205</v>
+        <v>1317</v>
       </c>
       <c r="H16" s="16">
-        <v>-3.402489626556</v>
+        <v>-11.541381928625</v>
       </c>
       <c r="I16" s="15">
-        <v>2110</v>
+        <v>2697</v>
       </c>
       <c r="J16" s="15">
-        <v>2119</v>
+        <v>2752</v>
       </c>
       <c r="K16" s="16">
-        <v>-0.424728645587</v>
+        <v>-1.998546511627</v>
       </c>
       <c r="L16" s="16">
-        <v>43.245078071962</v>
+        <v>41.798107255520</v>
       </c>
       <c r="M16" s="16">
-        <v>-16.036609629924</v>
+        <v>-12.576985413290</v>
       </c>
       <c r="N16" s="16">
-        <v>-82.180559074402</v>
+        <v>-82.041550139832</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="D17" s="15">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E17" s="16">
-        <v>7.333333333333</v>
+        <v>-2.050113895216</v>
       </c>
       <c r="F17" s="15">
-        <v>1819</v>
+        <v>1853</v>
       </c>
       <c r="G17" s="15">
-        <v>1713</v>
+        <v>1758</v>
       </c>
       <c r="H17" s="16">
-        <v>6.187974314068</v>
+        <v>5.403868031854</v>
       </c>
       <c r="I17" s="15">
-        <v>3348</v>
+        <v>4238</v>
       </c>
       <c r="J17" s="15">
-        <v>3002</v>
+        <v>3837</v>
       </c>
       <c r="K17" s="16">
-        <v>11.525649566955</v>
+        <v>10.450873077925</v>
       </c>
       <c r="L17" s="16">
-        <v>37.721102426984</v>
+        <v>34.071496361910</v>
       </c>
       <c r="M17" s="16">
-        <v>70.816326530612</v>
+        <v>65.611567018366</v>
       </c>
       <c r="N17" s="16">
-        <v>-28.856778580535</v>
+        <v>-29.624709398870</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D18" s="15">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="E18" s="16">
-        <v>-14.696485623003</v>
+        <v>-7.5</v>
       </c>
       <c r="F18" s="15">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="G18" s="15">
-        <v>1167</v>
+        <v>1224</v>
       </c>
       <c r="H18" s="16">
-        <v>-7.626392459297</v>
+        <v>-11.683006535947</v>
       </c>
       <c r="I18" s="15">
-        <v>2007</v>
+        <v>2545</v>
       </c>
       <c r="J18" s="15">
-        <v>2044</v>
+        <v>2638</v>
       </c>
       <c r="K18" s="16">
-        <v>-1.810176125244</v>
+        <v>-3.525398028809</v>
       </c>
       <c r="L18" s="16">
-        <v>21.415607985480</v>
+        <v>20.558976788252</v>
       </c>
       <c r="M18" s="16">
-        <v>-20.703279336230</v>
+        <v>-20.543240711832</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.588108573890</v>
+        <v>-85.506008314824</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>849</v>
+        <v>933</v>
       </c>
       <c r="D19" s="15">
-        <v>963</v>
+        <v>926</v>
       </c>
       <c r="E19" s="16">
-        <v>-11.838006230529</v>
+        <v>0.755939524838</v>
       </c>
       <c r="F19" s="15">
-        <v>3553</v>
+        <v>3598</v>
       </c>
       <c r="G19" s="15">
-        <v>3706</v>
+        <v>3807</v>
       </c>
       <c r="H19" s="16">
-        <v>-4.128440366972</v>
+        <v>-5.489887050170</v>
       </c>
       <c r="I19" s="15">
-        <v>6405</v>
+        <v>8238</v>
       </c>
       <c r="J19" s="15">
-        <v>6712</v>
+        <v>8569</v>
       </c>
       <c r="K19" s="16">
-        <v>-4.573897497020</v>
+        <v>-3.862761115649</v>
       </c>
       <c r="L19" s="16">
-        <v>62.604722010662</v>
+        <v>59.434875169343</v>
       </c>
       <c r="M19" s="16">
-        <v>35.987261146496</v>
+        <v>38.686868686868</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.655172413793</v>
+        <v>-38.444295001120</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D20" s="15">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="E20" s="16">
-        <v>-0.716845878136</v>
+        <v>13.617021276595</v>
       </c>
       <c r="F20" s="15">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="G20" s="15">
-        <v>1040</v>
+        <v>1072</v>
       </c>
       <c r="H20" s="16">
-        <v>8.461538461538</v>
+        <v>5.317164179104</v>
       </c>
       <c r="I20" s="15">
-        <v>1980</v>
+        <v>2527</v>
       </c>
       <c r="J20" s="15">
-        <v>1910</v>
+        <v>2405</v>
       </c>
       <c r="K20" s="16">
-        <v>3.664921465968</v>
+        <v>5.072765072765</v>
       </c>
       <c r="L20" s="16">
-        <v>102.453987730061</v>
+        <v>103.298471440064</v>
       </c>
       <c r="M20" s="16">
-        <v>53.132250580046</v>
+        <v>57.151741293532</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.648930197741</v>
+        <v>-87.486382093691</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2222</v>
+        <v>2188</v>
       </c>
       <c r="D21" s="18">
-        <v>2421</v>
+        <v>2214</v>
       </c>
       <c r="E21" s="19">
-        <v>-8.219743907476</v>
+        <v>-1.174345076784</v>
       </c>
       <c r="F21" s="18">
-        <v>8874</v>
+        <v>8958</v>
       </c>
       <c r="G21" s="18">
-        <v>8992</v>
+        <v>9354</v>
       </c>
       <c r="H21" s="19">
-        <v>-1.312277580071</v>
+        <v>-4.233483001924</v>
       </c>
       <c r="I21" s="18">
-        <v>16109</v>
+        <v>20561</v>
       </c>
       <c r="J21" s="18">
-        <v>16068</v>
+        <v>20571</v>
       </c>
       <c r="K21" s="19">
-        <v>0.255165546427</v>
+        <v>-0.048612123863</v>
       </c>
       <c r="L21" s="19">
-        <v>50.692235734331</v>
+        <v>48.272878055816</v>
       </c>
       <c r="M21" s="19">
-        <v>21.899356791524</v>
+        <v>23.326535508637</v>
       </c>
       <c r="N21" s="19">
-        <v>-72.131686388485</v>
+        <v>-71.850056817403</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D22" s="15">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E22" s="16">
-        <v>-10.416666666666</v>
+        <v>-45.454545454545</v>
       </c>
       <c r="F22" s="15">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G22" s="15">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="H22" s="16">
-        <v>-12.359550561797</v>
+        <v>-18</v>
       </c>
       <c r="I22" s="15">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="J22" s="15">
-        <v>323</v>
+        <v>428</v>
       </c>
       <c r="K22" s="16">
-        <v>-19.814241486068</v>
+        <v>-21.495327102803</v>
       </c>
       <c r="L22" s="16">
-        <v>32.820512820512</v>
+        <v>42.978723404255</v>
       </c>
       <c r="M22" s="16">
-        <v>-8.480565371024</v>
+        <v>-6.925207756232</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D23" s="15">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E23" s="16">
-        <v>-10.169491525423</v>
+        <v>28.571428571428</v>
       </c>
       <c r="F23" s="15">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="G23" s="15">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H23" s="16">
-        <v>-1.354401805869</v>
+        <v>2.696629213483</v>
       </c>
       <c r="I23" s="15">
-        <v>797</v>
+        <v>1023</v>
       </c>
       <c r="J23" s="15">
-        <v>766</v>
+        <v>965</v>
       </c>
       <c r="K23" s="16">
-        <v>4.046997389033</v>
+        <v>6.010362694300</v>
       </c>
       <c r="L23" s="16">
-        <v>23.374613003096</v>
+        <v>24</v>
       </c>
       <c r="M23" s="16">
-        <v>60.040160642570</v>
+        <v>62.380952380952</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1951</v>
+        <v>2008</v>
       </c>
       <c r="D24" s="15">
-        <v>2094</v>
+        <v>2116</v>
       </c>
       <c r="E24" s="16">
-        <v>-6.829035339063</v>
+        <v>-5.103969754253</v>
       </c>
       <c r="F24" s="15">
-        <v>8121</v>
+        <v>8092</v>
       </c>
       <c r="G24" s="15">
-        <v>7888</v>
+        <v>8417</v>
       </c>
       <c r="H24" s="16">
-        <v>2.953853955375</v>
+        <v>-3.861233218486</v>
       </c>
       <c r="I24" s="15">
-        <v>14285</v>
+        <v>18442</v>
       </c>
       <c r="J24" s="15">
-        <v>13323</v>
+        <v>17569</v>
       </c>
       <c r="K24" s="16">
-        <v>7.220595961870</v>
+        <v>4.968979452444</v>
       </c>
       <c r="L24" s="16">
-        <v>39.542834814887</v>
+        <v>39.205917874396</v>
       </c>
       <c r="M24" s="16">
-        <v>43.021625951141</v>
+        <v>47.784277586345</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="D25" s="15">
-        <v>726</v>
+        <v>811</v>
       </c>
       <c r="E25" s="16">
-        <v>2.617079889807</v>
+        <v>-6.288532675709</v>
       </c>
       <c r="F25" s="15">
-        <v>3005</v>
+        <v>2997</v>
       </c>
       <c r="G25" s="15">
-        <v>2917</v>
+        <v>2983</v>
       </c>
       <c r="H25" s="16">
-        <v>3.016798080219</v>
+        <v>0.469326181696</v>
       </c>
       <c r="I25" s="15">
-        <v>5348</v>
+        <v>6852</v>
       </c>
       <c r="J25" s="15">
-        <v>4916</v>
+        <v>6404</v>
       </c>
       <c r="K25" s="16">
-        <v>8.787632221318</v>
+        <v>6.995627732667</v>
       </c>
       <c r="L25" s="16">
-        <v>43.763440860215</v>
+        <v>39.098660170523</v>
       </c>
       <c r="M25" s="16">
-        <v>-1.655020228025</v>
+        <v>-2.365346252493</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D26" s="15">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E26" s="16">
-        <v>-15.254237288135</v>
+        <v>-34.782608695652</v>
       </c>
       <c r="F26" s="15">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G26" s="15">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="H26" s="16">
-        <v>-11.594202898550</v>
+        <v>-25.974025974026</v>
       </c>
       <c r="I26" s="15">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="J26" s="15">
-        <v>343</v>
+        <v>466</v>
       </c>
       <c r="K26" s="16">
-        <v>-2.332361516034</v>
+        <v>-10.729613733905</v>
       </c>
       <c r="L26" s="16">
-        <v>16.724738675958</v>
+        <v>12.737127371273</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D27" s="15">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E27" s="16">
-        <v>-16.037735849056</v>
+        <v>13.095238095238</v>
       </c>
       <c r="F27" s="15">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G27" s="15">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H27" s="16">
-        <v>-1.373626373626</v>
+        <v>-1.084010840108</v>
       </c>
       <c r="I27" s="15">
-        <v>653</v>
+        <v>830</v>
       </c>
       <c r="J27" s="15">
-        <v>591</v>
+        <v>744</v>
       </c>
       <c r="K27" s="16">
-        <v>10.490693739424</v>
+        <v>11.559139784946</v>
       </c>
       <c r="L27" s="16">
-        <v>34.086242299794</v>
+        <v>30.503144654088</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" s="15">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16">
-        <v>0</v>
+        <v>-38.095238095238</v>
       </c>
       <c r="F28" s="15">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G28" s="15">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H28" s="16">
-        <v>-20</v>
+        <v>1.234567901234</v>
       </c>
       <c r="I28" s="15">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="J28" s="15">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="K28" s="16">
-        <v>-13.872832369942</v>
+        <v>-13.942307692307</v>
       </c>
       <c r="L28" s="16">
-        <v>13.740458015267</v>
+        <v>-0.555555555555</v>
       </c>
       <c r="M28" s="16">
-        <v>-4.487179487179</v>
+        <v>-14.354066985645</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.186170212766</v>
+        <v>-80.814576634512</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16">
-        <v>-6.666666666666</v>
+        <v>-31.578947368421</v>
       </c>
       <c r="F29" s="15">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="15">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H29" s="16">
-        <v>-25</v>
+        <v>-10.958904109589</v>
       </c>
       <c r="I29" s="15">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="J29" s="15">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="K29" s="16">
-        <v>-20.129870129870</v>
+        <v>-20.855614973262</v>
       </c>
       <c r="L29" s="16">
-        <v>2.5</v>
+        <v>-11.377245508982</v>
       </c>
       <c r="M29" s="16">
-        <v>-11.510791366906</v>
+        <v>-15.909090909090</v>
       </c>
       <c r="N29" s="16">
-        <v>-82.327586206896</v>
+        <v>-82.850521436848</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" s="15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16">
-        <v>-85.185185185185</v>
+        <v>-91.666666666666</v>
       </c>
       <c r="F30" s="15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G30" s="15">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="H30" s="16">
-        <v>-67.647058823529</v>
+        <v>-75</v>
       </c>
       <c r="I30" s="15">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J30" s="15">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="K30" s="16">
-        <v>-53.125</v>
+        <v>-57.746478873239</v>
       </c>
       <c r="L30" s="16">
-        <v>36.363636363636</v>
+        <v>50</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9</t>
+      <t xml:space="preserve">10</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/27/2023</t>
+      <t xml:space="preserve">3/6/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/5/2023</t>
+      <t xml:space="preserve">3/12/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="15">
         <v>8</v>
       </c>
       <c r="E14" s="16">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="F14" s="15">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G14" s="15">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H14" s="16">
-        <v>-34.210526315789</v>
+        <v>-36.363636363636</v>
       </c>
       <c r="I14" s="15">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J14" s="15">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K14" s="16">
-        <v>-19.178082191780</v>
+        <v>-18.518518518518</v>
       </c>
       <c r="L14" s="16">
-        <v>-7.8125</v>
+        <v>-17.5</v>
       </c>
       <c r="M14" s="16">
-        <v>-22.368421052631</v>
+        <v>-22.352941176470</v>
       </c>
       <c r="N14" s="16">
-        <v>-82.544378698224</v>
+        <v>-82.539682539682</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D15" s="15">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="16">
-        <v>-33.333333333333</v>
+        <v>-10.810810810810</v>
       </c>
       <c r="F15" s="15">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G15" s="15">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H15" s="16">
-        <v>-22.463768115942</v>
+        <v>-26</v>
       </c>
       <c r="I15" s="15">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="J15" s="15">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="K15" s="16">
-        <v>-13.468013468013</v>
+        <v>-12.874251497006</v>
       </c>
       <c r="L15" s="16">
-        <v>17.351598173516</v>
+        <v>18.292682926829</v>
       </c>
       <c r="M15" s="16">
-        <v>27.860696517412</v>
+        <v>32.272727272727</v>
       </c>
       <c r="N15" s="16">
-        <v>-51.233396584440</v>
+        <v>-50.927487352445</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,37 +908,37 @@
         <v>269</v>
       </c>
       <c r="D16" s="15">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E16" s="16">
-        <v>-6.271777003484</v>
+        <v>-5.281690140845</v>
       </c>
       <c r="F16" s="15">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="G16" s="15">
-        <v>1317</v>
+        <v>1284</v>
       </c>
       <c r="H16" s="16">
-        <v>-11.541381928625</v>
+        <v>-9.501557632398</v>
       </c>
       <c r="I16" s="15">
-        <v>2697</v>
+        <v>2967</v>
       </c>
       <c r="J16" s="15">
-        <v>2752</v>
+        <v>3036</v>
       </c>
       <c r="K16" s="16">
-        <v>-1.998546511627</v>
+        <v>-2.272727272727</v>
       </c>
       <c r="L16" s="16">
-        <v>41.798107255520</v>
+        <v>41.690544412607</v>
       </c>
       <c r="M16" s="16">
-        <v>-12.576985413290</v>
+        <v>-13.042203985932</v>
       </c>
       <c r="N16" s="16">
-        <v>-82.041550139832</v>
+        <v>-82.214362786236</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="D17" s="15">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E17" s="16">
-        <v>-2.050113895216</v>
+        <v>4.849884526558</v>
       </c>
       <c r="F17" s="15">
-        <v>1853</v>
+        <v>1832</v>
       </c>
       <c r="G17" s="15">
-        <v>1758</v>
+        <v>1718</v>
       </c>
       <c r="H17" s="16">
-        <v>5.403868031854</v>
+        <v>6.635622817229</v>
       </c>
       <c r="I17" s="15">
-        <v>4238</v>
+        <v>4716</v>
       </c>
       <c r="J17" s="15">
-        <v>3837</v>
+        <v>4270</v>
       </c>
       <c r="K17" s="16">
-        <v>10.450873077925</v>
+        <v>10.444964871194</v>
       </c>
       <c r="L17" s="16">
-        <v>34.071496361910</v>
+        <v>32.583637897104</v>
       </c>
       <c r="M17" s="16">
-        <v>65.611567018366</v>
+        <v>61.617546264564</v>
       </c>
       <c r="N17" s="16">
-        <v>-29.624709398870</v>
+        <v>-30.288248337028</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D18" s="15">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="E18" s="16">
-        <v>-7.5</v>
+        <v>-16.149068322981</v>
       </c>
       <c r="F18" s="15">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="G18" s="15">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="H18" s="16">
-        <v>-11.683006535947</v>
+        <v>-12.611879576891</v>
       </c>
       <c r="I18" s="15">
-        <v>2545</v>
+        <v>2820</v>
       </c>
       <c r="J18" s="15">
-        <v>2638</v>
+        <v>2960</v>
       </c>
       <c r="K18" s="16">
-        <v>-3.525398028809</v>
+        <v>-4.729729729729</v>
       </c>
       <c r="L18" s="16">
-        <v>20.558976788252</v>
+        <v>21.394748170469</v>
       </c>
       <c r="M18" s="16">
-        <v>-20.543240711832</v>
+        <v>-19.749573136027</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.506008314824</v>
+        <v>-85.507246376811</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>933</v>
+        <v>873</v>
       </c>
       <c r="D19" s="15">
         <v>926</v>
       </c>
       <c r="E19" s="16">
-        <v>0.755939524838</v>
+        <v>-5.723542116630</v>
       </c>
       <c r="F19" s="15">
-        <v>3598</v>
+        <v>3567</v>
       </c>
       <c r="G19" s="15">
-        <v>3807</v>
+        <v>3746</v>
       </c>
       <c r="H19" s="16">
-        <v>-5.489887050170</v>
+        <v>-4.778430325680</v>
       </c>
       <c r="I19" s="15">
-        <v>8238</v>
+        <v>9129</v>
       </c>
       <c r="J19" s="15">
-        <v>8569</v>
+        <v>9495</v>
       </c>
       <c r="K19" s="16">
-        <v>-3.862761115649</v>
+        <v>-3.854660347551</v>
       </c>
       <c r="L19" s="16">
-        <v>59.434875169343</v>
+        <v>57.641167328613</v>
       </c>
       <c r="M19" s="16">
-        <v>38.686868686868</v>
+        <v>38.675375968403</v>
       </c>
       <c r="N19" s="16">
-        <v>-38.444295001120</v>
+        <v>-38.706861823553</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D20" s="15">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E20" s="16">
-        <v>13.617021276595</v>
+        <v>10.878661087866</v>
       </c>
       <c r="F20" s="15">
-        <v>1129</v>
+        <v>1086</v>
       </c>
       <c r="G20" s="15">
-        <v>1072</v>
+        <v>1013</v>
       </c>
       <c r="H20" s="16">
-        <v>5.317164179104</v>
+        <v>7.206317867719</v>
       </c>
       <c r="I20" s="15">
-        <v>2527</v>
+        <v>2789</v>
       </c>
       <c r="J20" s="15">
-        <v>2405</v>
+        <v>2644</v>
       </c>
       <c r="K20" s="16">
-        <v>5.072765072765</v>
+        <v>5.484114977307</v>
       </c>
       <c r="L20" s="16">
-        <v>103.298471440064</v>
+        <v>101.663051337672</v>
       </c>
       <c r="M20" s="16">
-        <v>57.151741293532</v>
+        <v>55.810055865921</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.486382093691</v>
+        <v>-87.513431232091</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2188</v>
+        <v>2170</v>
       </c>
       <c r="D21" s="18">
-        <v>2214</v>
+        <v>2249</v>
       </c>
       <c r="E21" s="19">
-        <v>-1.174345076784</v>
+        <v>-3.512672298799</v>
       </c>
       <c r="F21" s="18">
-        <v>8958</v>
+        <v>8853</v>
       </c>
       <c r="G21" s="18">
-        <v>9354</v>
+        <v>9173</v>
       </c>
       <c r="H21" s="19">
-        <v>-4.233483001924</v>
+        <v>-3.488498855336</v>
       </c>
       <c r="I21" s="18">
-        <v>20561</v>
+        <v>22778</v>
       </c>
       <c r="J21" s="18">
-        <v>20571</v>
+        <v>22820</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.048612123863</v>
+        <v>-0.184049079754</v>
       </c>
       <c r="L21" s="19">
-        <v>48.272878055816</v>
+        <v>47.201757787256</v>
       </c>
       <c r="M21" s="19">
-        <v>23.326535508637</v>
+        <v>22.978080120937</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.850056817403</v>
+        <v>-71.915764555026</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D22" s="15">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E22" s="16">
-        <v>-45.454545454545</v>
+        <v>14.285714285714</v>
       </c>
       <c r="F22" s="15">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G22" s="15">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H22" s="16">
-        <v>-18</v>
+        <v>-9.743589743589</v>
       </c>
       <c r="I22" s="15">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="J22" s="15">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="K22" s="16">
-        <v>-21.495327102803</v>
+        <v>-16.808510638297</v>
       </c>
       <c r="L22" s="16">
-        <v>42.978723404255</v>
+        <v>53.937007874015</v>
       </c>
       <c r="M22" s="16">
-        <v>-6.925207756232</v>
+        <v>-1.511335012594</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="D23" s="15">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E23" s="16">
-        <v>28.571428571428</v>
+        <v>-23.809523809523</v>
       </c>
       <c r="F23" s="15">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="G23" s="15">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H23" s="16">
-        <v>2.696629213483</v>
+        <v>0.947867298578</v>
       </c>
       <c r="I23" s="15">
-        <v>1023</v>
+        <v>1117</v>
       </c>
       <c r="J23" s="15">
-        <v>965</v>
+        <v>1070</v>
       </c>
       <c r="K23" s="16">
-        <v>6.010362694300</v>
+        <v>4.392523364485</v>
       </c>
       <c r="L23" s="16">
-        <v>24</v>
+        <v>22.343921139101</v>
       </c>
       <c r="M23" s="16">
-        <v>62.380952380952</v>
+        <v>57.545839210155</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2008</v>
+        <v>2097</v>
       </c>
       <c r="D24" s="15">
-        <v>2116</v>
+        <v>2083</v>
       </c>
       <c r="E24" s="16">
-        <v>-5.103969754253</v>
+        <v>0.672107537205</v>
       </c>
       <c r="F24" s="15">
-        <v>8092</v>
+        <v>8249</v>
       </c>
       <c r="G24" s="15">
-        <v>8417</v>
+        <v>8423</v>
       </c>
       <c r="H24" s="16">
-        <v>-3.861233218486</v>
+        <v>-2.065772290157</v>
       </c>
       <c r="I24" s="15">
-        <v>18442</v>
+        <v>20593</v>
       </c>
       <c r="J24" s="15">
-        <v>17569</v>
+        <v>19652</v>
       </c>
       <c r="K24" s="16">
-        <v>4.968979452444</v>
+        <v>4.788316710767</v>
       </c>
       <c r="L24" s="16">
-        <v>39.205917874396</v>
+        <v>40.912823320104</v>
       </c>
       <c r="M24" s="16">
-        <v>47.784277586345</v>
+        <v>48.193724812895</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="D25" s="15">
-        <v>811</v>
+        <v>781</v>
       </c>
       <c r="E25" s="16">
-        <v>-6.288532675709</v>
+        <v>-1.280409731113</v>
       </c>
       <c r="F25" s="15">
-        <v>2997</v>
+        <v>3055</v>
       </c>
       <c r="G25" s="15">
-        <v>2983</v>
+        <v>2995</v>
       </c>
       <c r="H25" s="16">
-        <v>0.469326181696</v>
+        <v>2.003338898163</v>
       </c>
       <c r="I25" s="15">
-        <v>6852</v>
+        <v>7666</v>
       </c>
       <c r="J25" s="15">
-        <v>6404</v>
+        <v>7185</v>
       </c>
       <c r="K25" s="16">
-        <v>6.995627732667</v>
+        <v>6.694502435629</v>
       </c>
       <c r="L25" s="16">
-        <v>39.098660170523</v>
+        <v>39.154111453984</v>
       </c>
       <c r="M25" s="16">
-        <v>-2.365346252493</v>
+        <v>-4.115071919949</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="15">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E26" s="16">
-        <v>-34.782608695652</v>
+        <v>-32.307692307692</v>
       </c>
       <c r="F26" s="15">
         <v>171</v>
       </c>
       <c r="G26" s="15">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="H26" s="16">
-        <v>-25.974025974026</v>
+        <v>-30.769230769230</v>
       </c>
       <c r="I26" s="15">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="J26" s="15">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="K26" s="16">
-        <v>-10.729613733905</v>
+        <v>-13.370998116760</v>
       </c>
       <c r="L26" s="16">
-        <v>12.737127371273</v>
+        <v>11.650485436893</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D27" s="15">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E27" s="16">
-        <v>13.095238095238</v>
+        <v>12.121212121212</v>
       </c>
       <c r="F27" s="15">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="G27" s="15">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H27" s="16">
-        <v>-1.084010840108</v>
+        <v>5.307262569832</v>
       </c>
       <c r="I27" s="15">
-        <v>830</v>
+        <v>934</v>
       </c>
       <c r="J27" s="15">
-        <v>744</v>
+        <v>843</v>
       </c>
       <c r="K27" s="16">
-        <v>11.559139784946</v>
+        <v>10.794780545670</v>
       </c>
       <c r="L27" s="16">
-        <v>30.503144654088</v>
+        <v>29.722222222222</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D28" s="15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16">
-        <v>-38.095238095238</v>
+        <v>-7.692307692307</v>
       </c>
       <c r="F28" s="15">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G28" s="15">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H28" s="16">
-        <v>1.234567901234</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="I28" s="15">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="J28" s="15">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="K28" s="16">
-        <v>-13.942307692307</v>
+        <v>-13.247863247863</v>
       </c>
       <c r="L28" s="16">
-        <v>-0.555555555555</v>
+        <v>-2.870813397129</v>
       </c>
       <c r="M28" s="16">
-        <v>-14.354066985645</v>
+        <v>-13.617021276595</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.814576634512</v>
+        <v>-80.518234165067</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D29" s="15">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16">
-        <v>-31.578947368421</v>
+        <v>-21.739130434782</v>
       </c>
       <c r="F29" s="15">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G29" s="15">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H29" s="16">
-        <v>-10.958904109589</v>
+        <v>-19.718309859154</v>
       </c>
       <c r="I29" s="15">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J29" s="15">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="K29" s="16">
-        <v>-20.855614973262</v>
+        <v>-20.952380952381</v>
       </c>
       <c r="L29" s="16">
-        <v>-11.377245508982</v>
+        <v>-13.089005235602</v>
       </c>
       <c r="M29" s="16">
-        <v>-15.909090909090</v>
+        <v>-15.736040609137</v>
       </c>
       <c r="N29" s="16">
-        <v>-82.850521436848</v>
+        <v>-82.617801047120</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1482,31 +1482,31 @@
         <v>2</v>
       </c>
       <c r="D30" s="15">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16">
-        <v>-91.666666666666</v>
+        <v>-89.473684210526</v>
       </c>
       <c r="F30" s="15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30" s="15">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H30" s="16">
-        <v>-75</v>
+        <v>-76.086956521739</v>
       </c>
       <c r="I30" s="15">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J30" s="15">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K30" s="16">
-        <v>-57.746478873239</v>
+        <v>-59.006211180124</v>
       </c>
       <c r="L30" s="16">
-        <v>50</v>
+        <v>29.411764705882</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12</t>
+      <t xml:space="preserve">13</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/20/2023</t>
+      <t xml:space="preserve">3/27/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/26/2023</t>
+      <t xml:space="preserve">4/2/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="16">
-        <v>60</v>
+        <v>16.666666666666</v>
       </c>
       <c r="F14" s="15">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G14" s="15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" s="16">
-        <v>-12.5</v>
+        <v>6.666666666666</v>
       </c>
       <c r="I14" s="15">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J14" s="15">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K14" s="16">
-        <v>-13.402061855670</v>
+        <v>-10.679611650485</v>
       </c>
       <c r="L14" s="16">
-        <v>-10.638297872340</v>
+        <v>-11.538461538461</v>
       </c>
       <c r="M14" s="16">
-        <v>-22.935779816513</v>
+        <v>-23.333333333333</v>
       </c>
       <c r="N14" s="16">
-        <v>-81.456953642384</v>
+        <v>-81.300813008130</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="15">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E15" s="16">
-        <v>33.333333333333</v>
+        <v>-6.25</v>
       </c>
       <c r="F15" s="15">
+        <v>118</v>
+      </c>
+      <c r="G15" s="15">
         <v>113</v>
       </c>
-      <c r="G15" s="15">
-        <v>120</v>
-      </c>
       <c r="H15" s="16">
-        <v>-5.833333333333</v>
+        <v>4.424778761061</v>
       </c>
       <c r="I15" s="15">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="J15" s="15">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="K15" s="16">
-        <v>-8.994708994709</v>
+        <v>-8.536585365853</v>
       </c>
       <c r="L15" s="16">
-        <v>11.326860841423</v>
+        <v>6.534090909090</v>
       </c>
       <c r="M15" s="16">
-        <v>28.358208955223</v>
+        <v>25</v>
       </c>
       <c r="N15" s="16">
-        <v>-49.560117302052</v>
+        <v>-50.396825396825</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D16" s="15">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E16" s="16">
-        <v>-4</v>
+        <v>-0.682593856655</v>
       </c>
       <c r="F16" s="15">
-        <v>1114</v>
+        <v>1146</v>
       </c>
       <c r="G16" s="15">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="H16" s="16">
-        <v>-3.466204506065</v>
+        <v>-1.206896551724</v>
       </c>
       <c r="I16" s="15">
-        <v>3544</v>
+        <v>3843</v>
       </c>
       <c r="J16" s="15">
-        <v>3619</v>
+        <v>3912</v>
       </c>
       <c r="K16" s="16">
-        <v>-2.072395689416</v>
+        <v>-1.763803680981</v>
       </c>
       <c r="L16" s="16">
-        <v>43.948009748172</v>
+        <v>44.256756756756</v>
       </c>
       <c r="M16" s="16">
-        <v>-13.813229571984</v>
+        <v>-13.348365276212</v>
       </c>
       <c r="N16" s="16">
-        <v>-82.037506335529</v>
+        <v>-82.027779076836</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="D17" s="15">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="E17" s="16">
-        <v>-6.613226452905</v>
+        <v>4.357298474945</v>
       </c>
       <c r="F17" s="15">
-        <v>1875</v>
+        <v>1929</v>
       </c>
       <c r="G17" s="15">
-        <v>1851</v>
+        <v>1871</v>
       </c>
       <c r="H17" s="16">
-        <v>1.296596434359</v>
+        <v>3.099946552645</v>
       </c>
       <c r="I17" s="15">
-        <v>5697</v>
+        <v>6220</v>
       </c>
       <c r="J17" s="15">
-        <v>5249</v>
+        <v>5708</v>
       </c>
       <c r="K17" s="16">
-        <v>8.534959039817</v>
+        <v>8.969866853538</v>
       </c>
       <c r="L17" s="16">
-        <v>31.875</v>
+        <v>32.115548003398</v>
       </c>
       <c r="M17" s="16">
-        <v>60.524091293322</v>
+        <v>62.063574778530</v>
       </c>
       <c r="N17" s="16">
-        <v>-29.960658962380</v>
+        <v>-30.495027377360</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="D18" s="15">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E18" s="16">
-        <v>-20</v>
+        <v>-10.130718954248</v>
       </c>
       <c r="F18" s="15">
-        <v>1053</v>
+        <v>1073</v>
       </c>
       <c r="G18" s="15">
-        <v>1210</v>
+        <v>1236</v>
       </c>
       <c r="H18" s="16">
-        <v>-12.975206611570</v>
+        <v>-13.187702265372</v>
       </c>
       <c r="I18" s="15">
-        <v>3344</v>
+        <v>3627</v>
       </c>
       <c r="J18" s="15">
-        <v>3568</v>
+        <v>3874</v>
       </c>
       <c r="K18" s="16">
-        <v>-6.278026905829</v>
+        <v>-6.375838926174</v>
       </c>
       <c r="L18" s="16">
-        <v>21.777130371449</v>
+        <v>23.032564450474</v>
       </c>
       <c r="M18" s="16">
-        <v>-19.731156985117</v>
+        <v>-18.070928393946</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.352606219886</v>
+        <v>-85.354922070580</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>956</v>
+        <v>922</v>
       </c>
       <c r="D19" s="15">
-        <v>917</v>
+        <v>943</v>
       </c>
       <c r="E19" s="16">
-        <v>4.252998909487</v>
+        <v>-2.226935312831</v>
       </c>
       <c r="F19" s="15">
-        <v>3687</v>
+        <v>3671</v>
       </c>
       <c r="G19" s="15">
-        <v>3668</v>
+        <v>3685</v>
       </c>
       <c r="H19" s="16">
-        <v>0.517993456924</v>
+        <v>-0.379918588873</v>
       </c>
       <c r="I19" s="15">
-        <v>10998</v>
+        <v>11927</v>
       </c>
       <c r="J19" s="15">
-        <v>11311</v>
+        <v>12254</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.767217752630</v>
+        <v>-2.668516402807</v>
       </c>
       <c r="L19" s="16">
-        <v>54.640044994375</v>
+        <v>53.461142563046</v>
       </c>
       <c r="M19" s="16">
-        <v>38.636077146098</v>
+        <v>39.236516460424</v>
       </c>
       <c r="N19" s="16">
-        <v>-37.801153715643</v>
+        <v>-38.374496228169</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D20" s="15">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E20" s="16">
-        <v>17.241379310344</v>
+        <v>12.608695652173</v>
       </c>
       <c r="F20" s="15">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="G20" s="15">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="H20" s="16">
-        <v>13.104189044038</v>
+        <v>12.958963282937</v>
       </c>
       <c r="I20" s="15">
-        <v>3308</v>
+        <v>3564</v>
       </c>
       <c r="J20" s="15">
-        <v>3101</v>
+        <v>3331</v>
       </c>
       <c r="K20" s="16">
-        <v>6.675266043211</v>
+        <v>6.994896427499</v>
       </c>
       <c r="L20" s="16">
-        <v>96.553773024361</v>
+        <v>93.485342019544</v>
       </c>
       <c r="M20" s="16">
-        <v>52.161913523459</v>
+        <v>50.952986022871</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.302805818907</v>
+        <v>-87.421916357861</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="D21" s="18">
-        <v>2289</v>
+        <v>2269</v>
       </c>
       <c r="E21" s="19">
-        <v>-0.830056793359</v>
+        <v>-0.264433671220</v>
       </c>
       <c r="F21" s="18">
-        <v>8923</v>
+        <v>9015</v>
       </c>
       <c r="G21" s="18">
-        <v>8966</v>
+        <v>9021</v>
       </c>
       <c r="H21" s="19">
-        <v>-0.479589560562</v>
+        <v>-0.066511473229</v>
       </c>
       <c r="I21" s="18">
-        <v>27319</v>
+        <v>29648</v>
       </c>
       <c r="J21" s="18">
-        <v>27323</v>
+        <v>29592</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.014639680854</v>
+        <v>0.189240335225</v>
       </c>
       <c r="L21" s="19">
-        <v>45.888070063014</v>
+        <v>45.404610102991</v>
       </c>
       <c r="M21" s="19">
-        <v>22.446326923938</v>
+        <v>23.291886721836</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.412875141266</v>
+        <v>-71.501898399577</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D22" s="15">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E22" s="16">
-        <v>21.212121212121</v>
+        <v>28.571428571428</v>
       </c>
       <c r="F22" s="15">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G22" s="15">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H22" s="16">
-        <v>2.906976744186</v>
+        <v>24.528301886792</v>
       </c>
       <c r="I22" s="15">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="J22" s="15">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="K22" s="16">
-        <v>-10.825688073394</v>
+        <v>-8.006814310051</v>
       </c>
       <c r="L22" s="16">
-        <v>53.312302839116</v>
+        <v>56.069364161849</v>
       </c>
       <c r="M22" s="16">
-        <v>2.100840336134</v>
+        <v>5.058365758754</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D23" s="15">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E23" s="16">
-        <v>34.090909090909</v>
+        <v>22.522522522522</v>
       </c>
       <c r="F23" s="15">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G23" s="15">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="H23" s="16">
-        <v>12.776412776412</v>
+        <v>9.761904761904</v>
       </c>
       <c r="I23" s="15">
-        <v>1360</v>
+        <v>1503</v>
       </c>
       <c r="J23" s="15">
-        <v>1274</v>
+        <v>1385</v>
       </c>
       <c r="K23" s="16">
-        <v>6.750392464678</v>
+        <v>8.519855595667</v>
       </c>
       <c r="L23" s="16">
-        <v>24.542124542124</v>
+        <v>25.041597337770</v>
       </c>
       <c r="M23" s="16">
-        <v>60.188457008245</v>
+        <v>64.622124863088</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1997</v>
+        <v>2040</v>
       </c>
       <c r="D24" s="15">
-        <v>2205</v>
+        <v>2147</v>
       </c>
       <c r="E24" s="16">
-        <v>-9.433106575963</v>
+        <v>-4.983698183511</v>
       </c>
       <c r="F24" s="15">
-        <v>7995</v>
+        <v>7992</v>
       </c>
       <c r="G24" s="15">
-        <v>8477</v>
+        <v>8508</v>
       </c>
       <c r="H24" s="16">
-        <v>-5.685973811489</v>
+        <v>-6.064880112834</v>
       </c>
       <c r="I24" s="15">
-        <v>24445</v>
+        <v>26508</v>
       </c>
       <c r="J24" s="15">
-        <v>23930</v>
+        <v>26077</v>
       </c>
       <c r="K24" s="16">
-        <v>2.152110321771</v>
+        <v>1.652797484373</v>
       </c>
       <c r="L24" s="16">
-        <v>40.294995408631</v>
+        <v>40.484392389633</v>
       </c>
       <c r="M24" s="16">
-        <v>46.123498117042</v>
+        <v>45.736434108527</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D25" s="15">
-        <v>834</v>
+        <v>779</v>
       </c>
       <c r="E25" s="16">
-        <v>0</v>
+        <v>7.317073170731</v>
       </c>
       <c r="F25" s="15">
-        <v>3218</v>
+        <v>3276</v>
       </c>
       <c r="G25" s="15">
-        <v>3204</v>
+        <v>3172</v>
       </c>
       <c r="H25" s="16">
-        <v>0.436953807740</v>
+        <v>3.278688524590</v>
       </c>
       <c r="I25" s="15">
-        <v>9317</v>
+        <v>10146</v>
       </c>
       <c r="J25" s="15">
-        <v>8797</v>
+        <v>9576</v>
       </c>
       <c r="K25" s="16">
-        <v>5.911106058883</v>
+        <v>5.952380952380</v>
       </c>
       <c r="L25" s="16">
-        <v>37.115526122148</v>
+        <v>37.071061875168</v>
       </c>
       <c r="M25" s="16">
-        <v>-4.490005125576</v>
+        <v>-3.564299971485</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D26" s="15">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E26" s="16">
-        <v>34.146341463414</v>
+        <v>2.222222222222</v>
       </c>
       <c r="F26" s="15">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G26" s="15">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="H26" s="16">
-        <v>-13.953488372093</v>
+        <v>0</v>
       </c>
       <c r="I26" s="15">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="J26" s="15">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="K26" s="16">
-        <v>-9.313725490196</v>
+        <v>-8.371385083713</v>
       </c>
       <c r="L26" s="16">
-        <v>7.350096711798</v>
+        <v>3.793103448275</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D27" s="15">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E27" s="16">
-        <v>-2.586206896551</v>
+        <v>2.941176470588</v>
       </c>
       <c r="F27" s="15">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G27" s="15">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="H27" s="16">
-        <v>3.526448362720</v>
+        <v>0.240963855421</v>
       </c>
       <c r="I27" s="15">
-        <v>1135</v>
+        <v>1234</v>
       </c>
       <c r="J27" s="15">
-        <v>1057</v>
+        <v>1159</v>
       </c>
       <c r="K27" s="16">
-        <v>7.379375591296</v>
+        <v>6.471095772217</v>
       </c>
       <c r="L27" s="16">
-        <v>24.862486248624</v>
+        <v>24.020100502512</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="15">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16">
-        <v>-28.125</v>
+        <v>15.789473684210</v>
       </c>
       <c r="F28" s="15">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G28" s="15">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H28" s="16">
-        <v>-28.455284552845</v>
+        <v>-19.834710743801</v>
       </c>
       <c r="I28" s="15">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="J28" s="15">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="K28" s="16">
-        <v>-18.064516129032</v>
+        <v>-16.109422492401</v>
       </c>
       <c r="L28" s="16">
-        <v>-1.930501930501</v>
+        <v>-3.496503496503</v>
       </c>
       <c r="M28" s="16">
-        <v>-17.799352750809</v>
+        <v>-18.100890207715</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.68</v>
+        <v>-79.956427015250</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" s="15">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16">
-        <v>-31.034482758620</v>
+        <v>5.882352941176</v>
       </c>
       <c r="F29" s="15">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G29" s="15">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29" s="16">
-        <v>-29.629629629629</v>
+        <v>-23.584905660377</v>
       </c>
       <c r="I29" s="15">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="J29" s="15">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="K29" s="16">
-        <v>-23.550724637681</v>
+        <v>-21.843003412969</v>
       </c>
       <c r="L29" s="16">
-        <v>-8.260869565217</v>
+        <v>-10.894941634241</v>
       </c>
       <c r="M29" s="16">
-        <v>-18.217054263565</v>
+        <v>-18.214285714285</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.539807524059</v>
+        <v>-81.825396825396</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
+        <v>9</v>
+      </c>
+      <c r="D30" s="15">
         <v>8</v>
       </c>
-      <c r="D30" s="15">
-        <v>9</v>
-      </c>
       <c r="E30" s="16">
-        <v>-11.111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="F30" s="15">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G30" s="15">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H30" s="16">
-        <v>-53.030303030303</v>
+        <v>-12</v>
       </c>
       <c r="I30" s="15">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="J30" s="15">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K30" s="16">
-        <v>-51.630434782608</v>
+        <v>-42.708333333333</v>
       </c>
       <c r="L30" s="16">
-        <v>18.666666666666</v>
+        <v>23.595505617977</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">13</t>
+      <t xml:space="preserve">14</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/27/2023</t>
+      <t xml:space="preserve">4/3/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/2/2023</t>
+      <t xml:space="preserve">4/9/2023</t>
     </r>
   </si>
   <si>
@@ -826,37 +826,37 @@
         <v>7</v>
       </c>
       <c r="D14" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="16">
-        <v>16.666666666666</v>
+        <v>-12.5</v>
       </c>
       <c r="F14" s="15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" s="15">
         <v>30</v>
       </c>
       <c r="H14" s="16">
-        <v>6.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I14" s="15">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J14" s="15">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K14" s="16">
-        <v>-10.679611650485</v>
+        <v>-9.909909909909</v>
       </c>
       <c r="L14" s="16">
-        <v>-11.538461538461</v>
+        <v>-13.043478260869</v>
       </c>
       <c r="M14" s="16">
-        <v>-23.333333333333</v>
+        <v>-21.875</v>
       </c>
       <c r="N14" s="16">
-        <v>-81.300813008130</v>
+        <v>-80.916030534351</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" s="15">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="16">
-        <v>-6.25</v>
+        <v>6.451612903225</v>
       </c>
       <c r="F15" s="15">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G15" s="15">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H15" s="16">
-        <v>4.424778761061</v>
+        <v>11.214953271028</v>
       </c>
       <c r="I15" s="15">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="J15" s="15">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="K15" s="16">
-        <v>-8.536585365853</v>
+        <v>-7.482993197278</v>
       </c>
       <c r="L15" s="16">
-        <v>6.534090909090</v>
+        <v>8.222811671087</v>
       </c>
       <c r="M15" s="16">
-        <v>25</v>
+        <v>26.708074534161</v>
       </c>
       <c r="N15" s="16">
-        <v>-50.396825396825</v>
+        <v>-49.877149877149</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D16" s="15">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="E16" s="16">
-        <v>-0.682593856655</v>
+        <v>-24.778761061946</v>
       </c>
       <c r="F16" s="15">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="G16" s="15">
-        <v>1160</v>
+        <v>1215</v>
       </c>
       <c r="H16" s="16">
-        <v>-1.206896551724</v>
+        <v>-6.337448559670</v>
       </c>
       <c r="I16" s="15">
-        <v>3843</v>
+        <v>4102</v>
       </c>
       <c r="J16" s="15">
-        <v>3912</v>
+        <v>4251</v>
       </c>
       <c r="K16" s="16">
-        <v>-1.763803680981</v>
+        <v>-3.505057633498</v>
       </c>
       <c r="L16" s="16">
-        <v>44.256756756756</v>
+        <v>43.929824561403</v>
       </c>
       <c r="M16" s="16">
-        <v>-13.348365276212</v>
+        <v>-13.459915611814</v>
       </c>
       <c r="N16" s="16">
-        <v>-82.027779076836</v>
+        <v>-82.026902685887</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="D17" s="15">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="E17" s="16">
-        <v>4.357298474945</v>
+        <v>-2.165354330708</v>
       </c>
       <c r="F17" s="15">
-        <v>1929</v>
+        <v>1979</v>
       </c>
       <c r="G17" s="15">
-        <v>1871</v>
+        <v>1946</v>
       </c>
       <c r="H17" s="16">
-        <v>3.099946552645</v>
+        <v>1.695786228160</v>
       </c>
       <c r="I17" s="15">
-        <v>6220</v>
+        <v>6742</v>
       </c>
       <c r="J17" s="15">
-        <v>5708</v>
+        <v>6216</v>
       </c>
       <c r="K17" s="16">
-        <v>8.969866853538</v>
+        <v>8.462033462033</v>
       </c>
       <c r="L17" s="16">
-        <v>32.115548003398</v>
+        <v>30.861801242236</v>
       </c>
       <c r="M17" s="16">
-        <v>62.063574778530</v>
+        <v>61.523718255869</v>
       </c>
       <c r="N17" s="16">
-        <v>-30.495027377360</v>
+        <v>-31.183015208737</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="D18" s="15">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="E18" s="16">
-        <v>-10.130718954248</v>
+        <v>-27.794561933534</v>
       </c>
       <c r="F18" s="15">
-        <v>1073</v>
+        <v>1047</v>
       </c>
       <c r="G18" s="15">
-        <v>1236</v>
+        <v>1246</v>
       </c>
       <c r="H18" s="16">
-        <v>-13.187702265372</v>
+        <v>-15.971107544141</v>
       </c>
       <c r="I18" s="15">
-        <v>3627</v>
+        <v>3878</v>
       </c>
       <c r="J18" s="15">
-        <v>3874</v>
+        <v>4206</v>
       </c>
       <c r="K18" s="16">
-        <v>-6.375838926174</v>
+        <v>-7.798383262006</v>
       </c>
       <c r="L18" s="16">
-        <v>23.032564450474</v>
+        <v>22.993973993022</v>
       </c>
       <c r="M18" s="16">
-        <v>-18.070928393946</v>
+        <v>-18.289085545722</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.354922070580</v>
+        <v>-85.389194484213</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="D19" s="15">
-        <v>943</v>
+        <v>904</v>
       </c>
       <c r="E19" s="16">
-        <v>-2.226935312831</v>
+        <v>1.106194690265</v>
       </c>
       <c r="F19" s="15">
-        <v>3671</v>
+        <v>3715</v>
       </c>
       <c r="G19" s="15">
-        <v>3685</v>
+        <v>3664</v>
       </c>
       <c r="H19" s="16">
-        <v>-0.379918588873</v>
+        <v>1.391921397379</v>
       </c>
       <c r="I19" s="15">
-        <v>11927</v>
+        <v>12839</v>
       </c>
       <c r="J19" s="15">
-        <v>12254</v>
+        <v>13161</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.668516402807</v>
+        <v>-2.446622597067</v>
       </c>
       <c r="L19" s="16">
-        <v>53.461142563046</v>
+        <v>53.815742182820</v>
       </c>
       <c r="M19" s="16">
-        <v>39.236516460424</v>
+        <v>38.650107991360</v>
       </c>
       <c r="N19" s="16">
-        <v>-38.374496228169</v>
+        <v>-38.911357472522</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D20" s="15">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E20" s="16">
-        <v>12.608695652173</v>
+        <v>22.127659574468</v>
       </c>
       <c r="F20" s="15">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="G20" s="15">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="H20" s="16">
-        <v>12.958963282937</v>
+        <v>16.485900216919</v>
       </c>
       <c r="I20" s="15">
-        <v>3564</v>
+        <v>3858</v>
       </c>
       <c r="J20" s="15">
-        <v>3331</v>
+        <v>3566</v>
       </c>
       <c r="K20" s="16">
-        <v>6.994896427499</v>
+        <v>8.188446438586</v>
       </c>
       <c r="L20" s="16">
-        <v>93.485342019544</v>
+        <v>91.179385530227</v>
       </c>
       <c r="M20" s="16">
-        <v>50.952986022871</v>
+        <v>51.531814611154</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.421916357861</v>
+        <v>-87.329633157082</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2263</v>
+        <v>2232</v>
       </c>
       <c r="D21" s="18">
-        <v>2269</v>
+        <v>2356</v>
       </c>
       <c r="E21" s="19">
-        <v>-0.264433671220</v>
+        <v>-5.263157894736</v>
       </c>
       <c r="F21" s="18">
-        <v>9015</v>
+        <v>9102</v>
       </c>
       <c r="G21" s="18">
-        <v>9021</v>
+        <v>9130</v>
       </c>
       <c r="H21" s="19">
-        <v>-0.066511473229</v>
+        <v>-0.306681270536</v>
       </c>
       <c r="I21" s="18">
-        <v>29648</v>
+        <v>31927</v>
       </c>
       <c r="J21" s="18">
-        <v>29592</v>
+        <v>31952</v>
       </c>
       <c r="K21" s="19">
-        <v>0.189240335225</v>
+        <v>-0.078242363545</v>
       </c>
       <c r="L21" s="19">
-        <v>45.404610102991</v>
+        <v>45.043612574959</v>
       </c>
       <c r="M21" s="19">
-        <v>23.291886721836</v>
+        <v>23.194165766322</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.501898399577</v>
+        <v>-71.485093689155</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D22" s="15">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E22" s="16">
-        <v>28.571428571428</v>
+        <v>14.705882352941</v>
       </c>
       <c r="F22" s="15">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G22" s="15">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H22" s="16">
-        <v>24.528301886792</v>
+        <v>25.165562913907</v>
       </c>
       <c r="I22" s="15">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="J22" s="15">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="K22" s="16">
-        <v>-8.006814310051</v>
+        <v>-6.924315619967</v>
       </c>
       <c r="L22" s="16">
-        <v>56.069364161849</v>
+        <v>57.923497267759</v>
       </c>
       <c r="M22" s="16">
-        <v>5.058365758754</v>
+        <v>3.956834532374</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D23" s="15">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E23" s="16">
-        <v>22.522522522522</v>
+        <v>3.809523809523</v>
       </c>
       <c r="F23" s="15">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="G23" s="15">
         <v>420</v>
       </c>
       <c r="H23" s="16">
-        <v>9.761904761904</v>
+        <v>14.761904761904</v>
       </c>
       <c r="I23" s="15">
-        <v>1503</v>
+        <v>1615</v>
       </c>
       <c r="J23" s="15">
-        <v>1385</v>
+        <v>1490</v>
       </c>
       <c r="K23" s="16">
-        <v>8.519855595667</v>
+        <v>8.389261744966</v>
       </c>
       <c r="L23" s="16">
-        <v>25.041597337770</v>
+        <v>22.163388804841</v>
       </c>
       <c r="M23" s="16">
-        <v>64.622124863088</v>
+        <v>65.641025641025</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2040</v>
+        <v>1900</v>
       </c>
       <c r="D24" s="15">
-        <v>2147</v>
+        <v>2233</v>
       </c>
       <c r="E24" s="16">
-        <v>-4.983698183511</v>
+        <v>-14.912673533363</v>
       </c>
       <c r="F24" s="15">
-        <v>7992</v>
+        <v>7793</v>
       </c>
       <c r="G24" s="15">
-        <v>8508</v>
+        <v>8658</v>
       </c>
       <c r="H24" s="16">
-        <v>-6.064880112834</v>
+        <v>-9.990759990759</v>
       </c>
       <c r="I24" s="15">
-        <v>26508</v>
+        <v>28440</v>
       </c>
       <c r="J24" s="15">
-        <v>26077</v>
+        <v>28310</v>
       </c>
       <c r="K24" s="16">
-        <v>1.652797484373</v>
+        <v>0.459201695513</v>
       </c>
       <c r="L24" s="16">
-        <v>40.484392389633</v>
+        <v>40.959555908009</v>
       </c>
       <c r="M24" s="16">
-        <v>45.736434108527</v>
+        <v>44.732824427480</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D25" s="15">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="E25" s="16">
-        <v>7.317073170731</v>
+        <v>3.870162297128</v>
       </c>
       <c r="F25" s="15">
-        <v>3276</v>
+        <v>3343</v>
       </c>
       <c r="G25" s="15">
-        <v>3172</v>
+        <v>3192</v>
       </c>
       <c r="H25" s="16">
-        <v>3.278688524590</v>
+        <v>4.730576441102</v>
       </c>
       <c r="I25" s="15">
-        <v>10146</v>
+        <v>10995</v>
       </c>
       <c r="J25" s="15">
-        <v>9576</v>
+        <v>10377</v>
       </c>
       <c r="K25" s="16">
-        <v>5.952380952380</v>
+        <v>5.955478461983</v>
       </c>
       <c r="L25" s="16">
-        <v>37.071061875168</v>
+        <v>37.351655215490</v>
       </c>
       <c r="M25" s="16">
-        <v>-3.564299971485</v>
+        <v>-3.535708018950</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D26" s="15">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E26" s="16">
-        <v>2.222222222222</v>
+        <v>9.803921568627</v>
       </c>
       <c r="F26" s="15">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="G26" s="15">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="H26" s="16">
-        <v>0</v>
+        <v>14.689265536723</v>
       </c>
       <c r="I26" s="15">
-        <v>602</v>
+        <v>658</v>
       </c>
       <c r="J26" s="15">
-        <v>657</v>
+        <v>708</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.371385083713</v>
+        <v>-7.062146892655</v>
       </c>
       <c r="L26" s="16">
-        <v>3.793103448275</v>
+        <v>4.777070063694</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D27" s="15">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E27" s="16">
-        <v>2.941176470588</v>
+        <v>4.301075268817</v>
       </c>
       <c r="F27" s="15">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G27" s="15">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H27" s="16">
-        <v>0.240963855421</v>
+        <v>-0.488997555012</v>
       </c>
       <c r="I27" s="15">
-        <v>1234</v>
+        <v>1327</v>
       </c>
       <c r="J27" s="15">
-        <v>1159</v>
+        <v>1252</v>
       </c>
       <c r="K27" s="16">
-        <v>6.471095772217</v>
+        <v>5.990415335463</v>
       </c>
       <c r="L27" s="16">
-        <v>24.020100502512</v>
+        <v>22.530009233610</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D28" s="15">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16">
-        <v>15.789473684210</v>
+        <v>-46.666666666666</v>
       </c>
       <c r="F28" s="15">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G28" s="15">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H28" s="16">
-        <v>-19.834710743801</v>
+        <v>-28.8</v>
       </c>
       <c r="I28" s="15">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="J28" s="15">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="K28" s="16">
-        <v>-16.109422492401</v>
+        <v>-18.662952646239</v>
       </c>
       <c r="L28" s="16">
-        <v>-3.496503496503</v>
+        <v>-11.515151515151</v>
       </c>
       <c r="M28" s="16">
-        <v>-18.100890207715</v>
+        <v>-24.155844155844</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.956427015250</v>
+        <v>-80.136054421768</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D29" s="15">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16">
-        <v>5.882352941176</v>
+        <v>-37.5</v>
       </c>
       <c r="F29" s="15">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G29" s="15">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H29" s="16">
-        <v>-23.584905660377</v>
+        <v>-27.102803738317</v>
       </c>
       <c r="I29" s="15">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="J29" s="15">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="K29" s="16">
-        <v>-21.843003412969</v>
+        <v>-23.028391167192</v>
       </c>
       <c r="L29" s="16">
-        <v>-10.894941634241</v>
+        <v>-17.288135593220</v>
       </c>
       <c r="M29" s="16">
-        <v>-18.214285714285</v>
+        <v>-23.028391167192</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.825396825396</v>
+        <v>-81.858736059479</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D30" s="15">
         <v>8</v>
       </c>
       <c r="E30" s="16">
-        <v>12.5</v>
+        <v>-50</v>
       </c>
       <c r="F30" s="15">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30" s="15">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H30" s="16">
-        <v>-12</v>
+        <v>7.692307692307</v>
       </c>
       <c r="I30" s="15">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J30" s="15">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="K30" s="16">
-        <v>-42.708333333333</v>
+        <v>-41.5</v>
       </c>
       <c r="L30" s="16">
-        <v>23.595505617977</v>
+        <v>17</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">14</t>
+      <t xml:space="preserve">15</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/3/2023</t>
+      <t xml:space="preserve">4/10/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/9/2023</t>
+      <t xml:space="preserve">4/16/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" s="16">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G14" s="15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="16">
-        <v>0</v>
+        <v>20.689655172413</v>
       </c>
       <c r="I14" s="15">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="J14" s="15">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K14" s="16">
-        <v>-9.909909909909</v>
+        <v>-6.611570247933</v>
       </c>
       <c r="L14" s="16">
-        <v>-13.043478260869</v>
+        <v>-7.377049180327</v>
       </c>
       <c r="M14" s="16">
-        <v>-21.875</v>
+        <v>-18.705035971223</v>
       </c>
       <c r="N14" s="16">
-        <v>-80.916030534351</v>
+        <v>-79.639639639639</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D15" s="15">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E15" s="16">
-        <v>6.451612903225</v>
+        <v>-28</v>
       </c>
       <c r="F15" s="15">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G15" s="15">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H15" s="16">
-        <v>11.214953271028</v>
+        <v>1.834862385321</v>
       </c>
       <c r="I15" s="15">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="J15" s="15">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="K15" s="16">
-        <v>-7.482993197278</v>
+        <v>-7.939914163090</v>
       </c>
       <c r="L15" s="16">
-        <v>8.222811671087</v>
+        <v>7.518796992481</v>
       </c>
       <c r="M15" s="16">
-        <v>26.708074534161</v>
+        <v>23.631123919308</v>
       </c>
       <c r="N15" s="16">
-        <v>-49.877149877149</v>
+        <v>-50.576036866359</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="D16" s="15">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="E16" s="16">
-        <v>-24.778761061946</v>
+        <v>11.619718309859</v>
       </c>
       <c r="F16" s="15">
-        <v>1138</v>
+        <v>1159</v>
       </c>
       <c r="G16" s="15">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H16" s="16">
-        <v>-6.337448559670</v>
+        <v>-4.6875</v>
       </c>
       <c r="I16" s="15">
-        <v>4102</v>
+        <v>4417</v>
       </c>
       <c r="J16" s="15">
-        <v>4251</v>
+        <v>4535</v>
       </c>
       <c r="K16" s="16">
-        <v>-3.505057633498</v>
+        <v>-2.601984564498</v>
       </c>
       <c r="L16" s="16">
-        <v>43.929824561403</v>
+        <v>44.819672131147</v>
       </c>
       <c r="M16" s="16">
-        <v>-13.459915611814</v>
+        <v>-12.534653465346</v>
       </c>
       <c r="N16" s="16">
-        <v>-82.026902685887</v>
+        <v>-81.841726618705</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="D17" s="15">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="E17" s="16">
-        <v>-2.165354330708</v>
+        <v>0</v>
       </c>
       <c r="F17" s="15">
-        <v>1979</v>
+        <v>2073</v>
       </c>
       <c r="G17" s="15">
-        <v>1946</v>
+        <v>2032</v>
       </c>
       <c r="H17" s="16">
-        <v>1.695786228160</v>
+        <v>2.017716535433</v>
       </c>
       <c r="I17" s="15">
-        <v>6742</v>
+        <v>7338</v>
       </c>
       <c r="J17" s="15">
-        <v>6216</v>
+        <v>6782</v>
       </c>
       <c r="K17" s="16">
-        <v>8.462033462033</v>
+        <v>8.198171630787</v>
       </c>
       <c r="L17" s="16">
-        <v>30.861801242236</v>
+        <v>33.224400871459</v>
       </c>
       <c r="M17" s="16">
-        <v>61.523718255869</v>
+        <v>61.915269196822</v>
       </c>
       <c r="N17" s="16">
-        <v>-31.183015208737</v>
+        <v>-30.233884768967</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D18" s="15">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="E18" s="16">
-        <v>-27.794561933534</v>
+        <v>-10.646387832699</v>
       </c>
       <c r="F18" s="15">
-        <v>1047</v>
+        <v>1014</v>
       </c>
       <c r="G18" s="15">
-        <v>1246</v>
+        <v>1215</v>
       </c>
       <c r="H18" s="16">
-        <v>-15.971107544141</v>
+        <v>-16.543209876543</v>
       </c>
       <c r="I18" s="15">
-        <v>3878</v>
+        <v>4118</v>
       </c>
       <c r="J18" s="15">
-        <v>4206</v>
+        <v>4469</v>
       </c>
       <c r="K18" s="16">
-        <v>-7.798383262006</v>
+        <v>-7.854106063996</v>
       </c>
       <c r="L18" s="16">
-        <v>22.993973993022</v>
+        <v>22.669049746797</v>
       </c>
       <c r="M18" s="16">
-        <v>-18.289085545722</v>
+        <v>-18.729030984803</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.389194484213</v>
+        <v>-85.535651563048</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>914</v>
+        <v>936</v>
       </c>
       <c r="D19" s="15">
-        <v>904</v>
+        <v>870</v>
       </c>
       <c r="E19" s="16">
-        <v>1.106194690265</v>
+        <v>7.586206896551</v>
       </c>
       <c r="F19" s="15">
-        <v>3715</v>
+        <v>3731</v>
       </c>
       <c r="G19" s="15">
-        <v>3664</v>
+        <v>3635</v>
       </c>
       <c r="H19" s="16">
-        <v>1.391921397379</v>
+        <v>2.640990371389</v>
       </c>
       <c r="I19" s="15">
-        <v>12839</v>
+        <v>13779</v>
       </c>
       <c r="J19" s="15">
-        <v>13161</v>
+        <v>14031</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.446622597067</v>
+        <v>-1.796023091725</v>
       </c>
       <c r="L19" s="16">
-        <v>53.815742182820</v>
+        <v>53.749163133229</v>
       </c>
       <c r="M19" s="16">
-        <v>38.650107991360</v>
+        <v>37.941735909500</v>
       </c>
       <c r="N19" s="16">
-        <v>-38.911357472522</v>
+        <v>-39.229955014554</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="D20" s="15">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="E20" s="16">
-        <v>22.127659574468</v>
+        <v>76.842105263157</v>
       </c>
       <c r="F20" s="15">
-        <v>1074</v>
+        <v>1147</v>
       </c>
       <c r="G20" s="15">
-        <v>922</v>
+        <v>887</v>
       </c>
       <c r="H20" s="16">
-        <v>16.485900216919</v>
+        <v>29.312288613303</v>
       </c>
       <c r="I20" s="15">
-        <v>3858</v>
+        <v>4184</v>
       </c>
       <c r="J20" s="15">
-        <v>3566</v>
+        <v>3756</v>
       </c>
       <c r="K20" s="16">
-        <v>8.188446438586</v>
+        <v>11.395101171459</v>
       </c>
       <c r="L20" s="16">
-        <v>91.179385530227</v>
+        <v>91.13750571037</v>
       </c>
       <c r="M20" s="16">
-        <v>51.531814611154</v>
+        <v>52.090149036713</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.329633157082</v>
+        <v>-87.240012198841</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2232</v>
+        <v>2418</v>
       </c>
       <c r="D21" s="18">
-        <v>2356</v>
+        <v>2208</v>
       </c>
       <c r="E21" s="19">
-        <v>-5.263157894736</v>
+        <v>9.510869565217</v>
       </c>
       <c r="F21" s="18">
-        <v>9102</v>
+        <v>9270</v>
       </c>
       <c r="G21" s="18">
-        <v>9130</v>
+        <v>9123</v>
       </c>
       <c r="H21" s="19">
-        <v>-0.306681270536</v>
+        <v>1.611312068398</v>
       </c>
       <c r="I21" s="18">
-        <v>31927</v>
+        <v>34378</v>
       </c>
       <c r="J21" s="18">
-        <v>31952</v>
+        <v>34160</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.078242363545</v>
+        <v>0.638173302107</v>
       </c>
       <c r="L21" s="19">
-        <v>45.043612574959</v>
+        <v>45.749777419765</v>
       </c>
       <c r="M21" s="19">
-        <v>23.194165766322</v>
+        <v>23.329147982062</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.485093689155</v>
+        <v>-71.399334442595</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="15">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E22" s="16">
-        <v>14.705882352941</v>
+        <v>-13.043478260869</v>
       </c>
       <c r="F22" s="15">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G22" s="15">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H22" s="16">
-        <v>25.165562913907</v>
+        <v>14.838709677419</v>
       </c>
       <c r="I22" s="15">
-        <v>578</v>
+        <v>620</v>
       </c>
       <c r="J22" s="15">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="K22" s="16">
-        <v>-6.924315619967</v>
+        <v>-7.046476761619</v>
       </c>
       <c r="L22" s="16">
-        <v>57.923497267759</v>
+        <v>58.163265306122</v>
       </c>
       <c r="M22" s="16">
-        <v>3.956834532374</v>
+        <v>1.307189542483</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D23" s="15">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E23" s="16">
-        <v>3.809523809523</v>
+        <v>30.107526881720</v>
       </c>
       <c r="F23" s="15">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="G23" s="15">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="H23" s="16">
-        <v>14.761904761904</v>
+        <v>24.685138539042</v>
       </c>
       <c r="I23" s="15">
-        <v>1615</v>
+        <v>1746</v>
       </c>
       <c r="J23" s="15">
-        <v>1490</v>
+        <v>1583</v>
       </c>
       <c r="K23" s="16">
-        <v>8.389261744966</v>
+        <v>10.296904611497</v>
       </c>
       <c r="L23" s="16">
-        <v>22.163388804841</v>
+        <v>23.392226148409</v>
       </c>
       <c r="M23" s="16">
-        <v>65.641025641025</v>
+        <v>67.884615384615</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1900</v>
+        <v>1995</v>
       </c>
       <c r="D24" s="15">
-        <v>2233</v>
+        <v>2199</v>
       </c>
       <c r="E24" s="16">
-        <v>-14.912673533363</v>
+        <v>-9.276944065484</v>
       </c>
       <c r="F24" s="15">
-        <v>7793</v>
+        <v>7996</v>
       </c>
       <c r="G24" s="15">
-        <v>8658</v>
+        <v>8784</v>
       </c>
       <c r="H24" s="16">
-        <v>-9.990759990759</v>
+        <v>-8.970856102003</v>
       </c>
       <c r="I24" s="15">
-        <v>28440</v>
+        <v>30455</v>
       </c>
       <c r="J24" s="15">
-        <v>28310</v>
+        <v>30509</v>
       </c>
       <c r="K24" s="16">
-        <v>0.459201695513</v>
+        <v>-0.176996951719</v>
       </c>
       <c r="L24" s="16">
-        <v>40.959555908009</v>
+        <v>41.322505800464</v>
       </c>
       <c r="M24" s="16">
-        <v>44.732824427480</v>
+        <v>43.398625105942</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>832</v>
+        <v>785</v>
       </c>
       <c r="D25" s="15">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="E25" s="16">
-        <v>3.870162297128</v>
+        <v>-5.307599517490</v>
       </c>
       <c r="F25" s="15">
-        <v>3343</v>
+        <v>3315</v>
       </c>
       <c r="G25" s="15">
-        <v>3192</v>
+        <v>3243</v>
       </c>
       <c r="H25" s="16">
-        <v>4.730576441102</v>
+        <v>2.220166512488</v>
       </c>
       <c r="I25" s="15">
-        <v>10995</v>
+        <v>11776</v>
       </c>
       <c r="J25" s="15">
-        <v>10377</v>
+        <v>11206</v>
       </c>
       <c r="K25" s="16">
-        <v>5.955478461983</v>
+        <v>5.086560771015</v>
       </c>
       <c r="L25" s="16">
-        <v>37.351655215490</v>
+        <v>36.438419650098</v>
       </c>
       <c r="M25" s="16">
-        <v>-3.535708018950</v>
+        <v>-3.979125896934</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D26" s="15">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E26" s="16">
-        <v>9.803921568627</v>
+        <v>-36.956521739130</v>
       </c>
       <c r="F26" s="15">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="G26" s="15">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H26" s="16">
-        <v>14.689265536723</v>
+        <v>2.185792349726</v>
       </c>
       <c r="I26" s="15">
-        <v>658</v>
+        <v>689</v>
       </c>
       <c r="J26" s="15">
-        <v>708</v>
+        <v>754</v>
       </c>
       <c r="K26" s="16">
-        <v>-7.062146892655</v>
+        <v>-8.620689655172</v>
       </c>
       <c r="L26" s="16">
-        <v>4.777070063694</v>
+        <v>2.682563338301</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D27" s="15">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E27" s="16">
-        <v>4.301075268817</v>
+        <v>-1</v>
       </c>
       <c r="F27" s="15">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G27" s="15">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H27" s="16">
-        <v>-0.488997555012</v>
+        <v>-1.216545012165</v>
       </c>
       <c r="I27" s="15">
-        <v>1327</v>
+        <v>1420</v>
       </c>
       <c r="J27" s="15">
-        <v>1252</v>
+        <v>1352</v>
       </c>
       <c r="K27" s="16">
-        <v>5.990415335463</v>
+        <v>5.029585798816</v>
       </c>
       <c r="L27" s="16">
-        <v>22.530009233610</v>
+        <v>19.327731092437</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D28" s="15">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E28" s="16">
-        <v>-46.666666666666</v>
+        <v>-39.215686274509</v>
       </c>
       <c r="F28" s="15">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G28" s="15">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H28" s="16">
-        <v>-28.8</v>
+        <v>-30.303030303030</v>
       </c>
       <c r="I28" s="15">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="J28" s="15">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="K28" s="16">
-        <v>-18.662952646239</v>
+        <v>-20.975609756097</v>
       </c>
       <c r="L28" s="16">
-        <v>-11.515151515151</v>
+        <v>-8.215297450424</v>
       </c>
       <c r="M28" s="16">
-        <v>-24.155844155844</v>
+        <v>-24.121779859484</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.136054421768</v>
+        <v>-79.283887468030</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D29" s="15">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E29" s="16">
-        <v>-37.5</v>
+        <v>-26.470588235294</v>
       </c>
       <c r="F29" s="15">
         <v>78</v>
       </c>
       <c r="G29" s="15">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H29" s="16">
-        <v>-27.102803738317</v>
+        <v>-25</v>
       </c>
       <c r="I29" s="15">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J29" s="15">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="K29" s="16">
-        <v>-23.028391167192</v>
+        <v>-23.076923076923</v>
       </c>
       <c r="L29" s="16">
-        <v>-17.288135593220</v>
+        <v>-15.094339622641</v>
       </c>
       <c r="M29" s="16">
-        <v>-23.028391167192</v>
+        <v>-22.413793103448</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.858736059479</v>
+        <v>-81.105668299510</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1482,31 +1482,31 @@
         <v>4</v>
       </c>
       <c r="D30" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="16">
-        <v>-50</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="F30" s="15">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G30" s="15">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H30" s="16">
-        <v>7.692307692307</v>
+        <v>21.875</v>
       </c>
       <c r="I30" s="15">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J30" s="15">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K30" s="16">
-        <v>-41.5</v>
+        <v>-40.579710144927</v>
       </c>
       <c r="L30" s="16">
-        <v>17</v>
+        <v>12.844036697247</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">15</t>
+      <t xml:space="preserve">16</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/10/2023</t>
+      <t xml:space="preserve">4/17/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/16/2023</t>
+      <t xml:space="preserve">4/23/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F14" s="15">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" s="15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="16">
-        <v>20.689655172413</v>
+        <v>14.285714285714</v>
       </c>
       <c r="I14" s="15">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="J14" s="15">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K14" s="16">
-        <v>-6.611570247933</v>
+        <v>-4</v>
       </c>
       <c r="L14" s="16">
-        <v>-7.377049180327</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="M14" s="16">
-        <v>-18.705035971223</v>
+        <v>-17.241379310344</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.639639639639</v>
+        <v>-79.487179487179</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D15" s="15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" s="16">
-        <v>-28</v>
+        <v>7.407407407407</v>
       </c>
       <c r="F15" s="15">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G15" s="15">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H15" s="16">
-        <v>1.834862385321</v>
+        <v>-1.739130434782</v>
       </c>
       <c r="I15" s="15">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="J15" s="15">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="K15" s="16">
-        <v>-7.939914163090</v>
+        <v>-6.490872210953</v>
       </c>
       <c r="L15" s="16">
-        <v>7.518796992481</v>
+        <v>7.209302325581</v>
       </c>
       <c r="M15" s="16">
-        <v>23.631123919308</v>
+        <v>24.258760107816</v>
       </c>
       <c r="N15" s="16">
-        <v>-50.576036866359</v>
+        <v>-51.061571125265</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="D16" s="15">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E16" s="16">
-        <v>11.619718309859</v>
+        <v>-5.673758865248</v>
       </c>
       <c r="F16" s="15">
-        <v>1159</v>
+        <v>1132</v>
       </c>
       <c r="G16" s="15">
-        <v>1216</v>
+        <v>1198</v>
       </c>
       <c r="H16" s="16">
-        <v>-4.6875</v>
+        <v>-5.509181969949</v>
       </c>
       <c r="I16" s="15">
-        <v>4417</v>
+        <v>4693</v>
       </c>
       <c r="J16" s="15">
-        <v>4535</v>
+        <v>4817</v>
       </c>
       <c r="K16" s="16">
-        <v>-2.601984564498</v>
+        <v>-2.574216317209</v>
       </c>
       <c r="L16" s="16">
-        <v>44.819672131147</v>
+        <v>43.736600306278</v>
       </c>
       <c r="M16" s="16">
-        <v>-12.534653465346</v>
+        <v>-12.947505101094</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.841726618705</v>
+        <v>-81.821351100093</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>566</v>
+        <v>524</v>
       </c>
       <c r="D17" s="15">
-        <v>566</v>
+        <v>416</v>
       </c>
       <c r="E17" s="16">
-        <v>0</v>
+        <v>25.961538461538</v>
       </c>
       <c r="F17" s="15">
-        <v>2073</v>
+        <v>2111</v>
       </c>
       <c r="G17" s="15">
-        <v>2032</v>
+        <v>1949</v>
       </c>
       <c r="H17" s="16">
-        <v>2.017716535433</v>
+        <v>8.311954848640</v>
       </c>
       <c r="I17" s="15">
-        <v>7338</v>
+        <v>7884</v>
       </c>
       <c r="J17" s="15">
-        <v>6782</v>
+        <v>7199</v>
       </c>
       <c r="K17" s="16">
-        <v>8.198171630787</v>
+        <v>9.515210445895</v>
       </c>
       <c r="L17" s="16">
-        <v>33.224400871459</v>
+        <v>34.127254168084</v>
       </c>
       <c r="M17" s="16">
-        <v>61.915269196822</v>
+        <v>62.255608149825</v>
       </c>
       <c r="N17" s="16">
-        <v>-30.233884768967</v>
+        <v>-30.118773267151</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="D18" s="15">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E18" s="16">
-        <v>-10.646387832699</v>
+        <v>1.465201465201</v>
       </c>
       <c r="F18" s="15">
-        <v>1014</v>
+        <v>1046</v>
       </c>
       <c r="G18" s="15">
-        <v>1215</v>
+        <v>1173</v>
       </c>
       <c r="H18" s="16">
-        <v>-16.543209876543</v>
+        <v>-10.826939471440</v>
       </c>
       <c r="I18" s="15">
-        <v>4118</v>
+        <v>4406</v>
       </c>
       <c r="J18" s="15">
-        <v>4469</v>
+        <v>4742</v>
       </c>
       <c r="K18" s="16">
-        <v>-7.854106063996</v>
+        <v>-7.085617882749</v>
       </c>
       <c r="L18" s="16">
-        <v>22.669049746797</v>
+        <v>24.322799097065</v>
       </c>
       <c r="M18" s="16">
-        <v>-18.729030984803</v>
+        <v>-17.706387747478</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.535651563048</v>
+        <v>-85.493695058110</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>936</v>
+        <v>994</v>
       </c>
       <c r="D19" s="15">
-        <v>870</v>
+        <v>927</v>
       </c>
       <c r="E19" s="16">
-        <v>7.586206896551</v>
+        <v>7.227615965480</v>
       </c>
       <c r="F19" s="15">
-        <v>3731</v>
+        <v>3768</v>
       </c>
       <c r="G19" s="15">
-        <v>3635</v>
+        <v>3644</v>
       </c>
       <c r="H19" s="16">
-        <v>2.640990371389</v>
+        <v>3.402854006586</v>
       </c>
       <c r="I19" s="15">
-        <v>13779</v>
+        <v>14771</v>
       </c>
       <c r="J19" s="15">
-        <v>14031</v>
+        <v>14962</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.796023091725</v>
+        <v>-1.276567303836</v>
       </c>
       <c r="L19" s="16">
-        <v>53.749163133229</v>
+        <v>53.656506813689</v>
       </c>
       <c r="M19" s="16">
-        <v>37.941735909500</v>
+        <v>38.111266947171</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.229955014554</v>
+        <v>-39.118786579836</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D20" s="15">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="E20" s="16">
-        <v>76.842105263157</v>
+        <v>46.190476190476</v>
       </c>
       <c r="F20" s="15">
-        <v>1147</v>
+        <v>1180</v>
       </c>
       <c r="G20" s="15">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="H20" s="16">
-        <v>29.312288613303</v>
+        <v>36.416184971098</v>
       </c>
       <c r="I20" s="15">
-        <v>4184</v>
+        <v>4492</v>
       </c>
       <c r="J20" s="15">
-        <v>3756</v>
+        <v>3966</v>
       </c>
       <c r="K20" s="16">
-        <v>11.395101171459</v>
+        <v>13.262733232476</v>
       </c>
       <c r="L20" s="16">
-        <v>91.13750571037</v>
+        <v>90.500424088210</v>
       </c>
       <c r="M20" s="16">
-        <v>52.090149036713</v>
+        <v>51.245791245791</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.240012198841</v>
+        <v>-87.209567198177</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2418</v>
+        <v>2403</v>
       </c>
       <c r="D21" s="18">
-        <v>2208</v>
+        <v>2139</v>
       </c>
       <c r="E21" s="19">
-        <v>9.510869565217</v>
+        <v>12.342215988779</v>
       </c>
       <c r="F21" s="18">
-        <v>9270</v>
+        <v>9382</v>
       </c>
       <c r="G21" s="18">
-        <v>9123</v>
+        <v>8972</v>
       </c>
       <c r="H21" s="19">
-        <v>1.611312068398</v>
+        <v>4.569772625947</v>
       </c>
       <c r="I21" s="18">
-        <v>34378</v>
+        <v>36827</v>
       </c>
       <c r="J21" s="18">
-        <v>34160</v>
+        <v>36304</v>
       </c>
       <c r="K21" s="19">
-        <v>0.638173302107</v>
+        <v>1.440612604671</v>
       </c>
       <c r="L21" s="19">
-        <v>45.749777419765</v>
+        <v>46.005629782341</v>
       </c>
       <c r="M21" s="19">
-        <v>23.329147982062</v>
+        <v>23.642773207990</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.399334442595</v>
+        <v>-71.314067611777</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D22" s="15">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E22" s="16">
-        <v>-13.043478260869</v>
+        <v>0</v>
       </c>
       <c r="F22" s="15">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G22" s="15">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H22" s="16">
-        <v>14.838709677419</v>
+        <v>8.484848484848</v>
       </c>
       <c r="I22" s="15">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="J22" s="15">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="K22" s="16">
-        <v>-7.046476761619</v>
+        <v>-6.619718309859</v>
       </c>
       <c r="L22" s="16">
-        <v>58.163265306122</v>
+        <v>56.367924528301</v>
       </c>
       <c r="M22" s="16">
-        <v>1.307189542483</v>
+        <v>1.843317972350</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D23" s="15">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E23" s="16">
-        <v>30.107526881720</v>
+        <v>4.237288135593</v>
       </c>
       <c r="F23" s="15">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="G23" s="15">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="H23" s="16">
-        <v>24.685138539042</v>
+        <v>17.096018735363</v>
       </c>
       <c r="I23" s="15">
-        <v>1746</v>
+        <v>1872</v>
       </c>
       <c r="J23" s="15">
-        <v>1583</v>
+        <v>1701</v>
       </c>
       <c r="K23" s="16">
-        <v>10.296904611497</v>
+        <v>10.052910052910</v>
       </c>
       <c r="L23" s="16">
-        <v>23.392226148409</v>
+        <v>22.673656618610</v>
       </c>
       <c r="M23" s="16">
-        <v>67.884615384615</v>
+        <v>69.105691056910</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1995</v>
+        <v>2120</v>
       </c>
       <c r="D24" s="15">
-        <v>2199</v>
+        <v>2094</v>
       </c>
       <c r="E24" s="16">
-        <v>-9.276944065484</v>
+        <v>1.241642788920</v>
       </c>
       <c r="F24" s="15">
-        <v>7996</v>
+        <v>8127</v>
       </c>
       <c r="G24" s="15">
-        <v>8784</v>
+        <v>8673</v>
       </c>
       <c r="H24" s="16">
-        <v>-8.970856102003</v>
+        <v>-6.295399515738</v>
       </c>
       <c r="I24" s="15">
-        <v>30455</v>
+        <v>32601</v>
       </c>
       <c r="J24" s="15">
-        <v>30509</v>
+        <v>32603</v>
       </c>
       <c r="K24" s="16">
-        <v>-0.176996951719</v>
+        <v>-0.006134404809</v>
       </c>
       <c r="L24" s="16">
-        <v>41.322505800464</v>
+        <v>41.798964812317</v>
       </c>
       <c r="M24" s="16">
-        <v>43.398625105942</v>
+        <v>42.698940733607</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>785</v>
+        <v>827</v>
       </c>
       <c r="D25" s="15">
-        <v>829</v>
+        <v>741</v>
       </c>
       <c r="E25" s="16">
-        <v>-5.307599517490</v>
+        <v>11.605937921727</v>
       </c>
       <c r="F25" s="15">
-        <v>3315</v>
+        <v>3323</v>
       </c>
       <c r="G25" s="15">
-        <v>3243</v>
+        <v>3150</v>
       </c>
       <c r="H25" s="16">
-        <v>2.220166512488</v>
+        <v>5.492063492063</v>
       </c>
       <c r="I25" s="15">
-        <v>11776</v>
+        <v>12607</v>
       </c>
       <c r="J25" s="15">
-        <v>11206</v>
+        <v>11947</v>
       </c>
       <c r="K25" s="16">
-        <v>5.086560771015</v>
+        <v>5.524399430819</v>
       </c>
       <c r="L25" s="16">
-        <v>36.438419650098</v>
+        <v>36.958174904943</v>
       </c>
       <c r="M25" s="16">
-        <v>-3.979125896934</v>
+        <v>-4.143856447688</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D26" s="15">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E26" s="16">
-        <v>-36.956521739130</v>
+        <v>7.317073170731</v>
       </c>
       <c r="F26" s="15">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G26" s="15">
         <v>183</v>
       </c>
       <c r="H26" s="16">
-        <v>2.185792349726</v>
+        <v>-3.825136612021</v>
       </c>
       <c r="I26" s="15">
-        <v>689</v>
+        <v>735</v>
       </c>
       <c r="J26" s="15">
-        <v>754</v>
+        <v>795</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.620689655172</v>
+        <v>-7.547169811320</v>
       </c>
       <c r="L26" s="16">
-        <v>2.682563338301</v>
+        <v>1.800554016620</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D27" s="15">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E27" s="16">
-        <v>-1</v>
+        <v>60.256410256410</v>
       </c>
       <c r="F27" s="15">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="G27" s="15">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="H27" s="16">
-        <v>-1.216545012165</v>
+        <v>12.868632707774</v>
       </c>
       <c r="I27" s="15">
-        <v>1420</v>
+        <v>1542</v>
       </c>
       <c r="J27" s="15">
-        <v>1352</v>
+        <v>1430</v>
       </c>
       <c r="K27" s="16">
-        <v>5.029585798816</v>
+        <v>7.832167832167</v>
       </c>
       <c r="L27" s="16">
-        <v>19.327731092437</v>
+        <v>20.280811232449</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D28" s="15">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16">
-        <v>-39.215686274509</v>
+        <v>-50</v>
       </c>
       <c r="F28" s="15">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G28" s="15">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H28" s="16">
-        <v>-30.303030303030</v>
+        <v>-34.920634920634</v>
       </c>
       <c r="I28" s="15">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="J28" s="15">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="K28" s="16">
-        <v>-20.975609756097</v>
+        <v>-22.935779816513</v>
       </c>
       <c r="L28" s="16">
-        <v>-8.215297450424</v>
+        <v>-14.066496163682</v>
       </c>
       <c r="M28" s="16">
-        <v>-24.121779859484</v>
+        <v>-24.832214765100</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.283887468030</v>
+        <v>-79.844031193761</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D29" s="15">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16">
-        <v>-26.470588235294</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="F29" s="15">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G29" s="15">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H29" s="16">
-        <v>-25</v>
+        <v>-27.083333333333</v>
       </c>
       <c r="I29" s="15">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="J29" s="15">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="K29" s="16">
-        <v>-23.076923076923</v>
+        <v>-24.462365591397</v>
       </c>
       <c r="L29" s="16">
-        <v>-15.094339622641</v>
+        <v>-20.621468926553</v>
       </c>
       <c r="M29" s="16">
-        <v>-22.413793103448</v>
+        <v>-23.224043715847</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.105668299510</v>
+        <v>-81.525312294543</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1482,31 +1482,31 @@
         <v>4</v>
       </c>
       <c r="D30" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" s="16">
-        <v>-42.857142857142</v>
+        <v>-50</v>
       </c>
       <c r="F30" s="15">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G30" s="15">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30" s="16">
-        <v>21.875</v>
+        <v>16.129032258064</v>
       </c>
       <c r="I30" s="15">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J30" s="15">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="K30" s="16">
-        <v>-40.579710144927</v>
+        <v>-36.744186046511</v>
       </c>
       <c r="L30" s="16">
-        <v>12.844036697247</v>
+        <v>4.615384615384</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">16</t>
+      <t xml:space="preserve">17</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/17/2023</t>
+      <t xml:space="preserve">4/24/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/23/2023</t>
+      <t xml:space="preserve">4/30/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E14" s="16">
-        <v>50</v>
+        <v>-72.727272727272</v>
       </c>
       <c r="F14" s="15">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" s="15">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H14" s="16">
-        <v>14.285714285714</v>
+        <v>-12.121212121212</v>
       </c>
       <c r="I14" s="15">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J14" s="15">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K14" s="16">
-        <v>-4</v>
+        <v>-8.088235294117</v>
       </c>
       <c r="L14" s="16">
-        <v>-11.111111111111</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="M14" s="16">
-        <v>-17.241379310344</v>
+        <v>-17.218543046357</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.487179487179</v>
+        <v>-79.740680713128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D15" s="15">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E15" s="16">
-        <v>7.407407407407</v>
+        <v>94.444444444444</v>
       </c>
       <c r="F15" s="15">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G15" s="15">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H15" s="16">
-        <v>-1.739130434782</v>
+        <v>14.851485148514</v>
       </c>
       <c r="I15" s="15">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="J15" s="15">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="K15" s="16">
-        <v>-6.490872210953</v>
+        <v>-3.326810176125</v>
       </c>
       <c r="L15" s="16">
-        <v>7.209302325581</v>
+        <v>8.333333333333</v>
       </c>
       <c r="M15" s="16">
-        <v>24.258760107816</v>
+        <v>24.120603015075</v>
       </c>
       <c r="N15" s="16">
-        <v>-51.061571125265</v>
+        <v>-50.451354062186</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="D16" s="15">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E16" s="16">
-        <v>-5.673758865248</v>
+        <v>2.898550724637</v>
       </c>
       <c r="F16" s="15">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="G16" s="15">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="H16" s="16">
-        <v>-5.509181969949</v>
+        <v>-3.891708967851</v>
       </c>
       <c r="I16" s="15">
-        <v>4693</v>
+        <v>4991</v>
       </c>
       <c r="J16" s="15">
-        <v>4817</v>
+        <v>5094</v>
       </c>
       <c r="K16" s="16">
-        <v>-2.574216317209</v>
+        <v>-2.021986650961</v>
       </c>
       <c r="L16" s="16">
-        <v>43.736600306278</v>
+        <v>42.234254773439</v>
       </c>
       <c r="M16" s="16">
-        <v>-12.947505101094</v>
+        <v>-13.184901722038</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.821351100093</v>
+        <v>-81.736012002781</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>524</v>
+        <v>446</v>
       </c>
       <c r="D17" s="15">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="E17" s="16">
-        <v>25.961538461538</v>
+        <v>-7.276507276507</v>
       </c>
       <c r="F17" s="15">
-        <v>2111</v>
+        <v>2072</v>
       </c>
       <c r="G17" s="15">
-        <v>1949</v>
+        <v>1973</v>
       </c>
       <c r="H17" s="16">
-        <v>8.311954848640</v>
+        <v>5.017739483020</v>
       </c>
       <c r="I17" s="15">
-        <v>7884</v>
+        <v>8352</v>
       </c>
       <c r="J17" s="15">
-        <v>7199</v>
+        <v>7682</v>
       </c>
       <c r="K17" s="16">
-        <v>9.515210445895</v>
+        <v>8.721687060661</v>
       </c>
       <c r="L17" s="16">
-        <v>34.127254168084</v>
+        <v>32.424290470905</v>
       </c>
       <c r="M17" s="16">
-        <v>62.255608149825</v>
+        <v>62.237762237762</v>
       </c>
       <c r="N17" s="16">
-        <v>-30.118773267151</v>
+        <v>-31.072047536518</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="D18" s="15">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="E18" s="16">
-        <v>1.465201465201</v>
+        <v>-14.765100671140</v>
       </c>
       <c r="F18" s="15">
-        <v>1046</v>
+        <v>1022</v>
       </c>
       <c r="G18" s="15">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="H18" s="16">
-        <v>-10.826939471440</v>
+        <v>-12.274678111588</v>
       </c>
       <c r="I18" s="15">
-        <v>4406</v>
+        <v>4673</v>
       </c>
       <c r="J18" s="15">
-        <v>4742</v>
+        <v>5041</v>
       </c>
       <c r="K18" s="16">
-        <v>-7.085617882749</v>
+        <v>-7.300138861337</v>
       </c>
       <c r="L18" s="16">
-        <v>24.322799097065</v>
+        <v>24.546908315565</v>
       </c>
       <c r="M18" s="16">
-        <v>-17.706387747478</v>
+        <v>-17.321302193913</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.493695058110</v>
+        <v>-85.523992441374</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>994</v>
+        <v>922</v>
       </c>
       <c r="D19" s="15">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="E19" s="16">
-        <v>7.227615965480</v>
+        <v>-4.554865424430</v>
       </c>
       <c r="F19" s="15">
-        <v>3768</v>
+        <v>3764</v>
       </c>
       <c r="G19" s="15">
-        <v>3644</v>
+        <v>3668</v>
       </c>
       <c r="H19" s="16">
-        <v>3.402854006586</v>
+        <v>2.617230098146</v>
       </c>
       <c r="I19" s="15">
-        <v>14771</v>
+        <v>15706</v>
       </c>
       <c r="J19" s="15">
-        <v>14962</v>
+        <v>15934</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.276567303836</v>
+        <v>-1.430902472699</v>
       </c>
       <c r="L19" s="16">
-        <v>53.656506813689</v>
+        <v>52.692980750534</v>
       </c>
       <c r="M19" s="16">
-        <v>38.111266947171</v>
+        <v>38.342288381925</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.118786579836</v>
+        <v>-39.326276751912</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D20" s="15">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="E20" s="16">
-        <v>46.190476190476</v>
+        <v>25.619834710743</v>
       </c>
       <c r="F20" s="15">
-        <v>1180</v>
+        <v>1231</v>
       </c>
       <c r="G20" s="15">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="H20" s="16">
-        <v>36.416184971098</v>
+        <v>40.364880273660</v>
       </c>
       <c r="I20" s="15">
-        <v>4492</v>
+        <v>4793</v>
       </c>
       <c r="J20" s="15">
-        <v>3966</v>
+        <v>4208</v>
       </c>
       <c r="K20" s="16">
-        <v>13.262733232476</v>
+        <v>13.902091254752</v>
       </c>
       <c r="L20" s="16">
-        <v>90.500424088210</v>
+        <v>88.108320251177</v>
       </c>
       <c r="M20" s="16">
-        <v>51.245791245791</v>
+        <v>50.392218387198</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.209567198177</v>
+        <v>-87.149100463844</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2403</v>
+        <v>2248</v>
       </c>
       <c r="D21" s="18">
-        <v>2139</v>
+        <v>2292</v>
       </c>
       <c r="E21" s="19">
-        <v>12.342215988779</v>
+        <v>-1.919720767888</v>
       </c>
       <c r="F21" s="18">
-        <v>9382</v>
+        <v>9370</v>
       </c>
       <c r="G21" s="18">
-        <v>8972</v>
+        <v>8999</v>
       </c>
       <c r="H21" s="19">
-        <v>4.569772625947</v>
+        <v>4.122680297810</v>
       </c>
       <c r="I21" s="18">
-        <v>36827</v>
+        <v>39134</v>
       </c>
       <c r="J21" s="18">
-        <v>36304</v>
+        <v>38606</v>
       </c>
       <c r="K21" s="19">
-        <v>1.440612604671</v>
+        <v>1.367663057555</v>
       </c>
       <c r="L21" s="19">
-        <v>46.005629782341</v>
+        <v>44.897808056872</v>
       </c>
       <c r="M21" s="19">
-        <v>23.642773207990</v>
+        <v>23.693027372147</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.314067611777</v>
+        <v>-71.335022926707</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D22" s="15">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E22" s="16">
-        <v>0</v>
+        <v>-27.659574468085</v>
       </c>
       <c r="F22" s="15">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="G22" s="15">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H22" s="16">
-        <v>8.484848484848</v>
+        <v>-7.647058823529</v>
       </c>
       <c r="I22" s="15">
-        <v>663</v>
+        <v>696</v>
       </c>
       <c r="J22" s="15">
-        <v>710</v>
+        <v>757</v>
       </c>
       <c r="K22" s="16">
-        <v>-6.619718309859</v>
+        <v>-8.058124174372</v>
       </c>
       <c r="L22" s="16">
-        <v>56.367924528301</v>
+        <v>53.982300884955</v>
       </c>
       <c r="M22" s="16">
-        <v>1.843317972350</v>
+        <v>3.111111111111</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D23" s="15">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E23" s="16">
-        <v>4.237288135593</v>
+        <v>-8.181818181818</v>
       </c>
       <c r="F23" s="15">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="G23" s="15">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H23" s="16">
-        <v>17.096018735363</v>
+        <v>8.450704225352</v>
       </c>
       <c r="I23" s="15">
-        <v>1872</v>
+        <v>1972</v>
       </c>
       <c r="J23" s="15">
-        <v>1701</v>
+        <v>1811</v>
       </c>
       <c r="K23" s="16">
-        <v>10.052910052910</v>
+        <v>8.890115958034</v>
       </c>
       <c r="L23" s="16">
-        <v>22.673656618610</v>
+        <v>20.611620795107</v>
       </c>
       <c r="M23" s="16">
-        <v>69.105691056910</v>
+        <v>66.413502109704</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2120</v>
+        <v>2133</v>
       </c>
       <c r="D24" s="15">
-        <v>2094</v>
+        <v>2242</v>
       </c>
       <c r="E24" s="16">
-        <v>1.241642788920</v>
+        <v>-4.861730597680</v>
       </c>
       <c r="F24" s="15">
-        <v>8127</v>
+        <v>8203</v>
       </c>
       <c r="G24" s="15">
-        <v>8673</v>
+        <v>8767</v>
       </c>
       <c r="H24" s="16">
-        <v>-6.295399515738</v>
+        <v>-6.433215467092</v>
       </c>
       <c r="I24" s="15">
-        <v>32601</v>
+        <v>34738</v>
       </c>
       <c r="J24" s="15">
-        <v>32603</v>
+        <v>34845</v>
       </c>
       <c r="K24" s="16">
-        <v>-0.006134404809</v>
+        <v>-0.307074185679</v>
       </c>
       <c r="L24" s="16">
-        <v>41.798964812317</v>
+        <v>42.130027412953</v>
       </c>
       <c r="M24" s="16">
-        <v>42.698940733607</v>
+        <v>42.066088663504</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="D25" s="15">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="E25" s="16">
-        <v>11.605937921727</v>
+        <v>-0.119189511323</v>
       </c>
       <c r="F25" s="15">
-        <v>3323</v>
+        <v>3315</v>
       </c>
       <c r="G25" s="15">
-        <v>3150</v>
+        <v>3210</v>
       </c>
       <c r="H25" s="16">
-        <v>5.492063492063</v>
+        <v>3.271028037383</v>
       </c>
       <c r="I25" s="15">
-        <v>12607</v>
+        <v>13458</v>
       </c>
       <c r="J25" s="15">
-        <v>11947</v>
+        <v>12786</v>
       </c>
       <c r="K25" s="16">
-        <v>5.524399430819</v>
+        <v>5.255748474894</v>
       </c>
       <c r="L25" s="16">
-        <v>36.958174904943</v>
+        <v>36.643314042034</v>
       </c>
       <c r="M25" s="16">
-        <v>-4.143856447688</v>
+        <v>-4.172600398746</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D26" s="15">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E26" s="16">
-        <v>7.317073170731</v>
+        <v>36.842105263157</v>
       </c>
       <c r="F26" s="15">
+        <v>183</v>
+      </c>
+      <c r="G26" s="15">
         <v>176</v>
       </c>
-      <c r="G26" s="15">
-        <v>183</v>
-      </c>
       <c r="H26" s="16">
-        <v>-3.825136612021</v>
+        <v>3.977272727272</v>
       </c>
       <c r="I26" s="15">
-        <v>735</v>
+        <v>787</v>
       </c>
       <c r="J26" s="15">
-        <v>795</v>
+        <v>833</v>
       </c>
       <c r="K26" s="16">
-        <v>-7.547169811320</v>
+        <v>-5.522208883553</v>
       </c>
       <c r="L26" s="16">
-        <v>1.800554016620</v>
+        <v>2.473958333333</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D27" s="15">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="E27" s="16">
-        <v>60.256410256410</v>
+        <v>-5.405405405405</v>
       </c>
       <c r="F27" s="15">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G27" s="15">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H27" s="16">
-        <v>12.868632707774</v>
+        <v>8.900523560209</v>
       </c>
       <c r="I27" s="15">
-        <v>1542</v>
+        <v>1635</v>
       </c>
       <c r="J27" s="15">
-        <v>1430</v>
+        <v>1541</v>
       </c>
       <c r="K27" s="16">
-        <v>7.832167832167</v>
+        <v>6.099935107073</v>
       </c>
       <c r="L27" s="16">
-        <v>20.280811232449</v>
+        <v>18.135838150289</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1400,37 +1400,37 @@
         <v>13</v>
       </c>
       <c r="D28" s="15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16">
-        <v>-50</v>
+        <v>-48</v>
       </c>
       <c r="F28" s="15">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G28" s="15">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H28" s="16">
-        <v>-34.920634920634</v>
+        <v>-44.696969696969</v>
       </c>
       <c r="I28" s="15">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="J28" s="15">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="K28" s="16">
-        <v>-22.935779816513</v>
+        <v>-24.295010845987</v>
       </c>
       <c r="L28" s="16">
-        <v>-14.066496163682</v>
+        <v>-21.218961625282</v>
       </c>
       <c r="M28" s="16">
-        <v>-24.832214765100</v>
+        <v>-27.291666666666</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.844031193761</v>
+        <v>-80.349099099099</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16">
-        <v>-42.857142857142</v>
+        <v>-40.909090909090</v>
       </c>
       <c r="F29" s="15">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G29" s="15">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H29" s="16">
-        <v>-27.083333333333</v>
+        <v>-35.643564356435</v>
       </c>
       <c r="I29" s="15">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="J29" s="15">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="K29" s="16">
-        <v>-24.462365591397</v>
+        <v>-25.380710659898</v>
       </c>
       <c r="L29" s="16">
-        <v>-20.621468926553</v>
+        <v>-26.5</v>
       </c>
       <c r="M29" s="16">
-        <v>-23.224043715847</v>
+        <v>-25.569620253164</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.525312294543</v>
+        <v>-81.851851851851</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D30" s="15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16">
-        <v>-50</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F30" s="15">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G30" s="15">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H30" s="16">
-        <v>16.129032258064</v>
+        <v>2.631578947368</v>
       </c>
       <c r="I30" s="15">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="J30" s="15">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="K30" s="16">
-        <v>-36.744186046511</v>
+        <v>-32.608695652173</v>
       </c>
       <c r="L30" s="16">
-        <v>4.615384615384</v>
+        <v>1.307189542483</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">17</t>
+      <t xml:space="preserve">18</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/24/2023</t>
+      <t xml:space="preserve">5/1/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/30/2023</t>
+      <t xml:space="preserve">5/7/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" s="15">
         <v>11</v>
       </c>
       <c r="E14" s="16">
-        <v>-72.727272727272</v>
+        <v>-45.454545454545</v>
       </c>
       <c r="F14" s="15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="15">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H14" s="16">
-        <v>-12.121212121212</v>
+        <v>-25</v>
       </c>
       <c r="I14" s="15">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J14" s="15">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K14" s="16">
-        <v>-8.088235294117</v>
+        <v>-10.204081632653</v>
       </c>
       <c r="L14" s="16">
-        <v>-16.666666666666</v>
+        <v>-15.923566878980</v>
       </c>
       <c r="M14" s="16">
-        <v>-17.218543046357</v>
+        <v>-16.455696202531</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.740680713128</v>
+        <v>-79.969650986342</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D15" s="15">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E15" s="16">
-        <v>94.444444444444</v>
+        <v>-37.037037037037</v>
       </c>
       <c r="F15" s="15">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G15" s="15">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H15" s="16">
-        <v>14.851485148514</v>
+        <v>2.061855670103</v>
       </c>
       <c r="I15" s="15">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="J15" s="15">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="K15" s="16">
-        <v>-3.326810176125</v>
+        <v>-4.646840148698</v>
       </c>
       <c r="L15" s="16">
-        <v>8.333333333333</v>
+        <v>6.875</v>
       </c>
       <c r="M15" s="16">
-        <v>24.120603015075</v>
+        <v>20.140515222482</v>
       </c>
       <c r="N15" s="16">
-        <v>-50.451354062186</v>
+        <v>-52.011225444340</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="D16" s="15">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="E16" s="16">
-        <v>2.898550724637</v>
+        <v>-4.216867469879</v>
       </c>
       <c r="F16" s="15">
-        <v>1136</v>
+        <v>1209</v>
       </c>
       <c r="G16" s="15">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="H16" s="16">
-        <v>-3.891708967851</v>
+        <v>2.893617021276</v>
       </c>
       <c r="I16" s="15">
-        <v>4991</v>
+        <v>5319</v>
       </c>
       <c r="J16" s="15">
-        <v>5094</v>
+        <v>5426</v>
       </c>
       <c r="K16" s="16">
-        <v>-2.021986650961</v>
+        <v>-1.971986730556</v>
       </c>
       <c r="L16" s="16">
-        <v>42.234254773439</v>
+        <v>42.333422531442</v>
       </c>
       <c r="M16" s="16">
-        <v>-13.184901722038</v>
+        <v>-13.059823471722</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.736012002781</v>
+        <v>-81.625038864131</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="D17" s="15">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="E17" s="16">
-        <v>-7.276507276507</v>
+        <v>-0.982318271119</v>
       </c>
       <c r="F17" s="15">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="G17" s="15">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="H17" s="16">
-        <v>5.017739483020</v>
+        <v>5.065856129685</v>
       </c>
       <c r="I17" s="15">
-        <v>8352</v>
+        <v>8879</v>
       </c>
       <c r="J17" s="15">
-        <v>7682</v>
+        <v>8191</v>
       </c>
       <c r="K17" s="16">
-        <v>8.721687060661</v>
+        <v>8.399462825051</v>
       </c>
       <c r="L17" s="16">
-        <v>32.424290470905</v>
+        <v>31.951255758656</v>
       </c>
       <c r="M17" s="16">
-        <v>62.237762237762</v>
+        <v>61.407016906017</v>
       </c>
       <c r="N17" s="16">
-        <v>-31.072047536518</v>
+        <v>-31.726259131103</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D18" s="15">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E18" s="16">
-        <v>-14.765100671140</v>
+        <v>-19.063545150501</v>
       </c>
       <c r="F18" s="15">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="G18" s="15">
-        <v>1165</v>
+        <v>1133</v>
       </c>
       <c r="H18" s="16">
-        <v>-12.274678111588</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="I18" s="15">
-        <v>4673</v>
+        <v>4929</v>
       </c>
       <c r="J18" s="15">
-        <v>5041</v>
+        <v>5340</v>
       </c>
       <c r="K18" s="16">
-        <v>-7.300138861337</v>
+        <v>-7.696629213483</v>
       </c>
       <c r="L18" s="16">
-        <v>24.546908315565</v>
+        <v>24.438273163342</v>
       </c>
       <c r="M18" s="16">
-        <v>-17.321302193913</v>
+        <v>-18.013972055888</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.523992441374</v>
+        <v>-85.550962975991</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>922</v>
+        <v>945</v>
       </c>
       <c r="D19" s="15">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="E19" s="16">
-        <v>-4.554865424430</v>
+        <v>-2.577319587628</v>
       </c>
       <c r="F19" s="15">
-        <v>3764</v>
+        <v>3811</v>
       </c>
       <c r="G19" s="15">
-        <v>3668</v>
+        <v>3736</v>
       </c>
       <c r="H19" s="16">
-        <v>2.617230098146</v>
+        <v>2.007494646680</v>
       </c>
       <c r="I19" s="15">
-        <v>15706</v>
+        <v>16664</v>
       </c>
       <c r="J19" s="15">
-        <v>15934</v>
+        <v>16907</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.430902472699</v>
+        <v>-1.437274501685</v>
       </c>
       <c r="L19" s="16">
-        <v>52.692980750534</v>
+        <v>52.419281075642</v>
       </c>
       <c r="M19" s="16">
-        <v>38.342288381925</v>
+        <v>38.004140786749</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.326276751912</v>
+        <v>-39.491648511256</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="D20" s="15">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E20" s="16">
-        <v>25.619834710743</v>
+        <v>46.846846846846</v>
       </c>
       <c r="F20" s="15">
-        <v>1231</v>
+        <v>1274</v>
       </c>
       <c r="G20" s="15">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="H20" s="16">
-        <v>40.364880273660</v>
+        <v>47.453703703703</v>
       </c>
       <c r="I20" s="15">
-        <v>4793</v>
+        <v>5121</v>
       </c>
       <c r="J20" s="15">
-        <v>4208</v>
+        <v>4430</v>
       </c>
       <c r="K20" s="16">
-        <v>13.902091254752</v>
+        <v>15.598194130925</v>
       </c>
       <c r="L20" s="16">
-        <v>88.108320251177</v>
+        <v>86.897810218978</v>
       </c>
       <c r="M20" s="16">
-        <v>50.392218387198</v>
+        <v>51.106521097668</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.149100463844</v>
+        <v>-86.999568429336</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2248</v>
+        <v>2358</v>
       </c>
       <c r="D21" s="18">
-        <v>2292</v>
+        <v>2370</v>
       </c>
       <c r="E21" s="19">
-        <v>-1.919720767888</v>
+        <v>-0.506329113924</v>
       </c>
       <c r="F21" s="18">
-        <v>9370</v>
+        <v>9524</v>
       </c>
       <c r="G21" s="18">
-        <v>8999</v>
+        <v>9015</v>
       </c>
       <c r="H21" s="19">
-        <v>4.122680297810</v>
+        <v>5.646145313366</v>
       </c>
       <c r="I21" s="18">
-        <v>39134</v>
+        <v>41557</v>
       </c>
       <c r="J21" s="18">
-        <v>38606</v>
+        <v>40979</v>
       </c>
       <c r="K21" s="19">
-        <v>1.367663057555</v>
+        <v>1.410478537787</v>
       </c>
       <c r="L21" s="19">
-        <v>44.897808056872</v>
+        <v>44.611476493718</v>
       </c>
       <c r="M21" s="19">
-        <v>23.693027372147</v>
+        <v>23.387767220902</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.335022926707</v>
+        <v>-71.285343135900</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="15">
         <v>47</v>
       </c>
       <c r="E22" s="16">
-        <v>-27.659574468085</v>
+        <v>-25.531914893617</v>
       </c>
       <c r="F22" s="15">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G22" s="15">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H22" s="16">
-        <v>-7.647058823529</v>
+        <v>-16.939890710382</v>
       </c>
       <c r="I22" s="15">
-        <v>696</v>
+        <v>734</v>
       </c>
       <c r="J22" s="15">
-        <v>757</v>
+        <v>804</v>
       </c>
       <c r="K22" s="16">
-        <v>-8.058124174372</v>
+        <v>-8.706467661691</v>
       </c>
       <c r="L22" s="16">
-        <v>53.982300884955</v>
+        <v>51.966873706004</v>
       </c>
       <c r="M22" s="16">
-        <v>3.111111111111</v>
+        <v>1.521438450899</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D23" s="15">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E23" s="16">
-        <v>-8.181818181818</v>
+        <v>0</v>
       </c>
       <c r="F23" s="15">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G23" s="15">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="H23" s="16">
-        <v>8.450704225352</v>
+        <v>7.126436781609</v>
       </c>
       <c r="I23" s="15">
-        <v>1972</v>
+        <v>2095</v>
       </c>
       <c r="J23" s="15">
-        <v>1811</v>
+        <v>1925</v>
       </c>
       <c r="K23" s="16">
-        <v>8.890115958034</v>
+        <v>8.831168831168</v>
       </c>
       <c r="L23" s="16">
-        <v>20.611620795107</v>
+        <v>21.098265895953</v>
       </c>
       <c r="M23" s="16">
-        <v>66.413502109704</v>
+        <v>63.544106167057</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2133</v>
+        <v>2020</v>
       </c>
       <c r="D24" s="15">
-        <v>2242</v>
+        <v>2160</v>
       </c>
       <c r="E24" s="16">
-        <v>-4.861730597680</v>
+        <v>-6.481481481481</v>
       </c>
       <c r="F24" s="15">
-        <v>8203</v>
+        <v>8315</v>
       </c>
       <c r="G24" s="15">
-        <v>8767</v>
+        <v>8694</v>
       </c>
       <c r="H24" s="16">
-        <v>-6.433215467092</v>
+        <v>-4.359328272371</v>
       </c>
       <c r="I24" s="15">
-        <v>34738</v>
+        <v>36760</v>
       </c>
       <c r="J24" s="15">
-        <v>34845</v>
+        <v>37005</v>
       </c>
       <c r="K24" s="16">
-        <v>-0.307074185679</v>
+        <v>-0.662072692879</v>
       </c>
       <c r="L24" s="16">
-        <v>42.130027412953</v>
+        <v>41.673411184337</v>
       </c>
       <c r="M24" s="16">
-        <v>42.066088663504</v>
+        <v>41.194545803725</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>838</v>
+        <v>896</v>
       </c>
       <c r="D25" s="15">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E25" s="16">
-        <v>-0.119189511323</v>
+        <v>7.821901323706</v>
       </c>
       <c r="F25" s="15">
-        <v>3315</v>
+        <v>3376</v>
       </c>
       <c r="G25" s="15">
-        <v>3210</v>
+        <v>3240</v>
       </c>
       <c r="H25" s="16">
-        <v>3.271028037383</v>
+        <v>4.197530864197</v>
       </c>
       <c r="I25" s="15">
-        <v>13458</v>
+        <v>14353</v>
       </c>
       <c r="J25" s="15">
-        <v>12786</v>
+        <v>13617</v>
       </c>
       <c r="K25" s="16">
-        <v>5.255748474894</v>
+        <v>5.405008445325</v>
       </c>
       <c r="L25" s="16">
-        <v>36.643314042034</v>
+        <v>36.137721711087</v>
       </c>
       <c r="M25" s="16">
-        <v>-4.172600398746</v>
+        <v>-4.839885964330</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D26" s="15">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E26" s="16">
-        <v>36.842105263157</v>
+        <v>-10.638297872340</v>
       </c>
       <c r="F26" s="15">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G26" s="15">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H26" s="16">
-        <v>3.977272727272</v>
+        <v>-1.744186046511</v>
       </c>
       <c r="I26" s="15">
-        <v>787</v>
+        <v>832</v>
       </c>
       <c r="J26" s="15">
-        <v>833</v>
+        <v>880</v>
       </c>
       <c r="K26" s="16">
-        <v>-5.522208883553</v>
+        <v>-5.454545454545</v>
       </c>
       <c r="L26" s="16">
-        <v>2.473958333333</v>
+        <v>2.843016069221</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D27" s="15">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E27" s="16">
-        <v>-5.405405405405</v>
+        <v>22.988505747126</v>
       </c>
       <c r="F27" s="15">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="G27" s="15">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H27" s="16">
-        <v>8.900523560209</v>
+        <v>13.297872340425</v>
       </c>
       <c r="I27" s="15">
-        <v>1635</v>
+        <v>1735</v>
       </c>
       <c r="J27" s="15">
-        <v>1541</v>
+        <v>1628</v>
       </c>
       <c r="K27" s="16">
-        <v>6.099935107073</v>
+        <v>6.572481572481</v>
       </c>
       <c r="L27" s="16">
-        <v>18.135838150289</v>
+        <v>17.946974847042</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D28" s="15">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E28" s="16">
-        <v>-48</v>
+        <v>-18.75</v>
       </c>
       <c r="F28" s="15">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G28" s="15">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H28" s="16">
-        <v>-44.696969696969</v>
+        <v>-38.805970149253</v>
       </c>
       <c r="I28" s="15">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="J28" s="15">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="K28" s="16">
-        <v>-24.295010845987</v>
+        <v>-24.137931034482</v>
       </c>
       <c r="L28" s="16">
-        <v>-21.218961625282</v>
+        <v>-23.360655737704</v>
       </c>
       <c r="M28" s="16">
-        <v>-27.291666666666</v>
+        <v>-25.940594059405</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.349099099099</v>
+        <v>-80.315789473684</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D29" s="15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16">
-        <v>-40.909090909090</v>
+        <v>-16</v>
       </c>
       <c r="F29" s="15">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G29" s="15">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29" s="16">
-        <v>-35.643564356435</v>
+        <v>-31.372549019607</v>
       </c>
       <c r="I29" s="15">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="J29" s="15">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="K29" s="16">
-        <v>-25.380710659898</v>
+        <v>-25.059665871121</v>
       </c>
       <c r="L29" s="16">
-        <v>-26.5</v>
+        <v>-28.310502283105</v>
       </c>
       <c r="M29" s="16">
-        <v>-25.569620253164</v>
+        <v>-24.337349397590</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.851851851851</v>
+        <v>-81.839213418160</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16">
-        <v>-33.333333333333</v>
+        <v>-35.714285714285</v>
       </c>
       <c r="F30" s="15">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G30" s="15">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H30" s="16">
-        <v>2.631578947368</v>
+        <v>-2.272727272727</v>
       </c>
       <c r="I30" s="15">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J30" s="15">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="K30" s="16">
-        <v>-32.608695652173</v>
+        <v>-30.327868852459</v>
       </c>
       <c r="L30" s="16">
-        <v>1.307189542483</v>
+        <v>2.409638554216</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">18</t>
+      <t xml:space="preserve">19</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/1/2023</t>
+      <t xml:space="preserve">5/8/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/7/2023</t>
+      <t xml:space="preserve">5/14/2023</t>
     </r>
   </si>
   <si>
@@ -826,37 +826,37 @@
         <v>6</v>
       </c>
       <c r="D14" s="15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="16">
-        <v>-45.454545454545</v>
+        <v>-25</v>
       </c>
       <c r="F14" s="15">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G14" s="15">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="16">
-        <v>-25</v>
+        <v>-32.352941176470</v>
       </c>
       <c r="I14" s="15">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J14" s="15">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K14" s="16">
-        <v>-10.204081632653</v>
+        <v>-10.967741935483</v>
       </c>
       <c r="L14" s="16">
-        <v>-15.923566878980</v>
+        <v>-17.857142857142</v>
       </c>
       <c r="M14" s="16">
-        <v>-16.455696202531</v>
+        <v>-14.814814814814</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.969650986342</v>
+        <v>-80.086580086580</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D15" s="15">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E15" s="16">
-        <v>-37.037037037037</v>
+        <v>-3.030303030303</v>
       </c>
       <c r="F15" s="15">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G15" s="15">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H15" s="16">
-        <v>2.061855670103</v>
+        <v>5.714285714285</v>
       </c>
       <c r="I15" s="15">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="J15" s="15">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="K15" s="16">
-        <v>-4.646840148698</v>
+        <v>-5.078809106830</v>
       </c>
       <c r="L15" s="16">
-        <v>6.875</v>
+        <v>6.692913385826</v>
       </c>
       <c r="M15" s="16">
-        <v>20.140515222482</v>
+        <v>19.646799116997</v>
       </c>
       <c r="N15" s="16">
-        <v>-52.011225444340</v>
+        <v>-52.951388888888</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D16" s="15">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E16" s="16">
-        <v>-4.216867469879</v>
+        <v>-6.853582554517</v>
       </c>
       <c r="F16" s="15">
-        <v>1209</v>
+        <v>1173</v>
       </c>
       <c r="G16" s="15">
-        <v>1175</v>
+        <v>1212</v>
       </c>
       <c r="H16" s="16">
-        <v>2.893617021276</v>
+        <v>-3.217821782178</v>
       </c>
       <c r="I16" s="15">
-        <v>5319</v>
+        <v>5612</v>
       </c>
       <c r="J16" s="15">
-        <v>5426</v>
+        <v>5748</v>
       </c>
       <c r="K16" s="16">
-        <v>-1.971986730556</v>
+        <v>-2.366040361865</v>
       </c>
       <c r="L16" s="16">
-        <v>42.333422531442</v>
+        <v>39.880358923230</v>
       </c>
       <c r="M16" s="16">
-        <v>-13.059823471722</v>
+        <v>-13.005735544876</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.625038864131</v>
+        <v>-81.613864954296</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="D17" s="15">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E17" s="16">
-        <v>-0.982318271119</v>
+        <v>1.747572815533</v>
       </c>
       <c r="F17" s="15">
-        <v>2074</v>
+        <v>2046</v>
       </c>
       <c r="G17" s="15">
-        <v>1974</v>
+        <v>1922</v>
       </c>
       <c r="H17" s="16">
-        <v>5.065856129685</v>
+        <v>6.451612903225</v>
       </c>
       <c r="I17" s="15">
-        <v>8879</v>
+        <v>9433</v>
       </c>
       <c r="J17" s="15">
-        <v>8191</v>
+        <v>8707</v>
       </c>
       <c r="K17" s="16">
-        <v>8.399462825051</v>
+        <v>8.338118755024</v>
       </c>
       <c r="L17" s="16">
-        <v>31.951255758656</v>
+        <v>31.653872993719</v>
       </c>
       <c r="M17" s="16">
-        <v>61.407016906017</v>
+        <v>61.856554564173</v>
       </c>
       <c r="N17" s="16">
-        <v>-31.726259131103</v>
+        <v>-32.087832973362</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D18" s="15">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E18" s="16">
-        <v>-19.063545150501</v>
+        <v>-18.481848184818</v>
       </c>
       <c r="F18" s="15">
-        <v>1030</v>
+        <v>1043</v>
       </c>
       <c r="G18" s="15">
-        <v>1133</v>
+        <v>1173</v>
       </c>
       <c r="H18" s="16">
-        <v>-9.090909090909</v>
+        <v>-11.082693947144</v>
       </c>
       <c r="I18" s="15">
-        <v>4929</v>
+        <v>5189</v>
       </c>
       <c r="J18" s="15">
-        <v>5340</v>
+        <v>5643</v>
       </c>
       <c r="K18" s="16">
-        <v>-7.696629213483</v>
+        <v>-8.045365940102</v>
       </c>
       <c r="L18" s="16">
-        <v>24.438273163342</v>
+        <v>23.960821786908</v>
       </c>
       <c r="M18" s="16">
-        <v>-18.013972055888</v>
+        <v>-18.373446594305</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.550962975991</v>
+        <v>-85.575693556457</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="D19" s="15">
-        <v>970</v>
+        <v>917</v>
       </c>
       <c r="E19" s="16">
-        <v>-2.577319587628</v>
+        <v>0.981461286804</v>
       </c>
       <c r="F19" s="15">
-        <v>3811</v>
+        <v>3788</v>
       </c>
       <c r="G19" s="15">
-        <v>3736</v>
+        <v>3781</v>
       </c>
       <c r="H19" s="16">
-        <v>2.007494646680</v>
+        <v>0.185136207352</v>
       </c>
       <c r="I19" s="15">
-        <v>16664</v>
+        <v>17589</v>
       </c>
       <c r="J19" s="15">
-        <v>16907</v>
+        <v>17824</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.437274501685</v>
+        <v>-1.318447037701</v>
       </c>
       <c r="L19" s="16">
-        <v>52.419281075642</v>
+        <v>52.088197146562</v>
       </c>
       <c r="M19" s="16">
-        <v>38.004140786749</v>
+        <v>37.435536802625</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.491648511256</v>
+        <v>-39.792565208461</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D20" s="15">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E20" s="16">
-        <v>46.846846846846</v>
+        <v>31.818181818181</v>
       </c>
       <c r="F20" s="15">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="G20" s="15">
-        <v>864</v>
+        <v>916</v>
       </c>
       <c r="H20" s="16">
-        <v>47.453703703703</v>
+        <v>37.882096069869</v>
       </c>
       <c r="I20" s="15">
-        <v>5121</v>
+        <v>5444</v>
       </c>
       <c r="J20" s="15">
-        <v>4430</v>
+        <v>4672</v>
       </c>
       <c r="K20" s="16">
-        <v>15.598194130925</v>
+        <v>16.523972602739</v>
       </c>
       <c r="L20" s="16">
-        <v>86.897810218978</v>
+        <v>84.167794316644</v>
       </c>
       <c r="M20" s="16">
-        <v>51.106521097668</v>
+        <v>52.664049355019</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.999568429336</v>
+        <v>-86.854051965613</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2358</v>
+        <v>2353</v>
       </c>
       <c r="D21" s="18">
-        <v>2370</v>
+        <v>2339</v>
       </c>
       <c r="E21" s="19">
-        <v>-0.506329113924</v>
+        <v>0.598546387345</v>
       </c>
       <c r="F21" s="18">
-        <v>9524</v>
+        <v>9447</v>
       </c>
       <c r="G21" s="18">
-        <v>9015</v>
+        <v>9143</v>
       </c>
       <c r="H21" s="19">
-        <v>5.646145313366</v>
+        <v>3.324948047686</v>
       </c>
       <c r="I21" s="18">
-        <v>41557</v>
+        <v>43947</v>
       </c>
       <c r="J21" s="18">
-        <v>40979</v>
+        <v>43320</v>
       </c>
       <c r="K21" s="19">
-        <v>1.410478537787</v>
+        <v>1.447368421052</v>
       </c>
       <c r="L21" s="19">
-        <v>44.611476493718</v>
+        <v>43.805628272251</v>
       </c>
       <c r="M21" s="19">
-        <v>23.387767220902</v>
+        <v>23.394637091113</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.285343135900</v>
+        <v>-71.249787384369</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D22" s="15">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" s="16">
-        <v>-25.531914893617</v>
+        <v>6.122448979591</v>
       </c>
       <c r="F22" s="15">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G22" s="15">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H22" s="16">
-        <v>-16.939890710382</v>
+        <v>-10.752688172043</v>
       </c>
       <c r="I22" s="15">
-        <v>734</v>
+        <v>789</v>
       </c>
       <c r="J22" s="15">
-        <v>804</v>
+        <v>853</v>
       </c>
       <c r="K22" s="16">
-        <v>-8.706467661691</v>
+        <v>-7.502930832356</v>
       </c>
       <c r="L22" s="16">
-        <v>51.966873706004</v>
+        <v>52.906976744186</v>
       </c>
       <c r="M22" s="16">
-        <v>1.521438450899</v>
+        <v>4.365079365079</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D23" s="15">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E23" s="16">
-        <v>0</v>
+        <v>-6.153846153846</v>
       </c>
       <c r="F23" s="15">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G23" s="15">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="H23" s="16">
-        <v>7.126436781609</v>
+        <v>-0.847457627118</v>
       </c>
       <c r="I23" s="15">
-        <v>2095</v>
+        <v>2222</v>
       </c>
       <c r="J23" s="15">
-        <v>1925</v>
+        <v>2055</v>
       </c>
       <c r="K23" s="16">
-        <v>8.831168831168</v>
+        <v>8.126520681265</v>
       </c>
       <c r="L23" s="16">
-        <v>21.098265895953</v>
+        <v>20.108108108108</v>
       </c>
       <c r="M23" s="16">
-        <v>63.544106167057</v>
+        <v>63.022743947175</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2020</v>
+        <v>1964</v>
       </c>
       <c r="D24" s="15">
-        <v>2160</v>
+        <v>2200</v>
       </c>
       <c r="E24" s="16">
-        <v>-6.481481481481</v>
+        <v>-10.727272727272</v>
       </c>
       <c r="F24" s="15">
-        <v>8315</v>
+        <v>8274</v>
       </c>
       <c r="G24" s="15">
-        <v>8694</v>
+        <v>8695</v>
       </c>
       <c r="H24" s="16">
-        <v>-4.359328272371</v>
+        <v>-4.841863139735</v>
       </c>
       <c r="I24" s="15">
-        <v>36760</v>
+        <v>38737</v>
       </c>
       <c r="J24" s="15">
-        <v>37005</v>
+        <v>39204</v>
       </c>
       <c r="K24" s="16">
-        <v>-0.662072692879</v>
+        <v>-1.191204979083</v>
       </c>
       <c r="L24" s="16">
-        <v>41.673411184337</v>
+        <v>40.841332169866</v>
       </c>
       <c r="M24" s="16">
-        <v>41.194545803725</v>
+        <v>40.361620407275</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="D25" s="15">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E25" s="16">
-        <v>7.821901323706</v>
+        <v>12</v>
       </c>
       <c r="F25" s="15">
-        <v>3376</v>
+        <v>3540</v>
       </c>
       <c r="G25" s="15">
-        <v>3240</v>
+        <v>3236</v>
       </c>
       <c r="H25" s="16">
-        <v>4.197530864197</v>
+        <v>9.394313967861</v>
       </c>
       <c r="I25" s="15">
-        <v>14353</v>
+        <v>15307</v>
       </c>
       <c r="J25" s="15">
-        <v>13617</v>
+        <v>14442</v>
       </c>
       <c r="K25" s="16">
-        <v>5.405008445325</v>
+        <v>5.989475141947</v>
       </c>
       <c r="L25" s="16">
-        <v>36.137721711087</v>
+        <v>36.486847971466</v>
       </c>
       <c r="M25" s="16">
-        <v>-4.839885964330</v>
+        <v>-4.211514392991</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D26" s="15">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E26" s="16">
-        <v>-10.638297872340</v>
+        <v>-21.311475409836</v>
       </c>
       <c r="F26" s="15">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G26" s="15">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="H26" s="16">
-        <v>-1.744186046511</v>
+        <v>-1.604278074866</v>
       </c>
       <c r="I26" s="15">
-        <v>832</v>
+        <v>878</v>
       </c>
       <c r="J26" s="15">
-        <v>880</v>
+        <v>941</v>
       </c>
       <c r="K26" s="16">
-        <v>-5.454545454545</v>
+        <v>-6.695005313496</v>
       </c>
       <c r="L26" s="16">
-        <v>2.843016069221</v>
+        <v>2.810304449648</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D27" s="15">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E27" s="16">
-        <v>22.988505747126</v>
+        <v>22.123893805309</v>
       </c>
       <c r="F27" s="15">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="G27" s="15">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="H27" s="16">
-        <v>13.297872340425</v>
+        <v>19.023136246786</v>
       </c>
       <c r="I27" s="15">
-        <v>1735</v>
+        <v>1867</v>
       </c>
       <c r="J27" s="15">
-        <v>1628</v>
+        <v>1741</v>
       </c>
       <c r="K27" s="16">
-        <v>6.572481572481</v>
+        <v>7.237219988512</v>
       </c>
       <c r="L27" s="16">
-        <v>17.946974847042</v>
+        <v>19.297124600639</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
+        <v>22</v>
+      </c>
+      <c r="D28" s="15">
         <v>26</v>
       </c>
-      <c r="D28" s="15">
-        <v>32</v>
-      </c>
       <c r="E28" s="16">
-        <v>-18.75</v>
+        <v>-15.384615384615</v>
       </c>
       <c r="F28" s="15">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G28" s="15">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="H28" s="16">
-        <v>-38.805970149253</v>
+        <v>-33.027522935779</v>
       </c>
       <c r="I28" s="15">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="J28" s="15">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="K28" s="16">
-        <v>-24.137931034482</v>
+        <v>-23.699421965317</v>
       </c>
       <c r="L28" s="16">
-        <v>-23.360655737704</v>
+        <v>-25.423728813559</v>
       </c>
       <c r="M28" s="16">
-        <v>-25.940594059405</v>
+        <v>-24.714828897338</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.315789473684</v>
+        <v>-80.530973451327</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="15">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16">
-        <v>-16</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="F29" s="15">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G29" s="15">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H29" s="16">
-        <v>-31.372549019607</v>
+        <v>-27.777777777777</v>
       </c>
       <c r="I29" s="15">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="J29" s="15">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="K29" s="16">
-        <v>-25.059665871121</v>
+        <v>-24.263038548752</v>
       </c>
       <c r="L29" s="16">
-        <v>-28.310502283105</v>
+        <v>-29.684210526315</v>
       </c>
       <c r="M29" s="16">
-        <v>-24.337349397590</v>
+        <v>-22.144522144522</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.839213418160</v>
+        <v>-81.906825568797</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D30" s="15">
         <v>14</v>
       </c>
       <c r="E30" s="16">
-        <v>-35.714285714285</v>
+        <v>-92.857142857142</v>
       </c>
       <c r="F30" s="15">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G30" s="15">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16">
-        <v>-2.272727272727</v>
+        <v>-31.372549019607</v>
       </c>
       <c r="I30" s="15">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J30" s="15">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="K30" s="16">
-        <v>-30.327868852459</v>
+        <v>-32.558139534883</v>
       </c>
       <c r="L30" s="16">
-        <v>2.409638554216</v>
+        <v>-2.247191011235</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">19</t>
+      <t xml:space="preserve">20</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/8/2023</t>
+      <t xml:space="preserve">5/15/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/14/2023</t>
+      <t xml:space="preserve">5/21/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14" s="16">
-        <v>-25</v>
+        <v>-46.153846153846</v>
       </c>
       <c r="F14" s="15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" s="15">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H14" s="16">
-        <v>-32.352941176470</v>
+        <v>-44.186046511627</v>
       </c>
       <c r="I14" s="15">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J14" s="15">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" s="16">
-        <v>-10.967741935483</v>
+        <v>-13.095238095238</v>
       </c>
       <c r="L14" s="16">
-        <v>-17.857142857142</v>
+        <v>-19.337016574585</v>
       </c>
       <c r="M14" s="16">
-        <v>-14.814814814814</v>
+        <v>-16.571428571428</v>
       </c>
       <c r="N14" s="16">
-        <v>-80.086580086580</v>
+        <v>-79.862068965517</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -867,37 +867,37 @@
         <v>32</v>
       </c>
       <c r="D15" s="15">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E15" s="16">
-        <v>-3.030303030303</v>
+        <v>-13.513513513513</v>
       </c>
       <c r="F15" s="15">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G15" s="15">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H15" s="16">
-        <v>5.714285714285</v>
+        <v>0</v>
       </c>
       <c r="I15" s="15">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="J15" s="15">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="K15" s="16">
-        <v>-5.078809106830</v>
+        <v>-5.756578947368</v>
       </c>
       <c r="L15" s="16">
-        <v>6.692913385826</v>
+        <v>7.504690431519</v>
       </c>
       <c r="M15" s="16">
-        <v>19.646799116997</v>
+        <v>19.624217118997</v>
       </c>
       <c r="N15" s="16">
-        <v>-52.951388888888</v>
+        <v>-52.605459057072</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D16" s="15">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E16" s="16">
-        <v>-6.853582554517</v>
+        <v>-6.727828746177</v>
       </c>
       <c r="F16" s="15">
-        <v>1173</v>
+        <v>1213</v>
       </c>
       <c r="G16" s="15">
-        <v>1212</v>
+        <v>1256</v>
       </c>
       <c r="H16" s="16">
-        <v>-3.217821782178</v>
+        <v>-3.423566878980</v>
       </c>
       <c r="I16" s="15">
-        <v>5612</v>
+        <v>5928</v>
       </c>
       <c r="J16" s="15">
-        <v>5748</v>
+        <v>6075</v>
       </c>
       <c r="K16" s="16">
-        <v>-2.366040361865</v>
+        <v>-2.419753086419</v>
       </c>
       <c r="L16" s="16">
-        <v>39.880358923230</v>
+        <v>37.732342007434</v>
       </c>
       <c r="M16" s="16">
-        <v>-13.005735544876</v>
+        <v>-13.181019332161</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.613864954296</v>
+        <v>-81.490617291660</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D17" s="15">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="E17" s="16">
-        <v>1.747572815533</v>
+        <v>-7.220216606498</v>
       </c>
       <c r="F17" s="15">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="G17" s="15">
-        <v>1922</v>
+        <v>2059</v>
       </c>
       <c r="H17" s="16">
-        <v>6.451612903225</v>
+        <v>-0.777076250607</v>
       </c>
       <c r="I17" s="15">
-        <v>9433</v>
+        <v>9977</v>
       </c>
       <c r="J17" s="15">
-        <v>8707</v>
+        <v>9261</v>
       </c>
       <c r="K17" s="16">
-        <v>8.338118755024</v>
+        <v>7.731346506856</v>
       </c>
       <c r="L17" s="16">
-        <v>31.653872993719</v>
+        <v>29.908854166666</v>
       </c>
       <c r="M17" s="16">
-        <v>61.856554564173</v>
+        <v>61.361798479702</v>
       </c>
       <c r="N17" s="16">
-        <v>-32.087832973362</v>
+        <v>-31.981183528770</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D18" s="15">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="E18" s="16">
-        <v>-18.481848184818</v>
+        <v>-1.094890510948</v>
       </c>
       <c r="F18" s="15">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="G18" s="15">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H18" s="16">
-        <v>-11.082693947144</v>
+        <v>-12.606473594548</v>
       </c>
       <c r="I18" s="15">
-        <v>5189</v>
+        <v>5466</v>
       </c>
       <c r="J18" s="15">
-        <v>5643</v>
+        <v>5917</v>
       </c>
       <c r="K18" s="16">
-        <v>-8.045365940102</v>
+        <v>-7.622105796856</v>
       </c>
       <c r="L18" s="16">
-        <v>23.960821786908</v>
+        <v>23.525423728813</v>
       </c>
       <c r="M18" s="16">
-        <v>-18.373446594305</v>
+        <v>-18.588025022341</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.575693556457</v>
+        <v>-85.568697856162</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>926</v>
+        <v>997</v>
       </c>
       <c r="D19" s="15">
-        <v>917</v>
+        <v>980</v>
       </c>
       <c r="E19" s="16">
-        <v>0.981461286804</v>
+        <v>1.734693877551</v>
       </c>
       <c r="F19" s="15">
-        <v>3788</v>
+        <v>3780</v>
       </c>
       <c r="G19" s="15">
-        <v>3781</v>
+        <v>3833</v>
       </c>
       <c r="H19" s="16">
-        <v>0.185136207352</v>
+        <v>-1.382728932950</v>
       </c>
       <c r="I19" s="15">
-        <v>17589</v>
+        <v>18581</v>
       </c>
       <c r="J19" s="15">
-        <v>17824</v>
+        <v>18804</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.318447037701</v>
+        <v>-1.185917889810</v>
       </c>
       <c r="L19" s="16">
-        <v>52.088197146562</v>
+        <v>51.212565104166</v>
       </c>
       <c r="M19" s="16">
-        <v>37.435536802625</v>
+        <v>37.882160878599</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.792565208461</v>
+        <v>-39.721005677210</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="D20" s="15">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E20" s="16">
-        <v>31.818181818181</v>
+        <v>18.218623481781</v>
       </c>
       <c r="F20" s="15">
-        <v>1263</v>
+        <v>1237</v>
       </c>
       <c r="G20" s="15">
-        <v>916</v>
+        <v>953</v>
       </c>
       <c r="H20" s="16">
-        <v>37.882096069869</v>
+        <v>29.800629590766</v>
       </c>
       <c r="I20" s="15">
-        <v>5444</v>
+        <v>5723</v>
       </c>
       <c r="J20" s="15">
-        <v>4672</v>
+        <v>4919</v>
       </c>
       <c r="K20" s="16">
-        <v>16.523972602739</v>
+        <v>16.344785525513</v>
       </c>
       <c r="L20" s="16">
-        <v>84.167794316644</v>
+        <v>80.195214105793</v>
       </c>
       <c r="M20" s="16">
-        <v>52.664049355019</v>
+        <v>51.082365364308</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.854051965613</v>
+        <v>-86.868733221669</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2353</v>
+        <v>2418</v>
       </c>
       <c r="D21" s="18">
-        <v>2339</v>
+        <v>2432</v>
       </c>
       <c r="E21" s="19">
-        <v>0.598546387345</v>
+        <v>-0.575657894736</v>
       </c>
       <c r="F21" s="18">
-        <v>9447</v>
+        <v>9438</v>
       </c>
       <c r="G21" s="18">
-        <v>9143</v>
+        <v>9433</v>
       </c>
       <c r="H21" s="19">
-        <v>3.324948047686</v>
+        <v>0.053005406551</v>
       </c>
       <c r="I21" s="18">
-        <v>43947</v>
+        <v>46394</v>
       </c>
       <c r="J21" s="18">
-        <v>43320</v>
+        <v>45752</v>
       </c>
       <c r="K21" s="19">
-        <v>1.447368421052</v>
+        <v>1.403217345689</v>
       </c>
       <c r="L21" s="19">
-        <v>43.805628272251</v>
+        <v>42.369656611532</v>
       </c>
       <c r="M21" s="19">
-        <v>23.394637091113</v>
+        <v>23.247350104933</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.249787384369</v>
+        <v>-71.168271053302</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D22" s="15">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E22" s="16">
-        <v>6.122448979591</v>
+        <v>-22.033898305084</v>
       </c>
       <c r="F22" s="15">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G22" s="15">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="H22" s="16">
-        <v>-10.752688172043</v>
+        <v>-14.851485148514</v>
       </c>
       <c r="I22" s="15">
-        <v>789</v>
+        <v>837</v>
       </c>
       <c r="J22" s="15">
-        <v>853</v>
+        <v>911</v>
       </c>
       <c r="K22" s="16">
-        <v>-7.502930832356</v>
+        <v>-8.122941822173</v>
       </c>
       <c r="L22" s="16">
-        <v>52.906976744186</v>
+        <v>48.141592920354</v>
       </c>
       <c r="M22" s="16">
-        <v>4.365079365079</v>
+        <v>5.283018867924</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D23" s="15">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E23" s="16">
-        <v>-6.153846153846</v>
+        <v>-8.181818181818</v>
       </c>
       <c r="F23" s="15">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="G23" s="15">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H23" s="16">
-        <v>-0.847457627118</v>
+        <v>-4.094827586206</v>
       </c>
       <c r="I23" s="15">
-        <v>2222</v>
+        <v>2322</v>
       </c>
       <c r="J23" s="15">
-        <v>2055</v>
+        <v>2165</v>
       </c>
       <c r="K23" s="16">
-        <v>8.126520681265</v>
+        <v>7.251732101616</v>
       </c>
       <c r="L23" s="16">
-        <v>20.108108108108</v>
+        <v>17.629179331307</v>
       </c>
       <c r="M23" s="16">
-        <v>63.022743947175</v>
+        <v>59.917355371900</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1964</v>
+        <v>2126</v>
       </c>
       <c r="D24" s="15">
-        <v>2200</v>
+        <v>2251</v>
       </c>
       <c r="E24" s="16">
-        <v>-10.727272727272</v>
+        <v>-5.553087516659</v>
       </c>
       <c r="F24" s="15">
-        <v>8274</v>
+        <v>8293</v>
       </c>
       <c r="G24" s="15">
-        <v>8695</v>
+        <v>8853</v>
       </c>
       <c r="H24" s="16">
-        <v>-4.841863139735</v>
+        <v>-6.325539365186</v>
       </c>
       <c r="I24" s="15">
-        <v>38737</v>
+        <v>40887</v>
       </c>
       <c r="J24" s="15">
-        <v>39204</v>
+        <v>41455</v>
       </c>
       <c r="K24" s="16">
-        <v>-1.191204979083</v>
+        <v>-1.370160414907</v>
       </c>
       <c r="L24" s="16">
-        <v>40.841332169866</v>
+        <v>40.009588056021</v>
       </c>
       <c r="M24" s="16">
-        <v>40.361620407275</v>
+        <v>40.374909877433</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>924</v>
+        <v>884</v>
       </c>
       <c r="D25" s="15">
-        <v>825</v>
+        <v>846</v>
       </c>
       <c r="E25" s="16">
-        <v>12</v>
+        <v>4.491725768321</v>
       </c>
       <c r="F25" s="15">
-        <v>3540</v>
+        <v>3601</v>
       </c>
       <c r="G25" s="15">
-        <v>3236</v>
+        <v>3341</v>
       </c>
       <c r="H25" s="16">
-        <v>9.394313967861</v>
+        <v>7.782101167315</v>
       </c>
       <c r="I25" s="15">
-        <v>15307</v>
+        <v>16205</v>
       </c>
       <c r="J25" s="15">
-        <v>14442</v>
+        <v>15287</v>
       </c>
       <c r="K25" s="16">
-        <v>5.989475141947</v>
+        <v>6.005102374566</v>
       </c>
       <c r="L25" s="16">
-        <v>36.486847971466</v>
+        <v>35.221962616822</v>
       </c>
       <c r="M25" s="16">
-        <v>-4.211514392991</v>
+        <v>-4.524833559182</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D26" s="15">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="16">
-        <v>-21.311475409836</v>
+        <v>-10</v>
       </c>
       <c r="F26" s="15">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G26" s="15">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H26" s="16">
-        <v>-1.604278074866</v>
+        <v>-2.912621359223</v>
       </c>
       <c r="I26" s="15">
-        <v>878</v>
+        <v>935</v>
       </c>
       <c r="J26" s="15">
-        <v>941</v>
+        <v>1001</v>
       </c>
       <c r="K26" s="16">
-        <v>-6.695005313496</v>
+        <v>-6.593406593406</v>
       </c>
       <c r="L26" s="16">
-        <v>2.810304449648</v>
+        <v>4.469273743016</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D27" s="15">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E27" s="16">
-        <v>22.123893805309</v>
+        <v>-2.564102564102</v>
       </c>
       <c r="F27" s="15">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="G27" s="15">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="H27" s="16">
-        <v>19.023136246786</v>
+        <v>5.607476635514</v>
       </c>
       <c r="I27" s="15">
-        <v>1867</v>
+        <v>1975</v>
       </c>
       <c r="J27" s="15">
-        <v>1741</v>
+        <v>1858</v>
       </c>
       <c r="K27" s="16">
-        <v>7.237219988512</v>
+        <v>6.297093649085</v>
       </c>
       <c r="L27" s="16">
-        <v>19.297124600639</v>
+        <v>19.263285024154</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="15">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16">
-        <v>-15.384615384615</v>
+        <v>-45.714285714285</v>
       </c>
       <c r="F28" s="15">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G28" s="15">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H28" s="16">
-        <v>-33.027522935779</v>
+        <v>-32.203389830508</v>
       </c>
       <c r="I28" s="15">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="J28" s="15">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="K28" s="16">
-        <v>-23.699421965317</v>
+        <v>-24.909747292418</v>
       </c>
       <c r="L28" s="16">
-        <v>-25.423728813559</v>
+        <v>-28.151986183074</v>
       </c>
       <c r="M28" s="16">
-        <v>-24.714828897338</v>
+        <v>-26.241134751773</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.530973451327</v>
+        <v>-80.533458118858</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29" s="15">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E29" s="16">
-        <v>-9.090909090909</v>
+        <v>-43.333333333333</v>
       </c>
       <c r="F29" s="15">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G29" s="15">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H29" s="16">
-        <v>-27.777777777777</v>
+        <v>-28.282828282828</v>
       </c>
       <c r="I29" s="15">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="J29" s="15">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="K29" s="16">
-        <v>-24.263038548752</v>
+        <v>-25.265392781316</v>
       </c>
       <c r="L29" s="16">
-        <v>-29.684210526315</v>
+        <v>-31.115459882583</v>
       </c>
       <c r="M29" s="16">
-        <v>-22.144522144522</v>
+        <v>-24.137931034482</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.906825568797</v>
+        <v>-81.789963786859</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D30" s="15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16">
-        <v>-92.857142857142</v>
+        <v>-38.461538461538</v>
       </c>
       <c r="F30" s="15">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" s="15">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H30" s="16">
-        <v>-31.372549019607</v>
+        <v>-33.928571428571</v>
       </c>
       <c r="I30" s="15">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="J30" s="15">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="K30" s="16">
-        <v>-32.558139534883</v>
+        <v>-31.734317343173</v>
       </c>
       <c r="L30" s="16">
-        <v>-2.247191011235</v>
+        <v>-7.035175879396</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">20</t>
+      <t xml:space="preserve">22</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/15/2023</t>
+      <t xml:space="preserve">5/29/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/21/2023</t>
+      <t xml:space="preserve">6/4/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E14" s="16">
-        <v>-46.153846153846</v>
+        <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G14" s="15">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H14" s="16">
-        <v>-44.186046511627</v>
+        <v>-26.315789473684</v>
       </c>
       <c r="I14" s="15">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J14" s="15">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K14" s="16">
-        <v>-13.095238095238</v>
+        <v>-12.972972972973</v>
       </c>
       <c r="L14" s="16">
-        <v>-19.337016574585</v>
+        <v>-16.580310880829</v>
       </c>
       <c r="M14" s="16">
-        <v>-16.571428571428</v>
+        <v>-16.580310880829</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.862068965517</v>
+        <v>-79.773869346733</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D15" s="15">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E15" s="16">
-        <v>-13.513513513513</v>
+        <v>-14.814814814814</v>
       </c>
       <c r="F15" s="15">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G15" s="15">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="H15" s="16">
-        <v>0</v>
+        <v>-15.492957746478</v>
       </c>
       <c r="I15" s="15">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="J15" s="15">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="K15" s="16">
-        <v>-5.756578947368</v>
+        <v>-7.205882352941</v>
       </c>
       <c r="L15" s="16">
-        <v>7.504690431519</v>
+        <v>6.949152542372</v>
       </c>
       <c r="M15" s="16">
-        <v>19.624217118997</v>
+        <v>21.113243761996</v>
       </c>
       <c r="N15" s="16">
-        <v>-52.605459057072</v>
+        <v>-53.840526700804</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D16" s="15">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="E16" s="16">
-        <v>-6.727828746177</v>
+        <v>-14.905149051490</v>
       </c>
       <c r="F16" s="15">
-        <v>1213</v>
+        <v>1224</v>
       </c>
       <c r="G16" s="15">
-        <v>1256</v>
+        <v>1373</v>
       </c>
       <c r="H16" s="16">
-        <v>-3.423566878980</v>
+        <v>-10.852148579752</v>
       </c>
       <c r="I16" s="15">
-        <v>5928</v>
+        <v>6541</v>
       </c>
       <c r="J16" s="15">
-        <v>6075</v>
+        <v>6800</v>
       </c>
       <c r="K16" s="16">
-        <v>-2.419753086419</v>
+        <v>-3.808823529411</v>
       </c>
       <c r="L16" s="16">
-        <v>37.732342007434</v>
+        <v>34.921617161716</v>
       </c>
       <c r="M16" s="16">
-        <v>-13.181019332161</v>
+        <v>-13.638764193292</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.490617291660</v>
+        <v>-81.335425881010</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="D17" s="15">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="E17" s="16">
-        <v>-7.220216606498</v>
+        <v>-4.416961130742</v>
       </c>
       <c r="F17" s="15">
-        <v>2043</v>
+        <v>2166</v>
       </c>
       <c r="G17" s="15">
-        <v>2059</v>
+        <v>2185</v>
       </c>
       <c r="H17" s="16">
-        <v>-0.777076250607</v>
+        <v>-0.869565217391</v>
       </c>
       <c r="I17" s="15">
-        <v>9977</v>
+        <v>11101</v>
       </c>
       <c r="J17" s="15">
-        <v>9261</v>
+        <v>10379</v>
       </c>
       <c r="K17" s="16">
-        <v>7.731346506856</v>
+        <v>6.956354176702</v>
       </c>
       <c r="L17" s="16">
-        <v>29.908854166666</v>
+        <v>29.231664726426</v>
       </c>
       <c r="M17" s="16">
-        <v>61.361798479702</v>
+        <v>60.141373341027</v>
       </c>
       <c r="N17" s="16">
-        <v>-31.981183528770</v>
+        <v>-32.331606217616</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D18" s="15">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="E18" s="16">
-        <v>-1.094890510948</v>
+        <v>-21.337579617834</v>
       </c>
       <c r="F18" s="15">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="G18" s="15">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="H18" s="16">
-        <v>-12.606473594548</v>
+        <v>-13.511187607573</v>
       </c>
       <c r="I18" s="15">
-        <v>5466</v>
+        <v>5963</v>
       </c>
       <c r="J18" s="15">
-        <v>5917</v>
+        <v>6502</v>
       </c>
       <c r="K18" s="16">
-        <v>-7.622105796856</v>
+        <v>-8.289756997846</v>
       </c>
       <c r="L18" s="16">
-        <v>23.525423728813</v>
+        <v>22.720724428894</v>
       </c>
       <c r="M18" s="16">
-        <v>-18.588025022341</v>
+        <v>-20.034866568325</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.568697856162</v>
+        <v>-85.661039773000</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>997</v>
+        <v>972</v>
       </c>
       <c r="D19" s="15">
-        <v>980</v>
+        <v>945</v>
       </c>
       <c r="E19" s="16">
-        <v>1.734693877551</v>
+        <v>2.857142857142</v>
       </c>
       <c r="F19" s="15">
-        <v>3780</v>
+        <v>3837</v>
       </c>
       <c r="G19" s="15">
-        <v>3833</v>
+        <v>3785</v>
       </c>
       <c r="H19" s="16">
-        <v>-1.382728932950</v>
+        <v>1.373844121532</v>
       </c>
       <c r="I19" s="15">
-        <v>18581</v>
+        <v>20518</v>
       </c>
       <c r="J19" s="15">
-        <v>18804</v>
+        <v>20697</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.185917889810</v>
+        <v>-0.864859641493</v>
       </c>
       <c r="L19" s="16">
-        <v>51.212565104166</v>
+        <v>50.281989306379</v>
       </c>
       <c r="M19" s="16">
-        <v>37.882160878599</v>
+        <v>38.382680245498</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.721005677210</v>
+        <v>-39.981278886093</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="D20" s="15">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E20" s="16">
-        <v>18.218623481781</v>
+        <v>7.758620689655</v>
       </c>
       <c r="F20" s="15">
-        <v>1237</v>
+        <v>1185</v>
       </c>
       <c r="G20" s="15">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="H20" s="16">
-        <v>29.800629590766</v>
+        <v>24.868282402529</v>
       </c>
       <c r="I20" s="15">
-        <v>5723</v>
+        <v>6304</v>
       </c>
       <c r="J20" s="15">
-        <v>4919</v>
+        <v>5379</v>
       </c>
       <c r="K20" s="16">
-        <v>16.344785525513</v>
+        <v>17.196504926566</v>
       </c>
       <c r="L20" s="16">
-        <v>80.195214105793</v>
+        <v>76.780706674144</v>
       </c>
       <c r="M20" s="16">
-        <v>51.082365364308</v>
+        <v>50.417561441183</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.868733221669</v>
+        <v>-86.771587451474</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2418</v>
+        <v>2352</v>
       </c>
       <c r="D21" s="18">
-        <v>2432</v>
+        <v>2458</v>
       </c>
       <c r="E21" s="19">
-        <v>-0.575657894736</v>
+        <v>-4.312449145646</v>
       </c>
       <c r="F21" s="18">
-        <v>9438</v>
+        <v>9565</v>
       </c>
       <c r="G21" s="18">
-        <v>9433</v>
+        <v>9634</v>
       </c>
       <c r="H21" s="19">
-        <v>0.053005406551</v>
+        <v>-0.716213410836</v>
       </c>
       <c r="I21" s="18">
-        <v>46394</v>
+        <v>51219</v>
       </c>
       <c r="J21" s="18">
-        <v>45752</v>
+        <v>50622</v>
       </c>
       <c r="K21" s="19">
-        <v>1.403217345689</v>
+        <v>1.179329145430</v>
       </c>
       <c r="L21" s="19">
-        <v>42.369656611532</v>
+        <v>41.103060690377</v>
       </c>
       <c r="M21" s="19">
-        <v>23.247350104933</v>
+        <v>22.842067394172</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.168271053302</v>
+        <v>-71.069249887031</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D22" s="15">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E22" s="16">
-        <v>-22.033898305084</v>
+        <v>-18.75</v>
       </c>
       <c r="F22" s="15">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G22" s="15">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H22" s="16">
-        <v>-14.851485148514</v>
+        <v>-6.735751295336</v>
       </c>
       <c r="I22" s="15">
-        <v>837</v>
+        <v>916</v>
       </c>
       <c r="J22" s="15">
-        <v>911</v>
+        <v>996</v>
       </c>
       <c r="K22" s="16">
-        <v>-8.122941822173</v>
+        <v>-8.032128514056</v>
       </c>
       <c r="L22" s="16">
-        <v>48.141592920354</v>
+        <v>43.348982785602</v>
       </c>
       <c r="M22" s="16">
-        <v>5.283018867924</v>
+        <v>2.805836139169</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="D23" s="15">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E23" s="16">
-        <v>-8.181818181818</v>
+        <v>-3.703703703703</v>
       </c>
       <c r="F23" s="15">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="G23" s="15">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="H23" s="16">
-        <v>-4.094827586206</v>
+        <v>-5.316973415132</v>
       </c>
       <c r="I23" s="15">
-        <v>2322</v>
+        <v>2563</v>
       </c>
       <c r="J23" s="15">
-        <v>2165</v>
+        <v>2415</v>
       </c>
       <c r="K23" s="16">
-        <v>7.251732101616</v>
+        <v>6.128364389233</v>
       </c>
       <c r="L23" s="16">
-        <v>17.629179331307</v>
+        <v>17.461044912923</v>
       </c>
       <c r="M23" s="16">
-        <v>59.917355371900</v>
+        <v>58.014796547472</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2126</v>
+        <v>2194</v>
       </c>
       <c r="D24" s="15">
-        <v>2251</v>
+        <v>2287</v>
       </c>
       <c r="E24" s="16">
-        <v>-5.553087516659</v>
+        <v>-4.066462614779</v>
       </c>
       <c r="F24" s="15">
-        <v>8293</v>
+        <v>8664</v>
       </c>
       <c r="G24" s="15">
-        <v>8853</v>
+        <v>9089</v>
       </c>
       <c r="H24" s="16">
-        <v>-6.325539365186</v>
+        <v>-4.675981956210</v>
       </c>
       <c r="I24" s="15">
-        <v>40887</v>
+        <v>45443</v>
       </c>
       <c r="J24" s="15">
-        <v>41455</v>
+        <v>46093</v>
       </c>
       <c r="K24" s="16">
-        <v>-1.370160414907</v>
+        <v>-1.410192437029</v>
       </c>
       <c r="L24" s="16">
-        <v>40.009588056021</v>
+        <v>40.429542645241</v>
       </c>
       <c r="M24" s="16">
-        <v>40.374909877433</v>
+        <v>40.703470910610</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>884</v>
+        <v>950</v>
       </c>
       <c r="D25" s="15">
-        <v>846</v>
+        <v>937</v>
       </c>
       <c r="E25" s="16">
-        <v>4.491725768321</v>
+        <v>1.387406616862</v>
       </c>
       <c r="F25" s="15">
-        <v>3601</v>
+        <v>3694</v>
       </c>
       <c r="G25" s="15">
-        <v>3341</v>
+        <v>3462</v>
       </c>
       <c r="H25" s="16">
-        <v>7.782101167315</v>
+        <v>6.701328711727</v>
       </c>
       <c r="I25" s="15">
-        <v>16205</v>
+        <v>18067</v>
       </c>
       <c r="J25" s="15">
-        <v>15287</v>
+        <v>17078</v>
       </c>
       <c r="K25" s="16">
-        <v>6.005102374566</v>
+        <v>5.791076238435</v>
       </c>
       <c r="L25" s="16">
-        <v>35.221962616822</v>
+        <v>34.707724425887</v>
       </c>
       <c r="M25" s="16">
-        <v>-4.524833559182</v>
+        <v>-5.254601709580</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D26" s="15">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E26" s="16">
-        <v>-10</v>
+        <v>-6.382978723404</v>
       </c>
       <c r="F26" s="15">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G26" s="15">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="H26" s="16">
-        <v>-2.912621359223</v>
+        <v>-11.157024793388</v>
       </c>
       <c r="I26" s="15">
-        <v>935</v>
+        <v>1046</v>
       </c>
       <c r="J26" s="15">
-        <v>1001</v>
+        <v>1123</v>
       </c>
       <c r="K26" s="16">
-        <v>-6.593406593406</v>
+        <v>-6.856634016028</v>
       </c>
       <c r="L26" s="16">
-        <v>4.469273743016</v>
+        <v>5.870445344129</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D27" s="15">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E27" s="16">
-        <v>-2.564102564102</v>
+        <v>-1.785714285714</v>
       </c>
       <c r="F27" s="15">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="G27" s="15">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="H27" s="16">
-        <v>5.607476635514</v>
+        <v>2.760084925690</v>
       </c>
       <c r="I27" s="15">
-        <v>1975</v>
+        <v>2205</v>
       </c>
       <c r="J27" s="15">
-        <v>1858</v>
+        <v>2100</v>
       </c>
       <c r="K27" s="16">
-        <v>6.297093649085</v>
+        <v>5</v>
       </c>
       <c r="L27" s="16">
-        <v>19.263285024154</v>
+        <v>19.771863117870</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D28" s="15">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E28" s="16">
-        <v>-45.714285714285</v>
+        <v>-34.210526315789</v>
       </c>
       <c r="F28" s="15">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G28" s="15">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H28" s="16">
-        <v>-32.203389830508</v>
+        <v>-26.984126984127</v>
       </c>
       <c r="I28" s="15">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="J28" s="15">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="K28" s="16">
-        <v>-24.909747292418</v>
+        <v>-24.717285945072</v>
       </c>
       <c r="L28" s="16">
-        <v>-28.151986183074</v>
+        <v>-30.134932533733</v>
       </c>
       <c r="M28" s="16">
-        <v>-26.241134751773</v>
+        <v>-27.975270479134</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.533458118858</v>
+        <v>-80.304311073541</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D29" s="15">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E29" s="16">
-        <v>-43.333333333333</v>
+        <v>-27.272727272727</v>
       </c>
       <c r="F29" s="15">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G29" s="15">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H29" s="16">
-        <v>-28.282828282828</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="I29" s="15">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J29" s="15">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="K29" s="16">
-        <v>-25.265392781316</v>
+        <v>-24.478178368121</v>
       </c>
       <c r="L29" s="16">
-        <v>-31.115459882583</v>
+        <v>-32.081911262798</v>
       </c>
       <c r="M29" s="16">
-        <v>-24.137931034482</v>
+        <v>-25.047080979284</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.789963786859</v>
+        <v>-81.427904806346</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D30" s="15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E30" s="16">
-        <v>-38.461538461538</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F30" s="15">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G30" s="15">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H30" s="16">
-        <v>-33.928571428571</v>
+        <v>-27.659574468085</v>
       </c>
       <c r="I30" s="15">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J30" s="15">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="K30" s="16">
-        <v>-31.734317343173</v>
+        <v>-29.896907216494</v>
       </c>
       <c r="L30" s="16">
-        <v>-7.035175879396</v>
+        <v>-16.734693877551</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">22</t>
+      <t xml:space="preserve">23</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/29/2023</t>
+      <t xml:space="preserve">6/5/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/4/2023</t>
+      <t xml:space="preserve">6/11/2023</t>
     </r>
   </si>
   <si>
@@ -826,37 +826,37 @@
         <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>-28.571428571428</v>
       </c>
       <c r="F14" s="15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="16">
-        <v>-26.315789473684</v>
+        <v>-29.729729729729</v>
       </c>
       <c r="I14" s="15">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="J14" s="15">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K14" s="16">
-        <v>-12.972972972973</v>
+        <v>-12.5</v>
       </c>
       <c r="L14" s="16">
-        <v>-16.580310880829</v>
+        <v>-18.840579710144</v>
       </c>
       <c r="M14" s="16">
-        <v>-16.580310880829</v>
+        <v>-17.241379310344</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.773869346733</v>
+        <v>-79.856115107913</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="15">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E15" s="16">
-        <v>-14.814814814814</v>
+        <v>-42.105263157894</v>
       </c>
       <c r="F15" s="15">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G15" s="15">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H15" s="16">
-        <v>-15.492957746478</v>
+        <v>-26.530612244898</v>
       </c>
       <c r="I15" s="15">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="J15" s="15">
-        <v>680</v>
+        <v>718</v>
       </c>
       <c r="K15" s="16">
-        <v>-7.205882352941</v>
+        <v>-9.470752089136</v>
       </c>
       <c r="L15" s="16">
-        <v>6.949152542372</v>
+        <v>5.008077544426</v>
       </c>
       <c r="M15" s="16">
-        <v>21.113243761996</v>
+        <v>17.753623188405</v>
       </c>
       <c r="N15" s="16">
-        <v>-53.840526700804</v>
+        <v>-54.672245467224</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D16" s="15">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E16" s="16">
-        <v>-14.905149051490</v>
+        <v>-13.172043010752</v>
       </c>
       <c r="F16" s="15">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="G16" s="15">
-        <v>1373</v>
+        <v>1424</v>
       </c>
       <c r="H16" s="16">
-        <v>-10.852148579752</v>
+        <v>-12.851123595505</v>
       </c>
       <c r="I16" s="15">
-        <v>6541</v>
+        <v>6861</v>
       </c>
       <c r="J16" s="15">
-        <v>6800</v>
+        <v>7172</v>
       </c>
       <c r="K16" s="16">
-        <v>-3.808823529411</v>
+        <v>-4.336307863915</v>
       </c>
       <c r="L16" s="16">
-        <v>34.921617161716</v>
+        <v>34.899724734565</v>
       </c>
       <c r="M16" s="16">
-        <v>-13.638764193292</v>
+        <v>-13.096896770107</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.335425881010</v>
+        <v>-81.252561685384</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D17" s="15">
-        <v>566</v>
+        <v>614</v>
       </c>
       <c r="E17" s="16">
-        <v>-4.416961130742</v>
+        <v>-11.726384364820</v>
       </c>
       <c r="F17" s="15">
-        <v>2166</v>
+        <v>2184</v>
       </c>
       <c r="G17" s="15">
-        <v>2185</v>
+        <v>2285</v>
       </c>
       <c r="H17" s="16">
-        <v>-0.869565217391</v>
+        <v>-4.420131291028</v>
       </c>
       <c r="I17" s="15">
-        <v>11101</v>
+        <v>11671</v>
       </c>
       <c r="J17" s="15">
-        <v>10379</v>
+        <v>10994</v>
       </c>
       <c r="K17" s="16">
-        <v>6.956354176702</v>
+        <v>6.157904311442</v>
       </c>
       <c r="L17" s="16">
-        <v>29.231664726426</v>
+        <v>28.182317408017</v>
       </c>
       <c r="M17" s="16">
-        <v>60.141373341027</v>
+        <v>60.404068169323</v>
       </c>
       <c r="N17" s="16">
-        <v>-32.331606217616</v>
+        <v>-32.345950959364</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="D18" s="15">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E18" s="16">
-        <v>-21.337579617834</v>
+        <v>-27.457627118644</v>
       </c>
       <c r="F18" s="15">
-        <v>1005</v>
+        <v>981</v>
       </c>
       <c r="G18" s="15">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="H18" s="16">
-        <v>-13.511187607573</v>
+        <v>-14.991334488734</v>
       </c>
       <c r="I18" s="15">
-        <v>5963</v>
+        <v>6196</v>
       </c>
       <c r="J18" s="15">
-        <v>6502</v>
+        <v>6797</v>
       </c>
       <c r="K18" s="16">
-        <v>-8.289756997846</v>
+        <v>-8.842136236574</v>
       </c>
       <c r="L18" s="16">
-        <v>22.720724428894</v>
+        <v>21.681068342498</v>
       </c>
       <c r="M18" s="16">
-        <v>-20.034866568325</v>
+        <v>-20.113460546673</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.661039773000</v>
+        <v>-85.702418312719</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>972</v>
+        <v>1043</v>
       </c>
       <c r="D19" s="15">
-        <v>945</v>
+        <v>1029</v>
       </c>
       <c r="E19" s="16">
-        <v>2.857142857142</v>
+        <v>1.360544217687</v>
       </c>
       <c r="F19" s="15">
-        <v>3837</v>
+        <v>3942</v>
       </c>
       <c r="G19" s="15">
-        <v>3785</v>
+        <v>3897</v>
       </c>
       <c r="H19" s="16">
-        <v>1.373844121532</v>
+        <v>1.154734411085</v>
       </c>
       <c r="I19" s="15">
-        <v>20518</v>
+        <v>21549</v>
       </c>
       <c r="J19" s="15">
-        <v>20697</v>
+        <v>21727</v>
       </c>
       <c r="K19" s="16">
-        <v>-0.864859641493</v>
+        <v>-0.819257145487</v>
       </c>
       <c r="L19" s="16">
-        <v>50.281989306379</v>
+        <v>50.114942528735</v>
       </c>
       <c r="M19" s="16">
-        <v>38.382680245498</v>
+        <v>38.436335603237</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.981278886093</v>
+        <v>-40.020040637960</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>250</v>
+        <v>352</v>
       </c>
       <c r="D20" s="15">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="E20" s="16">
-        <v>7.758620689655</v>
+        <v>29.889298892988</v>
       </c>
       <c r="F20" s="15">
-        <v>1185</v>
+        <v>1214</v>
       </c>
       <c r="G20" s="15">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="H20" s="16">
-        <v>24.868282402529</v>
+        <v>24.130879345603</v>
       </c>
       <c r="I20" s="15">
-        <v>6304</v>
+        <v>6645</v>
       </c>
       <c r="J20" s="15">
-        <v>5379</v>
+        <v>5650</v>
       </c>
       <c r="K20" s="16">
-        <v>17.196504926566</v>
+        <v>17.610619469026</v>
       </c>
       <c r="L20" s="16">
-        <v>76.780706674144</v>
+        <v>76.775738228252</v>
       </c>
       <c r="M20" s="16">
-        <v>50.417561441183</v>
+        <v>51.125767568796</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.771587451474</v>
+        <v>-86.618470337105</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2352</v>
+        <v>2501</v>
       </c>
       <c r="D21" s="18">
-        <v>2458</v>
+        <v>2626</v>
       </c>
       <c r="E21" s="19">
-        <v>-4.312449145646</v>
+        <v>-4.760091393754</v>
       </c>
       <c r="F21" s="18">
-        <v>9565</v>
+        <v>9696</v>
       </c>
       <c r="G21" s="18">
-        <v>9634</v>
+        <v>9922</v>
       </c>
       <c r="H21" s="19">
-        <v>-0.716213410836</v>
+        <v>-2.277766579318</v>
       </c>
       <c r="I21" s="18">
-        <v>51219</v>
+        <v>53740</v>
       </c>
       <c r="J21" s="18">
-        <v>50622</v>
+        <v>53250</v>
       </c>
       <c r="K21" s="19">
-        <v>1.179329145430</v>
+        <v>0.920187793427</v>
       </c>
       <c r="L21" s="19">
-        <v>41.103060690377</v>
+        <v>40.595976244669</v>
       </c>
       <c r="M21" s="19">
-        <v>22.842067394172</v>
+        <v>23.129797227632</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.069249887031</v>
+        <v>-70.957159919367</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" s="15">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E22" s="16">
-        <v>-18.75</v>
+        <v>-6.818181818181</v>
       </c>
       <c r="F22" s="15">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G22" s="15">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H22" s="16">
-        <v>-6.735751295336</v>
+        <v>-10.638297872340</v>
       </c>
       <c r="I22" s="15">
-        <v>916</v>
+        <v>958</v>
       </c>
       <c r="J22" s="15">
-        <v>996</v>
+        <v>1040</v>
       </c>
       <c r="K22" s="16">
-        <v>-8.032128514056</v>
+        <v>-7.884615384615</v>
       </c>
       <c r="L22" s="16">
-        <v>43.348982785602</v>
+        <v>44.277108433734</v>
       </c>
       <c r="M22" s="16">
-        <v>2.805836139169</v>
+        <v>3.121636167922</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D23" s="15">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="E23" s="16">
-        <v>-3.703703703703</v>
+        <v>-28.220858895705</v>
       </c>
       <c r="F23" s="15">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G23" s="15">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="H23" s="16">
-        <v>-5.316973415132</v>
+        <v>-10.325047801147</v>
       </c>
       <c r="I23" s="15">
-        <v>2563</v>
+        <v>2692</v>
       </c>
       <c r="J23" s="15">
-        <v>2415</v>
+        <v>2580</v>
       </c>
       <c r="K23" s="16">
-        <v>6.128364389233</v>
+        <v>4.341085271317</v>
       </c>
       <c r="L23" s="16">
-        <v>17.461044912923</v>
+        <v>17.811816192560</v>
       </c>
       <c r="M23" s="16">
-        <v>58.014796547472</v>
+        <v>57.981220657277</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2194</v>
+        <v>2189</v>
       </c>
       <c r="D24" s="15">
-        <v>2287</v>
+        <v>2347</v>
       </c>
       <c r="E24" s="16">
-        <v>-4.066462614779</v>
+        <v>-6.731998295696</v>
       </c>
       <c r="F24" s="15">
-        <v>8664</v>
+        <v>8872</v>
       </c>
       <c r="G24" s="15">
-        <v>9089</v>
+        <v>9236</v>
       </c>
       <c r="H24" s="16">
-        <v>-4.675981956210</v>
+        <v>-3.941100043308</v>
       </c>
       <c r="I24" s="15">
-        <v>45443</v>
+        <v>47628</v>
       </c>
       <c r="J24" s="15">
-        <v>46093</v>
+        <v>48440</v>
       </c>
       <c r="K24" s="16">
-        <v>-1.410192437029</v>
+        <v>-1.676300578034</v>
       </c>
       <c r="L24" s="16">
-        <v>40.429542645241</v>
+        <v>40.338263892981</v>
       </c>
       <c r="M24" s="16">
-        <v>40.703470910610</v>
+        <v>40.173053152039</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>950</v>
+        <v>869</v>
       </c>
       <c r="D25" s="15">
-        <v>937</v>
+        <v>917</v>
       </c>
       <c r="E25" s="16">
-        <v>1.387406616862</v>
+        <v>-5.234460196292</v>
       </c>
       <c r="F25" s="15">
-        <v>3694</v>
+        <v>3651</v>
       </c>
       <c r="G25" s="15">
-        <v>3462</v>
+        <v>3554</v>
       </c>
       <c r="H25" s="16">
-        <v>6.701328711727</v>
+        <v>2.729319077096</v>
       </c>
       <c r="I25" s="15">
-        <v>18067</v>
+        <v>18959</v>
       </c>
       <c r="J25" s="15">
-        <v>17078</v>
+        <v>17995</v>
       </c>
       <c r="K25" s="16">
-        <v>5.791076238435</v>
+        <v>5.357043623228</v>
       </c>
       <c r="L25" s="16">
-        <v>34.707724425887</v>
+        <v>33.608174770965</v>
       </c>
       <c r="M25" s="16">
-        <v>-5.254601709580</v>
+        <v>-5.620270808442</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D26" s="15">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E26" s="16">
-        <v>-6.382978723404</v>
+        <v>-41.538461538461</v>
       </c>
       <c r="F26" s="15">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G26" s="15">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H26" s="16">
-        <v>-11.157024793388</v>
+        <v>-17.479674796748</v>
       </c>
       <c r="I26" s="15">
-        <v>1046</v>
+        <v>1086</v>
       </c>
       <c r="J26" s="15">
-        <v>1123</v>
+        <v>1188</v>
       </c>
       <c r="K26" s="16">
-        <v>-6.856634016028</v>
+        <v>-8.585858585858</v>
       </c>
       <c r="L26" s="16">
-        <v>5.870445344129</v>
+        <v>4.624277456647</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D27" s="15">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E27" s="16">
-        <v>-1.785714285714</v>
+        <v>-10.924369747899</v>
       </c>
       <c r="F27" s="15">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="G27" s="15">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H27" s="16">
-        <v>2.760084925690</v>
+        <v>-4.821802935010</v>
       </c>
       <c r="I27" s="15">
-        <v>2205</v>
+        <v>2307</v>
       </c>
       <c r="J27" s="15">
-        <v>2100</v>
+        <v>2219</v>
       </c>
       <c r="K27" s="16">
-        <v>5</v>
+        <v>3.965750337990</v>
       </c>
       <c r="L27" s="16">
-        <v>19.771863117870</v>
+        <v>17.524197656648</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D28" s="15">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16">
-        <v>-34.210526315789</v>
+        <v>-43.333333333333</v>
       </c>
       <c r="F28" s="15">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G28" s="15">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H28" s="16">
-        <v>-26.984126984127</v>
+        <v>-33.846153846153</v>
       </c>
       <c r="I28" s="15">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="J28" s="15">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="K28" s="16">
-        <v>-24.717285945072</v>
+        <v>-25.57781201849</v>
       </c>
       <c r="L28" s="16">
-        <v>-30.134932533733</v>
+        <v>-31.779661016949</v>
       </c>
       <c r="M28" s="16">
-        <v>-27.975270479134</v>
+        <v>-29.489051094890</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.304311073541</v>
+        <v>-80.500605571255</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D29" s="15">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16">
-        <v>-27.272727272727</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="F29" s="15">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G29" s="15">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H29" s="16">
-        <v>-22.222222222222</v>
+        <v>-31.858407079646</v>
       </c>
       <c r="I29" s="15">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="J29" s="15">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="K29" s="16">
-        <v>-24.478178368121</v>
+        <v>-25.631768953068</v>
       </c>
       <c r="L29" s="16">
-        <v>-32.081911262798</v>
+        <v>-33.868378812199</v>
       </c>
       <c r="M29" s="16">
-        <v>-25.047080979284</v>
+        <v>-26.296958855098</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.427904806346</v>
+        <v>-81.639928698752</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1482,31 +1482,31 @@
         <v>3</v>
       </c>
       <c r="D30" s="15">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16">
-        <v>-66.666666666666</v>
+        <v>-84.210526315789</v>
       </c>
       <c r="F30" s="15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" s="15">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H30" s="16">
-        <v>-27.659574468085</v>
+        <v>-32.692307692307</v>
       </c>
       <c r="I30" s="15">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="J30" s="15">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="K30" s="16">
-        <v>-29.896907216494</v>
+        <v>-31.290322580645</v>
       </c>
       <c r="L30" s="16">
-        <v>-16.734693877551</v>
+        <v>-16.796875</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">23</t>
+      <t xml:space="preserve">24</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/5/2023</t>
+      <t xml:space="preserve">6/12/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/11/2023</t>
+      <t xml:space="preserve">6/18/2023</t>
     </r>
   </si>
   <si>
@@ -665,7 +665,7 @@
     <col min="4" max="4" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.433768" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.433768" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.699091" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.964413" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.964413" bestFit="1" customWidth="1"/>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
+        <v>7</v>
+      </c>
+      <c r="D14" s="15">
         <v>5</v>
       </c>
-      <c r="D14" s="15">
-        <v>7</v>
-      </c>
       <c r="E14" s="16">
-        <v>-28.571428571428</v>
+        <v>40</v>
       </c>
       <c r="F14" s="15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="15">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H14" s="16">
-        <v>-29.729729729729</v>
+        <v>-17.241379310344</v>
       </c>
       <c r="I14" s="15">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="J14" s="15">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K14" s="16">
-        <v>-12.5</v>
+        <v>-10.152284263959</v>
       </c>
       <c r="L14" s="16">
-        <v>-18.840579710144</v>
+        <v>-18.055555555555</v>
       </c>
       <c r="M14" s="16">
-        <v>-17.241379310344</v>
+        <v>-16.509433962264</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.856115107913</v>
+        <v>-79.249706916764</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D15" s="15">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15" s="16">
-        <v>-42.105263157894</v>
+        <v>-2.941176470588</v>
       </c>
       <c r="F15" s="15">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G15" s="15">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H15" s="16">
-        <v>-26.530612244898</v>
+        <v>-23.611111111111</v>
       </c>
       <c r="I15" s="15">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="J15" s="15">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="K15" s="16">
-        <v>-9.470752089136</v>
+        <v>-9.042553191489</v>
       </c>
       <c r="L15" s="16">
-        <v>5.008077544426</v>
+        <v>5.069124423963</v>
       </c>
       <c r="M15" s="16">
-        <v>17.753623188405</v>
+        <v>17.525773195876</v>
       </c>
       <c r="N15" s="16">
-        <v>-54.672245467224</v>
+        <v>-54.369579719813</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D16" s="15">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="E16" s="16">
-        <v>-13.172043010752</v>
+        <v>-7.352941176470</v>
       </c>
       <c r="F16" s="15">
-        <v>1241</v>
+        <v>1259</v>
       </c>
       <c r="G16" s="15">
-        <v>1424</v>
+        <v>1437</v>
       </c>
       <c r="H16" s="16">
-        <v>-12.851123595505</v>
+        <v>-12.386917188587</v>
       </c>
       <c r="I16" s="15">
-        <v>6861</v>
+        <v>7185</v>
       </c>
       <c r="J16" s="15">
-        <v>7172</v>
+        <v>7513</v>
       </c>
       <c r="K16" s="16">
-        <v>-4.336307863915</v>
+        <v>-4.365766005590</v>
       </c>
       <c r="L16" s="16">
-        <v>34.899724734565</v>
+        <v>34.399551066217</v>
       </c>
       <c r="M16" s="16">
-        <v>-13.096896770107</v>
+        <v>-12.824557146323</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.252561685384</v>
+        <v>-81.253913587977</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="D17" s="15">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="E17" s="16">
-        <v>-11.726384364820</v>
+        <v>-5.990016638935</v>
       </c>
       <c r="F17" s="15">
-        <v>2184</v>
+        <v>2244</v>
       </c>
       <c r="G17" s="15">
-        <v>2285</v>
+        <v>2332</v>
       </c>
       <c r="H17" s="16">
-        <v>-4.420131291028</v>
+        <v>-3.773584905660</v>
       </c>
       <c r="I17" s="15">
-        <v>11671</v>
+        <v>12289</v>
       </c>
       <c r="J17" s="15">
-        <v>10994</v>
+        <v>11597</v>
       </c>
       <c r="K17" s="16">
-        <v>6.157904311442</v>
+        <v>5.967060446667</v>
       </c>
       <c r="L17" s="16">
-        <v>28.182317408017</v>
+        <v>28.519138255595</v>
       </c>
       <c r="M17" s="16">
-        <v>60.404068169323</v>
+        <v>61.484888304862</v>
       </c>
       <c r="N17" s="16">
-        <v>-32.345950959364</v>
+        <v>-32.455754644388</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D18" s="15">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="E18" s="16">
-        <v>-27.457627118644</v>
+        <v>-40.061162079510</v>
       </c>
       <c r="F18" s="15">
-        <v>981</v>
+        <v>911</v>
       </c>
       <c r="G18" s="15">
-        <v>1154</v>
+        <v>1207</v>
       </c>
       <c r="H18" s="16">
-        <v>-14.991334488734</v>
+        <v>-24.523612261806</v>
       </c>
       <c r="I18" s="15">
-        <v>6196</v>
+        <v>6420</v>
       </c>
       <c r="J18" s="15">
-        <v>6797</v>
+        <v>7125</v>
       </c>
       <c r="K18" s="16">
-        <v>-8.842136236574</v>
+        <v>-9.894736842105</v>
       </c>
       <c r="L18" s="16">
-        <v>21.681068342498</v>
+        <v>20.676691729323</v>
       </c>
       <c r="M18" s="16">
-        <v>-20.113460546673</v>
+        <v>-20.416511714392</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.702418312719</v>
+        <v>-85.827188838359</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>1043</v>
+        <v>948</v>
       </c>
       <c r="D19" s="15">
-        <v>1029</v>
+        <v>1050</v>
       </c>
       <c r="E19" s="16">
-        <v>1.360544217687</v>
+        <v>-9.714285714285</v>
       </c>
       <c r="F19" s="15">
-        <v>3942</v>
+        <v>3897</v>
       </c>
       <c r="G19" s="15">
-        <v>3897</v>
+        <v>3966</v>
       </c>
       <c r="H19" s="16">
-        <v>1.154734411085</v>
+        <v>-1.739788199697</v>
       </c>
       <c r="I19" s="15">
-        <v>21549</v>
+        <v>22525</v>
       </c>
       <c r="J19" s="15">
-        <v>21727</v>
+        <v>22779</v>
       </c>
       <c r="K19" s="16">
-        <v>-0.819257145487</v>
+        <v>-1.115062118618</v>
       </c>
       <c r="L19" s="16">
-        <v>50.114942528735</v>
+        <v>49.152430141703</v>
       </c>
       <c r="M19" s="16">
-        <v>38.436335603237</v>
+        <v>37.894092439547</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.020040637960</v>
+        <v>-40.175820673536</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="D20" s="15">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="E20" s="16">
-        <v>29.889298892988</v>
+        <v>30.645161290322</v>
       </c>
       <c r="F20" s="15">
-        <v>1214</v>
+        <v>1235</v>
       </c>
       <c r="G20" s="15">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H20" s="16">
-        <v>24.130879345603</v>
+        <v>26.149131767109</v>
       </c>
       <c r="I20" s="15">
-        <v>6645</v>
+        <v>6957</v>
       </c>
       <c r="J20" s="15">
-        <v>5650</v>
+        <v>5898</v>
       </c>
       <c r="K20" s="16">
-        <v>17.610619469026</v>
+        <v>17.955239064089</v>
       </c>
       <c r="L20" s="16">
-        <v>76.775738228252</v>
+        <v>74.448345035105</v>
       </c>
       <c r="M20" s="16">
-        <v>51.125767568796</v>
+        <v>50.9765625</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.618470337105</v>
+        <v>-86.530232918352</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2501</v>
+        <v>2388</v>
       </c>
       <c r="D21" s="18">
-        <v>2626</v>
+        <v>2605</v>
       </c>
       <c r="E21" s="19">
-        <v>-4.760091393754</v>
+        <v>-8.330134357005</v>
       </c>
       <c r="F21" s="18">
-        <v>9696</v>
+        <v>9680</v>
       </c>
       <c r="G21" s="18">
-        <v>9922</v>
+        <v>10094</v>
       </c>
       <c r="H21" s="19">
-        <v>-2.277766579318</v>
+        <v>-4.101446403804</v>
       </c>
       <c r="I21" s="18">
-        <v>53740</v>
+        <v>56237</v>
       </c>
       <c r="J21" s="18">
-        <v>53250</v>
+        <v>55861</v>
       </c>
       <c r="K21" s="19">
-        <v>0.920187793427</v>
+        <v>0.673099300048</v>
       </c>
       <c r="L21" s="19">
-        <v>40.595976244669</v>
+        <v>39.945253203931</v>
       </c>
       <c r="M21" s="19">
-        <v>23.129797227632</v>
+        <v>23.175486244962</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.957159919367</v>
+        <v>-70.932895029280</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D22" s="15">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E22" s="16">
-        <v>-6.818181818181</v>
+        <v>44.117647058823</v>
       </c>
       <c r="F22" s="15">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G22" s="15">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="H22" s="16">
-        <v>-10.638297872340</v>
+        <v>4.907975460122</v>
       </c>
       <c r="I22" s="15">
-        <v>958</v>
+        <v>1008</v>
       </c>
       <c r="J22" s="15">
-        <v>1040</v>
+        <v>1074</v>
       </c>
       <c r="K22" s="16">
-        <v>-7.884615384615</v>
+        <v>-6.145251396648</v>
       </c>
       <c r="L22" s="16">
-        <v>44.277108433734</v>
+        <v>45.454545454545</v>
       </c>
       <c r="M22" s="16">
-        <v>3.121636167922</v>
+        <v>3.810504634397</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D23" s="15">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="E23" s="16">
-        <v>-28.220858895705</v>
+        <v>-8.130081300813</v>
       </c>
       <c r="F23" s="15">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="G23" s="15">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="H23" s="16">
-        <v>-10.325047801147</v>
+        <v>-11.007462686567</v>
       </c>
       <c r="I23" s="15">
-        <v>2692</v>
+        <v>2814</v>
       </c>
       <c r="J23" s="15">
-        <v>2580</v>
+        <v>2705</v>
       </c>
       <c r="K23" s="16">
-        <v>4.341085271317</v>
+        <v>4.029574861367</v>
       </c>
       <c r="L23" s="16">
-        <v>17.811816192560</v>
+        <v>18.235294117647</v>
       </c>
       <c r="M23" s="16">
-        <v>57.981220657277</v>
+        <v>57.294577976523</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2189</v>
+        <v>2269</v>
       </c>
       <c r="D24" s="15">
-        <v>2347</v>
+        <v>2360</v>
       </c>
       <c r="E24" s="16">
-        <v>-6.731998295696</v>
+        <v>-3.855932203389</v>
       </c>
       <c r="F24" s="15">
-        <v>8872</v>
+        <v>8994</v>
       </c>
       <c r="G24" s="15">
-        <v>9236</v>
+        <v>9345</v>
       </c>
       <c r="H24" s="16">
-        <v>-3.941100043308</v>
+        <v>-3.756019261637</v>
       </c>
       <c r="I24" s="15">
-        <v>47628</v>
+        <v>49899</v>
       </c>
       <c r="J24" s="15">
-        <v>48440</v>
+        <v>50799</v>
       </c>
       <c r="K24" s="16">
-        <v>-1.676300578034</v>
+        <v>-1.771688419063</v>
       </c>
       <c r="L24" s="16">
-        <v>40.338263892981</v>
+        <v>39.961292494109</v>
       </c>
       <c r="M24" s="16">
-        <v>40.173053152039</v>
+        <v>40.012346025421</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>869</v>
+        <v>911</v>
       </c>
       <c r="D25" s="15">
-        <v>917</v>
+        <v>953</v>
       </c>
       <c r="E25" s="16">
-        <v>-5.234460196292</v>
+        <v>-4.407135362014</v>
       </c>
       <c r="F25" s="15">
-        <v>3651</v>
+        <v>3683</v>
       </c>
       <c r="G25" s="15">
-        <v>3554</v>
+        <v>3662</v>
       </c>
       <c r="H25" s="16">
-        <v>2.729319077096</v>
+        <v>0.573457127252</v>
       </c>
       <c r="I25" s="15">
-        <v>18959</v>
+        <v>19873</v>
       </c>
       <c r="J25" s="15">
-        <v>17995</v>
+        <v>18948</v>
       </c>
       <c r="K25" s="16">
-        <v>5.357043623228</v>
+        <v>4.881781718387</v>
       </c>
       <c r="L25" s="16">
-        <v>33.608174770965</v>
+        <v>33.375838926174</v>
       </c>
       <c r="M25" s="16">
-        <v>-5.620270808442</v>
+        <v>-5.577992112890</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D26" s="15">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E26" s="16">
-        <v>-41.538461538461</v>
+        <v>3.846153846153</v>
       </c>
       <c r="F26" s="15">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G26" s="15">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H26" s="16">
-        <v>-17.479674796748</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="I26" s="15">
-        <v>1086</v>
+        <v>1145</v>
       </c>
       <c r="J26" s="15">
-        <v>1188</v>
+        <v>1240</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.585858585858</v>
+        <v>-7.661290322580</v>
       </c>
       <c r="L26" s="16">
-        <v>4.624277456647</v>
+        <v>5.335786568537</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D27" s="15">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E27" s="16">
-        <v>-10.924369747899</v>
+        <v>14.814814814814</v>
       </c>
       <c r="F27" s="15">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="G27" s="15">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="H27" s="16">
-        <v>-4.821802935010</v>
+        <v>-1.068376068376</v>
       </c>
       <c r="I27" s="15">
-        <v>2307</v>
+        <v>2425</v>
       </c>
       <c r="J27" s="15">
-        <v>2219</v>
+        <v>2327</v>
       </c>
       <c r="K27" s="16">
-        <v>3.965750337990</v>
+        <v>4.211431027073</v>
       </c>
       <c r="L27" s="16">
-        <v>17.524197656648</v>
+        <v>17.206379893668</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D28" s="15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" s="16">
-        <v>-43.333333333333</v>
+        <v>-19.354838709677</v>
       </c>
       <c r="F28" s="15">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G28" s="15">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H28" s="16">
-        <v>-33.846153846153</v>
+        <v>-26.984126984127</v>
       </c>
       <c r="I28" s="15">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="J28" s="15">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="K28" s="16">
-        <v>-25.57781201849</v>
+        <v>-25.294117647058</v>
       </c>
       <c r="L28" s="16">
-        <v>-31.779661016949</v>
+        <v>-32.446808510638</v>
       </c>
       <c r="M28" s="16">
-        <v>-29.489051094890</v>
+        <v>-29.050279329608</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.500605571255</v>
+        <v>-80.225768781627</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D29" s="15">
         <v>27</v>
       </c>
       <c r="E29" s="16">
-        <v>-44.444444444444</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="F29" s="15">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G29" s="15">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H29" s="16">
-        <v>-31.858407079646</v>
+        <v>-23.636363636363</v>
       </c>
       <c r="I29" s="15">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="J29" s="15">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="K29" s="16">
-        <v>-25.631768953068</v>
+        <v>-24.956970740103</v>
       </c>
       <c r="L29" s="16">
-        <v>-33.868378812199</v>
+        <v>-33.839150227617</v>
       </c>
       <c r="M29" s="16">
-        <v>-26.296958855098</v>
+        <v>-25.850340136054</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.639928698752</v>
+        <v>-81.279519106912</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30" s="15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16">
-        <v>-84.210526315789</v>
+        <v>-64.705882352941</v>
       </c>
       <c r="F30" s="15">
         <v>35</v>
       </c>
       <c r="G30" s="15">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H30" s="16">
-        <v>-32.692307692307</v>
+        <v>-37.5</v>
       </c>
       <c r="I30" s="15">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="J30" s="15">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="K30" s="16">
-        <v>-31.290322580645</v>
+        <v>-31.498470948012</v>
       </c>
       <c r="L30" s="16">
-        <v>-16.796875</v>
+        <v>-16.104868913857</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">24</t>
+      <t xml:space="preserve">25</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/12/2023</t>
+      <t xml:space="preserve">6/19/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/18/2023</t>
+      <t xml:space="preserve">6/25/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E14" s="16">
-        <v>40</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="F14" s="15">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G14" s="15">
         <v>29</v>
       </c>
       <c r="H14" s="16">
-        <v>-17.241379310344</v>
+        <v>6.896551724137</v>
       </c>
       <c r="I14" s="15">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J14" s="15">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="K14" s="16">
-        <v>-10.152284263959</v>
+        <v>-7.655502392344</v>
       </c>
       <c r="L14" s="16">
-        <v>-18.055555555555</v>
+        <v>-14.601769911504</v>
       </c>
       <c r="M14" s="16">
-        <v>-16.509433962264</v>
+        <v>-14.977973568281</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.249706916764</v>
+        <v>-78.579356270810</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D15" s="15">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E15" s="16">
-        <v>-2.941176470588</v>
+        <v>-44.736842105263</v>
       </c>
       <c r="F15" s="15">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G15" s="15">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H15" s="16">
-        <v>-23.611111111111</v>
+        <v>-27.737226277372</v>
       </c>
       <c r="I15" s="15">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="J15" s="15">
-        <v>752</v>
+        <v>790</v>
       </c>
       <c r="K15" s="16">
-        <v>-9.042553191489</v>
+        <v>-10.379746835443</v>
       </c>
       <c r="L15" s="16">
-        <v>5.069124423963</v>
+        <v>3.660322108345</v>
       </c>
       <c r="M15" s="16">
-        <v>17.525773195876</v>
+        <v>16.256157635468</v>
       </c>
       <c r="N15" s="16">
-        <v>-54.369579719813</v>
+        <v>-54.789272030651</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="D16" s="15">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="E16" s="16">
-        <v>-7.352941176470</v>
+        <v>-7.978723404255</v>
       </c>
       <c r="F16" s="15">
-        <v>1259</v>
+        <v>1304</v>
       </c>
       <c r="G16" s="15">
-        <v>1437</v>
+        <v>1457</v>
       </c>
       <c r="H16" s="16">
-        <v>-12.386917188587</v>
+        <v>-10.501029512697</v>
       </c>
       <c r="I16" s="15">
-        <v>7185</v>
+        <v>7535</v>
       </c>
       <c r="J16" s="15">
-        <v>7513</v>
+        <v>7888</v>
       </c>
       <c r="K16" s="16">
-        <v>-4.365766005590</v>
+        <v>-4.475152129817</v>
       </c>
       <c r="L16" s="16">
-        <v>34.399551066217</v>
+        <v>33.694109297374</v>
       </c>
       <c r="M16" s="16">
-        <v>-12.824557146323</v>
+        <v>-12.475316529213</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.253913587977</v>
+        <v>-81.156847054116</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="D17" s="15">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="E17" s="16">
-        <v>-5.990016638935</v>
+        <v>9.262435677530</v>
       </c>
       <c r="F17" s="15">
-        <v>2244</v>
+        <v>2349</v>
       </c>
       <c r="G17" s="15">
-        <v>2332</v>
+        <v>2364</v>
       </c>
       <c r="H17" s="16">
-        <v>-3.773584905660</v>
+        <v>-0.634517766497</v>
       </c>
       <c r="I17" s="15">
-        <v>12289</v>
+        <v>12959</v>
       </c>
       <c r="J17" s="15">
-        <v>11597</v>
+        <v>12181</v>
       </c>
       <c r="K17" s="16">
-        <v>5.967060446667</v>
+        <v>6.386996141531</v>
       </c>
       <c r="L17" s="16">
-        <v>28.519138255595</v>
+        <v>28.319635607485</v>
       </c>
       <c r="M17" s="16">
-        <v>61.484888304862</v>
+        <v>62.210539491801</v>
       </c>
       <c r="N17" s="16">
-        <v>-32.455754644388</v>
+        <v>-32.557897475930</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="D18" s="15">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E18" s="16">
-        <v>-40.061162079510</v>
+        <v>-18.412698412698</v>
       </c>
       <c r="F18" s="15">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="G18" s="15">
-        <v>1207</v>
+        <v>1251</v>
       </c>
       <c r="H18" s="16">
-        <v>-24.523612261806</v>
+        <v>-25.419664268585</v>
       </c>
       <c r="I18" s="15">
-        <v>6420</v>
+        <v>6687</v>
       </c>
       <c r="J18" s="15">
-        <v>7125</v>
+        <v>7440</v>
       </c>
       <c r="K18" s="16">
-        <v>-9.894736842105</v>
+        <v>-10.120967741935</v>
       </c>
       <c r="L18" s="16">
-        <v>20.676691729323</v>
+        <v>21.383191141768</v>
       </c>
       <c r="M18" s="16">
-        <v>-20.416511714392</v>
+        <v>-20.863905325443</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.827188838359</v>
+        <v>-85.848817031362</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>948</v>
+        <v>996</v>
       </c>
       <c r="D19" s="15">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="E19" s="16">
-        <v>-9.714285714285</v>
+        <v>-2.829268292682</v>
       </c>
       <c r="F19" s="15">
-        <v>3897</v>
+        <v>3945</v>
       </c>
       <c r="G19" s="15">
-        <v>3966</v>
+        <v>4049</v>
       </c>
       <c r="H19" s="16">
-        <v>-1.739788199697</v>
+        <v>-2.568535440849</v>
       </c>
       <c r="I19" s="15">
-        <v>22525</v>
+        <v>23529</v>
       </c>
       <c r="J19" s="15">
-        <v>22779</v>
+        <v>23809</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.115062118618</v>
+        <v>-1.176025872569</v>
       </c>
       <c r="L19" s="16">
-        <v>49.152430141703</v>
+        <v>48.363705151648</v>
       </c>
       <c r="M19" s="16">
-        <v>37.894092439547</v>
+        <v>37.693117977528</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.175820673536</v>
+        <v>-40.160223804679</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="D20" s="15">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="E20" s="16">
-        <v>30.645161290322</v>
+        <v>26.071428571428</v>
       </c>
       <c r="F20" s="15">
-        <v>1235</v>
+        <v>1266</v>
       </c>
       <c r="G20" s="15">
-        <v>979</v>
+        <v>1031</v>
       </c>
       <c r="H20" s="16">
-        <v>26.149131767109</v>
+        <v>22.793404461687</v>
       </c>
       <c r="I20" s="15">
-        <v>6957</v>
+        <v>7305</v>
       </c>
       <c r="J20" s="15">
-        <v>5898</v>
+        <v>6178</v>
       </c>
       <c r="K20" s="16">
-        <v>17.955239064089</v>
+        <v>18.242149562965</v>
       </c>
       <c r="L20" s="16">
-        <v>74.448345035105</v>
+        <v>74.593690248566</v>
       </c>
       <c r="M20" s="16">
-        <v>50.9765625</v>
+        <v>51.556016597510</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.530232918352</v>
+        <v>-86.415115392483</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2388</v>
+        <v>2620</v>
       </c>
       <c r="D21" s="18">
-        <v>2605</v>
+        <v>2629</v>
       </c>
       <c r="E21" s="19">
-        <v>-8.330134357005</v>
+        <v>-0.342335488779</v>
       </c>
       <c r="F21" s="18">
-        <v>9680</v>
+        <v>9927</v>
       </c>
       <c r="G21" s="18">
-        <v>10094</v>
+        <v>10318</v>
       </c>
       <c r="H21" s="19">
-        <v>-4.101446403804</v>
+        <v>-3.789494088001</v>
       </c>
       <c r="I21" s="18">
-        <v>56237</v>
+        <v>58916</v>
       </c>
       <c r="J21" s="18">
-        <v>55861</v>
+        <v>58495</v>
       </c>
       <c r="K21" s="19">
-        <v>0.673099300048</v>
+        <v>0.719719634156</v>
       </c>
       <c r="L21" s="19">
-        <v>39.945253203931</v>
+        <v>39.624608967674</v>
       </c>
       <c r="M21" s="19">
-        <v>23.175486244962</v>
+        <v>23.275862068965</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.932895029280</v>
+        <v>-70.836117752466</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D22" s="15">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E22" s="16">
-        <v>44.117647058823</v>
+        <v>13.157894736842</v>
       </c>
       <c r="F22" s="15">
         <v>171</v>
       </c>
       <c r="G22" s="15">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H22" s="16">
-        <v>4.907975460122</v>
+        <v>4.268292682926</v>
       </c>
       <c r="I22" s="15">
-        <v>1008</v>
+        <v>1053</v>
       </c>
       <c r="J22" s="15">
-        <v>1074</v>
+        <v>1112</v>
       </c>
       <c r="K22" s="16">
-        <v>-6.145251396648</v>
+        <v>-5.305755395683</v>
       </c>
       <c r="L22" s="16">
-        <v>45.454545454545</v>
+        <v>46.047156726768</v>
       </c>
       <c r="M22" s="16">
-        <v>3.810504634397</v>
+        <v>5.3</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D23" s="15">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E23" s="16">
-        <v>-8.130081300813</v>
+        <v>-15.441176470588</v>
       </c>
       <c r="F23" s="15">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="G23" s="15">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="H23" s="16">
-        <v>-11.007462686567</v>
+        <v>-11.849192100538</v>
       </c>
       <c r="I23" s="15">
-        <v>2814</v>
+        <v>2936</v>
       </c>
       <c r="J23" s="15">
-        <v>2705</v>
+        <v>2841</v>
       </c>
       <c r="K23" s="16">
-        <v>4.029574861367</v>
+        <v>3.343892995424</v>
       </c>
       <c r="L23" s="16">
-        <v>18.235294117647</v>
+        <v>17.486994797919</v>
       </c>
       <c r="M23" s="16">
-        <v>57.294577976523</v>
+        <v>54.445028932141</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2269</v>
+        <v>2320</v>
       </c>
       <c r="D24" s="15">
-        <v>2360</v>
+        <v>2477</v>
       </c>
       <c r="E24" s="16">
-        <v>-3.855932203389</v>
+        <v>-6.338312474767</v>
       </c>
       <c r="F24" s="15">
-        <v>8994</v>
+        <v>9011</v>
       </c>
       <c r="G24" s="15">
-        <v>9345</v>
+        <v>9471</v>
       </c>
       <c r="H24" s="16">
-        <v>-3.756019261637</v>
+        <v>-4.856931686199</v>
       </c>
       <c r="I24" s="15">
-        <v>49899</v>
+        <v>52237</v>
       </c>
       <c r="J24" s="15">
-        <v>50799</v>
+        <v>53275</v>
       </c>
       <c r="K24" s="16">
-        <v>-1.771688419063</v>
+        <v>-1.948381041764</v>
       </c>
       <c r="L24" s="16">
-        <v>39.961292494109</v>
+        <v>40.335276576310</v>
       </c>
       <c r="M24" s="16">
-        <v>40.012346025421</v>
+        <v>40.083132207026</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="D25" s="15">
-        <v>953</v>
+        <v>884</v>
       </c>
       <c r="E25" s="16">
-        <v>-4.407135362014</v>
+        <v>0.791855203619</v>
       </c>
       <c r="F25" s="15">
-        <v>3683</v>
+        <v>3680</v>
       </c>
       <c r="G25" s="15">
-        <v>3662</v>
+        <v>3691</v>
       </c>
       <c r="H25" s="16">
-        <v>0.573457127252</v>
+        <v>-0.298022216201</v>
       </c>
       <c r="I25" s="15">
-        <v>19873</v>
+        <v>20776</v>
       </c>
       <c r="J25" s="15">
-        <v>18948</v>
+        <v>19832</v>
       </c>
       <c r="K25" s="16">
-        <v>4.881781718387</v>
+        <v>4.759983864461</v>
       </c>
       <c r="L25" s="16">
-        <v>33.375838926174</v>
+        <v>32.660749632845</v>
       </c>
       <c r="M25" s="16">
-        <v>-5.577992112890</v>
+        <v>-6.029218870143</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D26" s="15">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E26" s="16">
-        <v>3.846153846153</v>
+        <v>-40</v>
       </c>
       <c r="F26" s="15">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="G26" s="15">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H26" s="16">
-        <v>-14.285714285714</v>
+        <v>-21.875</v>
       </c>
       <c r="I26" s="15">
-        <v>1145</v>
+        <v>1182</v>
       </c>
       <c r="J26" s="15">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="K26" s="16">
-        <v>-7.661290322580</v>
+        <v>-9.076923076923</v>
       </c>
       <c r="L26" s="16">
-        <v>5.335786568537</v>
+        <v>4.509283819628</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D27" s="15">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E27" s="16">
-        <v>14.814814814814</v>
+        <v>-6</v>
       </c>
       <c r="F27" s="15">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="G27" s="15">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="H27" s="16">
-        <v>-1.068376068376</v>
+        <v>-2.505694760820</v>
       </c>
       <c r="I27" s="15">
-        <v>2425</v>
+        <v>2514</v>
       </c>
       <c r="J27" s="15">
-        <v>2327</v>
+        <v>2427</v>
       </c>
       <c r="K27" s="16">
-        <v>4.211431027073</v>
+        <v>3.584672435105</v>
       </c>
       <c r="L27" s="16">
-        <v>17.206379893668</v>
+        <v>16.442797591477</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D28" s="15">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E28" s="16">
-        <v>-19.354838709677</v>
+        <v>-40.677966101694</v>
       </c>
       <c r="F28" s="15">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G28" s="15">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="H28" s="16">
-        <v>-26.984126984127</v>
+        <v>-35.443037974683</v>
       </c>
       <c r="I28" s="15">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="J28" s="15">
-        <v>680</v>
+        <v>739</v>
       </c>
       <c r="K28" s="16">
-        <v>-25.294117647058</v>
+        <v>-26.522327469553</v>
       </c>
       <c r="L28" s="16">
-        <v>-32.446808510638</v>
+        <v>-33.210332103321</v>
       </c>
       <c r="M28" s="16">
-        <v>-29.050279329608</v>
+        <v>-29.296875</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.225768781627</v>
+        <v>-80.051432770022</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D29" s="15">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E29" s="16">
-        <v>-11.111111111111</v>
+        <v>-20</v>
       </c>
       <c r="F29" s="15">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G29" s="15">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="H29" s="16">
-        <v>-23.636363636363</v>
+        <v>-25.409836065573</v>
       </c>
       <c r="I29" s="15">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="J29" s="15">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="K29" s="16">
-        <v>-24.956970740103</v>
+        <v>-24.675324675324</v>
       </c>
       <c r="L29" s="16">
-        <v>-33.839150227617</v>
+        <v>-34.370579915134</v>
       </c>
       <c r="M29" s="16">
-        <v>-25.850340136054</v>
+        <v>-26.465927099841</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.279519106912</v>
+        <v>-81.184103811841</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" s="15">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16">
-        <v>-64.705882352941</v>
+        <v>-10</v>
       </c>
       <c r="F30" s="15">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G30" s="15">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30" s="16">
-        <v>-37.5</v>
+        <v>-49.090909090909</v>
       </c>
       <c r="I30" s="15">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J30" s="15">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="K30" s="16">
-        <v>-31.498470948012</v>
+        <v>-32.047477744807</v>
       </c>
       <c r="L30" s="16">
-        <v>-16.104868913857</v>
+        <v>-20.209059233449</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">25</t>
+      <t xml:space="preserve">26</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/19/2023</t>
+      <t xml:space="preserve">6/26/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/25/2023</t>
+      <t xml:space="preserve">7/2/2023</t>
     </r>
   </si>
   <si>
@@ -664,7 +664,7 @@
     <col min="3" max="3" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.433768" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.699091" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.699091" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.964413" bestFit="1" customWidth="1"/>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="15">
         <v>12</v>
       </c>
       <c r="E14" s="16">
+        <v>-50</v>
+      </c>
+      <c r="F14" s="15">
+        <v>30</v>
+      </c>
+      <c r="G14" s="15">
+        <v>36</v>
+      </c>
+      <c r="H14" s="16">
         <v>-16.666666666666</v>
       </c>
-      <c r="F14" s="15">
-        <v>31</v>
-      </c>
-      <c r="G14" s="15">
-        <v>29</v>
-      </c>
-      <c r="H14" s="16">
-        <v>6.896551724137</v>
-      </c>
       <c r="I14" s="15">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J14" s="15">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="K14" s="16">
-        <v>-7.655502392344</v>
+        <v>-9.502262443438</v>
       </c>
       <c r="L14" s="16">
-        <v>-14.601769911504</v>
+        <v>-13.793103448275</v>
       </c>
       <c r="M14" s="16">
-        <v>-14.977973568281</v>
+        <v>-17.355371900826</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.579356270810</v>
+        <v>-78.858350951374</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D15" s="15">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E15" s="16">
-        <v>-44.736842105263</v>
+        <v>0</v>
       </c>
       <c r="F15" s="15">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G15" s="15">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H15" s="16">
-        <v>-27.737226277372</v>
+        <v>-24.637681159420</v>
       </c>
       <c r="I15" s="15">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="J15" s="15">
-        <v>790</v>
+        <v>818</v>
       </c>
       <c r="K15" s="16">
-        <v>-10.379746835443</v>
+        <v>-10.268948655256</v>
       </c>
       <c r="L15" s="16">
-        <v>3.660322108345</v>
+        <v>2.801120448179</v>
       </c>
       <c r="M15" s="16">
-        <v>16.256157635468</v>
+        <v>16.693163751987</v>
       </c>
       <c r="N15" s="16">
-        <v>-54.789272030651</v>
+        <v>-55.134474327628</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D16" s="15">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="E16" s="16">
-        <v>-7.978723404255</v>
+        <v>-14.5</v>
       </c>
       <c r="F16" s="15">
-        <v>1304</v>
+        <v>1336</v>
       </c>
       <c r="G16" s="15">
-        <v>1457</v>
+        <v>1488</v>
       </c>
       <c r="H16" s="16">
-        <v>-10.501029512697</v>
+        <v>-10.215053763440</v>
       </c>
       <c r="I16" s="15">
-        <v>7535</v>
+        <v>7884</v>
       </c>
       <c r="J16" s="15">
-        <v>7888</v>
+        <v>8290</v>
       </c>
       <c r="K16" s="16">
-        <v>-4.475152129817</v>
+        <v>-4.897466827503</v>
       </c>
       <c r="L16" s="16">
-        <v>33.694109297374</v>
+        <v>33.198175367460</v>
       </c>
       <c r="M16" s="16">
-        <v>-12.475316529213</v>
+        <v>-12.292802313939</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.156847054116</v>
+        <v>-81.096245144583</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>637</v>
+        <v>579</v>
       </c>
       <c r="D17" s="15">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="E17" s="16">
-        <v>9.262435677530</v>
+        <v>-2.525252525252</v>
       </c>
       <c r="F17" s="15">
-        <v>2349</v>
+        <v>2380</v>
       </c>
       <c r="G17" s="15">
-        <v>2364</v>
+        <v>2392</v>
       </c>
       <c r="H17" s="16">
-        <v>-0.634517766497</v>
+        <v>-0.501672240802</v>
       </c>
       <c r="I17" s="15">
-        <v>12959</v>
+        <v>13560</v>
       </c>
       <c r="J17" s="15">
-        <v>12181</v>
+        <v>12779</v>
       </c>
       <c r="K17" s="16">
-        <v>6.386996141531</v>
+        <v>6.111589326238</v>
       </c>
       <c r="L17" s="16">
-        <v>28.319635607485</v>
+        <v>27.948669560294</v>
       </c>
       <c r="M17" s="16">
-        <v>62.210539491801</v>
+        <v>61.447791403738</v>
       </c>
       <c r="N17" s="16">
-        <v>-32.557897475930</v>
+        <v>-32.931051538233</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D18" s="15">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="E18" s="16">
-        <v>-18.412698412698</v>
+        <v>-16.296296296296</v>
       </c>
       <c r="F18" s="15">
-        <v>933</v>
+        <v>910</v>
       </c>
       <c r="G18" s="15">
-        <v>1251</v>
+        <v>1207</v>
       </c>
       <c r="H18" s="16">
-        <v>-25.419664268585</v>
+        <v>-24.606462303231</v>
       </c>
       <c r="I18" s="15">
-        <v>6687</v>
+        <v>6926</v>
       </c>
       <c r="J18" s="15">
-        <v>7440</v>
+        <v>7712</v>
       </c>
       <c r="K18" s="16">
-        <v>-10.120967741935</v>
+        <v>-10.191908713692</v>
       </c>
       <c r="L18" s="16">
-        <v>21.383191141768</v>
+        <v>20.767218831735</v>
       </c>
       <c r="M18" s="16">
-        <v>-20.863905325443</v>
+        <v>-21.589493943167</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.848817031362</v>
+        <v>-85.928770240344</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="D19" s="15">
-        <v>1025</v>
+        <v>1097</v>
       </c>
       <c r="E19" s="16">
-        <v>-2.829268292682</v>
+        <v>-7.930720145852</v>
       </c>
       <c r="F19" s="15">
-        <v>3945</v>
+        <v>4017</v>
       </c>
       <c r="G19" s="15">
-        <v>4049</v>
+        <v>4202</v>
       </c>
       <c r="H19" s="16">
-        <v>-2.568535440849</v>
+        <v>-4.402665397429</v>
       </c>
       <c r="I19" s="15">
-        <v>23529</v>
+        <v>24564</v>
       </c>
       <c r="J19" s="15">
-        <v>23809</v>
+        <v>24916</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.176025872569</v>
+        <v>-1.412746829346</v>
       </c>
       <c r="L19" s="16">
-        <v>48.363705151648</v>
+        <v>48.270658538057</v>
       </c>
       <c r="M19" s="16">
-        <v>37.693117977528</v>
+        <v>37.060595915634</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.160223804679</v>
+        <v>-40.229213811227</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D20" s="15">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E20" s="16">
-        <v>26.071428571428</v>
+        <v>18.478260869565</v>
       </c>
       <c r="F20" s="15">
-        <v>1266</v>
+        <v>1337</v>
       </c>
       <c r="G20" s="15">
-        <v>1031</v>
+        <v>1075</v>
       </c>
       <c r="H20" s="16">
-        <v>22.793404461687</v>
+        <v>24.372093023255</v>
       </c>
       <c r="I20" s="15">
-        <v>7305</v>
+        <v>7624</v>
       </c>
       <c r="J20" s="15">
-        <v>6178</v>
+        <v>6455</v>
       </c>
       <c r="K20" s="16">
-        <v>18.242149562965</v>
+        <v>18.109992254066</v>
       </c>
       <c r="L20" s="16">
-        <v>74.593690248566</v>
+        <v>72.958257713248</v>
       </c>
       <c r="M20" s="16">
-        <v>51.556016597510</v>
+        <v>51.842262497510</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.415115392483</v>
+        <v>-86.339365705070</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2620</v>
+        <v>2518</v>
       </c>
       <c r="D21" s="18">
-        <v>2629</v>
+        <v>2677</v>
       </c>
       <c r="E21" s="19">
-        <v>-0.342335488779</v>
+        <v>-5.939484497571</v>
       </c>
       <c r="F21" s="18">
-        <v>9927</v>
+        <v>10114</v>
       </c>
       <c r="G21" s="18">
-        <v>10318</v>
+        <v>10538</v>
       </c>
       <c r="H21" s="19">
-        <v>-3.789494088001</v>
+        <v>-4.023533877396</v>
       </c>
       <c r="I21" s="18">
-        <v>58916</v>
+        <v>61492</v>
       </c>
       <c r="J21" s="18">
-        <v>58495</v>
+        <v>61191</v>
       </c>
       <c r="K21" s="19">
-        <v>0.719719634156</v>
+        <v>0.491902403948</v>
       </c>
       <c r="L21" s="19">
-        <v>39.624608967674</v>
+        <v>39.207208023000</v>
       </c>
       <c r="M21" s="19">
-        <v>23.275862068965</v>
+        <v>22.897971420006</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.836117752466</v>
+        <v>-70.806232612018</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D22" s="15">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E22" s="16">
-        <v>13.157894736842</v>
+        <v>28.888888888888</v>
       </c>
       <c r="F22" s="15">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G22" s="15">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H22" s="16">
-        <v>4.268292682926</v>
+        <v>19.254658385093</v>
       </c>
       <c r="I22" s="15">
-        <v>1053</v>
+        <v>1113</v>
       </c>
       <c r="J22" s="15">
-        <v>1112</v>
+        <v>1157</v>
       </c>
       <c r="K22" s="16">
-        <v>-5.305755395683</v>
+        <v>-3.802938634399</v>
       </c>
       <c r="L22" s="16">
-        <v>46.047156726768</v>
+        <v>49.395973154362</v>
       </c>
       <c r="M22" s="16">
-        <v>5.3</v>
+        <v>7.122232916265</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D23" s="15">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E23" s="16">
-        <v>-15.441176470588</v>
+        <v>1.639344262295</v>
       </c>
       <c r="F23" s="15">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="G23" s="15">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="H23" s="16">
-        <v>-11.849192100538</v>
+        <v>-11.764705882352</v>
       </c>
       <c r="I23" s="15">
-        <v>2936</v>
+        <v>3064</v>
       </c>
       <c r="J23" s="15">
-        <v>2841</v>
+        <v>2963</v>
       </c>
       <c r="K23" s="16">
-        <v>3.343892995424</v>
+        <v>3.408707391157</v>
       </c>
       <c r="L23" s="16">
-        <v>17.486994797919</v>
+        <v>17.035905271199</v>
       </c>
       <c r="M23" s="16">
-        <v>54.445028932141</v>
+        <v>54.047259929612</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2320</v>
+        <v>2253</v>
       </c>
       <c r="D24" s="15">
-        <v>2477</v>
+        <v>2354</v>
       </c>
       <c r="E24" s="16">
-        <v>-6.338312474767</v>
+        <v>-4.290569243840</v>
       </c>
       <c r="F24" s="15">
-        <v>9011</v>
+        <v>9103</v>
       </c>
       <c r="G24" s="15">
-        <v>9471</v>
+        <v>9538</v>
       </c>
       <c r="H24" s="16">
-        <v>-4.856931686199</v>
+        <v>-4.560704550220</v>
       </c>
       <c r="I24" s="15">
-        <v>52237</v>
+        <v>54523</v>
       </c>
       <c r="J24" s="15">
-        <v>53275</v>
+        <v>55628</v>
       </c>
       <c r="K24" s="16">
-        <v>-1.948381041764</v>
+        <v>-1.986409721722</v>
       </c>
       <c r="L24" s="16">
-        <v>40.335276576310</v>
+        <v>40.324282589113</v>
       </c>
       <c r="M24" s="16">
-        <v>40.083132207026</v>
+        <v>39.652169458531</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="D25" s="15">
-        <v>884</v>
+        <v>977</v>
       </c>
       <c r="E25" s="16">
-        <v>0.791855203619</v>
+        <v>-6.448311156601</v>
       </c>
       <c r="F25" s="15">
-        <v>3680</v>
+        <v>3640</v>
       </c>
       <c r="G25" s="15">
-        <v>3691</v>
+        <v>3731</v>
       </c>
       <c r="H25" s="16">
-        <v>-0.298022216201</v>
+        <v>-2.439024390243</v>
       </c>
       <c r="I25" s="15">
-        <v>20776</v>
+        <v>21713</v>
       </c>
       <c r="J25" s="15">
-        <v>19832</v>
+        <v>20809</v>
       </c>
       <c r="K25" s="16">
-        <v>4.759983864461</v>
+        <v>4.344274112163</v>
       </c>
       <c r="L25" s="16">
-        <v>32.660749632845</v>
+        <v>31.546104446867</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.029218870143</v>
+        <v>-6.146531229738</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D26" s="15">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E26" s="16">
-        <v>-40</v>
+        <v>-2.272727272727</v>
       </c>
       <c r="F26" s="15">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G26" s="15">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H26" s="16">
-        <v>-21.875</v>
+        <v>-22.171945701357</v>
       </c>
       <c r="I26" s="15">
-        <v>1182</v>
+        <v>1226</v>
       </c>
       <c r="J26" s="15">
-        <v>1300</v>
+        <v>1344</v>
       </c>
       <c r="K26" s="16">
-        <v>-9.076923076923</v>
+        <v>-8.779761904761</v>
       </c>
       <c r="L26" s="16">
-        <v>4.509283819628</v>
+        <v>2.680067001675</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D27" s="15">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="16">
-        <v>-6</v>
+        <v>20.202020202020</v>
       </c>
       <c r="F27" s="15">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="G27" s="15">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="H27" s="16">
-        <v>-2.505694760820</v>
+        <v>3.755868544600</v>
       </c>
       <c r="I27" s="15">
-        <v>2514</v>
+        <v>2631</v>
       </c>
       <c r="J27" s="15">
-        <v>2427</v>
+        <v>2526</v>
       </c>
       <c r="K27" s="16">
-        <v>3.584672435105</v>
+        <v>4.156769596199</v>
       </c>
       <c r="L27" s="16">
-        <v>16.442797591477</v>
+        <v>16.829484902309</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D28" s="15">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E28" s="16">
-        <v>-40.677966101694</v>
+        <v>-28.571428571428</v>
       </c>
       <c r="F28" s="15">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G28" s="15">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H28" s="16">
-        <v>-35.443037974683</v>
+        <v>-33.950617283950</v>
       </c>
       <c r="I28" s="15">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="J28" s="15">
-        <v>739</v>
+        <v>781</v>
       </c>
       <c r="K28" s="16">
-        <v>-26.522327469553</v>
+        <v>-26.632522407170</v>
       </c>
       <c r="L28" s="16">
-        <v>-33.210332103321</v>
+        <v>-33.833718244803</v>
       </c>
       <c r="M28" s="16">
-        <v>-29.296875</v>
+        <v>-31.377245508982</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.051432770022</v>
+        <v>-79.873551106427</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D29" s="15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="16">
-        <v>-20</v>
+        <v>-36.111111111111</v>
       </c>
       <c r="F29" s="15">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="15">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H29" s="16">
-        <v>-25.409836065573</v>
+        <v>-28</v>
       </c>
       <c r="I29" s="15">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="J29" s="15">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="K29" s="16">
-        <v>-24.675324675324</v>
+        <v>-25.306748466257</v>
       </c>
       <c r="L29" s="16">
-        <v>-34.370579915134</v>
+        <v>-34.893048128342</v>
       </c>
       <c r="M29" s="16">
-        <v>-26.465927099841</v>
+        <v>-28.592375366568</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.184103811841</v>
+        <v>-81.153250773993</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D30" s="15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16">
-        <v>-10</v>
+        <v>-71.428571428571</v>
       </c>
       <c r="F30" s="15">
         <v>28</v>
       </c>
       <c r="G30" s="15">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H30" s="16">
-        <v>-49.090909090909</v>
+        <v>-53.333333333333</v>
       </c>
       <c r="I30" s="15">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J30" s="15">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="K30" s="16">
-        <v>-32.047477744807</v>
+        <v>-33.048433048433</v>
       </c>
       <c r="L30" s="16">
-        <v>-20.209059233449</v>
+        <v>-20.875420875420</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -26,7 +26,7 @@
     <t>City of New York</t>
   </si>
   <si>
-    <t>Keechant Sewell</t>
+    <t>Edward A. Caban</t>
   </si>
   <si>
     <t>Mayor</t>
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">26</t>
+      <t xml:space="preserve">27</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/26/2023</t>
+      <t xml:space="preserve">7/3/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/2/2023</t>
+      <t xml:space="preserve">7/9/2023</t>
     </r>
   </si>
   <si>
@@ -664,7 +664,7 @@
     <col min="3" max="3" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.699091" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.699091" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.964413" bestFit="1" customWidth="1"/>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="16">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G14" s="15">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H14" s="16">
-        <v>-16.666666666666</v>
+        <v>-10.256410256410</v>
       </c>
       <c r="I14" s="15">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J14" s="15">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K14" s="16">
-        <v>-9.502262443438</v>
+        <v>-8.225108225108</v>
       </c>
       <c r="L14" s="16">
-        <v>-13.793103448275</v>
+        <v>-11.666666666666</v>
       </c>
       <c r="M14" s="16">
-        <v>-17.355371900826</v>
+        <v>-19.391634980988</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.858350951374</v>
+        <v>-78.300921187308</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="16">
-        <v>0</v>
+        <v>-3.333333333333</v>
       </c>
       <c r="F15" s="15">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G15" s="15">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H15" s="16">
-        <v>-24.637681159420</v>
+        <v>-15.384615384615</v>
       </c>
       <c r="I15" s="15">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="J15" s="15">
-        <v>818</v>
+        <v>848</v>
       </c>
       <c r="K15" s="16">
-        <v>-10.268948655256</v>
+        <v>-9.669811320754</v>
       </c>
       <c r="L15" s="16">
-        <v>2.801120448179</v>
+        <v>1.591511936339</v>
       </c>
       <c r="M15" s="16">
-        <v>16.693163751987</v>
+        <v>18.027734976887</v>
       </c>
       <c r="N15" s="16">
-        <v>-55.134474327628</v>
+        <v>-55.361305361305</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D16" s="15">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="E16" s="16">
-        <v>-14.5</v>
+        <v>-17.015706806282</v>
       </c>
       <c r="F16" s="15">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="G16" s="15">
-        <v>1488</v>
+        <v>1498</v>
       </c>
       <c r="H16" s="16">
-        <v>-10.215053763440</v>
+        <v>-11.281708945260</v>
       </c>
       <c r="I16" s="15">
-        <v>7884</v>
+        <v>8211</v>
       </c>
       <c r="J16" s="15">
-        <v>8290</v>
+        <v>8672</v>
       </c>
       <c r="K16" s="16">
-        <v>-4.897466827503</v>
+        <v>-5.315959409594</v>
       </c>
       <c r="L16" s="16">
-        <v>33.198175367460</v>
+        <v>32.499596578989</v>
       </c>
       <c r="M16" s="16">
-        <v>-12.292802313939</v>
+        <v>-12.191209496310</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.096245144583</v>
+        <v>-81.000092558311</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="D17" s="15">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="E17" s="16">
-        <v>-2.525252525252</v>
+        <v>-1.502504173622</v>
       </c>
       <c r="F17" s="15">
-        <v>2380</v>
+        <v>2421</v>
       </c>
       <c r="G17" s="15">
-        <v>2392</v>
+        <v>2377</v>
       </c>
       <c r="H17" s="16">
-        <v>-0.501672240802</v>
+        <v>1.851072780816</v>
       </c>
       <c r="I17" s="15">
-        <v>13560</v>
+        <v>14175</v>
       </c>
       <c r="J17" s="15">
-        <v>12779</v>
+        <v>13378</v>
       </c>
       <c r="K17" s="16">
-        <v>6.111589326238</v>
+        <v>5.957542233517</v>
       </c>
       <c r="L17" s="16">
-        <v>27.948669560294</v>
+        <v>27.541839121828</v>
       </c>
       <c r="M17" s="16">
-        <v>61.447791403738</v>
+        <v>61.097852028639</v>
       </c>
       <c r="N17" s="16">
-        <v>-32.931051538233</v>
+        <v>-33.341170938161</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D18" s="15">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="E18" s="16">
-        <v>-16.296296296296</v>
+        <v>-29.292929292929</v>
       </c>
       <c r="F18" s="15">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="G18" s="15">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="H18" s="16">
-        <v>-24.606462303231</v>
+        <v>-25.392886683209</v>
       </c>
       <c r="I18" s="15">
-        <v>6926</v>
+        <v>7148</v>
       </c>
       <c r="J18" s="15">
-        <v>7712</v>
+        <v>8009</v>
       </c>
       <c r="K18" s="16">
-        <v>-10.191908713692</v>
+        <v>-10.750405793482</v>
       </c>
       <c r="L18" s="16">
-        <v>20.767218831735</v>
+        <v>19.511787326534</v>
       </c>
       <c r="M18" s="16">
-        <v>-21.589493943167</v>
+        <v>-22.236727589208</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.928770240344</v>
+        <v>-86.016120197198</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>1010</v>
+        <v>883</v>
       </c>
       <c r="D19" s="15">
-        <v>1097</v>
+        <v>990</v>
       </c>
       <c r="E19" s="16">
-        <v>-7.930720145852</v>
+        <v>-10.808080808080</v>
       </c>
       <c r="F19" s="15">
-        <v>4017</v>
+        <v>3853</v>
       </c>
       <c r="G19" s="15">
-        <v>4202</v>
+        <v>4163</v>
       </c>
       <c r="H19" s="16">
-        <v>-4.402665397429</v>
+        <v>-7.446552966610</v>
       </c>
       <c r="I19" s="15">
-        <v>24564</v>
+        <v>25456</v>
       </c>
       <c r="J19" s="15">
-        <v>24916</v>
+        <v>25906</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.412746829346</v>
+        <v>-1.737049332201</v>
       </c>
       <c r="L19" s="16">
-        <v>48.270658538057</v>
+        <v>47.810939495993</v>
       </c>
       <c r="M19" s="16">
-        <v>37.060595915634</v>
+        <v>37.162562638073</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.229213811227</v>
+        <v>-40.483037572186</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D20" s="15">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E20" s="16">
-        <v>18.478260869565</v>
+        <v>6.338028169014</v>
       </c>
       <c r="F20" s="15">
-        <v>1337</v>
+        <v>1291</v>
       </c>
       <c r="G20" s="15">
-        <v>1075</v>
+        <v>1088</v>
       </c>
       <c r="H20" s="16">
-        <v>24.372093023255</v>
+        <v>18.658088235294</v>
       </c>
       <c r="I20" s="15">
-        <v>7624</v>
+        <v>7919</v>
       </c>
       <c r="J20" s="15">
-        <v>6455</v>
+        <v>6739</v>
       </c>
       <c r="K20" s="16">
-        <v>18.109992254066</v>
+        <v>17.510016322896</v>
       </c>
       <c r="L20" s="16">
-        <v>72.958257713248</v>
+        <v>72.002606429192</v>
       </c>
       <c r="M20" s="16">
-        <v>51.842262497510</v>
+        <v>51.734048668327</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.339365705070</v>
+        <v>-86.278892469764</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2518</v>
+        <v>2341</v>
       </c>
       <c r="D21" s="18">
-        <v>2677</v>
+        <v>2592</v>
       </c>
       <c r="E21" s="19">
-        <v>-5.939484497571</v>
+        <v>-9.683641975308</v>
       </c>
       <c r="F21" s="18">
-        <v>10114</v>
+        <v>9941</v>
       </c>
       <c r="G21" s="18">
-        <v>10538</v>
+        <v>10504</v>
       </c>
       <c r="H21" s="19">
-        <v>-4.023533877396</v>
+        <v>-5.359862909367</v>
       </c>
       <c r="I21" s="18">
-        <v>61492</v>
+        <v>63887</v>
       </c>
       <c r="J21" s="18">
-        <v>61191</v>
+        <v>63783</v>
       </c>
       <c r="K21" s="19">
-        <v>0.491902403948</v>
+        <v>0.163052851073</v>
       </c>
       <c r="L21" s="19">
-        <v>39.207208023000</v>
+        <v>38.547449687716</v>
       </c>
       <c r="M21" s="19">
-        <v>22.897971420006</v>
+        <v>22.784055965559</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.806232612018</v>
+        <v>-70.797851674094</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D22" s="15">
         <v>45</v>
       </c>
       <c r="E22" s="16">
-        <v>28.888888888888</v>
+        <v>-26.666666666666</v>
       </c>
       <c r="F22" s="15">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G22" s="15">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H22" s="16">
-        <v>19.254658385093</v>
+        <v>12.962962962963</v>
       </c>
       <c r="I22" s="15">
-        <v>1113</v>
+        <v>1147</v>
       </c>
       <c r="J22" s="15">
-        <v>1157</v>
+        <v>1202</v>
       </c>
       <c r="K22" s="16">
-        <v>-3.802938634399</v>
+        <v>-4.575707154742</v>
       </c>
       <c r="L22" s="16">
-        <v>49.395973154362</v>
+        <v>47.429305912596</v>
       </c>
       <c r="M22" s="16">
-        <v>7.122232916265</v>
+        <v>6.105457909343</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D23" s="15">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E23" s="16">
-        <v>1.639344262295</v>
+        <v>8.474576271186</v>
       </c>
       <c r="F23" s="15">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G23" s="15">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="H23" s="16">
-        <v>-11.764705882352</v>
+        <v>-3.006012024048</v>
       </c>
       <c r="I23" s="15">
-        <v>3064</v>
+        <v>3193</v>
       </c>
       <c r="J23" s="15">
-        <v>2963</v>
+        <v>3081</v>
       </c>
       <c r="K23" s="16">
-        <v>3.408707391157</v>
+        <v>3.635183382018</v>
       </c>
       <c r="L23" s="16">
-        <v>17.035905271199</v>
+        <v>16.447848285922</v>
       </c>
       <c r="M23" s="16">
-        <v>54.047259929612</v>
+        <v>53.288526164186</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2253</v>
+        <v>2058</v>
       </c>
       <c r="D24" s="15">
-        <v>2354</v>
+        <v>2432</v>
       </c>
       <c r="E24" s="16">
-        <v>-4.290569243840</v>
+        <v>-15.378289473684</v>
       </c>
       <c r="F24" s="15">
-        <v>9103</v>
+        <v>8980</v>
       </c>
       <c r="G24" s="15">
-        <v>9538</v>
+        <v>9623</v>
       </c>
       <c r="H24" s="16">
-        <v>-4.560704550220</v>
+        <v>-6.681907928920</v>
       </c>
       <c r="I24" s="15">
-        <v>54523</v>
+        <v>56599</v>
       </c>
       <c r="J24" s="15">
-        <v>55628</v>
+        <v>58060</v>
       </c>
       <c r="K24" s="16">
-        <v>-1.986409721722</v>
+        <v>-2.516362383740</v>
       </c>
       <c r="L24" s="16">
-        <v>40.324282589113</v>
+        <v>40.117344160023</v>
       </c>
       <c r="M24" s="16">
-        <v>39.652169458531</v>
+        <v>39.550766803096</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D25" s="15">
-        <v>977</v>
+        <v>912</v>
       </c>
       <c r="E25" s="16">
-        <v>-6.448311156601</v>
+        <v>-0.219298245614</v>
       </c>
       <c r="F25" s="15">
-        <v>3640</v>
+        <v>3681</v>
       </c>
       <c r="G25" s="15">
-        <v>3731</v>
+        <v>3726</v>
       </c>
       <c r="H25" s="16">
-        <v>-2.439024390243</v>
+        <v>-1.207729468599</v>
       </c>
       <c r="I25" s="15">
-        <v>21713</v>
+        <v>22632</v>
       </c>
       <c r="J25" s="15">
-        <v>20809</v>
+        <v>21721</v>
       </c>
       <c r="K25" s="16">
-        <v>4.344274112163</v>
+        <v>4.194097877629</v>
       </c>
       <c r="L25" s="16">
-        <v>31.546104446867</v>
+        <v>31.512580626416</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.146531229738</v>
+        <v>-6.134129650367</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D26" s="15">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E26" s="16">
-        <v>-2.272727272727</v>
+        <v>-8</v>
       </c>
       <c r="F26" s="15">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G26" s="15">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="H26" s="16">
-        <v>-22.171945701357</v>
+        <v>-14.077669902912</v>
       </c>
       <c r="I26" s="15">
-        <v>1226</v>
+        <v>1273</v>
       </c>
       <c r="J26" s="15">
-        <v>1344</v>
+        <v>1394</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.779761904761</v>
+        <v>-8.680057388809</v>
       </c>
       <c r="L26" s="16">
-        <v>2.680067001675</v>
+        <v>1.84</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D27" s="15">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E27" s="16">
-        <v>20.202020202020</v>
+        <v>-5.154639175257</v>
       </c>
       <c r="F27" s="15">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="G27" s="15">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="H27" s="16">
-        <v>3.755868544600</v>
+        <v>4.455445544554</v>
       </c>
       <c r="I27" s="15">
-        <v>2631</v>
+        <v>2712</v>
       </c>
       <c r="J27" s="15">
-        <v>2526</v>
+        <v>2623</v>
       </c>
       <c r="K27" s="16">
-        <v>4.156769596199</v>
+        <v>3.393061380099</v>
       </c>
       <c r="L27" s="16">
-        <v>16.829484902309</v>
+        <v>15.404255319148</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D28" s="15">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E28" s="16">
-        <v>-28.571428571428</v>
+        <v>-22.033898305084</v>
       </c>
       <c r="F28" s="15">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="G28" s="15">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="H28" s="16">
-        <v>-33.950617283950</v>
+        <v>-28.272251308900</v>
       </c>
       <c r="I28" s="15">
-        <v>573</v>
+        <v>620</v>
       </c>
       <c r="J28" s="15">
-        <v>781</v>
+        <v>840</v>
       </c>
       <c r="K28" s="16">
-        <v>-26.632522407170</v>
+        <v>-26.190476190476</v>
       </c>
       <c r="L28" s="16">
-        <v>-33.833718244803</v>
+        <v>-32.240437158469</v>
       </c>
       <c r="M28" s="16">
-        <v>-31.377245508982</v>
+        <v>-29.864253393665</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.873551106427</v>
+        <v>-79.374584165003</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D29" s="15">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E29" s="16">
-        <v>-36.111111111111</v>
+        <v>-23.404255319148</v>
       </c>
       <c r="F29" s="15">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G29" s="15">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="H29" s="16">
-        <v>-28</v>
+        <v>-22.758620689655</v>
       </c>
       <c r="I29" s="15">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="J29" s="15">
-        <v>652</v>
+        <v>699</v>
       </c>
       <c r="K29" s="16">
-        <v>-25.306748466257</v>
+        <v>-25.035765379113</v>
       </c>
       <c r="L29" s="16">
-        <v>-34.893048128342</v>
+        <v>-33.754740834386</v>
       </c>
       <c r="M29" s="16">
-        <v>-28.592375366568</v>
+        <v>-27.524204702627</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.153250773993</v>
+        <v>-80.714022819286</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30" s="15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E30" s="16">
-        <v>-71.428571428571</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="F30" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="15">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H30" s="16">
-        <v>-53.333333333333</v>
+        <v>-37.5</v>
       </c>
       <c r="I30" s="15">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="J30" s="15">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K30" s="16">
-        <v>-33.048433048433</v>
+        <v>-31.564245810055</v>
       </c>
       <c r="L30" s="16">
-        <v>-20.875420875420</v>
+        <v>-19.141914191419</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">27</t>
+      <t xml:space="preserve">28</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/3/2023</t>
+      <t xml:space="preserve">7/10/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/9/2023</t>
+      <t xml:space="preserve">7/16/2023</t>
     </r>
   </si>
   <si>
@@ -664,7 +664,7 @@
     <col min="3" max="3" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.433768" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.699091" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.699091" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.964413" bestFit="1" customWidth="1"/>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>-64.285714285714</v>
       </c>
       <c r="F14" s="15">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" s="15">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H14" s="16">
-        <v>-10.256410256410</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I14" s="15">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J14" s="15">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="K14" s="16">
-        <v>-8.225108225108</v>
+        <v>-11.020408163265</v>
       </c>
       <c r="L14" s="16">
-        <v>-11.666666666666</v>
+        <v>-13.147410358565</v>
       </c>
       <c r="M14" s="16">
-        <v>-19.391634980988</v>
+        <v>-21.014492753623</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.300921187308</v>
+        <v>-78.793774319066</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D15" s="15">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E15" s="16">
-        <v>-3.333333333333</v>
+        <v>-5.263157894736</v>
       </c>
       <c r="F15" s="15">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G15" s="15">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H15" s="16">
-        <v>-15.384615384615</v>
+        <v>-16.417910447761</v>
       </c>
       <c r="I15" s="15">
-        <v>766</v>
+        <v>799</v>
       </c>
       <c r="J15" s="15">
-        <v>848</v>
+        <v>886</v>
       </c>
       <c r="K15" s="16">
-        <v>-9.669811320754</v>
+        <v>-9.819413092550</v>
       </c>
       <c r="L15" s="16">
-        <v>1.591511936339</v>
+        <v>1.783439490445</v>
       </c>
       <c r="M15" s="16">
-        <v>18.027734976887</v>
+        <v>18.195266272189</v>
       </c>
       <c r="N15" s="16">
-        <v>-55.361305361305</v>
+        <v>-55.162738496071</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="D16" s="15">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="E16" s="16">
-        <v>-17.015706806282</v>
+        <v>-19.285714285714</v>
       </c>
       <c r="F16" s="15">
-        <v>1329</v>
+        <v>1360</v>
       </c>
       <c r="G16" s="15">
-        <v>1498</v>
+        <v>1578</v>
       </c>
       <c r="H16" s="16">
-        <v>-11.281708945260</v>
+        <v>-13.814955640050</v>
       </c>
       <c r="I16" s="15">
-        <v>8211</v>
+        <v>8549</v>
       </c>
       <c r="J16" s="15">
-        <v>8672</v>
+        <v>9092</v>
       </c>
       <c r="K16" s="16">
-        <v>-5.315959409594</v>
+        <v>-5.972283326000</v>
       </c>
       <c r="L16" s="16">
-        <v>32.499596578989</v>
+        <v>31.867962363103</v>
       </c>
       <c r="M16" s="16">
-        <v>-12.191209496310</v>
+        <v>-12.407786885245</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.000092558311</v>
+        <v>-80.941234171571</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="D17" s="15">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E17" s="16">
-        <v>-1.502504173622</v>
+        <v>-5.743243243243</v>
       </c>
       <c r="F17" s="15">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="G17" s="15">
-        <v>2377</v>
+        <v>2368</v>
       </c>
       <c r="H17" s="16">
-        <v>1.851072780816</v>
+        <v>2.153716216216</v>
       </c>
       <c r="I17" s="15">
-        <v>14175</v>
+        <v>14757</v>
       </c>
       <c r="J17" s="15">
-        <v>13378</v>
+        <v>13972</v>
       </c>
       <c r="K17" s="16">
-        <v>5.957542233517</v>
+        <v>5.618379616375</v>
       </c>
       <c r="L17" s="16">
-        <v>27.541839121828</v>
+        <v>27.007487735605</v>
       </c>
       <c r="M17" s="16">
-        <v>61.097852028639</v>
+        <v>61.349223704351</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.341170938161</v>
+        <v>-33.718109953287</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="D18" s="15">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="E18" s="16">
-        <v>-29.292929292929</v>
+        <v>-19.018404907975</v>
       </c>
       <c r="F18" s="15">
-        <v>902</v>
+        <v>978</v>
       </c>
       <c r="G18" s="15">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H18" s="16">
-        <v>-25.392886683209</v>
+        <v>-19.039735099337</v>
       </c>
       <c r="I18" s="15">
-        <v>7148</v>
+        <v>7426</v>
       </c>
       <c r="J18" s="15">
-        <v>8009</v>
+        <v>8335</v>
       </c>
       <c r="K18" s="16">
-        <v>-10.750405793482</v>
+        <v>-10.905818836232</v>
       </c>
       <c r="L18" s="16">
-        <v>19.511787326534</v>
+        <v>19.312339331619</v>
       </c>
       <c r="M18" s="16">
-        <v>-22.236727589208</v>
+        <v>-22.346543971557</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.016120197198</v>
+        <v>-86.025066807181</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>883</v>
+        <v>987</v>
       </c>
       <c r="D19" s="15">
-        <v>990</v>
+        <v>1059</v>
       </c>
       <c r="E19" s="16">
-        <v>-10.808080808080</v>
+        <v>-6.798866855524</v>
       </c>
       <c r="F19" s="15">
-        <v>3853</v>
+        <v>3887</v>
       </c>
       <c r="G19" s="15">
-        <v>4163</v>
+        <v>4171</v>
       </c>
       <c r="H19" s="16">
-        <v>-7.446552966610</v>
+        <v>-6.808918724526</v>
       </c>
       <c r="I19" s="15">
-        <v>25456</v>
+        <v>26439</v>
       </c>
       <c r="J19" s="15">
-        <v>25906</v>
+        <v>26972</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.737049332201</v>
+        <v>-1.976123387216</v>
       </c>
       <c r="L19" s="16">
-        <v>47.810939495993</v>
+        <v>46.809928369148</v>
       </c>
       <c r="M19" s="16">
-        <v>37.162562638073</v>
+        <v>36.897426603842</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.483037572186</v>
+        <v>-40.667848567132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="D20" s="15">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="E20" s="16">
-        <v>6.338028169014</v>
+        <v>2.077151335311</v>
       </c>
       <c r="F20" s="15">
-        <v>1291</v>
+        <v>1316</v>
       </c>
       <c r="G20" s="15">
-        <v>1088</v>
+        <v>1177</v>
       </c>
       <c r="H20" s="16">
-        <v>18.658088235294</v>
+        <v>11.809685641461</v>
       </c>
       <c r="I20" s="15">
-        <v>7919</v>
+        <v>8252</v>
       </c>
       <c r="J20" s="15">
-        <v>6739</v>
+        <v>7076</v>
       </c>
       <c r="K20" s="16">
-        <v>17.510016322896</v>
+        <v>16.619559072922</v>
       </c>
       <c r="L20" s="16">
-        <v>72.002606429192</v>
+        <v>71.132310244711</v>
       </c>
       <c r="M20" s="16">
-        <v>51.734048668327</v>
+        <v>51.412844036697</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.278892469764</v>
+        <v>-86.195359419174</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2341</v>
+        <v>2533</v>
       </c>
       <c r="D21" s="18">
-        <v>2592</v>
+        <v>2786</v>
       </c>
       <c r="E21" s="19">
-        <v>-9.683641975308</v>
+        <v>-9.081119885139</v>
       </c>
       <c r="F21" s="18">
-        <v>9941</v>
+        <v>10104</v>
       </c>
       <c r="G21" s="18">
-        <v>10504</v>
+        <v>10684</v>
       </c>
       <c r="H21" s="19">
-        <v>-5.359862909367</v>
+        <v>-5.428678397603</v>
       </c>
       <c r="I21" s="18">
-        <v>63887</v>
+        <v>66440</v>
       </c>
       <c r="J21" s="18">
-        <v>63783</v>
+        <v>66578</v>
       </c>
       <c r="K21" s="19">
-        <v>0.163052851073</v>
+        <v>-0.207275676649</v>
       </c>
       <c r="L21" s="19">
-        <v>38.547449687716</v>
+        <v>37.862345153860</v>
       </c>
       <c r="M21" s="19">
-        <v>22.784055965559</v>
+        <v>22.619223386977</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.797851674094</v>
+        <v>-70.783532536520</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D22" s="15">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E22" s="16">
-        <v>-26.666666666666</v>
+        <v>-14</v>
       </c>
       <c r="F22" s="15">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G22" s="15">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="H22" s="16">
-        <v>12.962962962963</v>
+        <v>0</v>
       </c>
       <c r="I22" s="15">
-        <v>1147</v>
+        <v>1190</v>
       </c>
       <c r="J22" s="15">
-        <v>1202</v>
+        <v>1252</v>
       </c>
       <c r="K22" s="16">
-        <v>-4.575707154742</v>
+        <v>-4.952076677316</v>
       </c>
       <c r="L22" s="16">
-        <v>47.429305912596</v>
+        <v>49.122807017543</v>
       </c>
       <c r="M22" s="16">
-        <v>6.105457909343</v>
+        <v>6.726457399103</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D23" s="15">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="16">
-        <v>8.474576271186</v>
+        <v>3.418803418803</v>
       </c>
       <c r="F23" s="15">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G23" s="15">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H23" s="16">
-        <v>-3.006012024048</v>
+        <v>-0.202839756592</v>
       </c>
       <c r="I23" s="15">
-        <v>3193</v>
+        <v>3318</v>
       </c>
       <c r="J23" s="15">
-        <v>3081</v>
+        <v>3199</v>
       </c>
       <c r="K23" s="16">
-        <v>3.635183382018</v>
+        <v>3.719912472647</v>
       </c>
       <c r="L23" s="16">
-        <v>16.447848285922</v>
+        <v>16.380217467555</v>
       </c>
       <c r="M23" s="16">
-        <v>53.288526164186</v>
+        <v>51.784080512351</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2058</v>
+        <v>2145</v>
       </c>
       <c r="D24" s="15">
-        <v>2432</v>
+        <v>2205</v>
       </c>
       <c r="E24" s="16">
-        <v>-15.378289473684</v>
+        <v>-2.721088435374</v>
       </c>
       <c r="F24" s="15">
-        <v>8980</v>
+        <v>8845</v>
       </c>
       <c r="G24" s="15">
-        <v>9623</v>
+        <v>9468</v>
       </c>
       <c r="H24" s="16">
-        <v>-6.681907928920</v>
+        <v>-6.580059146599</v>
       </c>
       <c r="I24" s="15">
-        <v>56599</v>
+        <v>58747</v>
       </c>
       <c r="J24" s="15">
-        <v>58060</v>
+        <v>60264</v>
       </c>
       <c r="K24" s="16">
-        <v>-2.516362383740</v>
+        <v>-2.517257400769</v>
       </c>
       <c r="L24" s="16">
-        <v>40.117344160023</v>
+        <v>39.531624824834</v>
       </c>
       <c r="M24" s="16">
-        <v>39.550766803096</v>
+        <v>38.947492904446</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>910</v>
+        <v>872</v>
       </c>
       <c r="D25" s="15">
-        <v>912</v>
+        <v>797</v>
       </c>
       <c r="E25" s="16">
-        <v>-0.219298245614</v>
+        <v>9.410288582183</v>
       </c>
       <c r="F25" s="15">
-        <v>3681</v>
+        <v>3634</v>
       </c>
       <c r="G25" s="15">
-        <v>3726</v>
+        <v>3570</v>
       </c>
       <c r="H25" s="16">
-        <v>-1.207729468599</v>
+        <v>1.792717086834</v>
       </c>
       <c r="I25" s="15">
-        <v>22632</v>
+        <v>23510</v>
       </c>
       <c r="J25" s="15">
-        <v>21721</v>
+        <v>22518</v>
       </c>
       <c r="K25" s="16">
-        <v>4.194097877629</v>
+        <v>4.405364597211</v>
       </c>
       <c r="L25" s="16">
-        <v>31.512580626416</v>
+        <v>30.676449335779</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.134129650367</v>
+        <v>-6.117722226659</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D26" s="15">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E26" s="16">
-        <v>-8</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="F26" s="15">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G26" s="15">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H26" s="16">
-        <v>-14.077669902912</v>
+        <v>-15.789473684210</v>
       </c>
       <c r="I26" s="15">
-        <v>1273</v>
+        <v>1325</v>
       </c>
       <c r="J26" s="15">
-        <v>1394</v>
+        <v>1449</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.680057388809</v>
+        <v>-8.557625948930</v>
       </c>
       <c r="L26" s="16">
-        <v>1.84</v>
+        <v>2.554179566563</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D27" s="15">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E27" s="16">
-        <v>-5.154639175257</v>
+        <v>-5.785123966942</v>
       </c>
       <c r="F27" s="15">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G27" s="15">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="H27" s="16">
-        <v>4.455445544554</v>
+        <v>0.719424460431</v>
       </c>
       <c r="I27" s="15">
-        <v>2712</v>
+        <v>2827</v>
       </c>
       <c r="J27" s="15">
-        <v>2623</v>
+        <v>2744</v>
       </c>
       <c r="K27" s="16">
-        <v>3.393061380099</v>
+        <v>3.024781341107</v>
       </c>
       <c r="L27" s="16">
-        <v>15.404255319148</v>
+        <v>15.908159081590</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D28" s="15">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E28" s="16">
-        <v>-22.033898305084</v>
+        <v>-48.936170212766</v>
       </c>
       <c r="F28" s="15">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G28" s="15">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H28" s="16">
-        <v>-28.272251308900</v>
+        <v>-34.782608695652</v>
       </c>
       <c r="I28" s="15">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="J28" s="15">
-        <v>840</v>
+        <v>887</v>
       </c>
       <c r="K28" s="16">
-        <v>-26.190476190476</v>
+        <v>-27.395715896279</v>
       </c>
       <c r="L28" s="16">
-        <v>-32.240437158469</v>
+        <v>-33.471074380165</v>
       </c>
       <c r="M28" s="16">
-        <v>-29.864253393665</v>
+        <v>-30.378378378378</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.374584165003</v>
+        <v>-79.568527918781</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D29" s="15">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16">
-        <v>-23.404255319148</v>
+        <v>-45.945945945945</v>
       </c>
       <c r="F29" s="15">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G29" s="15">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H29" s="16">
-        <v>-22.758620689655</v>
+        <v>-30.967741935483</v>
       </c>
       <c r="I29" s="15">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="J29" s="15">
-        <v>699</v>
+        <v>736</v>
       </c>
       <c r="K29" s="16">
-        <v>-25.035765379113</v>
+        <v>-26.086956521739</v>
       </c>
       <c r="L29" s="16">
-        <v>-33.754740834386</v>
+        <v>-34.37876960193</v>
       </c>
       <c r="M29" s="16">
-        <v>-27.524204702627</v>
+        <v>-27.659574468085</v>
       </c>
       <c r="N29" s="16">
-        <v>-80.714022819286</v>
+        <v>-80.912280701754</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30" s="16">
-        <v>-14.285714285714</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="F30" s="15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" s="15">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H30" s="16">
-        <v>-37.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I30" s="15">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="J30" s="15">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="K30" s="16">
-        <v>-31.564245810055</v>
+        <v>-29.972752043596</v>
       </c>
       <c r="L30" s="16">
-        <v>-19.141914191419</v>
+        <v>-16.828478964401</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">28</t>
+      <t xml:space="preserve">29</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/10/2023</t>
+      <t xml:space="preserve">7/17/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/16/2023</t>
+      <t xml:space="preserve">7/23/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="16">
-        <v>-64.285714285714</v>
+        <v>-50</v>
       </c>
       <c r="F14" s="15">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="15">
         <v>48</v>
       </c>
       <c r="H14" s="16">
-        <v>-33.333333333333</v>
+        <v>-35.416666666666</v>
       </c>
       <c r="I14" s="15">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="J14" s="15">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="K14" s="16">
-        <v>-11.020408163265</v>
+        <v>-11.284046692607</v>
       </c>
       <c r="L14" s="16">
-        <v>-13.147410358565</v>
+        <v>-10.9375</v>
       </c>
       <c r="M14" s="16">
-        <v>-21.014492753623</v>
+        <v>-22.972972972973</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.793774319066</v>
+        <v>-78.531073446327</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D15" s="15">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" s="16">
-        <v>-5.263157894736</v>
+        <v>-32.5</v>
       </c>
       <c r="F15" s="15">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G15" s="15">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H15" s="16">
-        <v>-16.417910447761</v>
+        <v>-12.5</v>
       </c>
       <c r="I15" s="15">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="J15" s="15">
-        <v>886</v>
+        <v>926</v>
       </c>
       <c r="K15" s="16">
-        <v>-9.819413092550</v>
+        <v>-10.907127429805</v>
       </c>
       <c r="L15" s="16">
-        <v>1.783439490445</v>
+        <v>0.364963503649</v>
       </c>
       <c r="M15" s="16">
-        <v>18.195266272189</v>
+        <v>18.364418938307</v>
       </c>
       <c r="N15" s="16">
-        <v>-55.162738496071</v>
+        <v>-55.114254624592</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D16" s="15">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="E16" s="16">
-        <v>-19.285714285714</v>
+        <v>-11.779448621553</v>
       </c>
       <c r="F16" s="15">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G16" s="15">
-        <v>1578</v>
+        <v>1601</v>
       </c>
       <c r="H16" s="16">
-        <v>-13.814955640050</v>
+        <v>-14.990630855715</v>
       </c>
       <c r="I16" s="15">
-        <v>8549</v>
+        <v>8898</v>
       </c>
       <c r="J16" s="15">
-        <v>9092</v>
+        <v>9491</v>
       </c>
       <c r="K16" s="16">
-        <v>-5.972283326000</v>
+        <v>-6.248024444210</v>
       </c>
       <c r="L16" s="16">
-        <v>31.867962363103</v>
+        <v>31.355181576616</v>
       </c>
       <c r="M16" s="16">
-        <v>-12.407786885245</v>
+        <v>-12.404016538688</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.941234171571</v>
+        <v>-80.887533293238</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="D17" s="15">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E17" s="16">
-        <v>-5.743243243243</v>
+        <v>-2.716468590831</v>
       </c>
       <c r="F17" s="15">
-        <v>2419</v>
+        <v>2368</v>
       </c>
       <c r="G17" s="15">
-        <v>2368</v>
+        <v>2374</v>
       </c>
       <c r="H17" s="16">
-        <v>2.153716216216</v>
+        <v>-0.252737994945</v>
       </c>
       <c r="I17" s="15">
-        <v>14757</v>
+        <v>15365</v>
       </c>
       <c r="J17" s="15">
-        <v>13972</v>
+        <v>14563</v>
       </c>
       <c r="K17" s="16">
-        <v>5.618379616375</v>
+        <v>5.507107052118</v>
       </c>
       <c r="L17" s="16">
-        <v>27.007487735605</v>
+        <v>27.004463547693</v>
       </c>
       <c r="M17" s="16">
-        <v>61.349223704351</v>
+        <v>60.873206994032</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.718109953287</v>
+        <v>-33.674350341017</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D18" s="15">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E18" s="16">
-        <v>-19.018404907975</v>
+        <v>-22.188449848024</v>
       </c>
       <c r="F18" s="15">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="G18" s="15">
-        <v>1208</v>
+        <v>1222</v>
       </c>
       <c r="H18" s="16">
-        <v>-19.039735099337</v>
+        <v>-19.476268412438</v>
       </c>
       <c r="I18" s="15">
-        <v>7426</v>
+        <v>7697</v>
       </c>
       <c r="J18" s="15">
-        <v>8335</v>
+        <v>8664</v>
       </c>
       <c r="K18" s="16">
-        <v>-10.905818836232</v>
+        <v>-11.161126500461</v>
       </c>
       <c r="L18" s="16">
-        <v>19.312339331619</v>
+        <v>19.111730114515</v>
       </c>
       <c r="M18" s="16">
-        <v>-22.346543971557</v>
+        <v>-22.166043078167</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.025066807181</v>
+        <v>-86.065499574560</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="D19" s="15">
-        <v>1059</v>
+        <v>1072</v>
       </c>
       <c r="E19" s="16">
-        <v>-6.798866855524</v>
+        <v>-8.768656716417</v>
       </c>
       <c r="F19" s="15">
-        <v>3887</v>
+        <v>3860</v>
       </c>
       <c r="G19" s="15">
-        <v>4171</v>
+        <v>4218</v>
       </c>
       <c r="H19" s="16">
-        <v>-6.808918724526</v>
+        <v>-8.487434803224</v>
       </c>
       <c r="I19" s="15">
-        <v>26439</v>
+        <v>27393</v>
       </c>
       <c r="J19" s="15">
-        <v>26972</v>
+        <v>28046</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.976123387216</v>
+        <v>-2.328317763673</v>
       </c>
       <c r="L19" s="16">
-        <v>46.809928369148</v>
+        <v>45.847087637099</v>
       </c>
       <c r="M19" s="16">
-        <v>36.897426603842</v>
+        <v>36.195495450703</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.667848567132</v>
+        <v>-40.821793514657</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="D20" s="15">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="E20" s="16">
-        <v>2.077151335311</v>
+        <v>54.732510288065</v>
       </c>
       <c r="F20" s="15">
-        <v>1316</v>
+        <v>1354</v>
       </c>
       <c r="G20" s="15">
-        <v>1177</v>
+        <v>1140</v>
       </c>
       <c r="H20" s="16">
-        <v>11.809685641461</v>
+        <v>18.771929824561</v>
       </c>
       <c r="I20" s="15">
-        <v>8252</v>
+        <v>8627</v>
       </c>
       <c r="J20" s="15">
-        <v>7076</v>
+        <v>7319</v>
       </c>
       <c r="K20" s="16">
-        <v>16.619559072922</v>
+        <v>17.871293892608</v>
       </c>
       <c r="L20" s="16">
-        <v>71.132310244711</v>
+        <v>70.831683168316</v>
       </c>
       <c r="M20" s="16">
-        <v>51.412844036697</v>
+        <v>52.098025387870</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.195359419174</v>
+        <v>-86.057373737373</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2533</v>
+        <v>2568</v>
       </c>
       <c r="D21" s="18">
-        <v>2786</v>
+        <v>2684</v>
       </c>
       <c r="E21" s="19">
-        <v>-9.081119885139</v>
+        <v>-4.321907600596</v>
       </c>
       <c r="F21" s="18">
-        <v>10104</v>
+        <v>10077</v>
       </c>
       <c r="G21" s="18">
-        <v>10684</v>
+        <v>10739</v>
       </c>
       <c r="H21" s="19">
-        <v>-5.428678397603</v>
+        <v>-6.164447341465</v>
       </c>
       <c r="I21" s="18">
-        <v>66440</v>
+        <v>69033</v>
       </c>
       <c r="J21" s="18">
-        <v>66578</v>
+        <v>69266</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.207275676649</v>
+        <v>-0.336384373285</v>
       </c>
       <c r="L21" s="19">
-        <v>37.862345153860</v>
+        <v>37.395509911631</v>
       </c>
       <c r="M21" s="19">
-        <v>22.619223386977</v>
+        <v>22.45104299702</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.783532536520</v>
+        <v>-70.751579295238</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D22" s="15">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E22" s="16">
-        <v>-14</v>
+        <v>-28.205128205128</v>
       </c>
       <c r="F22" s="15">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G22" s="15">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H22" s="16">
-        <v>0</v>
+        <v>-9.497206703910</v>
       </c>
       <c r="I22" s="15">
-        <v>1190</v>
+        <v>1218</v>
       </c>
       <c r="J22" s="15">
-        <v>1252</v>
+        <v>1292</v>
       </c>
       <c r="K22" s="16">
-        <v>-4.952076677316</v>
+        <v>-5.727554179566</v>
       </c>
       <c r="L22" s="16">
-        <v>49.122807017543</v>
+        <v>46.043165467625</v>
       </c>
       <c r="M22" s="16">
-        <v>6.726457399103</v>
+        <v>5.090595340811</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D23" s="15">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E23" s="16">
-        <v>3.418803418803</v>
+        <v>-2.238805970149</v>
       </c>
       <c r="F23" s="15">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="G23" s="15">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H23" s="16">
-        <v>-0.202839756592</v>
+        <v>4.276985743380</v>
       </c>
       <c r="I23" s="15">
-        <v>3318</v>
+        <v>3459</v>
       </c>
       <c r="J23" s="15">
-        <v>3199</v>
+        <v>3333</v>
       </c>
       <c r="K23" s="16">
-        <v>3.719912472647</v>
+        <v>3.780378037803</v>
       </c>
       <c r="L23" s="16">
-        <v>16.380217467555</v>
+        <v>17.254237288135</v>
       </c>
       <c r="M23" s="16">
-        <v>51.784080512351</v>
+        <v>52.177738671359</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2145</v>
+        <v>2311</v>
       </c>
       <c r="D24" s="15">
-        <v>2205</v>
+        <v>2310</v>
       </c>
       <c r="E24" s="16">
-        <v>-2.721088435374</v>
+        <v>0.043290043290</v>
       </c>
       <c r="F24" s="15">
-        <v>8845</v>
+        <v>8815</v>
       </c>
       <c r="G24" s="15">
-        <v>9468</v>
+        <v>9301</v>
       </c>
       <c r="H24" s="16">
-        <v>-6.580059146599</v>
+        <v>-5.225244597355</v>
       </c>
       <c r="I24" s="15">
-        <v>58747</v>
+        <v>61068</v>
       </c>
       <c r="J24" s="15">
-        <v>60264</v>
+        <v>62574</v>
       </c>
       <c r="K24" s="16">
-        <v>-2.517257400769</v>
+        <v>-2.406750407517</v>
       </c>
       <c r="L24" s="16">
-        <v>39.531624824834</v>
+        <v>38.999408203213</v>
       </c>
       <c r="M24" s="16">
-        <v>38.947492904446</v>
+        <v>38.746762393783</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>872</v>
+        <v>843</v>
       </c>
       <c r="D25" s="15">
-        <v>797</v>
+        <v>835</v>
       </c>
       <c r="E25" s="16">
-        <v>9.410288582183</v>
+        <v>0.958083832335</v>
       </c>
       <c r="F25" s="15">
-        <v>3634</v>
+        <v>3563</v>
       </c>
       <c r="G25" s="15">
-        <v>3570</v>
+        <v>3521</v>
       </c>
       <c r="H25" s="16">
-        <v>1.792717086834</v>
+        <v>1.192842942345</v>
       </c>
       <c r="I25" s="15">
-        <v>23510</v>
+        <v>24347</v>
       </c>
       <c r="J25" s="15">
-        <v>22518</v>
+        <v>23353</v>
       </c>
       <c r="K25" s="16">
-        <v>4.405364597211</v>
+        <v>4.256412452361</v>
       </c>
       <c r="L25" s="16">
-        <v>30.676449335779</v>
+        <v>29.691578330581</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.117722226659</v>
+        <v>-6.526663339348</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D26" s="15">
         <v>55</v>
       </c>
       <c r="E26" s="16">
-        <v>-9.090909090909</v>
+        <v>-18.181818181818</v>
       </c>
       <c r="F26" s="15">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G26" s="15">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H26" s="16">
-        <v>-15.789473684210</v>
+        <v>-9.313725490196</v>
       </c>
       <c r="I26" s="15">
-        <v>1325</v>
+        <v>1370</v>
       </c>
       <c r="J26" s="15">
-        <v>1449</v>
+        <v>1504</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.557625948930</v>
+        <v>-8.909574468085</v>
       </c>
       <c r="L26" s="16">
-        <v>2.554179566563</v>
+        <v>1.406365655070</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D27" s="15">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E27" s="16">
-        <v>-5.785123966942</v>
+        <v>-0.884955752212</v>
       </c>
       <c r="F27" s="15">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="G27" s="15">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="H27" s="16">
-        <v>0.719424460431</v>
+        <v>2.558139534883</v>
       </c>
       <c r="I27" s="15">
-        <v>2827</v>
+        <v>2943</v>
       </c>
       <c r="J27" s="15">
-        <v>2744</v>
+        <v>2857</v>
       </c>
       <c r="K27" s="16">
-        <v>3.024781341107</v>
+        <v>3.010150507525</v>
       </c>
       <c r="L27" s="16">
-        <v>15.908159081590</v>
+        <v>14.9609375</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D28" s="15">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="16">
-        <v>-48.936170212766</v>
+        <v>-44.897959183673</v>
       </c>
       <c r="F28" s="15">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G28" s="15">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H28" s="16">
-        <v>-34.782608695652</v>
+        <v>-35.532994923857</v>
       </c>
       <c r="I28" s="15">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="J28" s="15">
-        <v>887</v>
+        <v>936</v>
       </c>
       <c r="K28" s="16">
-        <v>-27.395715896279</v>
+        <v>-28.311965811965</v>
       </c>
       <c r="L28" s="16">
-        <v>-33.471074380165</v>
+        <v>-32.967032967033</v>
       </c>
       <c r="M28" s="16">
-        <v>-30.378378378378</v>
+        <v>-31.390593047034</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.568527918781</v>
+        <v>-79.561376789521</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="16">
-        <v>-45.945945945945</v>
+        <v>-44.736842105263</v>
       </c>
       <c r="F29" s="15">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G29" s="15">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H29" s="16">
-        <v>-30.967741935483</v>
+        <v>-36.708860759493</v>
       </c>
       <c r="I29" s="15">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="J29" s="15">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="K29" s="16">
-        <v>-26.086956521739</v>
+        <v>-27.002583979328</v>
       </c>
       <c r="L29" s="16">
-        <v>-34.37876960193</v>
+        <v>-34.225844004656</v>
       </c>
       <c r="M29" s="16">
-        <v>-27.659574468085</v>
+        <v>-29.463171036204</v>
       </c>
       <c r="N29" s="16">
-        <v>-80.912280701754</v>
+        <v>-80.950775455158</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" s="15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16">
-        <v>-44.444444444444</v>
+        <v>-76.923076923076</v>
       </c>
       <c r="F30" s="15">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G30" s="15">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H30" s="16">
-        <v>-22.5</v>
+        <v>-34.883720930232</v>
       </c>
       <c r="I30" s="15">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J30" s="15">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="K30" s="16">
-        <v>-29.972752043596</v>
+        <v>-29.473684210526</v>
       </c>
       <c r="L30" s="16">
-        <v>-16.828478964401</v>
+        <v>-15.457413249211</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">29</t>
+      <t xml:space="preserve">30</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/17/2023</t>
+      <t xml:space="preserve">7/24/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/23/2023</t>
+      <t xml:space="preserve">7/30/2023</t>
     </r>
   </si>
   <si>
@@ -826,37 +826,37 @@
         <v>6</v>
       </c>
       <c r="D14" s="15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="16">
-        <v>-50</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F14" s="15">
         <v>31</v>
       </c>
       <c r="G14" s="15">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H14" s="16">
-        <v>-35.416666666666</v>
+        <v>-31.111111111111</v>
       </c>
       <c r="I14" s="15">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J14" s="15">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K14" s="16">
-        <v>-11.284046692607</v>
+        <v>-11.278195488721</v>
       </c>
       <c r="L14" s="16">
-        <v>-10.9375</v>
+        <v>-10.266159695817</v>
       </c>
       <c r="M14" s="16">
-        <v>-22.972972972973</v>
+        <v>-24.600638977635</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.531073446327</v>
+        <v>-78.776978417266</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E15" s="16">
-        <v>-32.5</v>
+        <v>-6.666666666666</v>
       </c>
       <c r="F15" s="15">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G15" s="15">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H15" s="16">
-        <v>-12.5</v>
+        <v>-15.217391304347</v>
       </c>
       <c r="I15" s="15">
-        <v>825</v>
+        <v>852</v>
       </c>
       <c r="J15" s="15">
-        <v>926</v>
+        <v>956</v>
       </c>
       <c r="K15" s="16">
-        <v>-10.907127429805</v>
+        <v>-10.878661087866</v>
       </c>
       <c r="L15" s="16">
-        <v>0.364963503649</v>
+        <v>0.235294117647</v>
       </c>
       <c r="M15" s="16">
-        <v>18.364418938307</v>
+        <v>14.362416107382</v>
       </c>
       <c r="N15" s="16">
-        <v>-55.114254624592</v>
+        <v>-55.086979441223</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D16" s="15">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E16" s="16">
-        <v>-11.779448621553</v>
+        <v>-10.824742268041</v>
       </c>
       <c r="F16" s="15">
-        <v>1361</v>
+        <v>1373</v>
       </c>
       <c r="G16" s="15">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="H16" s="16">
-        <v>-14.990630855715</v>
+        <v>-13.593455003146</v>
       </c>
       <c r="I16" s="15">
-        <v>8898</v>
+        <v>9262</v>
       </c>
       <c r="J16" s="15">
-        <v>9491</v>
+        <v>9879</v>
       </c>
       <c r="K16" s="16">
-        <v>-6.248024444210</v>
+        <v>-6.245571414110</v>
       </c>
       <c r="L16" s="16">
-        <v>31.355181576616</v>
+        <v>31.264172335600</v>
       </c>
       <c r="M16" s="16">
-        <v>-12.404016538688</v>
+        <v>-12.399508181216</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.887533293238</v>
+        <v>-80.809713243825</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="D17" s="15">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="E17" s="16">
-        <v>-2.716468590831</v>
+        <v>-2.181208053691</v>
       </c>
       <c r="F17" s="15">
-        <v>2368</v>
+        <v>2378</v>
       </c>
       <c r="G17" s="15">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="H17" s="16">
-        <v>-0.252737994945</v>
+        <v>0.084175084175</v>
       </c>
       <c r="I17" s="15">
-        <v>15365</v>
+        <v>15986</v>
       </c>
       <c r="J17" s="15">
-        <v>14563</v>
+        <v>15159</v>
       </c>
       <c r="K17" s="16">
-        <v>5.507107052118</v>
+        <v>5.455504980539</v>
       </c>
       <c r="L17" s="16">
-        <v>27.004463547693</v>
+        <v>27.216297946840</v>
       </c>
       <c r="M17" s="16">
-        <v>60.873206994032</v>
+        <v>61.132950307428</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.674350341017</v>
+        <v>-33.728546555012</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="D18" s="15">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="E18" s="16">
-        <v>-22.188449848024</v>
+        <v>-5.460750853242</v>
       </c>
       <c r="F18" s="15">
-        <v>984</v>
+        <v>1025</v>
       </c>
       <c r="G18" s="15">
-        <v>1222</v>
+        <v>1245</v>
       </c>
       <c r="H18" s="16">
-        <v>-19.476268412438</v>
+        <v>-17.670682730923</v>
       </c>
       <c r="I18" s="15">
-        <v>7697</v>
+        <v>7986</v>
       </c>
       <c r="J18" s="15">
-        <v>8664</v>
+        <v>8957</v>
       </c>
       <c r="K18" s="16">
-        <v>-11.161126500461</v>
+        <v>-10.840683264485</v>
       </c>
       <c r="L18" s="16">
-        <v>19.111730114515</v>
+        <v>19.122911694510</v>
       </c>
       <c r="M18" s="16">
-        <v>-22.166043078167</v>
+        <v>-22.405752040419</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.065499574560</v>
+        <v>-86.066231636249</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>978</v>
+        <v>1003</v>
       </c>
       <c r="D19" s="15">
-        <v>1072</v>
+        <v>1130</v>
       </c>
       <c r="E19" s="16">
-        <v>-8.768656716417</v>
+        <v>-11.238938053097</v>
       </c>
       <c r="F19" s="15">
-        <v>3860</v>
+        <v>3867</v>
       </c>
       <c r="G19" s="15">
-        <v>4218</v>
+        <v>4251</v>
       </c>
       <c r="H19" s="16">
-        <v>-8.487434803224</v>
+        <v>-9.033168666196</v>
       </c>
       <c r="I19" s="15">
-        <v>27393</v>
+        <v>28415</v>
       </c>
       <c r="J19" s="15">
-        <v>28046</v>
+        <v>29176</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.328317763673</v>
+        <v>-2.608308198519</v>
       </c>
       <c r="L19" s="16">
-        <v>45.847087637099</v>
+        <v>45.285816545659</v>
       </c>
       <c r="M19" s="16">
-        <v>36.195495450703</v>
+        <v>35.859431030361</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.821793514657</v>
+        <v>-41.025694242663</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="D20" s="15">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="E20" s="16">
-        <v>54.732510288065</v>
+        <v>31.111111111111</v>
       </c>
       <c r="F20" s="15">
-        <v>1354</v>
+        <v>1375</v>
       </c>
       <c r="G20" s="15">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="H20" s="16">
-        <v>18.771929824561</v>
+        <v>21.252204585537</v>
       </c>
       <c r="I20" s="15">
-        <v>8627</v>
+        <v>8976</v>
       </c>
       <c r="J20" s="15">
-        <v>7319</v>
+        <v>7589</v>
       </c>
       <c r="K20" s="16">
-        <v>17.871293892608</v>
+        <v>18.276452760574</v>
       </c>
       <c r="L20" s="16">
-        <v>70.831683168316</v>
+        <v>68.721804511278</v>
       </c>
       <c r="M20" s="16">
-        <v>52.098025387870</v>
+        <v>51.903875444237</v>
       </c>
       <c r="N20" s="16">
-        <v>-86.057373737373</v>
+        <v>-85.969738651994</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2568</v>
+        <v>2597</v>
       </c>
       <c r="D21" s="18">
-        <v>2684</v>
+        <v>2716</v>
       </c>
       <c r="E21" s="19">
-        <v>-4.321907600596</v>
+        <v>-4.381443298969</v>
       </c>
       <c r="F21" s="18">
-        <v>10077</v>
+        <v>10166</v>
       </c>
       <c r="G21" s="18">
-        <v>10739</v>
+        <v>10778</v>
       </c>
       <c r="H21" s="19">
-        <v>-6.164447341465</v>
+        <v>-5.678233438485</v>
       </c>
       <c r="I21" s="18">
-        <v>69033</v>
+        <v>71713</v>
       </c>
       <c r="J21" s="18">
-        <v>69266</v>
+        <v>71982</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.336384373285</v>
+        <v>-0.373704537245</v>
       </c>
       <c r="L21" s="19">
-        <v>37.395509911631</v>
+        <v>37.073991245675</v>
       </c>
       <c r="M21" s="19">
-        <v>22.45104299702</v>
+        <v>22.235290107043</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.751579295238</v>
+        <v>-70.713489363613</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D22" s="15">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="16">
-        <v>-28.205128205128</v>
+        <v>15.789473684210</v>
       </c>
       <c r="F22" s="15">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G22" s="15">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H22" s="16">
-        <v>-9.497206703910</v>
+        <v>-15.116279069767</v>
       </c>
       <c r="I22" s="15">
-        <v>1218</v>
+        <v>1262</v>
       </c>
       <c r="J22" s="15">
-        <v>1292</v>
+        <v>1330</v>
       </c>
       <c r="K22" s="16">
-        <v>-5.727554179566</v>
+        <v>-5.112781954887</v>
       </c>
       <c r="L22" s="16">
-        <v>46.043165467625</v>
+        <v>46.915017462165</v>
       </c>
       <c r="M22" s="16">
-        <v>5.090595340811</v>
+        <v>5.695142378559</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D23" s="15">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E23" s="16">
-        <v>-2.238805970149</v>
+        <v>-14.598540145985</v>
       </c>
       <c r="F23" s="15">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G23" s="15">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="H23" s="16">
-        <v>4.276985743380</v>
+        <v>1.976284584980</v>
       </c>
       <c r="I23" s="15">
-        <v>3459</v>
+        <v>3587</v>
       </c>
       <c r="J23" s="15">
-        <v>3333</v>
+        <v>3470</v>
       </c>
       <c r="K23" s="16">
-        <v>3.780378037803</v>
+        <v>3.371757925072</v>
       </c>
       <c r="L23" s="16">
-        <v>17.254237288135</v>
+        <v>16.916558018252</v>
       </c>
       <c r="M23" s="16">
-        <v>52.177738671359</v>
+        <v>51.350210970464</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2311</v>
+        <v>2246</v>
       </c>
       <c r="D24" s="15">
-        <v>2310</v>
+        <v>2542</v>
       </c>
       <c r="E24" s="16">
-        <v>0.043290043290</v>
+        <v>-11.644374508261</v>
       </c>
       <c r="F24" s="15">
-        <v>8815</v>
+        <v>8811</v>
       </c>
       <c r="G24" s="15">
-        <v>9301</v>
+        <v>9489</v>
       </c>
       <c r="H24" s="16">
-        <v>-5.225244597355</v>
+        <v>-7.145115396775</v>
       </c>
       <c r="I24" s="15">
-        <v>61068</v>
+        <v>63323</v>
       </c>
       <c r="J24" s="15">
-        <v>62574</v>
+        <v>65116</v>
       </c>
       <c r="K24" s="16">
-        <v>-2.406750407517</v>
+        <v>-2.753547515203</v>
       </c>
       <c r="L24" s="16">
-        <v>38.999408203213</v>
+        <v>38.860137713258</v>
       </c>
       <c r="M24" s="16">
-        <v>38.746762393783</v>
+        <v>38.184397163120</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>843</v>
+        <v>918</v>
       </c>
       <c r="D25" s="15">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="E25" s="16">
-        <v>0.958083832335</v>
+        <v>11.138014527845</v>
       </c>
       <c r="F25" s="15">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="G25" s="15">
-        <v>3521</v>
+        <v>3370</v>
       </c>
       <c r="H25" s="16">
-        <v>1.192842942345</v>
+        <v>5.816023738872</v>
       </c>
       <c r="I25" s="15">
-        <v>24347</v>
+        <v>25268</v>
       </c>
       <c r="J25" s="15">
-        <v>23353</v>
+        <v>24179</v>
       </c>
       <c r="K25" s="16">
-        <v>4.256412452361</v>
+        <v>4.503908350221</v>
       </c>
       <c r="L25" s="16">
-        <v>29.691578330581</v>
+        <v>29.340704340704</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.526663339348</v>
+        <v>-6.328081556997</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" s="15">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E26" s="16">
-        <v>-18.181818181818</v>
+        <v>-2.325581395348</v>
       </c>
       <c r="F26" s="15">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G26" s="15">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H26" s="16">
-        <v>-9.313725490196</v>
+        <v>-11.330049261083</v>
       </c>
       <c r="I26" s="15">
-        <v>1370</v>
+        <v>1410</v>
       </c>
       <c r="J26" s="15">
-        <v>1504</v>
+        <v>1547</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.909574468085</v>
+        <v>-8.855850032320</v>
       </c>
       <c r="L26" s="16">
-        <v>1.406365655070</v>
+        <v>1.438848920863</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D27" s="15">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E27" s="16">
-        <v>-0.884955752212</v>
+        <v>19.780219780219</v>
       </c>
       <c r="F27" s="15">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G27" s="15">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H27" s="16">
-        <v>2.558139534883</v>
+        <v>3.080568720379</v>
       </c>
       <c r="I27" s="15">
-        <v>2943</v>
+        <v>3055</v>
       </c>
       <c r="J27" s="15">
-        <v>2857</v>
+        <v>2948</v>
       </c>
       <c r="K27" s="16">
-        <v>3.010150507525</v>
+        <v>3.629579375848</v>
       </c>
       <c r="L27" s="16">
-        <v>14.9609375</v>
+        <v>14.505247376311</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D28" s="15">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E28" s="16">
-        <v>-44.897959183673</v>
+        <v>-15</v>
       </c>
       <c r="F28" s="15">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G28" s="15">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H28" s="16">
-        <v>-35.532994923857</v>
+        <v>-32.820512820512</v>
       </c>
       <c r="I28" s="15">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="J28" s="15">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="K28" s="16">
-        <v>-28.311965811965</v>
+        <v>-27.766393442623</v>
       </c>
       <c r="L28" s="16">
-        <v>-32.967032967033</v>
+        <v>-31.686046511627</v>
       </c>
       <c r="M28" s="16">
-        <v>-31.390593047034</v>
+        <v>-30.128840436075</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.561376789521</v>
+        <v>-79.458041958042</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D29" s="15">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E29" s="16">
-        <v>-44.736842105263</v>
+        <v>-9.677419354838</v>
       </c>
       <c r="F29" s="15">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G29" s="15">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H29" s="16">
-        <v>-36.708860759493</v>
+        <v>-32.026143790849</v>
       </c>
       <c r="I29" s="15">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="J29" s="15">
-        <v>774</v>
+        <v>805</v>
       </c>
       <c r="K29" s="16">
-        <v>-27.002583979328</v>
+        <v>-26.459627329192</v>
       </c>
       <c r="L29" s="16">
-        <v>-34.225844004656</v>
+        <v>-33.258173618940</v>
       </c>
       <c r="M29" s="16">
-        <v>-29.463171036204</v>
+        <v>-28.674698795180</v>
       </c>
       <c r="N29" s="16">
-        <v>-80.950775455158</v>
+        <v>-80.903225806451</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1482,31 +1482,31 @@
         <v>3</v>
       </c>
       <c r="D30" s="15">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16">
-        <v>-76.923076923076</v>
+        <v>-87.5</v>
       </c>
       <c r="F30" s="15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G30" s="15">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H30" s="16">
-        <v>-34.883720930232</v>
+        <v>-50.943396226415</v>
       </c>
       <c r="I30" s="15">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="J30" s="15">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="K30" s="16">
-        <v>-29.473684210526</v>
+        <v>-30.693069306930</v>
       </c>
       <c r="L30" s="16">
-        <v>-15.457413249211</v>
+        <v>-14.373088685015</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">30</t>
+      <t xml:space="preserve">31</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/24/2023</t>
+      <t xml:space="preserve">7/31/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/30/2023</t>
+      <t xml:space="preserve">8/6/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15">
         <v>9</v>
       </c>
       <c r="E14" s="16">
-        <v>-33.333333333333</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="F14" s="15">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G14" s="15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="16">
-        <v>-31.111111111111</v>
+        <v>-45.454545454545</v>
       </c>
       <c r="I14" s="15">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J14" s="15">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K14" s="16">
-        <v>-11.278195488721</v>
+        <v>-12</v>
       </c>
       <c r="L14" s="16">
-        <v>-10.266159695817</v>
+        <v>-13.261648745519</v>
       </c>
       <c r="M14" s="16">
-        <v>-24.600638977635</v>
+        <v>-25.766871165644</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.776978417266</v>
+        <v>-78.993055555555</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15" s="15">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E15" s="16">
-        <v>-6.666666666666</v>
+        <v>-40</v>
       </c>
       <c r="F15" s="15">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G15" s="15">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="H15" s="16">
-        <v>-15.217391304347</v>
+        <v>-25</v>
       </c>
       <c r="I15" s="15">
-        <v>852</v>
+        <v>874</v>
       </c>
       <c r="J15" s="15">
-        <v>956</v>
+        <v>996</v>
       </c>
       <c r="K15" s="16">
-        <v>-10.878661087866</v>
+        <v>-12.248995983935</v>
       </c>
       <c r="L15" s="16">
-        <v>0.235294117647</v>
+        <v>-1.907968574635</v>
       </c>
       <c r="M15" s="16">
-        <v>14.362416107382</v>
+        <v>11.479591836734</v>
       </c>
       <c r="N15" s="16">
-        <v>-55.086979441223</v>
+        <v>-55.430902600713</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D16" s="15">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E16" s="16">
-        <v>-10.824742268041</v>
+        <v>-7.853403141361</v>
       </c>
       <c r="F16" s="15">
-        <v>1373</v>
+        <v>1411</v>
       </c>
       <c r="G16" s="15">
         <v>1589</v>
       </c>
       <c r="H16" s="16">
-        <v>-13.593455003146</v>
+        <v>-11.202013845185</v>
       </c>
       <c r="I16" s="15">
-        <v>9262</v>
+        <v>9632</v>
       </c>
       <c r="J16" s="15">
-        <v>9879</v>
+        <v>10261</v>
       </c>
       <c r="K16" s="16">
-        <v>-6.245571414110</v>
+        <v>-6.130006821947</v>
       </c>
       <c r="L16" s="16">
-        <v>31.264172335600</v>
+        <v>31.423113658070</v>
       </c>
       <c r="M16" s="16">
-        <v>-12.399508181216</v>
+        <v>-11.778714050192</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.809713243825</v>
+        <v>-80.728676897221</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D17" s="15">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="E17" s="16">
-        <v>-2.181208053691</v>
+        <v>1.739130434782</v>
       </c>
       <c r="F17" s="15">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="G17" s="15">
-        <v>2376</v>
+        <v>2352</v>
       </c>
       <c r="H17" s="16">
-        <v>0.084175084175</v>
+        <v>0.977891156462</v>
       </c>
       <c r="I17" s="15">
-        <v>15986</v>
+        <v>16603</v>
       </c>
       <c r="J17" s="15">
-        <v>15159</v>
+        <v>15734</v>
       </c>
       <c r="K17" s="16">
-        <v>5.455504980539</v>
+        <v>5.523071056311</v>
       </c>
       <c r="L17" s="16">
-        <v>27.216297946840</v>
+        <v>27.382231087923</v>
       </c>
       <c r="M17" s="16">
-        <v>61.132950307428</v>
+        <v>61.037827352085</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.728546555012</v>
+        <v>-33.865763792073</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="D18" s="15">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E18" s="16">
-        <v>-5.460750853242</v>
+        <v>3.484320557491</v>
       </c>
       <c r="F18" s="15">
-        <v>1025</v>
+        <v>1110</v>
       </c>
       <c r="G18" s="15">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="H18" s="16">
-        <v>-17.670682730923</v>
+        <v>-10.194174757281</v>
       </c>
       <c r="I18" s="15">
-        <v>7986</v>
+        <v>8294</v>
       </c>
       <c r="J18" s="15">
-        <v>8957</v>
+        <v>9245</v>
       </c>
       <c r="K18" s="16">
-        <v>-10.840683264485</v>
+        <v>-10.286641427798</v>
       </c>
       <c r="L18" s="16">
-        <v>19.122911694510</v>
+        <v>19.527309410577</v>
       </c>
       <c r="M18" s="16">
-        <v>-22.405752040419</v>
+        <v>-22.107438016528</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.066231636249</v>
+        <v>-86.000033759262</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>1003</v>
+        <v>1090</v>
       </c>
       <c r="D19" s="15">
-        <v>1130</v>
+        <v>1059</v>
       </c>
       <c r="E19" s="16">
-        <v>-11.238938053097</v>
+        <v>2.927289896128</v>
       </c>
       <c r="F19" s="15">
-        <v>3867</v>
+        <v>4075</v>
       </c>
       <c r="G19" s="15">
-        <v>4251</v>
+        <v>4320</v>
       </c>
       <c r="H19" s="16">
-        <v>-9.033168666196</v>
+        <v>-5.671296296296</v>
       </c>
       <c r="I19" s="15">
-        <v>28415</v>
+        <v>29526</v>
       </c>
       <c r="J19" s="15">
-        <v>29176</v>
+        <v>30235</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.608308198519</v>
+        <v>-2.344964445179</v>
       </c>
       <c r="L19" s="16">
-        <v>45.285816545659</v>
+        <v>45.333727111636</v>
       </c>
       <c r="M19" s="16">
-        <v>35.859431030361</v>
+        <v>36.221453287197</v>
       </c>
       <c r="N19" s="16">
-        <v>-41.025694242663</v>
+        <v>-40.977511244377</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="D20" s="15">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E20" s="16">
-        <v>31.111111111111</v>
+        <v>10.135135135135</v>
       </c>
       <c r="F20" s="15">
-        <v>1375</v>
+        <v>1399</v>
       </c>
       <c r="G20" s="15">
-        <v>1134</v>
+        <v>1146</v>
       </c>
       <c r="H20" s="16">
-        <v>21.252204585537</v>
+        <v>22.076788830715</v>
       </c>
       <c r="I20" s="15">
-        <v>8976</v>
+        <v>9300</v>
       </c>
       <c r="J20" s="15">
-        <v>7589</v>
+        <v>7885</v>
       </c>
       <c r="K20" s="16">
-        <v>18.276452760574</v>
+        <v>17.945466074825</v>
       </c>
       <c r="L20" s="16">
-        <v>68.721804511278</v>
+        <v>67.416741674167</v>
       </c>
       <c r="M20" s="16">
-        <v>51.903875444237</v>
+        <v>52.109911678115</v>
       </c>
       <c r="N20" s="16">
-        <v>-85.969738651994</v>
+        <v>-85.937641757643</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2597</v>
+        <v>2679</v>
       </c>
       <c r="D21" s="18">
-        <v>2716</v>
+        <v>2648</v>
       </c>
       <c r="E21" s="19">
-        <v>-4.381443298969</v>
+        <v>1.170694864048</v>
       </c>
       <c r="F21" s="18">
-        <v>10166</v>
+        <v>10505</v>
       </c>
       <c r="G21" s="18">
-        <v>10778</v>
+        <v>10835</v>
       </c>
       <c r="H21" s="19">
-        <v>-5.678233438485</v>
+        <v>-3.045685279187</v>
       </c>
       <c r="I21" s="18">
-        <v>71713</v>
+        <v>74471</v>
       </c>
       <c r="J21" s="18">
-        <v>71982</v>
+        <v>74631</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.373704537245</v>
+        <v>-0.214388122897</v>
       </c>
       <c r="L21" s="19">
-        <v>37.073991245675</v>
+        <v>37.038809046243</v>
       </c>
       <c r="M21" s="19">
-        <v>22.235290107043</v>
+        <v>22.535582064993</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.713489363613</v>
+        <v>-70.634579516642</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="15">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E22" s="16">
-        <v>15.789473684210</v>
+        <v>50</v>
       </c>
       <c r="F22" s="15">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G22" s="15">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H22" s="16">
-        <v>-15.116279069767</v>
+        <v>1.290322580645</v>
       </c>
       <c r="I22" s="15">
-        <v>1262</v>
+        <v>1304</v>
       </c>
       <c r="J22" s="15">
-        <v>1330</v>
+        <v>1358</v>
       </c>
       <c r="K22" s="16">
-        <v>-5.112781954887</v>
+        <v>-3.976435935198</v>
       </c>
       <c r="L22" s="16">
-        <v>46.915017462165</v>
+        <v>47.178329571106</v>
       </c>
       <c r="M22" s="16">
-        <v>5.695142378559</v>
+        <v>5.331179321486</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D23" s="15">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E23" s="16">
-        <v>-14.598540145985</v>
+        <v>-9.6</v>
       </c>
       <c r="F23" s="15">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G23" s="15">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H23" s="16">
-        <v>1.976284584980</v>
+        <v>-2.144249512670</v>
       </c>
       <c r="I23" s="15">
-        <v>3587</v>
+        <v>3710</v>
       </c>
       <c r="J23" s="15">
-        <v>3470</v>
+        <v>3595</v>
       </c>
       <c r="K23" s="16">
-        <v>3.371757925072</v>
+        <v>3.198887343532</v>
       </c>
       <c r="L23" s="16">
-        <v>16.916558018252</v>
+        <v>17.479417352754</v>
       </c>
       <c r="M23" s="16">
-        <v>51.350210970464</v>
+        <v>51.428571428571</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2246</v>
+        <v>2129</v>
       </c>
       <c r="D24" s="15">
-        <v>2542</v>
+        <v>2346</v>
       </c>
       <c r="E24" s="16">
-        <v>-11.644374508261</v>
+        <v>-9.249786871270</v>
       </c>
       <c r="F24" s="15">
-        <v>8811</v>
+        <v>8913</v>
       </c>
       <c r="G24" s="15">
-        <v>9489</v>
+        <v>9403</v>
       </c>
       <c r="H24" s="16">
-        <v>-7.145115396775</v>
+        <v>-5.211102839519</v>
       </c>
       <c r="I24" s="15">
-        <v>63323</v>
+        <v>65496</v>
       </c>
       <c r="J24" s="15">
-        <v>65116</v>
+        <v>67462</v>
       </c>
       <c r="K24" s="16">
-        <v>-2.753547515203</v>
+        <v>-2.914233197948</v>
       </c>
       <c r="L24" s="16">
-        <v>38.860137713258</v>
+        <v>38.545500698058</v>
       </c>
       <c r="M24" s="16">
-        <v>38.184397163120</v>
+        <v>37.767400769861</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>918</v>
+        <v>853</v>
       </c>
       <c r="D25" s="15">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E25" s="16">
-        <v>11.138014527845</v>
+        <v>4.024390243902</v>
       </c>
       <c r="F25" s="15">
-        <v>3566</v>
+        <v>3509</v>
       </c>
       <c r="G25" s="15">
-        <v>3370</v>
+        <v>3278</v>
       </c>
       <c r="H25" s="16">
-        <v>5.816023738872</v>
+        <v>7.046979865771</v>
       </c>
       <c r="I25" s="15">
-        <v>25268</v>
+        <v>26129</v>
       </c>
       <c r="J25" s="15">
-        <v>24179</v>
+        <v>24999</v>
       </c>
       <c r="K25" s="16">
-        <v>4.503908350221</v>
+        <v>4.520180807232</v>
       </c>
       <c r="L25" s="16">
-        <v>29.340704340704</v>
+        <v>28.777723016264</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.328081556997</v>
+        <v>-6.377870937690</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1318,31 +1318,31 @@
         <v>42</v>
       </c>
       <c r="D26" s="15">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E26" s="16">
-        <v>-2.325581395348</v>
+        <v>-19.230769230769</v>
       </c>
       <c r="F26" s="15">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G26" s="15">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H26" s="16">
-        <v>-11.330049261083</v>
+        <v>-14.146341463414</v>
       </c>
       <c r="I26" s="15">
-        <v>1410</v>
+        <v>1453</v>
       </c>
       <c r="J26" s="15">
-        <v>1547</v>
+        <v>1599</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.855850032320</v>
+        <v>-9.130706691682</v>
       </c>
       <c r="L26" s="16">
-        <v>1.438848920863</v>
+        <v>0.414651002073</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D27" s="15">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="E27" s="16">
-        <v>19.780219780219</v>
+        <v>-16.101694915254</v>
       </c>
       <c r="F27" s="15">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G27" s="15">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="H27" s="16">
-        <v>3.080568720379</v>
+        <v>-0.902934537246</v>
       </c>
       <c r="I27" s="15">
-        <v>3055</v>
+        <v>3157</v>
       </c>
       <c r="J27" s="15">
-        <v>2948</v>
+        <v>3066</v>
       </c>
       <c r="K27" s="16">
-        <v>3.629579375848</v>
+        <v>2.968036529680</v>
       </c>
       <c r="L27" s="16">
-        <v>14.505247376311</v>
+        <v>13.561151079136</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
+        <v>30</v>
+      </c>
+      <c r="D28" s="15">
         <v>34</v>
       </c>
-      <c r="D28" s="15">
-        <v>40</v>
-      </c>
       <c r="E28" s="16">
-        <v>-15</v>
+        <v>-11.764705882352</v>
       </c>
       <c r="F28" s="15">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G28" s="15">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="H28" s="16">
-        <v>-32.820512820512</v>
+        <v>-32.941176470588</v>
       </c>
       <c r="I28" s="15">
-        <v>705</v>
+        <v>734</v>
       </c>
       <c r="J28" s="15">
-        <v>976</v>
+        <v>1010</v>
       </c>
       <c r="K28" s="16">
-        <v>-27.766393442623</v>
+        <v>-27.326732673267</v>
       </c>
       <c r="L28" s="16">
-        <v>-31.686046511627</v>
+        <v>-32.660550458715</v>
       </c>
       <c r="M28" s="16">
-        <v>-30.128840436075</v>
+        <v>-30.558183538316</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.458041958042</v>
+        <v>-79.445533464015</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16">
-        <v>-9.677419354838</v>
+        <v>-6.896551724137</v>
       </c>
       <c r="F29" s="15">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G29" s="15">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H29" s="16">
-        <v>-32.026143790849</v>
+        <v>-29.629629629629</v>
       </c>
       <c r="I29" s="15">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="J29" s="15">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="K29" s="16">
-        <v>-26.459627329192</v>
+        <v>-25.899280575539</v>
       </c>
       <c r="L29" s="16">
-        <v>-33.258173618940</v>
+        <v>-33.548387096774</v>
       </c>
       <c r="M29" s="16">
-        <v>-28.674698795180</v>
+        <v>-29.128440366972</v>
       </c>
       <c r="N29" s="16">
-        <v>-80.903225806451</v>
+        <v>-80.789555486478</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1482,31 +1482,31 @@
         <v>3</v>
       </c>
       <c r="D30" s="15">
+        <v>12</v>
+      </c>
+      <c r="E30" s="16">
+        <v>-75</v>
+      </c>
+      <c r="F30" s="15">
         <v>24</v>
       </c>
-      <c r="E30" s="16">
-        <v>-87.5</v>
-      </c>
-      <c r="F30" s="15">
-        <v>26</v>
-      </c>
       <c r="G30" s="15">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H30" s="16">
-        <v>-50.943396226415</v>
+        <v>-58.620689655172</v>
       </c>
       <c r="I30" s="15">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="J30" s="15">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="K30" s="16">
-        <v>-30.693069306930</v>
+        <v>-30.769230769230</v>
       </c>
       <c r="L30" s="16">
-        <v>-14.373088685015</v>
+        <v>-14.792899408284</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">31</t>
+      <t xml:space="preserve">32</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/31/2023</t>
+      <t xml:space="preserve">8/7/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/6/2023</t>
+      <t xml:space="preserve">8/13/2023</t>
     </r>
   </si>
   <si>
@@ -826,37 +826,37 @@
         <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" s="16">
-        <v>-44.444444444444</v>
+        <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="15">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H14" s="16">
-        <v>-45.454545454545</v>
+        <v>-34.285714285714</v>
       </c>
       <c r="I14" s="15">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="J14" s="15">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K14" s="16">
-        <v>-12</v>
+        <v>-11.785714285714</v>
       </c>
       <c r="L14" s="16">
-        <v>-13.261648745519</v>
+        <v>-15.699658703071</v>
       </c>
       <c r="M14" s="16">
-        <v>-25.766871165644</v>
+        <v>-27.138643067846</v>
       </c>
       <c r="N14" s="16">
-        <v>-78.993055555555</v>
+        <v>-79.295892707460</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="15">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E15" s="16">
-        <v>-40</v>
+        <v>-13.793103448275</v>
       </c>
       <c r="F15" s="15">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G15" s="15">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H15" s="16">
-        <v>-25</v>
+        <v>-25.899280575539</v>
       </c>
       <c r="I15" s="15">
-        <v>874</v>
+        <v>897</v>
       </c>
       <c r="J15" s="15">
-        <v>996</v>
+        <v>1025</v>
       </c>
       <c r="K15" s="16">
-        <v>-12.248995983935</v>
+        <v>-12.487804878048</v>
       </c>
       <c r="L15" s="16">
-        <v>-1.907968574635</v>
+        <v>-3.961456102783</v>
       </c>
       <c r="M15" s="16">
-        <v>11.479591836734</v>
+        <v>11.290322580645</v>
       </c>
       <c r="N15" s="16">
-        <v>-55.430902600713</v>
+        <v>-55.528011898859</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D16" s="15">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E16" s="16">
-        <v>-7.853403141361</v>
+        <v>-14.322250639386</v>
       </c>
       <c r="F16" s="15">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="G16" s="15">
-        <v>1589</v>
+        <v>1560</v>
       </c>
       <c r="H16" s="16">
-        <v>-11.202013845185</v>
+        <v>-9.166666666666</v>
       </c>
       <c r="I16" s="15">
-        <v>9632</v>
+        <v>9976</v>
       </c>
       <c r="J16" s="15">
-        <v>10261</v>
+        <v>10652</v>
       </c>
       <c r="K16" s="16">
-        <v>-6.130006821947</v>
+        <v>-6.346226060833</v>
       </c>
       <c r="L16" s="16">
-        <v>31.423113658070</v>
+        <v>31.280431635741</v>
       </c>
       <c r="M16" s="16">
-        <v>-11.778714050192</v>
+        <v>-11.662091561144</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.728676897221</v>
+        <v>-80.644910946412</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="D17" s="15">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="E17" s="16">
-        <v>1.739130434782</v>
+        <v>-7.194244604316</v>
       </c>
       <c r="F17" s="15">
-        <v>2375</v>
+        <v>2318</v>
       </c>
       <c r="G17" s="15">
-        <v>2352</v>
+        <v>2316</v>
       </c>
       <c r="H17" s="16">
-        <v>0.977891156462</v>
+        <v>0.086355785837</v>
       </c>
       <c r="I17" s="15">
-        <v>16603</v>
+        <v>17150</v>
       </c>
       <c r="J17" s="15">
-        <v>15734</v>
+        <v>16290</v>
       </c>
       <c r="K17" s="16">
-        <v>5.523071056311</v>
+        <v>5.279312461632</v>
       </c>
       <c r="L17" s="16">
-        <v>27.382231087923</v>
+        <v>26.896041435442</v>
       </c>
       <c r="M17" s="16">
-        <v>61.037827352085</v>
+        <v>60.821455363841</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.865763792073</v>
+        <v>-33.753090234857</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="D18" s="15">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E18" s="16">
-        <v>3.484320557491</v>
+        <v>-22.295081967213</v>
       </c>
       <c r="F18" s="15">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="G18" s="15">
-        <v>1236</v>
+        <v>1215</v>
       </c>
       <c r="H18" s="16">
-        <v>-10.194174757281</v>
+        <v>-10.452674897119</v>
       </c>
       <c r="I18" s="15">
-        <v>8294</v>
+        <v>8554</v>
       </c>
       <c r="J18" s="15">
-        <v>9245</v>
+        <v>9551</v>
       </c>
       <c r="K18" s="16">
-        <v>-10.286641427798</v>
+        <v>-10.438697518584</v>
       </c>
       <c r="L18" s="16">
-        <v>19.527309410577</v>
+        <v>19.003895381190</v>
       </c>
       <c r="M18" s="16">
-        <v>-22.107438016528</v>
+        <v>-22.504076825511</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.000033759262</v>
+        <v>-86.018078098694</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="D19" s="15">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="E19" s="16">
-        <v>2.927289896128</v>
+        <v>-3.992571959145</v>
       </c>
       <c r="F19" s="15">
-        <v>4075</v>
+        <v>4119</v>
       </c>
       <c r="G19" s="15">
-        <v>4320</v>
+        <v>4338</v>
       </c>
       <c r="H19" s="16">
-        <v>-5.671296296296</v>
+        <v>-5.048409405255</v>
       </c>
       <c r="I19" s="15">
-        <v>29526</v>
+        <v>30567</v>
       </c>
       <c r="J19" s="15">
-        <v>30235</v>
+        <v>31312</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.344964445179</v>
+        <v>-2.379279509453</v>
       </c>
       <c r="L19" s="16">
-        <v>45.333727111636</v>
+        <v>44.812393405343</v>
       </c>
       <c r="M19" s="16">
-        <v>36.221453287197</v>
+        <v>36.234790747426</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.977511244377</v>
+        <v>-40.990347490347</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="D20" s="15">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="E20" s="16">
-        <v>10.135135135135</v>
+        <v>38.372093023255</v>
       </c>
       <c r="F20" s="15">
-        <v>1399</v>
+        <v>1415</v>
       </c>
       <c r="G20" s="15">
-        <v>1146</v>
+        <v>1067</v>
       </c>
       <c r="H20" s="16">
-        <v>22.076788830715</v>
+        <v>32.614807872539</v>
       </c>
       <c r="I20" s="15">
-        <v>9300</v>
+        <v>9658</v>
       </c>
       <c r="J20" s="15">
-        <v>7885</v>
+        <v>8144</v>
       </c>
       <c r="K20" s="16">
-        <v>17.945466074825</v>
+        <v>18.590373280943</v>
       </c>
       <c r="L20" s="16">
-        <v>67.416741674167</v>
+        <v>67.383015597920</v>
       </c>
       <c r="M20" s="16">
-        <v>52.109911678115</v>
+        <v>52.719797596457</v>
       </c>
       <c r="N20" s="16">
-        <v>-85.937641757643</v>
+        <v>-85.845973474023</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2679</v>
+        <v>2509</v>
       </c>
       <c r="D21" s="18">
-        <v>2648</v>
+        <v>2621</v>
       </c>
       <c r="E21" s="19">
-        <v>1.170694864048</v>
+        <v>-4.273178176268</v>
       </c>
       <c r="F21" s="18">
-        <v>10505</v>
+        <v>10483</v>
       </c>
       <c r="G21" s="18">
-        <v>10835</v>
+        <v>10670</v>
       </c>
       <c r="H21" s="19">
-        <v>-3.045685279187</v>
+        <v>-1.752577319587</v>
       </c>
       <c r="I21" s="18">
-        <v>74471</v>
+        <v>77049</v>
       </c>
       <c r="J21" s="18">
-        <v>74631</v>
+        <v>77254</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.214388122897</v>
+        <v>-0.265358428042</v>
       </c>
       <c r="L21" s="19">
-        <v>37.038809046243</v>
+        <v>36.594748878685</v>
       </c>
       <c r="M21" s="19">
-        <v>22.535582064993</v>
+        <v>22.492488195736</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.634579516642</v>
+        <v>-70.575587923041</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
+        <v>35</v>
+      </c>
+      <c r="D22" s="15">
         <v>42</v>
       </c>
-      <c r="D22" s="15">
-        <v>28</v>
-      </c>
       <c r="E22" s="16">
-        <v>50</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="F22" s="15">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G22" s="15">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H22" s="16">
-        <v>1.290322580645</v>
+        <v>0.680272108843</v>
       </c>
       <c r="I22" s="15">
-        <v>1304</v>
+        <v>1340</v>
       </c>
       <c r="J22" s="15">
-        <v>1358</v>
+        <v>1400</v>
       </c>
       <c r="K22" s="16">
-        <v>-3.976435935198</v>
+        <v>-4.285714285714</v>
       </c>
       <c r="L22" s="16">
-        <v>47.178329571106</v>
+        <v>45.336225596529</v>
       </c>
       <c r="M22" s="16">
-        <v>5.331179321486</v>
+        <v>3.795507358636</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="D23" s="15">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E23" s="16">
-        <v>-9.6</v>
+        <v>-2.836879432624</v>
       </c>
       <c r="F23" s="15">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="G23" s="15">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="H23" s="16">
-        <v>-2.144249512670</v>
+        <v>-3.165735567970</v>
       </c>
       <c r="I23" s="15">
-        <v>3710</v>
+        <v>3855</v>
       </c>
       <c r="J23" s="15">
-        <v>3595</v>
+        <v>3737</v>
       </c>
       <c r="K23" s="16">
-        <v>3.198887343532</v>
+        <v>3.157613058603</v>
       </c>
       <c r="L23" s="16">
-        <v>17.479417352754</v>
+        <v>17.602196461256</v>
       </c>
       <c r="M23" s="16">
-        <v>51.428571428571</v>
+        <v>51.295133437990</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2129</v>
+        <v>2295</v>
       </c>
       <c r="D24" s="15">
-        <v>2346</v>
+        <v>2323</v>
       </c>
       <c r="E24" s="16">
-        <v>-9.249786871270</v>
+        <v>-1.205337925096</v>
       </c>
       <c r="F24" s="15">
-        <v>8913</v>
+        <v>9065</v>
       </c>
       <c r="G24" s="15">
-        <v>9403</v>
+        <v>9521</v>
       </c>
       <c r="H24" s="16">
-        <v>-5.211102839519</v>
+        <v>-4.789412876798</v>
       </c>
       <c r="I24" s="15">
-        <v>65496</v>
+        <v>67811</v>
       </c>
       <c r="J24" s="15">
-        <v>67462</v>
+        <v>69785</v>
       </c>
       <c r="K24" s="16">
-        <v>-2.914233197948</v>
+        <v>-2.828688113491</v>
       </c>
       <c r="L24" s="16">
-        <v>38.545500698058</v>
+        <v>38.468921016090</v>
       </c>
       <c r="M24" s="16">
-        <v>37.767400769861</v>
+        <v>37.592322051781</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>853</v>
+        <v>903</v>
       </c>
       <c r="D25" s="15">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E25" s="16">
-        <v>4.024390243902</v>
+        <v>10.526315789473</v>
       </c>
       <c r="F25" s="15">
-        <v>3509</v>
+        <v>3559</v>
       </c>
       <c r="G25" s="15">
-        <v>3278</v>
+        <v>3298</v>
       </c>
       <c r="H25" s="16">
-        <v>7.046979865771</v>
+        <v>7.913887204366</v>
       </c>
       <c r="I25" s="15">
-        <v>26129</v>
+        <v>27048</v>
       </c>
       <c r="J25" s="15">
-        <v>24999</v>
+        <v>25816</v>
       </c>
       <c r="K25" s="16">
-        <v>4.520180807232</v>
+        <v>4.772234273318</v>
       </c>
       <c r="L25" s="16">
-        <v>28.777723016264</v>
+        <v>28.689694547530</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.377870937690</v>
+        <v>-6.168042739193</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1318,31 +1318,31 @@
         <v>42</v>
       </c>
       <c r="D26" s="15">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E26" s="16">
-        <v>-19.230769230769</v>
+        <v>-10.638297872340</v>
       </c>
       <c r="F26" s="15">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G26" s="15">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H26" s="16">
-        <v>-14.146341463414</v>
+        <v>-12.690355329949</v>
       </c>
       <c r="I26" s="15">
-        <v>1453</v>
+        <v>1497</v>
       </c>
       <c r="J26" s="15">
-        <v>1599</v>
+        <v>1646</v>
       </c>
       <c r="K26" s="16">
-        <v>-9.130706691682</v>
+        <v>-9.052247873633</v>
       </c>
       <c r="L26" s="16">
-        <v>0.414651002073</v>
+        <v>-0.729442970822</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D27" s="15">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E27" s="16">
-        <v>-16.101694915254</v>
+        <v>-1.834862385321</v>
       </c>
       <c r="F27" s="15">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G27" s="15">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="H27" s="16">
-        <v>-0.902934537246</v>
+        <v>-0.696055684454</v>
       </c>
       <c r="I27" s="15">
-        <v>3157</v>
+        <v>3261</v>
       </c>
       <c r="J27" s="15">
-        <v>3066</v>
+        <v>3175</v>
       </c>
       <c r="K27" s="16">
-        <v>2.968036529680</v>
+        <v>2.708661417322</v>
       </c>
       <c r="L27" s="16">
-        <v>13.561151079136</v>
+        <v>12.759336099585</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D28" s="15">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="16">
-        <v>-11.764705882352</v>
+        <v>-55.555555555555</v>
       </c>
       <c r="F28" s="15">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G28" s="15">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H28" s="16">
-        <v>-32.941176470588</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I28" s="15">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="J28" s="15">
-        <v>1010</v>
+        <v>1046</v>
       </c>
       <c r="K28" s="16">
-        <v>-27.326732673267</v>
+        <v>-28.298279158699</v>
       </c>
       <c r="L28" s="16">
-        <v>-32.660550458715</v>
+        <v>-34.497816593886</v>
       </c>
       <c r="M28" s="16">
-        <v>-30.558183538316</v>
+        <v>-32.553956834532</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.445533464015</v>
+        <v>-79.685807150595</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D29" s="15">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E29" s="16">
-        <v>-6.896551724137</v>
+        <v>-51.612903225806</v>
       </c>
       <c r="F29" s="15">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G29" s="15">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H29" s="16">
-        <v>-29.629629629629</v>
+        <v>-30.232558139534</v>
       </c>
       <c r="I29" s="15">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="J29" s="15">
-        <v>834</v>
+        <v>865</v>
       </c>
       <c r="K29" s="16">
-        <v>-25.899280575539</v>
+        <v>-26.820809248554</v>
       </c>
       <c r="L29" s="16">
-        <v>-33.548387096774</v>
+        <v>-34.876543209876</v>
       </c>
       <c r="M29" s="16">
-        <v>-29.128440366972</v>
+        <v>-31.045751633986</v>
       </c>
       <c r="N29" s="16">
-        <v>-80.789555486478</v>
+        <v>-80.956678700361</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16">
-        <v>-75</v>
+        <v>-80</v>
       </c>
       <c r="F30" s="15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="15">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H30" s="16">
-        <v>-58.620689655172</v>
+        <v>-61.016949152542</v>
       </c>
       <c r="I30" s="15">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="J30" s="15">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K30" s="16">
-        <v>-30.769230769230</v>
+        <v>-30.751173708920</v>
       </c>
       <c r="L30" s="16">
-        <v>-14.792899408284</v>
+        <v>-14.492753623188</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">32</t>
+      <t xml:space="preserve">33</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/7/2023</t>
+      <t xml:space="preserve">8/14/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/13/2023</t>
+      <t xml:space="preserve">8/20/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F14" s="15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="15">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H14" s="16">
-        <v>-34.285714285714</v>
+        <v>-19.230769230769</v>
       </c>
       <c r="I14" s="15">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J14" s="15">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K14" s="16">
-        <v>-11.785714285714</v>
+        <v>-10.954063604240</v>
       </c>
       <c r="L14" s="16">
-        <v>-15.699658703071</v>
+        <v>-17.105263157894</v>
       </c>
       <c r="M14" s="16">
-        <v>-27.138643067846</v>
+        <v>-27.586206896551</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.295892707460</v>
+        <v>-79.595141700404</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" s="15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="16">
-        <v>-13.793103448275</v>
+        <v>7.692307692307</v>
       </c>
       <c r="F15" s="15">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G15" s="15">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H15" s="16">
-        <v>-25.899280575539</v>
+        <v>-16.8</v>
       </c>
       <c r="I15" s="15">
-        <v>897</v>
+        <v>926</v>
       </c>
       <c r="J15" s="15">
-        <v>1025</v>
+        <v>1051</v>
       </c>
       <c r="K15" s="16">
-        <v>-12.487804878048</v>
+        <v>-11.893434823977</v>
       </c>
       <c r="L15" s="16">
-        <v>-3.961456102783</v>
+        <v>-3.941908713692</v>
       </c>
       <c r="M15" s="16">
-        <v>11.290322580645</v>
+        <v>9.585798816568</v>
       </c>
       <c r="N15" s="16">
-        <v>-55.528011898859</v>
+        <v>-55.714968914395</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D16" s="15">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E16" s="16">
-        <v>-14.322250639386</v>
+        <v>-5.135135135135</v>
       </c>
       <c r="F16" s="15">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="G16" s="15">
-        <v>1560</v>
+        <v>1531</v>
       </c>
       <c r="H16" s="16">
-        <v>-9.166666666666</v>
+        <v>-8.229915088177</v>
       </c>
       <c r="I16" s="15">
-        <v>9976</v>
+        <v>10333</v>
       </c>
       <c r="J16" s="15">
-        <v>10652</v>
+        <v>11023</v>
       </c>
       <c r="K16" s="16">
-        <v>-6.346226060833</v>
+        <v>-6.259638936768</v>
       </c>
       <c r="L16" s="16">
-        <v>31.280431635741</v>
+        <v>31.246030737965</v>
       </c>
       <c r="M16" s="16">
-        <v>-11.662091561144</v>
+        <v>-11.608212147134</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.644910946412</v>
+        <v>-80.591295854542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>516</v>
+        <v>563</v>
       </c>
       <c r="D17" s="15">
-        <v>556</v>
+        <v>503</v>
       </c>
       <c r="E17" s="16">
-        <v>-7.194244604316</v>
+        <v>11.928429423459</v>
       </c>
       <c r="F17" s="15">
-        <v>2318</v>
+        <v>2301</v>
       </c>
       <c r="G17" s="15">
-        <v>2316</v>
+        <v>2230</v>
       </c>
       <c r="H17" s="16">
-        <v>0.086355785837</v>
+        <v>3.183856502242</v>
       </c>
       <c r="I17" s="15">
-        <v>17150</v>
+        <v>17741</v>
       </c>
       <c r="J17" s="15">
-        <v>16290</v>
+        <v>16793</v>
       </c>
       <c r="K17" s="16">
-        <v>5.279312461632</v>
+        <v>5.645209313404</v>
       </c>
       <c r="L17" s="16">
-        <v>26.896041435442</v>
+        <v>26.748588983353</v>
       </c>
       <c r="M17" s="16">
-        <v>60.821455363841</v>
+        <v>61.413884086980</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.753090234857</v>
+        <v>-33.733004631704</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="D18" s="15">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E18" s="16">
-        <v>-22.295081967213</v>
+        <v>-11.960132890365</v>
       </c>
       <c r="F18" s="15">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="G18" s="15">
-        <v>1215</v>
+        <v>1187</v>
       </c>
       <c r="H18" s="16">
-        <v>-10.452674897119</v>
+        <v>-7.497893850042</v>
       </c>
       <c r="I18" s="15">
-        <v>8554</v>
+        <v>8837</v>
       </c>
       <c r="J18" s="15">
-        <v>9551</v>
+        <v>9853</v>
       </c>
       <c r="K18" s="16">
-        <v>-10.438697518584</v>
+        <v>-10.311580229371</v>
       </c>
       <c r="L18" s="16">
-        <v>19.003895381190</v>
+        <v>19.483504597079</v>
       </c>
       <c r="M18" s="16">
-        <v>-22.504076825511</v>
+        <v>-22.814219582496</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.018078098694</v>
+        <v>-85.999904944471</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>1034</v>
+        <v>1047</v>
       </c>
       <c r="D19" s="15">
-        <v>1077</v>
+        <v>1098</v>
       </c>
       <c r="E19" s="16">
-        <v>-3.992571959145</v>
+        <v>-4.644808743169</v>
       </c>
       <c r="F19" s="15">
-        <v>4119</v>
+        <v>4186</v>
       </c>
       <c r="G19" s="15">
-        <v>4338</v>
+        <v>4364</v>
       </c>
       <c r="H19" s="16">
-        <v>-5.048409405255</v>
+        <v>-4.078826764436</v>
       </c>
       <c r="I19" s="15">
-        <v>30567</v>
+        <v>31650</v>
       </c>
       <c r="J19" s="15">
-        <v>31312</v>
+        <v>32410</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.379279509453</v>
+        <v>-2.344955260722</v>
       </c>
       <c r="L19" s="16">
-        <v>44.812393405343</v>
+        <v>44.349174496032</v>
       </c>
       <c r="M19" s="16">
-        <v>36.234790747426</v>
+        <v>36.422413793103</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.990347490347</v>
+        <v>-40.984523587544</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D20" s="15">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="E20" s="16">
-        <v>38.372093023255</v>
+        <v>48.245614035087</v>
       </c>
       <c r="F20" s="15">
-        <v>1415</v>
+        <v>1369</v>
       </c>
       <c r="G20" s="15">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="H20" s="16">
-        <v>32.614807872539</v>
+        <v>30.133079847908</v>
       </c>
       <c r="I20" s="15">
-        <v>9658</v>
+        <v>9986</v>
       </c>
       <c r="J20" s="15">
-        <v>8144</v>
+        <v>8372</v>
       </c>
       <c r="K20" s="16">
-        <v>18.590373280943</v>
+        <v>19.278547539417</v>
       </c>
       <c r="L20" s="16">
-        <v>67.383015597920</v>
+        <v>66.294754371357</v>
       </c>
       <c r="M20" s="16">
-        <v>52.719797596457</v>
+        <v>52.995250497931</v>
       </c>
       <c r="N20" s="16">
-        <v>-85.845973474023</v>
+        <v>-85.800213295414</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2509</v>
+        <v>2594</v>
       </c>
       <c r="D21" s="18">
-        <v>2621</v>
+        <v>2529</v>
       </c>
       <c r="E21" s="19">
-        <v>-4.273178176268</v>
+        <v>2.570185844207</v>
       </c>
       <c r="F21" s="18">
-        <v>10483</v>
+        <v>10484</v>
       </c>
       <c r="G21" s="18">
-        <v>10670</v>
+        <v>10515</v>
       </c>
       <c r="H21" s="19">
-        <v>-1.752577319587</v>
+        <v>-0.294816928197</v>
       </c>
       <c r="I21" s="18">
-        <v>77049</v>
+        <v>79725</v>
       </c>
       <c r="J21" s="18">
-        <v>77254</v>
+        <v>79785</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.265358428042</v>
+        <v>-0.075202105658</v>
       </c>
       <c r="L21" s="19">
-        <v>36.594748878685</v>
+        <v>36.363636363636</v>
       </c>
       <c r="M21" s="19">
-        <v>22.492488195736</v>
+        <v>22.559569561875</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.575587923041</v>
+        <v>-70.517319803411</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22" s="15">
         <v>42</v>
       </c>
       <c r="E22" s="16">
-        <v>-16.666666666666</v>
+        <v>0</v>
       </c>
       <c r="F22" s="15">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G22" s="15">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H22" s="16">
-        <v>0.680272108843</v>
+        <v>8.666666666666</v>
       </c>
       <c r="I22" s="15">
-        <v>1340</v>
+        <v>1385</v>
       </c>
       <c r="J22" s="15">
-        <v>1400</v>
+        <v>1442</v>
       </c>
       <c r="K22" s="16">
-        <v>-4.285714285714</v>
+        <v>-3.952843273231</v>
       </c>
       <c r="L22" s="16">
-        <v>45.336225596529</v>
+        <v>43.078512396694</v>
       </c>
       <c r="M22" s="16">
-        <v>3.795507358636</v>
+        <v>4.135338345864</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="D23" s="15">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="E23" s="16">
-        <v>-2.836879432624</v>
+        <v>0</v>
       </c>
       <c r="F23" s="15">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="G23" s="15">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="H23" s="16">
-        <v>-3.165735567970</v>
+        <v>-3.3203125</v>
       </c>
       <c r="I23" s="15">
-        <v>3855</v>
+        <v>3971</v>
       </c>
       <c r="J23" s="15">
-        <v>3737</v>
+        <v>3846</v>
       </c>
       <c r="K23" s="16">
-        <v>3.157613058603</v>
+        <v>3.250130005200</v>
       </c>
       <c r="L23" s="16">
-        <v>17.602196461256</v>
+        <v>17.035072207486</v>
       </c>
       <c r="M23" s="16">
-        <v>51.295133437990</v>
+        <v>51.564885496183</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2295</v>
+        <v>2211</v>
       </c>
       <c r="D24" s="15">
-        <v>2323</v>
+        <v>2446</v>
       </c>
       <c r="E24" s="16">
-        <v>-1.205337925096</v>
+        <v>-9.607522485690</v>
       </c>
       <c r="F24" s="15">
-        <v>9065</v>
+        <v>8941</v>
       </c>
       <c r="G24" s="15">
-        <v>9521</v>
+        <v>9657</v>
       </c>
       <c r="H24" s="16">
-        <v>-4.789412876798</v>
+        <v>-7.414310862586</v>
       </c>
       <c r="I24" s="15">
-        <v>67811</v>
+        <v>70017</v>
       </c>
       <c r="J24" s="15">
-        <v>69785</v>
+        <v>72229</v>
       </c>
       <c r="K24" s="16">
-        <v>-2.828688113491</v>
+        <v>-3.062481828628</v>
       </c>
       <c r="L24" s="16">
-        <v>38.468921016090</v>
+        <v>38.160543036426</v>
       </c>
       <c r="M24" s="16">
-        <v>37.592322051781</v>
+        <v>37.239797718452</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>903</v>
+        <v>857</v>
       </c>
       <c r="D25" s="15">
-        <v>817</v>
+        <v>726</v>
       </c>
       <c r="E25" s="16">
-        <v>10.526315789473</v>
+        <v>18.044077134986</v>
       </c>
       <c r="F25" s="15">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G25" s="15">
-        <v>3298</v>
+        <v>3189</v>
       </c>
       <c r="H25" s="16">
-        <v>7.913887204366</v>
+        <v>11.571025399811</v>
       </c>
       <c r="I25" s="15">
-        <v>27048</v>
+        <v>27895</v>
       </c>
       <c r="J25" s="15">
-        <v>25816</v>
+        <v>26543</v>
       </c>
       <c r="K25" s="16">
-        <v>4.772234273318</v>
+        <v>5.093621670496</v>
       </c>
       <c r="L25" s="16">
-        <v>28.689694547530</v>
+        <v>28.040943725328</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.168042739193</v>
+        <v>-6.029981472123</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D26" s="15">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="16">
-        <v>-10.638297872340</v>
+        <v>20</v>
       </c>
       <c r="F26" s="15">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G26" s="15">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H26" s="16">
-        <v>-12.690355329949</v>
+        <v>-3.208556149732</v>
       </c>
       <c r="I26" s="15">
-        <v>1497</v>
+        <v>1552</v>
       </c>
       <c r="J26" s="15">
-        <v>1646</v>
+        <v>1692</v>
       </c>
       <c r="K26" s="16">
-        <v>-9.052247873633</v>
+        <v>-8.274231678487</v>
       </c>
       <c r="L26" s="16">
-        <v>-0.729442970822</v>
+        <v>-0.512820512820</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D27" s="15">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E27" s="16">
-        <v>-1.834862385321</v>
+        <v>0</v>
       </c>
       <c r="F27" s="15">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G27" s="15">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H27" s="16">
-        <v>-0.696055684454</v>
+        <v>-0.945626477541</v>
       </c>
       <c r="I27" s="15">
-        <v>3261</v>
+        <v>3363</v>
       </c>
       <c r="J27" s="15">
-        <v>3175</v>
+        <v>3279</v>
       </c>
       <c r="K27" s="16">
-        <v>2.708661417322</v>
+        <v>2.561756633119</v>
       </c>
       <c r="L27" s="16">
-        <v>12.759336099585</v>
+        <v>12.174783188792</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D28" s="15">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16">
-        <v>-55.555555555555</v>
+        <v>20</v>
       </c>
       <c r="F28" s="15">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G28" s="15">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="H28" s="16">
-        <v>-33.333333333333</v>
+        <v>-20.769230769230</v>
       </c>
       <c r="I28" s="15">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="J28" s="15">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="K28" s="16">
-        <v>-28.298279158699</v>
+        <v>-27.392120075046</v>
       </c>
       <c r="L28" s="16">
-        <v>-34.497816593886</v>
+        <v>-35.5</v>
       </c>
       <c r="M28" s="16">
-        <v>-32.553956834532</v>
+        <v>-32.754126846220</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.685807150595</v>
+        <v>-79.796397807361</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D29" s="15">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16">
-        <v>-51.612903225806</v>
+        <v>10</v>
       </c>
       <c r="F29" s="15">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" s="15">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="H29" s="16">
-        <v>-30.232558139534</v>
+        <v>-18.018018018018</v>
       </c>
       <c r="I29" s="15">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="J29" s="15">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="K29" s="16">
-        <v>-26.820809248554</v>
+        <v>-25.988700564971</v>
       </c>
       <c r="L29" s="16">
-        <v>-34.876543209876</v>
+        <v>-34.760956175298</v>
       </c>
       <c r="M29" s="16">
-        <v>-31.045751633986</v>
+        <v>-31.125131440588</v>
       </c>
       <c r="N29" s="16">
-        <v>-80.956678700361</v>
+        <v>-80.992455020313</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" s="15">
         <v>10</v>
       </c>
       <c r="E30" s="16">
-        <v>-80</v>
+        <v>-50</v>
       </c>
       <c r="F30" s="15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" s="15">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H30" s="16">
-        <v>-61.016949152542</v>
+        <v>-57.142857142857</v>
       </c>
       <c r="I30" s="15">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="J30" s="15">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="K30" s="16">
-        <v>-30.751173708920</v>
+        <v>-30.504587155963</v>
       </c>
       <c r="L30" s="16">
-        <v>-14.492753623188</v>
+        <v>-14.164305949008</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">33</t>
+      <t xml:space="preserve">34</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/14/2023</t>
+      <t xml:space="preserve">8/21/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/20/2023</t>
+      <t xml:space="preserve">8/27/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E14" s="16">
-        <v>-33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G14" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" s="16">
-        <v>-19.230769230769</v>
+        <v>-7.407407407407</v>
       </c>
       <c r="I14" s="15">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="J14" s="15">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="K14" s="16">
-        <v>-10.954063604240</v>
+        <v>-10.238907849829</v>
       </c>
       <c r="L14" s="16">
-        <v>-17.105263157894</v>
+        <v>-15.974440894568</v>
       </c>
       <c r="M14" s="16">
-        <v>-27.586206896551</v>
+        <v>-25.495750708215</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.595141700404</v>
+        <v>-79.548989113530</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="15">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E15" s="16">
-        <v>7.692307692307</v>
+        <v>-24.242424242424</v>
       </c>
       <c r="F15" s="15">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G15" s="15">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H15" s="16">
-        <v>-16.8</v>
+        <v>-21.875</v>
       </c>
       <c r="I15" s="15">
-        <v>926</v>
+        <v>949</v>
       </c>
       <c r="J15" s="15">
-        <v>1051</v>
+        <v>1084</v>
       </c>
       <c r="K15" s="16">
-        <v>-11.893434823977</v>
+        <v>-12.453874538745</v>
       </c>
       <c r="L15" s="16">
-        <v>-3.941908713692</v>
+        <v>-4.334677419354</v>
       </c>
       <c r="M15" s="16">
-        <v>9.585798816568</v>
+        <v>9.710982658959</v>
       </c>
       <c r="N15" s="16">
-        <v>-55.714968914395</v>
+        <v>-56.186518928901</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="D16" s="15">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E16" s="16">
-        <v>-5.135135135135</v>
+        <v>5.865921787709</v>
       </c>
       <c r="F16" s="15">
-        <v>1405</v>
+        <v>1431</v>
       </c>
       <c r="G16" s="15">
-        <v>1531</v>
+        <v>1501</v>
       </c>
       <c r="H16" s="16">
-        <v>-8.229915088177</v>
+        <v>-4.663557628247</v>
       </c>
       <c r="I16" s="15">
-        <v>10333</v>
+        <v>10723</v>
       </c>
       <c r="J16" s="15">
-        <v>11023</v>
+        <v>11381</v>
       </c>
       <c r="K16" s="16">
-        <v>-6.259638936768</v>
+        <v>-5.781565767507</v>
       </c>
       <c r="L16" s="16">
-        <v>31.246030737965</v>
+        <v>31.926673228346</v>
       </c>
       <c r="M16" s="16">
-        <v>-11.608212147134</v>
+        <v>-11.358187980491</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.591295854542</v>
+        <v>-80.469546845402</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>563</v>
+        <v>505</v>
       </c>
       <c r="D17" s="15">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="E17" s="16">
-        <v>11.928429423459</v>
+        <v>-6.481481481481</v>
       </c>
       <c r="F17" s="15">
-        <v>2301</v>
+        <v>2203</v>
       </c>
       <c r="G17" s="15">
-        <v>2230</v>
+        <v>2174</v>
       </c>
       <c r="H17" s="16">
-        <v>3.183856502242</v>
+        <v>1.333946642134</v>
       </c>
       <c r="I17" s="15">
-        <v>17741</v>
+        <v>18260</v>
       </c>
       <c r="J17" s="15">
-        <v>16793</v>
+        <v>17333</v>
       </c>
       <c r="K17" s="16">
-        <v>5.645209313404</v>
+        <v>5.348179772687</v>
       </c>
       <c r="L17" s="16">
-        <v>26.748588983353</v>
+        <v>26.165964209217</v>
       </c>
       <c r="M17" s="16">
-        <v>61.413884086980</v>
+        <v>61.293171981273</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.733004631704</v>
+        <v>-33.967381477597</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="D18" s="15">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="E18" s="16">
-        <v>-11.960132890365</v>
+        <v>-33.988764044943</v>
       </c>
       <c r="F18" s="15">
-        <v>1098</v>
+        <v>1058</v>
       </c>
       <c r="G18" s="15">
-        <v>1187</v>
+        <v>1249</v>
       </c>
       <c r="H18" s="16">
-        <v>-7.497893850042</v>
+        <v>-15.292233787029</v>
       </c>
       <c r="I18" s="15">
-        <v>8837</v>
+        <v>9096</v>
       </c>
       <c r="J18" s="15">
-        <v>9853</v>
+        <v>10209</v>
       </c>
       <c r="K18" s="16">
-        <v>-10.311580229371</v>
+        <v>-10.90214516603</v>
       </c>
       <c r="L18" s="16">
-        <v>19.483504597079</v>
+        <v>18.995290423861</v>
       </c>
       <c r="M18" s="16">
-        <v>-22.814219582496</v>
+        <v>-23.363383604347</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.999904944471</v>
+        <v>-86.032370013206</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>1047</v>
+        <v>1023</v>
       </c>
       <c r="D19" s="15">
-        <v>1098</v>
+        <v>1014</v>
       </c>
       <c r="E19" s="16">
-        <v>-4.644808743169</v>
+        <v>0.887573964497</v>
       </c>
       <c r="F19" s="15">
-        <v>4186</v>
+        <v>4195</v>
       </c>
       <c r="G19" s="15">
-        <v>4364</v>
+        <v>4248</v>
       </c>
       <c r="H19" s="16">
-        <v>-4.078826764436</v>
+        <v>-1.247645951035</v>
       </c>
       <c r="I19" s="15">
-        <v>31650</v>
+        <v>32684</v>
       </c>
       <c r="J19" s="15">
-        <v>32410</v>
+        <v>33424</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.344955260722</v>
+        <v>-2.213977979894</v>
       </c>
       <c r="L19" s="16">
-        <v>44.349174496032</v>
+        <v>44.172915747684</v>
       </c>
       <c r="M19" s="16">
-        <v>36.422413793103</v>
+        <v>36.342399466043</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.984523587544</v>
+        <v>-41.029157043879</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="D20" s="15">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="E20" s="16">
-        <v>48.245614035087</v>
+        <v>18.855218855218</v>
       </c>
       <c r="F20" s="15">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="G20" s="15">
-        <v>1052</v>
+        <v>1079</v>
       </c>
       <c r="H20" s="16">
-        <v>30.133079847908</v>
+        <v>26.413345690454</v>
       </c>
       <c r="I20" s="15">
-        <v>9986</v>
+        <v>10334</v>
       </c>
       <c r="J20" s="15">
-        <v>8372</v>
+        <v>8669</v>
       </c>
       <c r="K20" s="16">
-        <v>19.278547539417</v>
+        <v>19.206367516437</v>
       </c>
       <c r="L20" s="16">
-        <v>66.294754371357</v>
+        <v>66.355441081777</v>
       </c>
       <c r="M20" s="16">
-        <v>52.995250497931</v>
+        <v>53.711140859735</v>
       </c>
       <c r="N20" s="16">
-        <v>-85.800213295414</v>
+        <v>-85.730067110386</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2594</v>
+        <v>2530</v>
       </c>
       <c r="D21" s="18">
-        <v>2529</v>
+        <v>2608</v>
       </c>
       <c r="E21" s="19">
-        <v>2.570185844207</v>
+        <v>-2.990797546012</v>
       </c>
       <c r="F21" s="18">
-        <v>10484</v>
+        <v>10376</v>
       </c>
       <c r="G21" s="18">
-        <v>10515</v>
+        <v>10406</v>
       </c>
       <c r="H21" s="19">
-        <v>-0.294816928197</v>
+        <v>-0.288295214299</v>
       </c>
       <c r="I21" s="18">
-        <v>79725</v>
+        <v>82309</v>
       </c>
       <c r="J21" s="18">
-        <v>79785</v>
+        <v>82393</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.075202105658</v>
+        <v>-0.101950408408</v>
       </c>
       <c r="L21" s="19">
-        <v>36.363636363636</v>
+        <v>36.201019327508</v>
       </c>
       <c r="M21" s="19">
-        <v>22.559569561875</v>
+        <v>22.483630952381</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.517319803411</v>
+        <v>-70.495711054474</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D22" s="15">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E22" s="16">
-        <v>0</v>
+        <v>-20.833333333333</v>
       </c>
       <c r="F22" s="15">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G22" s="15">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H22" s="16">
-        <v>8.666666666666</v>
+        <v>-3.75</v>
       </c>
       <c r="I22" s="15">
-        <v>1385</v>
+        <v>1423</v>
       </c>
       <c r="J22" s="15">
-        <v>1442</v>
+        <v>1490</v>
       </c>
       <c r="K22" s="16">
-        <v>-3.952843273231</v>
+        <v>-4.496644295302</v>
       </c>
       <c r="L22" s="16">
-        <v>43.078512396694</v>
+        <v>43.158953722334</v>
       </c>
       <c r="M22" s="16">
-        <v>4.135338345864</v>
+        <v>3.944485025566</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D23" s="15">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E23" s="16">
-        <v>0</v>
+        <v>13.274336283185</v>
       </c>
       <c r="F23" s="15">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="G23" s="15">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="H23" s="16">
-        <v>-3.3203125</v>
+        <v>3.893442622950</v>
       </c>
       <c r="I23" s="15">
-        <v>3971</v>
+        <v>4111</v>
       </c>
       <c r="J23" s="15">
-        <v>3846</v>
+        <v>3959</v>
       </c>
       <c r="K23" s="16">
-        <v>3.250130005200</v>
+        <v>3.839353372063</v>
       </c>
       <c r="L23" s="16">
-        <v>17.035072207486</v>
+        <v>17.390062821245</v>
       </c>
       <c r="M23" s="16">
-        <v>51.564885496183</v>
+        <v>51.418047882136</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2211</v>
+        <v>2267</v>
       </c>
       <c r="D24" s="15">
-        <v>2446</v>
+        <v>2609</v>
       </c>
       <c r="E24" s="16">
-        <v>-9.607522485690</v>
+        <v>-13.108470678420</v>
       </c>
       <c r="F24" s="15">
-        <v>8941</v>
+        <v>8944</v>
       </c>
       <c r="G24" s="15">
-        <v>9657</v>
+        <v>9724</v>
       </c>
       <c r="H24" s="16">
-        <v>-7.414310862586</v>
+        <v>-8.021390374331</v>
       </c>
       <c r="I24" s="15">
-        <v>70017</v>
+        <v>72303</v>
       </c>
       <c r="J24" s="15">
-        <v>72229</v>
+        <v>74839</v>
       </c>
       <c r="K24" s="16">
-        <v>-3.062481828628</v>
+        <v>-3.388607544194</v>
       </c>
       <c r="L24" s="16">
-        <v>38.160543036426</v>
+        <v>38.175320580197</v>
       </c>
       <c r="M24" s="16">
-        <v>37.239797718452</v>
+        <v>37.189533802629</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>857</v>
+        <v>814</v>
       </c>
       <c r="D25" s="15">
-        <v>726</v>
+        <v>788</v>
       </c>
       <c r="E25" s="16">
-        <v>18.044077134986</v>
+        <v>3.299492385786</v>
       </c>
       <c r="F25" s="15">
-        <v>3558</v>
+        <v>3446</v>
       </c>
       <c r="G25" s="15">
-        <v>3189</v>
+        <v>3151</v>
       </c>
       <c r="H25" s="16">
-        <v>11.571025399811</v>
+        <v>9.362107267534</v>
       </c>
       <c r="I25" s="15">
-        <v>27895</v>
+        <v>28708</v>
       </c>
       <c r="J25" s="15">
-        <v>26543</v>
+        <v>27331</v>
       </c>
       <c r="K25" s="16">
-        <v>5.093621670496</v>
+        <v>5.038234971278</v>
       </c>
       <c r="L25" s="16">
-        <v>28.040943725328</v>
+        <v>27.443842670691</v>
       </c>
       <c r="M25" s="16">
-        <v>-6.029981472123</v>
+        <v>-5.819828095269</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D26" s="15">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E26" s="16">
-        <v>20</v>
+        <v>-22.641509433962</v>
       </c>
       <c r="F26" s="15">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G26" s="15">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="H26" s="16">
-        <v>-3.208556149732</v>
+        <v>-10.152284263959</v>
       </c>
       <c r="I26" s="15">
-        <v>1552</v>
+        <v>1592</v>
       </c>
       <c r="J26" s="15">
-        <v>1692</v>
+        <v>1745</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.274231678487</v>
+        <v>-8.767908309455</v>
       </c>
       <c r="L26" s="16">
-        <v>-0.512820512820</v>
+        <v>-1.179391682184</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D27" s="15">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E27" s="16">
-        <v>0</v>
+        <v>18.556701030927</v>
       </c>
       <c r="F27" s="15">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G27" s="15">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H27" s="16">
-        <v>-0.945626477541</v>
+        <v>-1.631701631701</v>
       </c>
       <c r="I27" s="15">
-        <v>3363</v>
+        <v>3470</v>
       </c>
       <c r="J27" s="15">
-        <v>3279</v>
+        <v>3376</v>
       </c>
       <c r="K27" s="16">
-        <v>2.561756633119</v>
+        <v>2.784360189573</v>
       </c>
       <c r="L27" s="16">
-        <v>12.174783188792</v>
+        <v>11.791237113402</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="15">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E28" s="16">
-        <v>20</v>
+        <v>-46.341463414634</v>
       </c>
       <c r="F28" s="15">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G28" s="15">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H28" s="16">
-        <v>-20.769230769230</v>
+        <v>-29.007633587786</v>
       </c>
       <c r="I28" s="15">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="J28" s="15">
-        <v>1066</v>
+        <v>1107</v>
       </c>
       <c r="K28" s="16">
-        <v>-27.392120075046</v>
+        <v>-28.003613369467</v>
       </c>
       <c r="L28" s="16">
-        <v>-35.5</v>
+        <v>-35.255889520714</v>
       </c>
       <c r="M28" s="16">
-        <v>-32.754126846220</v>
+        <v>-32.799325463743</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.796397807361</v>
+        <v>-79.848293299620</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1441,37 +1441,37 @@
         <v>22</v>
       </c>
       <c r="D29" s="15">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E29" s="16">
-        <v>10</v>
+        <v>-29.032258064516</v>
       </c>
       <c r="F29" s="15">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G29" s="15">
         <v>111</v>
       </c>
       <c r="H29" s="16">
-        <v>-18.018018018018</v>
+        <v>-22.522522522522</v>
       </c>
       <c r="I29" s="15">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="J29" s="15">
-        <v>885</v>
+        <v>916</v>
       </c>
       <c r="K29" s="16">
-        <v>-25.988700564971</v>
+        <v>-26.091703056768</v>
       </c>
       <c r="L29" s="16">
-        <v>-34.760956175298</v>
+        <v>-34.143968871595</v>
       </c>
       <c r="M29" s="16">
-        <v>-31.125131440588</v>
+        <v>-31.129196337741</v>
       </c>
       <c r="N29" s="16">
-        <v>-80.992455020313</v>
+        <v>-80.977802753582</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16">
-        <v>-50</v>
+        <v>-93.333333333333</v>
       </c>
       <c r="F30" s="15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="15">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H30" s="16">
-        <v>-57.142857142857</v>
+        <v>-51.063829787234</v>
       </c>
       <c r="I30" s="15">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="J30" s="15">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="K30" s="16">
-        <v>-30.504587155963</v>
+        <v>-31.485587583148</v>
       </c>
       <c r="L30" s="16">
-        <v>-14.164305949008</v>
+        <v>-14.166666666666</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58" xml:space="preserve">
   <si>
     <t>Police Department</t>
   </si>
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">34</t>
+      <t xml:space="preserve">35</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/21/2023</t>
+      <t xml:space="preserve">8/28/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/27/2023</t>
+      <t xml:space="preserve">9/3/2023</t>
     </r>
   </si>
   <si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>Hate Crimes</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Historical Perspective</t>
@@ -832,31 +835,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G14" s="15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" s="16">
-        <v>-7.407407407407</v>
+        <v>3.571428571428</v>
       </c>
       <c r="I14" s="15">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="J14" s="15">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K14" s="16">
-        <v>-10.238907849829</v>
+        <v>-9.570957095709</v>
       </c>
       <c r="L14" s="16">
-        <v>-15.974440894568</v>
+        <v>-16.463414634146</v>
       </c>
       <c r="M14" s="16">
-        <v>-25.495750708215</v>
+        <v>-25.745257452574</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.548989113530</v>
+        <v>-79.226686884003</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +867,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="15">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E15" s="16">
-        <v>-24.242424242424</v>
+        <v>-18.918918918918</v>
       </c>
       <c r="F15" s="15">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G15" s="15">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H15" s="16">
-        <v>-21.875</v>
+        <v>-14.4</v>
       </c>
       <c r="I15" s="15">
-        <v>949</v>
+        <v>979</v>
       </c>
       <c r="J15" s="15">
-        <v>1084</v>
+        <v>1121</v>
       </c>
       <c r="K15" s="16">
-        <v>-12.453874538745</v>
+        <v>-12.667261373773</v>
       </c>
       <c r="L15" s="16">
-        <v>-4.334677419354</v>
+        <v>-3.736479842674</v>
       </c>
       <c r="M15" s="16">
-        <v>9.710982658959</v>
+        <v>9.385474860335</v>
       </c>
       <c r="N15" s="16">
-        <v>-56.186518928901</v>
+        <v>-56.604609929078</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +908,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="D16" s="15">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E16" s="16">
-        <v>5.865921787709</v>
+        <v>-8.595988538681</v>
       </c>
       <c r="F16" s="15">
-        <v>1431</v>
+        <v>1400</v>
       </c>
       <c r="G16" s="15">
-        <v>1501</v>
+        <v>1468</v>
       </c>
       <c r="H16" s="16">
-        <v>-4.663557628247</v>
+        <v>-4.632152588555</v>
       </c>
       <c r="I16" s="15">
-        <v>10723</v>
+        <v>11054</v>
       </c>
       <c r="J16" s="15">
-        <v>11381</v>
+        <v>11730</v>
       </c>
       <c r="K16" s="16">
-        <v>-5.781565767507</v>
+        <v>-5.763000852514</v>
       </c>
       <c r="L16" s="16">
-        <v>31.926673228346</v>
+        <v>31.877833452636</v>
       </c>
       <c r="M16" s="16">
-        <v>-11.358187980491</v>
+        <v>-11.617494203246</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.469546845402</v>
+        <v>-80.488924190274</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +949,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="D17" s="15">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E17" s="16">
-        <v>-6.481481481481</v>
+        <v>-0.747663551401</v>
       </c>
       <c r="F17" s="15">
-        <v>2203</v>
+        <v>2148</v>
       </c>
       <c r="G17" s="15">
-        <v>2174</v>
+        <v>2134</v>
       </c>
       <c r="H17" s="16">
-        <v>1.333946642134</v>
+        <v>0.656044985941</v>
       </c>
       <c r="I17" s="15">
-        <v>18260</v>
+        <v>18819</v>
       </c>
       <c r="J17" s="15">
-        <v>17333</v>
+        <v>17868</v>
       </c>
       <c r="K17" s="16">
-        <v>5.348179772687</v>
+        <v>5.322364002686</v>
       </c>
       <c r="L17" s="16">
-        <v>26.165964209217</v>
+        <v>25.871179185338</v>
       </c>
       <c r="M17" s="16">
-        <v>61.293171981273</v>
+        <v>60.997519034990</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.967381477597</v>
+        <v>-34.190096516995</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +990,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="D18" s="15">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="E18" s="16">
-        <v>-33.988764044943</v>
+        <v>-18.380062305296</v>
       </c>
       <c r="F18" s="15">
-        <v>1058</v>
+        <v>1020</v>
       </c>
       <c r="G18" s="15">
-        <v>1249</v>
+        <v>1283</v>
       </c>
       <c r="H18" s="16">
-        <v>-15.292233787029</v>
+        <v>-20.498830865159</v>
       </c>
       <c r="I18" s="15">
-        <v>9096</v>
+        <v>9370</v>
       </c>
       <c r="J18" s="15">
-        <v>10209</v>
+        <v>10530</v>
       </c>
       <c r="K18" s="16">
-        <v>-10.90214516603</v>
+        <v>-11.016144349477</v>
       </c>
       <c r="L18" s="16">
-        <v>18.995290423861</v>
+        <v>19.241537286841</v>
       </c>
       <c r="M18" s="16">
-        <v>-23.363383604347</v>
+        <v>-23.403907463418</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.032370013206</v>
+        <v>-86.056755107810</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1031,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>1023</v>
+        <v>962</v>
       </c>
       <c r="D19" s="15">
-        <v>1014</v>
+        <v>1097</v>
       </c>
       <c r="E19" s="16">
-        <v>0.887573964497</v>
+        <v>-12.306289881495</v>
       </c>
       <c r="F19" s="15">
-        <v>4195</v>
+        <v>4087</v>
       </c>
       <c r="G19" s="15">
-        <v>4248</v>
+        <v>4286</v>
       </c>
       <c r="H19" s="16">
-        <v>-1.247645951035</v>
+        <v>-4.643023798413</v>
       </c>
       <c r="I19" s="15">
-        <v>32684</v>
+        <v>33694</v>
       </c>
       <c r="J19" s="15">
-        <v>33424</v>
+        <v>34521</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.213977979894</v>
+        <v>-2.395643231656</v>
       </c>
       <c r="L19" s="16">
-        <v>44.172915747684</v>
+        <v>43.470300191611</v>
       </c>
       <c r="M19" s="16">
-        <v>36.342399466043</v>
+        <v>36.131873459658</v>
       </c>
       <c r="N19" s="16">
-        <v>-41.029157043879</v>
+        <v>-41.283284539244</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1072,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="D20" s="15">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E20" s="16">
-        <v>18.855218855218</v>
+        <v>7.746478873239</v>
       </c>
       <c r="F20" s="15">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="G20" s="15">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="H20" s="16">
-        <v>26.413345690454</v>
+        <v>25.866916588566</v>
       </c>
       <c r="I20" s="15">
-        <v>10334</v>
+        <v>10632</v>
       </c>
       <c r="J20" s="15">
-        <v>8669</v>
+        <v>8953</v>
       </c>
       <c r="K20" s="16">
-        <v>19.206367516437</v>
+        <v>18.753490450128</v>
       </c>
       <c r="L20" s="16">
-        <v>66.355441081777</v>
+        <v>64.78611283323</v>
       </c>
       <c r="M20" s="16">
-        <v>53.711140859735</v>
+        <v>53.353526611856</v>
       </c>
       <c r="N20" s="16">
-        <v>-85.730067110386</v>
+        <v>-85.732114819437</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1113,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2530</v>
+        <v>2420</v>
       </c>
       <c r="D21" s="18">
-        <v>2608</v>
+        <v>2633</v>
       </c>
       <c r="E21" s="19">
-        <v>-2.990797546012</v>
+        <v>-8.089631598936</v>
       </c>
       <c r="F21" s="18">
-        <v>10376</v>
+        <v>10134</v>
       </c>
       <c r="G21" s="18">
-        <v>10406</v>
+        <v>10391</v>
       </c>
       <c r="H21" s="19">
-        <v>-0.288295214299</v>
+        <v>-2.473294196901</v>
       </c>
       <c r="I21" s="18">
-        <v>82309</v>
+        <v>84822</v>
       </c>
       <c r="J21" s="18">
-        <v>82393</v>
+        <v>85026</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.101950408408</v>
+        <v>-0.239926610683</v>
       </c>
       <c r="L21" s="19">
-        <v>36.201019327508</v>
+        <v>35.773854305059</v>
       </c>
       <c r="M21" s="19">
-        <v>22.483630952381</v>
+        <v>22.262421263531</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.495711054474</v>
+        <v>-70.540551804617</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1154,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="15">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E22" s="16">
-        <v>-20.833333333333</v>
+        <v>-11.363636363636</v>
       </c>
       <c r="F22" s="15">
         <v>154</v>
       </c>
       <c r="G22" s="15">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="H22" s="16">
-        <v>-3.75</v>
+        <v>-12.5</v>
       </c>
       <c r="I22" s="15">
-        <v>1423</v>
+        <v>1468</v>
       </c>
       <c r="J22" s="15">
-        <v>1490</v>
+        <v>1534</v>
       </c>
       <c r="K22" s="16">
-        <v>-4.496644295302</v>
+        <v>-4.302477183833</v>
       </c>
       <c r="L22" s="16">
-        <v>43.158953722334</v>
+        <v>41.972920696324</v>
       </c>
       <c r="M22" s="16">
-        <v>3.944485025566</v>
+        <v>4.113475177304</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1195,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D23" s="15">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E23" s="16">
-        <v>13.274336283185</v>
+        <v>-17.322834645669</v>
       </c>
       <c r="F23" s="15">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G23" s="15">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H23" s="16">
-        <v>3.893442622950</v>
+        <v>2.040816326530</v>
       </c>
       <c r="I23" s="15">
-        <v>4111</v>
+        <v>4226</v>
       </c>
       <c r="J23" s="15">
-        <v>3959</v>
+        <v>4086</v>
       </c>
       <c r="K23" s="16">
-        <v>3.839353372063</v>
+        <v>3.426333822809</v>
       </c>
       <c r="L23" s="16">
-        <v>17.390062821245</v>
+        <v>17.096148517594</v>
       </c>
       <c r="M23" s="16">
-        <v>51.418047882136</v>
+        <v>50.284495021337</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1236,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2267</v>
+        <v>2215</v>
       </c>
       <c r="D24" s="15">
-        <v>2609</v>
+        <v>2396</v>
       </c>
       <c r="E24" s="16">
-        <v>-13.108470678420</v>
+        <v>-7.554257095158</v>
       </c>
       <c r="F24" s="15">
-        <v>8944</v>
+        <v>9025</v>
       </c>
       <c r="G24" s="15">
-        <v>9724</v>
+        <v>9774</v>
       </c>
       <c r="H24" s="16">
-        <v>-8.021390374331</v>
+        <v>-7.663188049928</v>
       </c>
       <c r="I24" s="15">
-        <v>72303</v>
+        <v>74542</v>
       </c>
       <c r="J24" s="15">
-        <v>74839</v>
+        <v>77235</v>
       </c>
       <c r="K24" s="16">
-        <v>-3.388607544194</v>
+        <v>-3.486761183401</v>
       </c>
       <c r="L24" s="16">
-        <v>38.175320580197</v>
+        <v>38.107236817727</v>
       </c>
       <c r="M24" s="16">
-        <v>37.189533802629</v>
+        <v>37.290726586241</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1277,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>814</v>
+        <v>915</v>
       </c>
       <c r="D25" s="15">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="E25" s="16">
-        <v>3.299492385786</v>
+        <v>14.949748743718</v>
       </c>
       <c r="F25" s="15">
-        <v>3446</v>
+        <v>3495</v>
       </c>
       <c r="G25" s="15">
-        <v>3151</v>
+        <v>3127</v>
       </c>
       <c r="H25" s="16">
-        <v>9.362107267534</v>
+        <v>11.768468180364</v>
       </c>
       <c r="I25" s="15">
-        <v>28708</v>
+        <v>29619</v>
       </c>
       <c r="J25" s="15">
-        <v>27331</v>
+        <v>28127</v>
       </c>
       <c r="K25" s="16">
-        <v>5.038234971278</v>
+        <v>5.304511679169</v>
       </c>
       <c r="L25" s="16">
-        <v>27.443842670691</v>
+        <v>27.404507914659</v>
       </c>
       <c r="M25" s="16">
-        <v>-5.819828095269</v>
+        <v>-5.696001018848</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1318,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D26" s="15">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="16">
-        <v>-22.641509433962</v>
+        <v>-13.725490196078</v>
       </c>
       <c r="F26" s="15">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" s="15">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H26" s="16">
-        <v>-10.152284263959</v>
+        <v>-8.163265306122</v>
       </c>
       <c r="I26" s="15">
-        <v>1592</v>
+        <v>1635</v>
       </c>
       <c r="J26" s="15">
-        <v>1745</v>
+        <v>1796</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.767908309455</v>
+        <v>-8.964365256124</v>
       </c>
       <c r="L26" s="16">
-        <v>-1.179391682184</v>
+        <v>-1.208459214501</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1359,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D27" s="15">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E27" s="16">
-        <v>18.556701030927</v>
+        <v>5.494505494505</v>
       </c>
       <c r="F27" s="15">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G27" s="15">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="H27" s="16">
-        <v>-1.631701631701</v>
+        <v>3.233830845771</v>
       </c>
       <c r="I27" s="15">
-        <v>3470</v>
+        <v>3559</v>
       </c>
       <c r="J27" s="15">
-        <v>3376</v>
+        <v>3467</v>
       </c>
       <c r="K27" s="16">
-        <v>2.784360189573</v>
+        <v>2.653591000865</v>
       </c>
       <c r="L27" s="16">
-        <v>11.791237113402</v>
+        <v>10.665422885572</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1400,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D28" s="15">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16">
-        <v>-46.341463414634</v>
+        <v>-35.714285714285</v>
       </c>
       <c r="F28" s="15">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G28" s="15">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H28" s="16">
-        <v>-29.007633587786</v>
+        <v>-35.2</v>
       </c>
       <c r="I28" s="15">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="J28" s="15">
-        <v>1107</v>
+        <v>1135</v>
       </c>
       <c r="K28" s="16">
-        <v>-28.003613369467</v>
+        <v>-28.193832599118</v>
       </c>
       <c r="L28" s="16">
-        <v>-35.255889520714</v>
+        <v>-36.526479750778</v>
       </c>
       <c r="M28" s="16">
-        <v>-32.799325463743</v>
+        <v>-34.432823813354</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.848293299620</v>
+        <v>-79.985265225933</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,75 +1441,75 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
+        <v>16</v>
+      </c>
+      <c r="D29" s="15">
         <v>22</v>
       </c>
-      <c r="D29" s="15">
-        <v>31</v>
-      </c>
       <c r="E29" s="16">
-        <v>-29.032258064516</v>
+        <v>-27.272727272727</v>
       </c>
       <c r="F29" s="15">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G29" s="15">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H29" s="16">
-        <v>-22.522522522522</v>
+        <v>-27.884615384615</v>
       </c>
       <c r="I29" s="15">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="J29" s="15">
-        <v>916</v>
+        <v>938</v>
       </c>
       <c r="K29" s="16">
-        <v>-26.091703056768</v>
+        <v>-26.119402985074</v>
       </c>
       <c r="L29" s="16">
-        <v>-34.143968871595</v>
+        <v>-35.414725069897</v>
       </c>
       <c r="M29" s="16">
-        <v>-31.129196337741</v>
+        <v>-32.521908471275</v>
       </c>
       <c r="N29" s="16">
-        <v>-80.977802753582</v>
+        <v>-81.122309997275</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="15">
-        <v>1</v>
+      <c r="C30" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D30" s="15">
+        <v>7</v>
+      </c>
+      <c r="E30" s="16">
+        <v>-100</v>
+      </c>
+      <c r="F30" s="15">
         <v>15</v>
       </c>
-      <c r="E30" s="16">
-        <v>-93.333333333333</v>
-      </c>
-      <c r="F30" s="15">
-        <v>23</v>
-      </c>
       <c r="G30" s="15">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H30" s="16">
-        <v>-51.063829787234</v>
+        <v>-64.285714285714</v>
       </c>
       <c r="I30" s="15">
         <v>309</v>
       </c>
       <c r="J30" s="15">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="K30" s="16">
-        <v>-31.485587583148</v>
+        <v>-32.532751091703</v>
       </c>
       <c r="L30" s="16">
-        <v>-14.166666666666</v>
+        <v>-15.803814713896</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>
@@ -1517,7 +1520,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -1535,7 +1538,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1568,45 +1571,45 @@
         <v>17</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35" s="21">
         <v>2022</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1867,42 +1870,42 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:11" customHeight="1" ht="29.250000">
       <c r="A53" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>7</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="54" spans="1:1" customHeight="1" ht="29.250000">
       <c r="A54" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57" xml:space="preserve">
   <si>
     <t>Police Department</t>
   </si>
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">35</t>
+      <t xml:space="preserve">36</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/28/2023</t>
+      <t xml:space="preserve">9/4/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/3/2023</t>
+      <t xml:space="preserve">9/10/2023</t>
     </r>
   </si>
   <si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>Hate Crimes</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Historical Perspective</t>
@@ -826,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="F14" s="15">
         <v>29</v>
       </c>
       <c r="G14" s="15">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H14" s="16">
-        <v>3.571428571428</v>
+        <v>-6.451612903225</v>
       </c>
       <c r="I14" s="15">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J14" s="15">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K14" s="16">
-        <v>-9.570957095709</v>
+        <v>-9.967845659163</v>
       </c>
       <c r="L14" s="16">
-        <v>-16.463414634146</v>
+        <v>-17.647058823529</v>
       </c>
       <c r="M14" s="16">
-        <v>-25.745257452574</v>
+        <v>-25.925925925925</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.226686884003</v>
+        <v>-79.381443298969</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -867,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="15">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E15" s="16">
-        <v>-18.918918918918</v>
+        <v>-16.129032258064</v>
       </c>
       <c r="F15" s="15">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="15">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H15" s="16">
-        <v>-14.4</v>
+        <v>-16.535433070866</v>
       </c>
       <c r="I15" s="15">
-        <v>979</v>
+        <v>1003</v>
       </c>
       <c r="J15" s="15">
-        <v>1121</v>
+        <v>1152</v>
       </c>
       <c r="K15" s="16">
-        <v>-12.667261373773</v>
+        <v>-12.934027777777</v>
       </c>
       <c r="L15" s="16">
-        <v>-3.736479842674</v>
+        <v>-3.557692307692</v>
       </c>
       <c r="M15" s="16">
-        <v>9.385474860335</v>
+        <v>7.849462365591</v>
       </c>
       <c r="N15" s="16">
-        <v>-56.604609929078</v>
+        <v>-56.823073611709</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="D16" s="15">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="E16" s="16">
-        <v>-8.595988538681</v>
+        <v>-3.825136612021</v>
       </c>
       <c r="F16" s="15">
-        <v>1400</v>
+        <v>1413</v>
       </c>
       <c r="G16" s="15">
-        <v>1468</v>
+        <v>1443</v>
       </c>
       <c r="H16" s="16">
-        <v>-4.632152588555</v>
+        <v>-2.079002079002</v>
       </c>
       <c r="I16" s="15">
-        <v>11054</v>
+        <v>11416</v>
       </c>
       <c r="J16" s="15">
-        <v>11730</v>
+        <v>12097</v>
       </c>
       <c r="K16" s="16">
-        <v>-5.763000852514</v>
+        <v>-5.629494916094</v>
       </c>
       <c r="L16" s="16">
-        <v>31.877833452636</v>
+        <v>31.642066420664</v>
       </c>
       <c r="M16" s="16">
-        <v>-11.617494203246</v>
+        <v>-11.007171811662</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.488924190274</v>
+        <v>-80.424568743784</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -949,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="D17" s="15">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="E17" s="16">
-        <v>-0.747663551401</v>
+        <v>0</v>
       </c>
       <c r="F17" s="15">
-        <v>2148</v>
+        <v>2188</v>
       </c>
       <c r="G17" s="15">
-        <v>2134</v>
+        <v>2142</v>
       </c>
       <c r="H17" s="16">
-        <v>0.656044985941</v>
+        <v>2.147525676937</v>
       </c>
       <c r="I17" s="15">
-        <v>18819</v>
+        <v>19406</v>
       </c>
       <c r="J17" s="15">
-        <v>17868</v>
+        <v>18432</v>
       </c>
       <c r="K17" s="16">
-        <v>5.322364002686</v>
+        <v>5.284288194444</v>
       </c>
       <c r="L17" s="16">
-        <v>25.871179185338</v>
+        <v>25.321278656764</v>
       </c>
       <c r="M17" s="16">
-        <v>60.997519034990</v>
+        <v>60.605809815443</v>
       </c>
       <c r="N17" s="16">
-        <v>-34.190096516995</v>
+        <v>-34.136573445560</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -990,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D18" s="15">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E18" s="16">
-        <v>-18.380062305296</v>
+        <v>-22.670807453416</v>
       </c>
       <c r="F18" s="15">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="G18" s="15">
-        <v>1283</v>
+        <v>1300</v>
       </c>
       <c r="H18" s="16">
-        <v>-20.498830865159</v>
+        <v>-20.846153846153</v>
       </c>
       <c r="I18" s="15">
-        <v>9370</v>
+        <v>9636</v>
       </c>
       <c r="J18" s="15">
-        <v>10530</v>
+        <v>10852</v>
       </c>
       <c r="K18" s="16">
-        <v>-11.016144349477</v>
+        <v>-11.205307777368</v>
       </c>
       <c r="L18" s="16">
-        <v>19.241537286841</v>
+        <v>19.213163429419</v>
       </c>
       <c r="M18" s="16">
-        <v>-23.403907463418</v>
+        <v>-23.693379790940</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.056755107810</v>
+        <v>-86.065881944645</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1031,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>962</v>
+        <v>983</v>
       </c>
       <c r="D19" s="15">
-        <v>1097</v>
+        <v>1011</v>
       </c>
       <c r="E19" s="16">
-        <v>-12.306289881495</v>
+        <v>-2.769535113748</v>
       </c>
       <c r="F19" s="15">
-        <v>4087</v>
+        <v>4034</v>
       </c>
       <c r="G19" s="15">
-        <v>4286</v>
+        <v>4220</v>
       </c>
       <c r="H19" s="16">
-        <v>-4.643023798413</v>
+        <v>-4.407582938388</v>
       </c>
       <c r="I19" s="15">
-        <v>33694</v>
+        <v>34700</v>
       </c>
       <c r="J19" s="15">
-        <v>34521</v>
+        <v>35532</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.395643231656</v>
+        <v>-2.341551277721</v>
       </c>
       <c r="L19" s="16">
-        <v>43.470300191611</v>
+        <v>42.751357577752</v>
       </c>
       <c r="M19" s="16">
-        <v>36.131873459658</v>
+        <v>36.083767990901</v>
       </c>
       <c r="N19" s="16">
-        <v>-41.283284539244</v>
+        <v>-41.311774853702</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1072,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D20" s="15">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E20" s="16">
-        <v>7.746478873239</v>
+        <v>18.545454545454</v>
       </c>
       <c r="F20" s="15">
-        <v>1343</v>
+        <v>1318</v>
       </c>
       <c r="G20" s="15">
-        <v>1067</v>
+        <v>1084</v>
       </c>
       <c r="H20" s="16">
-        <v>25.866916588566</v>
+        <v>21.586715867158</v>
       </c>
       <c r="I20" s="15">
-        <v>10632</v>
+        <v>10963</v>
       </c>
       <c r="J20" s="15">
-        <v>8953</v>
+        <v>9228</v>
       </c>
       <c r="K20" s="16">
-        <v>18.753490450128</v>
+        <v>18.801473775466</v>
       </c>
       <c r="L20" s="16">
-        <v>64.78611283323</v>
+        <v>63.822474596533</v>
       </c>
       <c r="M20" s="16">
-        <v>53.353526611856</v>
+        <v>53.888265019651</v>
       </c>
       <c r="N20" s="16">
-        <v>-85.732114819437</v>
+        <v>-85.693405890720</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1113,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2420</v>
+        <v>2505</v>
       </c>
       <c r="D21" s="18">
-        <v>2633</v>
+        <v>2577</v>
       </c>
       <c r="E21" s="19">
-        <v>-8.089631598936</v>
+        <v>-2.793946449359</v>
       </c>
       <c r="F21" s="18">
-        <v>10134</v>
+        <v>10117</v>
       </c>
       <c r="G21" s="18">
-        <v>10391</v>
+        <v>10347</v>
       </c>
       <c r="H21" s="19">
-        <v>-2.473294196901</v>
+        <v>-2.222866531361</v>
       </c>
       <c r="I21" s="18">
-        <v>84822</v>
+        <v>87404</v>
       </c>
       <c r="J21" s="18">
-        <v>85026</v>
+        <v>87604</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.239926610683</v>
+        <v>-0.228300077622</v>
       </c>
       <c r="L21" s="19">
-        <v>35.773854305059</v>
+        <v>35.258433921386</v>
       </c>
       <c r="M21" s="19">
-        <v>22.262421263531</v>
+        <v>22.294669091926</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.540551804617</v>
+        <v>-70.508685030974</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1154,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
+        <v>33</v>
+      </c>
+      <c r="D22" s="15">
         <v>39</v>
       </c>
-      <c r="D22" s="15">
-        <v>44</v>
-      </c>
       <c r="E22" s="16">
-        <v>-11.363636363636</v>
+        <v>-15.384615384615</v>
       </c>
       <c r="F22" s="15">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G22" s="15">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H22" s="16">
-        <v>-12.5</v>
+        <v>-12.138728323699</v>
       </c>
       <c r="I22" s="15">
-        <v>1468</v>
+        <v>1503</v>
       </c>
       <c r="J22" s="15">
-        <v>1534</v>
+        <v>1573</v>
       </c>
       <c r="K22" s="16">
-        <v>-4.302477183833</v>
+        <v>-4.450095359186</v>
       </c>
       <c r="L22" s="16">
-        <v>41.972920696324</v>
+        <v>40.074557315936</v>
       </c>
       <c r="M22" s="16">
-        <v>4.113475177304</v>
+        <v>3.086419753086</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1195,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D23" s="15">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E23" s="16">
-        <v>-17.322834645669</v>
+        <v>-23.4375</v>
       </c>
       <c r="F23" s="15">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="G23" s="15">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="H23" s="16">
-        <v>2.040816326530</v>
+        <v>-5.031446540880</v>
       </c>
       <c r="I23" s="15">
-        <v>4226</v>
+        <v>4324</v>
       </c>
       <c r="J23" s="15">
-        <v>4086</v>
+        <v>4214</v>
       </c>
       <c r="K23" s="16">
-        <v>3.426333822809</v>
+        <v>2.610346464167</v>
       </c>
       <c r="L23" s="16">
-        <v>17.096148517594</v>
+        <v>16.361679224973</v>
       </c>
       <c r="M23" s="16">
-        <v>50.284495021337</v>
+        <v>48.898071625344</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1236,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2215</v>
+        <v>2026</v>
       </c>
       <c r="D24" s="15">
-        <v>2396</v>
+        <v>2229</v>
       </c>
       <c r="E24" s="16">
-        <v>-7.554257095158</v>
+        <v>-9.107222969941</v>
       </c>
       <c r="F24" s="15">
-        <v>9025</v>
+        <v>8789</v>
       </c>
       <c r="G24" s="15">
-        <v>9774</v>
+        <v>9680</v>
       </c>
       <c r="H24" s="16">
-        <v>-7.663188049928</v>
+        <v>-9.204545454545</v>
       </c>
       <c r="I24" s="15">
-        <v>74542</v>
+        <v>76594</v>
       </c>
       <c r="J24" s="15">
-        <v>77235</v>
+        <v>79464</v>
       </c>
       <c r="K24" s="16">
-        <v>-3.486761183401</v>
+        <v>-3.611698379140</v>
       </c>
       <c r="L24" s="16">
-        <v>38.107236817727</v>
+        <v>37.741651230960</v>
       </c>
       <c r="M24" s="16">
-        <v>37.290726586241</v>
+        <v>36.823865666309</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1277,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="D25" s="15">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="E25" s="16">
-        <v>14.949748743718</v>
+        <v>16.536458333333</v>
       </c>
       <c r="F25" s="15">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="G25" s="15">
-        <v>3127</v>
+        <v>3078</v>
       </c>
       <c r="H25" s="16">
-        <v>11.768468180364</v>
+        <v>13.64522417154</v>
       </c>
       <c r="I25" s="15">
-        <v>29619</v>
+        <v>30518</v>
       </c>
       <c r="J25" s="15">
-        <v>28127</v>
+        <v>28894</v>
       </c>
       <c r="K25" s="16">
-        <v>5.304511679169</v>
+        <v>5.620544057589</v>
       </c>
       <c r="L25" s="16">
-        <v>27.404507914659</v>
+        <v>27.232552322187</v>
       </c>
       <c r="M25" s="16">
-        <v>-5.696001018848</v>
+        <v>-5.730083711735</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1318,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="15">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="16">
-        <v>-13.725490196078</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="F26" s="15">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G26" s="15">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H26" s="16">
-        <v>-8.163265306122</v>
+        <v>-10.101010101010</v>
       </c>
       <c r="I26" s="15">
-        <v>1635</v>
+        <v>1677</v>
       </c>
       <c r="J26" s="15">
-        <v>1796</v>
+        <v>1845</v>
       </c>
       <c r="K26" s="16">
-        <v>-8.964365256124</v>
+        <v>-9.105691056910</v>
       </c>
       <c r="L26" s="16">
-        <v>-1.208459214501</v>
+        <v>-1.120283018867</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1359,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D27" s="15">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E27" s="16">
-        <v>5.494505494505</v>
+        <v>11.363636363636</v>
       </c>
       <c r="F27" s="15">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G27" s="15">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="H27" s="16">
-        <v>3.233830845771</v>
+        <v>7.086614173228</v>
       </c>
       <c r="I27" s="15">
-        <v>3559</v>
+        <v>3655</v>
       </c>
       <c r="J27" s="15">
-        <v>3467</v>
+        <v>3555</v>
       </c>
       <c r="K27" s="16">
-        <v>2.653591000865</v>
+        <v>2.812939521800</v>
       </c>
       <c r="L27" s="16">
-        <v>10.665422885572</v>
+        <v>10.156720916214</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1400,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D28" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16">
-        <v>-35.714285714285</v>
+        <v>-13.333333333333</v>
       </c>
       <c r="F28" s="15">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G28" s="15">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H28" s="16">
-        <v>-35.2</v>
+        <v>-23.529411764705</v>
       </c>
       <c r="I28" s="15">
-        <v>815</v>
+        <v>840</v>
       </c>
       <c r="J28" s="15">
-        <v>1135</v>
+        <v>1165</v>
       </c>
       <c r="K28" s="16">
-        <v>-28.193832599118</v>
+        <v>-27.896995708154</v>
       </c>
       <c r="L28" s="16">
-        <v>-36.526479750778</v>
+        <v>-36.794582392776</v>
       </c>
       <c r="M28" s="16">
-        <v>-34.432823813354</v>
+        <v>-34.220830070477</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.985265225933</v>
+        <v>-79.918718622997</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1441,75 +1438,75 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29" s="15">
         <v>22</v>
       </c>
       <c r="E29" s="16">
-        <v>-27.272727272727</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="F29" s="15">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G29" s="15">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H29" s="16">
-        <v>-27.884615384615</v>
+        <v>-15.789473684210</v>
       </c>
       <c r="I29" s="15">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="J29" s="15">
-        <v>938</v>
+        <v>960</v>
       </c>
       <c r="K29" s="16">
-        <v>-26.119402985074</v>
+        <v>-25.833333333333</v>
       </c>
       <c r="L29" s="16">
-        <v>-35.414725069897</v>
+        <v>-35.623869801085</v>
       </c>
       <c r="M29" s="16">
-        <v>-32.521908471275</v>
+        <v>-32.319391634981</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.122309997275</v>
+        <v>-81.124072110286</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>37</v>
+      <c r="C30" s="15">
+        <v>7</v>
       </c>
       <c r="D30" s="15">
         <v>7</v>
       </c>
       <c r="E30" s="16">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F30" s="15">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G30" s="15">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H30" s="16">
-        <v>-64.285714285714</v>
+        <v>-28.205128205128</v>
       </c>
       <c r="I30" s="15">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="J30" s="15">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="K30" s="16">
-        <v>-32.532751091703</v>
+        <v>-29.677419354838</v>
       </c>
       <c r="L30" s="16">
-        <v>-15.803814713896</v>
+        <v>-13.262599469496</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>
@@ -1520,7 +1517,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -1538,7 +1535,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1571,45 +1568,45 @@
         <v>17</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="G35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="I35" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="J35" s="21">
         <v>2022</v>
       </c>
       <c r="K35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="M35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="N35" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1870,42 +1867,42 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:11" customHeight="1" ht="29.250000">
       <c r="A53" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>7</v>
@@ -1913,7 +1910,7 @@
     </row>
     <row r="54" spans="1:1" customHeight="1" ht="29.250000">
       <c r="A54" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">36</t>
+      <t xml:space="preserve">37</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/4/2023</t>
+      <t xml:space="preserve">9/11/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/10/2023</t>
+      <t xml:space="preserve">9/17/2023</t>
     </r>
   </si>
   <si>
@@ -826,37 +826,37 @@
         <v>5</v>
       </c>
       <c r="D14" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="16">
-        <v>-37.5</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="F14" s="15">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" s="15">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H14" s="16">
-        <v>-6.451612903225</v>
+        <v>-13.513513513513</v>
       </c>
       <c r="I14" s="15">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J14" s="15">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K14" s="16">
-        <v>-9.967845659163</v>
+        <v>-10.625</v>
       </c>
       <c r="L14" s="16">
-        <v>-17.647058823529</v>
+        <v>-18.980169971671</v>
       </c>
       <c r="M14" s="16">
-        <v>-25.925925925925</v>
+        <v>-25.714285714285</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.381443298969</v>
+        <v>-79.759377211606</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="15">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E15" s="16">
-        <v>-16.129032258064</v>
+        <v>-30.769230769230</v>
       </c>
       <c r="F15" s="15">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="15">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H15" s="16">
-        <v>-16.535433070866</v>
+        <v>-25</v>
       </c>
       <c r="I15" s="15">
-        <v>1003</v>
+        <v>1032</v>
       </c>
       <c r="J15" s="15">
-        <v>1152</v>
+        <v>1191</v>
       </c>
       <c r="K15" s="16">
-        <v>-12.934027777777</v>
+        <v>-13.350125944584</v>
       </c>
       <c r="L15" s="16">
-        <v>-3.557692307692</v>
+        <v>-3.821062441752</v>
       </c>
       <c r="M15" s="16">
-        <v>7.849462365591</v>
+        <v>8.403361344537</v>
       </c>
       <c r="N15" s="16">
-        <v>-56.823073611709</v>
+        <v>-56.474061577393</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D16" s="15">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E16" s="16">
-        <v>-3.825136612021</v>
+        <v>-2.542372881355</v>
       </c>
       <c r="F16" s="15">
         <v>1413</v>
       </c>
       <c r="G16" s="15">
-        <v>1443</v>
+        <v>1427</v>
       </c>
       <c r="H16" s="16">
-        <v>-2.079002079002</v>
+        <v>-0.981079187105</v>
       </c>
       <c r="I16" s="15">
-        <v>11416</v>
+        <v>11773</v>
       </c>
       <c r="J16" s="15">
-        <v>12097</v>
+        <v>12451</v>
       </c>
       <c r="K16" s="16">
-        <v>-5.629494916094</v>
+        <v>-5.445345755361</v>
       </c>
       <c r="L16" s="16">
-        <v>31.642066420664</v>
+        <v>31.219349086045</v>
       </c>
       <c r="M16" s="16">
-        <v>-11.007171811662</v>
+        <v>-10.668487745656</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.424568743784</v>
+        <v>-80.340981197608</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D17" s="15">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="E17" s="16">
-        <v>0</v>
+        <v>12.720156555773</v>
       </c>
       <c r="F17" s="15">
-        <v>2188</v>
+        <v>2210</v>
       </c>
       <c r="G17" s="15">
-        <v>2142</v>
+        <v>2151</v>
       </c>
       <c r="H17" s="16">
-        <v>2.147525676937</v>
+        <v>2.742910274291</v>
       </c>
       <c r="I17" s="15">
-        <v>19406</v>
+        <v>20029</v>
       </c>
       <c r="J17" s="15">
-        <v>18432</v>
+        <v>18946</v>
       </c>
       <c r="K17" s="16">
-        <v>5.284288194444</v>
+        <v>5.716246173334</v>
       </c>
       <c r="L17" s="16">
-        <v>25.321278656764</v>
+        <v>25.165604299462</v>
       </c>
       <c r="M17" s="16">
-        <v>60.605809815443</v>
+        <v>61.811278074002</v>
       </c>
       <c r="N17" s="16">
-        <v>-34.136573445560</v>
+        <v>-33.864949645038</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D18" s="15">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E18" s="16">
-        <v>-22.670807453416</v>
+        <v>-24.702380952381</v>
       </c>
       <c r="F18" s="15">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="G18" s="15">
-        <v>1300</v>
+        <v>1335</v>
       </c>
       <c r="H18" s="16">
-        <v>-20.846153846153</v>
+        <v>-23.670411985018</v>
       </c>
       <c r="I18" s="15">
-        <v>9636</v>
+        <v>9905</v>
       </c>
       <c r="J18" s="15">
-        <v>10852</v>
+        <v>11189</v>
       </c>
       <c r="K18" s="16">
-        <v>-11.205307777368</v>
+        <v>-11.475556349986</v>
       </c>
       <c r="L18" s="16">
-        <v>19.213163429419</v>
+        <v>18.169887854927</v>
       </c>
       <c r="M18" s="16">
-        <v>-23.693379790940</v>
+        <v>-24.018103712795</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.065881944645</v>
+        <v>-86.082814629554</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>983</v>
+        <v>1069</v>
       </c>
       <c r="D19" s="15">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="E19" s="16">
-        <v>-2.769535113748</v>
+        <v>4.292682926829</v>
       </c>
       <c r="F19" s="15">
-        <v>4034</v>
+        <v>4053</v>
       </c>
       <c r="G19" s="15">
-        <v>4220</v>
+        <v>4147</v>
       </c>
       <c r="H19" s="16">
-        <v>-4.407582938388</v>
+        <v>-2.266698818422</v>
       </c>
       <c r="I19" s="15">
-        <v>34700</v>
+        <v>35791</v>
       </c>
       <c r="J19" s="15">
-        <v>35532</v>
+        <v>36557</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.341551277721</v>
+        <v>-2.095357934184</v>
       </c>
       <c r="L19" s="16">
-        <v>42.751357577752</v>
+        <v>41.971439904799</v>
       </c>
       <c r="M19" s="16">
-        <v>36.083767990901</v>
+        <v>36.159933044206</v>
       </c>
       <c r="N19" s="16">
-        <v>-41.311774853702</v>
+        <v>-41.119665712499</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="D20" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="E20" s="16">
-        <v>18.545454545454</v>
+        <v>18.709677419354</v>
       </c>
       <c r="F20" s="15">
-        <v>1318</v>
+        <v>1342</v>
       </c>
       <c r="G20" s="15">
-        <v>1084</v>
+        <v>1166</v>
       </c>
       <c r="H20" s="16">
-        <v>21.586715867158</v>
+        <v>15.094339622641</v>
       </c>
       <c r="I20" s="15">
-        <v>10963</v>
+        <v>11334</v>
       </c>
       <c r="J20" s="15">
-        <v>9228</v>
+        <v>9538</v>
       </c>
       <c r="K20" s="16">
-        <v>18.801473775466</v>
+        <v>18.829943384357</v>
       </c>
       <c r="L20" s="16">
-        <v>63.822474596533</v>
+        <v>64.237067091725</v>
       </c>
       <c r="M20" s="16">
-        <v>53.888265019651</v>
+        <v>54.015491235222</v>
       </c>
       <c r="N20" s="16">
-        <v>-85.693405890720</v>
+        <v>-85.624048706240</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2505</v>
+        <v>2643</v>
       </c>
       <c r="D21" s="18">
-        <v>2577</v>
+        <v>2584</v>
       </c>
       <c r="E21" s="19">
-        <v>-2.793946449359</v>
+        <v>2.283281733746</v>
       </c>
       <c r="F21" s="18">
-        <v>10117</v>
+        <v>10174</v>
       </c>
       <c r="G21" s="18">
-        <v>10347</v>
+        <v>10403</v>
       </c>
       <c r="H21" s="19">
-        <v>-2.222866531361</v>
+        <v>-2.201288089974</v>
       </c>
       <c r="I21" s="18">
-        <v>87404</v>
+        <v>90150</v>
       </c>
       <c r="J21" s="18">
-        <v>87604</v>
+        <v>90192</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.228300077622</v>
+        <v>-0.046567323044</v>
       </c>
       <c r="L21" s="19">
-        <v>35.258433921386</v>
+        <v>34.767464458164</v>
       </c>
       <c r="M21" s="19">
-        <v>22.294669091926</v>
+        <v>22.528032619775</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.508685030974</v>
+        <v>-70.418569853520</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D22" s="15">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E22" s="16">
-        <v>-15.384615384615</v>
+        <v>-2.040816326530</v>
       </c>
       <c r="F22" s="15">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G22" s="15">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H22" s="16">
-        <v>-12.138728323699</v>
+        <v>-12.777777777777</v>
       </c>
       <c r="I22" s="15">
-        <v>1503</v>
+        <v>1550</v>
       </c>
       <c r="J22" s="15">
-        <v>1573</v>
+        <v>1622</v>
       </c>
       <c r="K22" s="16">
-        <v>-4.450095359186</v>
+        <v>-4.438964241676</v>
       </c>
       <c r="L22" s="16">
-        <v>40.074557315936</v>
+        <v>39.639639639639</v>
       </c>
       <c r="M22" s="16">
-        <v>3.086419753086</v>
+        <v>3.402268178785</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D23" s="15">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E23" s="16">
-        <v>-23.4375</v>
+        <v>11.711711711711</v>
       </c>
       <c r="F23" s="15">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="G23" s="15">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H23" s="16">
-        <v>-5.031446540880</v>
+        <v>-3.131524008350</v>
       </c>
       <c r="I23" s="15">
-        <v>4324</v>
+        <v>4459</v>
       </c>
       <c r="J23" s="15">
-        <v>4214</v>
+        <v>4325</v>
       </c>
       <c r="K23" s="16">
-        <v>2.610346464167</v>
+        <v>3.098265895953</v>
       </c>
       <c r="L23" s="16">
-        <v>16.361679224973</v>
+        <v>16.422976501305</v>
       </c>
       <c r="M23" s="16">
-        <v>48.898071625344</v>
+        <v>49.630872483221</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2026</v>
+        <v>2242</v>
       </c>
       <c r="D24" s="15">
-        <v>2229</v>
+        <v>2438</v>
       </c>
       <c r="E24" s="16">
-        <v>-9.107222969941</v>
+        <v>-8.039376538146</v>
       </c>
       <c r="F24" s="15">
-        <v>8789</v>
+        <v>8820</v>
       </c>
       <c r="G24" s="15">
-        <v>9680</v>
+        <v>9672</v>
       </c>
       <c r="H24" s="16">
-        <v>-9.204545454545</v>
+        <v>-8.808933002481</v>
       </c>
       <c r="I24" s="15">
-        <v>76594</v>
+        <v>78829</v>
       </c>
       <c r="J24" s="15">
-        <v>79464</v>
+        <v>81903</v>
       </c>
       <c r="K24" s="16">
-        <v>-3.611698379140</v>
+        <v>-3.753220272761</v>
       </c>
       <c r="L24" s="16">
-        <v>37.741651230960</v>
+        <v>37.495639433475</v>
       </c>
       <c r="M24" s="16">
-        <v>36.823865666309</v>
+        <v>36.663719422340</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="D25" s="15">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="E25" s="16">
-        <v>16.536458333333</v>
+        <v>9.203980099502</v>
       </c>
       <c r="F25" s="15">
-        <v>3498</v>
+        <v>3527</v>
       </c>
       <c r="G25" s="15">
-        <v>3078</v>
+        <v>3156</v>
       </c>
       <c r="H25" s="16">
-        <v>13.64522417154</v>
+        <v>11.755386565272</v>
       </c>
       <c r="I25" s="15">
-        <v>30518</v>
+        <v>31389</v>
       </c>
       <c r="J25" s="15">
-        <v>28894</v>
+        <v>29699</v>
       </c>
       <c r="K25" s="16">
-        <v>5.620544057589</v>
+        <v>5.690427287114</v>
       </c>
       <c r="L25" s="16">
-        <v>27.232552322187</v>
+        <v>26.492041104170</v>
       </c>
       <c r="M25" s="16">
-        <v>-5.730083711735</v>
+        <v>-5.602670516059</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D26" s="15">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E26" s="16">
-        <v>-14.285714285714</v>
+        <v>-23.728813559322</v>
       </c>
       <c r="F26" s="15">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G26" s="15">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="H26" s="16">
-        <v>-10.101010101010</v>
+        <v>-19.811320754717</v>
       </c>
       <c r="I26" s="15">
-        <v>1677</v>
+        <v>1726</v>
       </c>
       <c r="J26" s="15">
-        <v>1845</v>
+        <v>1904</v>
       </c>
       <c r="K26" s="16">
-        <v>-9.105691056910</v>
+        <v>-9.348739495798</v>
       </c>
       <c r="L26" s="16">
-        <v>-1.120283018867</v>
+        <v>-1.145475372279</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D27" s="15">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="E27" s="16">
-        <v>11.363636363636</v>
+        <v>-3.389830508474</v>
       </c>
       <c r="F27" s="15">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="G27" s="15">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H27" s="16">
-        <v>7.086614173228</v>
+        <v>7.360406091370</v>
       </c>
       <c r="I27" s="15">
-        <v>3655</v>
+        <v>3762</v>
       </c>
       <c r="J27" s="15">
-        <v>3555</v>
+        <v>3673</v>
       </c>
       <c r="K27" s="16">
-        <v>2.812939521800</v>
+        <v>2.423087394500</v>
       </c>
       <c r="L27" s="16">
-        <v>10.156720916214</v>
+        <v>10.193321616871</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D28" s="15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16">
-        <v>-13.333333333333</v>
+        <v>-35.714285714285</v>
       </c>
       <c r="F28" s="15">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G28" s="15">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H28" s="16">
-        <v>-23.529411764705</v>
+        <v>-33.858267716535</v>
       </c>
       <c r="I28" s="15">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="J28" s="15">
-        <v>1165</v>
+        <v>1193</v>
       </c>
       <c r="K28" s="16">
-        <v>-27.896995708154</v>
+        <v>-28.080469404861</v>
       </c>
       <c r="L28" s="16">
-        <v>-36.794582392776</v>
+        <v>-36.958119030124</v>
       </c>
       <c r="M28" s="16">
-        <v>-34.220830070477</v>
+        <v>-34.353481254781</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.918718622997</v>
+        <v>-80.069686411149</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D29" s="15">
         <v>22</v>
       </c>
       <c r="E29" s="16">
-        <v>-9.090909090909</v>
+        <v>-36.363636363636</v>
       </c>
       <c r="F29" s="15">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G29" s="15">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H29" s="16">
-        <v>-15.789473684210</v>
+        <v>-25.773195876288</v>
       </c>
       <c r="I29" s="15">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="J29" s="15">
-        <v>960</v>
+        <v>982</v>
       </c>
       <c r="K29" s="16">
-        <v>-25.833333333333</v>
+        <v>-26.069246435845</v>
       </c>
       <c r="L29" s="16">
-        <v>-35.623869801085</v>
+        <v>-35.978835978836</v>
       </c>
       <c r="M29" s="16">
-        <v>-32.319391634981</v>
+        <v>-32.527881040892</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.124072110286</v>
+        <v>-81.269349845201</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30" s="16">
-        <v>0</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F30" s="15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="15">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" s="16">
-        <v>-28.205128205128</v>
+        <v>-28.947368421052</v>
       </c>
       <c r="I30" s="15">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="J30" s="15">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="K30" s="16">
-        <v>-29.677419354838</v>
+        <v>-24.261603375527</v>
       </c>
       <c r="L30" s="16">
-        <v>-13.262599469496</v>
+        <v>-9.343434343434</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">38</t>
+      <t xml:space="preserve">39</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/18/2023</t>
+      <t xml:space="preserve">9/25/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/24/2023</t>
+      <t xml:space="preserve">10/1/2023</t>
     </r>
   </si>
   <si>
@@ -579,10 +579,10 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="704850" cy="762000"/>
+    <xdr:ext cx="762000" cy="762000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Cityseal_transparent.gif+.gif"/>
+        <xdr:cNvPr id="1" name="RSXls2007_missing.gif"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -596,7 +596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="704850" cy="762000"/>
+          <a:ext cx="762000" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,7 +664,7 @@
     <col min="3" max="3" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.699091" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.699091" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.964413" bestFit="1" customWidth="1"/>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="16">
-        <v>-58.333333333333</v>
+        <v>11.111111111111</v>
       </c>
       <c r="F14" s="15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="15">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="16">
-        <v>-28.205128205128</v>
+        <v>-23.684210526315</v>
       </c>
       <c r="I14" s="15">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="J14" s="15">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="K14" s="16">
-        <v>-11.445783132530</v>
+        <v>-10.850439882697</v>
       </c>
       <c r="L14" s="16">
-        <v>-19.230769230769</v>
+        <v>-19.148936170212</v>
       </c>
       <c r="M14" s="16">
-        <v>-25.569620253164</v>
+        <v>-25.853658536585</v>
       </c>
       <c r="N14" s="16">
-        <v>-79.766001376462</v>
+        <v>-79.638312123241</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D15" s="15">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E15" s="16">
-        <v>2.941176470588</v>
+        <v>-19.230769230769</v>
       </c>
       <c r="F15" s="15">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G15" s="15">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H15" s="16">
-        <v>-16.312056737588</v>
+        <v>-11.538461538461</v>
       </c>
       <c r="I15" s="15">
-        <v>1071</v>
+        <v>1098</v>
       </c>
       <c r="J15" s="15">
-        <v>1225</v>
+        <v>1251</v>
       </c>
       <c r="K15" s="16">
-        <v>-12.571428571428</v>
+        <v>-12.230215827338</v>
       </c>
       <c r="L15" s="16">
-        <v>-2.989130434782</v>
+        <v>-3.259911894273</v>
       </c>
       <c r="M15" s="16">
-        <v>10.754912099276</v>
+        <v>10.130391173520</v>
       </c>
       <c r="N15" s="16">
-        <v>-55.853256389117</v>
+        <v>-55.779299234796</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D16" s="15">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E16" s="16">
-        <v>-10.220994475138</v>
+        <v>-22.96918767507</v>
       </c>
       <c r="F16" s="15">
-        <v>1365</v>
+        <v>1313</v>
       </c>
       <c r="G16" s="15">
-        <v>1431</v>
+        <v>1439</v>
       </c>
       <c r="H16" s="16">
-        <v>-4.612159329140</v>
+        <v>-8.756080611535</v>
       </c>
       <c r="I16" s="15">
-        <v>12107</v>
+        <v>12390</v>
       </c>
       <c r="J16" s="15">
-        <v>12813</v>
+        <v>13170</v>
       </c>
       <c r="K16" s="16">
-        <v>-5.510028876921</v>
+        <v>-5.922551252847</v>
       </c>
       <c r="L16" s="16">
-        <v>30.421200043089</v>
+        <v>28.82096069869</v>
       </c>
       <c r="M16" s="16">
-        <v>-11.076019096584</v>
+        <v>-12.158808933002</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.331410933311</v>
+        <v>-80.446618795865</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D17" s="15">
-        <v>527</v>
+        <v>484</v>
       </c>
       <c r="E17" s="16">
-        <v>-1.897533206831</v>
+        <v>5.371900826446</v>
       </c>
       <c r="F17" s="15">
-        <v>2223</v>
+        <v>2209</v>
       </c>
       <c r="G17" s="15">
-        <v>2138</v>
+        <v>2087</v>
       </c>
       <c r="H17" s="16">
-        <v>3.975678203928</v>
+        <v>5.845711547676</v>
       </c>
       <c r="I17" s="15">
-        <v>20576</v>
+        <v>21133</v>
       </c>
       <c r="J17" s="15">
-        <v>19474</v>
+        <v>19959</v>
       </c>
       <c r="K17" s="16">
-        <v>5.658827154154</v>
+        <v>5.882058219349</v>
       </c>
       <c r="L17" s="16">
-        <v>24.454122058912</v>
+        <v>23.969026808236</v>
       </c>
       <c r="M17" s="16">
-        <v>61.595853294588</v>
+        <v>61.480858867578</v>
       </c>
       <c r="N17" s="16">
-        <v>-33.585100545495</v>
+        <v>-33.439370078740</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D18" s="15">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="E18" s="16">
-        <v>-35.911602209944</v>
+        <v>-31.288343558282</v>
       </c>
       <c r="F18" s="15">
-        <v>1014</v>
+        <v>982</v>
       </c>
       <c r="G18" s="15">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="H18" s="16">
-        <v>-24.384787472035</v>
+        <v>-27.043090638930</v>
       </c>
       <c r="I18" s="15">
-        <v>10152</v>
+        <v>10394</v>
       </c>
       <c r="J18" s="15">
-        <v>11551</v>
+        <v>11877</v>
       </c>
       <c r="K18" s="16">
-        <v>-12.111505497359</v>
+        <v>-12.486318093794</v>
       </c>
       <c r="L18" s="16">
-        <v>17.039428176158</v>
+        <v>16.056275122822</v>
       </c>
       <c r="M18" s="16">
-        <v>-24.514833816640</v>
+        <v>-25.126062527013</v>
       </c>
       <c r="N18" s="16">
-        <v>-86.150068212824</v>
+        <v>-86.200578848145</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>956</v>
+        <v>853</v>
       </c>
       <c r="D19" s="15">
-        <v>1054</v>
+        <v>1167</v>
       </c>
       <c r="E19" s="16">
-        <v>-9.297912713472</v>
+        <v>-26.906598114824</v>
       </c>
       <c r="F19" s="15">
-        <v>3981</v>
+        <v>3856</v>
       </c>
       <c r="G19" s="15">
-        <v>4187</v>
+        <v>4257</v>
       </c>
       <c r="H19" s="16">
-        <v>-4.919990446620</v>
+        <v>-9.419779187221</v>
       </c>
       <c r="I19" s="15">
-        <v>36766</v>
+        <v>37629</v>
       </c>
       <c r="J19" s="15">
-        <v>37612</v>
+        <v>38780</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.249282143996</v>
+        <v>-2.968024755028</v>
       </c>
       <c r="L19" s="16">
-        <v>40.811949444657</v>
+        <v>39.103914827548</v>
       </c>
       <c r="M19" s="16">
-        <v>35.853379152348</v>
+        <v>35.113105924596</v>
       </c>
       <c r="N19" s="16">
-        <v>-41.200742067553</v>
+        <v>-41.492653346808</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="D20" s="15">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="E20" s="16">
-        <v>12.456747404844</v>
+        <v>34.883720930232</v>
       </c>
       <c r="F20" s="15">
-        <v>1320</v>
+        <v>1361</v>
       </c>
       <c r="G20" s="15">
-        <v>1158</v>
+        <v>1132</v>
       </c>
       <c r="H20" s="16">
-        <v>13.989637305699</v>
+        <v>20.229681978798</v>
       </c>
       <c r="I20" s="15">
-        <v>11663</v>
+        <v>12006</v>
       </c>
       <c r="J20" s="15">
-        <v>9827</v>
+        <v>10085</v>
       </c>
       <c r="K20" s="16">
-        <v>18.683219700824</v>
+        <v>19.048091224591</v>
       </c>
       <c r="L20" s="16">
-        <v>63.691228070175</v>
+        <v>62.594799566630</v>
       </c>
       <c r="M20" s="16">
-        <v>53.581775085593</v>
+        <v>53.568687643898</v>
       </c>
       <c r="N20" s="16">
-        <v>-85.639352336391</v>
+        <v>-85.618801207417</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2395</v>
+        <v>2241</v>
       </c>
       <c r="D21" s="18">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="E21" s="19">
-        <v>-9.280303030303</v>
+        <v>-14.693566806242</v>
       </c>
       <c r="F21" s="18">
-        <v>10049</v>
+        <v>9865</v>
       </c>
       <c r="G21" s="18">
-        <v>10435</v>
+        <v>10429</v>
       </c>
       <c r="H21" s="19">
-        <v>-3.699089602299</v>
+        <v>-5.407996931632</v>
       </c>
       <c r="I21" s="18">
-        <v>92629</v>
+        <v>94954</v>
       </c>
       <c r="J21" s="18">
-        <v>92834</v>
+        <v>95463</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.220824266971</v>
+        <v>-0.533190869761</v>
       </c>
       <c r="L21" s="19">
-        <v>33.870478227566</v>
+        <v>32.678469126832</v>
       </c>
       <c r="M21" s="19">
-        <v>22.176057824206</v>
+        <v>21.503794034472</v>
       </c>
       <c r="N21" s="19">
-        <v>-70.449310593444</v>
+        <v>-70.530582349509</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="15">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="16">
-        <v>-15.384615384615</v>
+        <v>-10</v>
       </c>
       <c r="F22" s="15">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G22" s="15">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H22" s="16">
-        <v>-11.351351351351</v>
+        <v>-11.518324607329</v>
       </c>
       <c r="I22" s="15">
-        <v>1596</v>
+        <v>1644</v>
       </c>
       <c r="J22" s="15">
-        <v>1676</v>
+        <v>1726</v>
       </c>
       <c r="K22" s="16">
-        <v>-4.773269689737</v>
+        <v>-4.750869061413</v>
       </c>
       <c r="L22" s="16">
-        <v>38.301559792027</v>
+        <v>35.755573905862</v>
       </c>
       <c r="M22" s="16">
-        <v>3.90625</v>
+        <v>4.513668150031</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D23" s="15">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E23" s="16">
-        <v>-14.754098360655</v>
+        <v>2.040816326530</v>
       </c>
       <c r="F23" s="15">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G23" s="15">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="H23" s="16">
-        <v>-10.245901639344</v>
+        <v>-4.357298474945</v>
       </c>
       <c r="I23" s="15">
-        <v>4573</v>
+        <v>4688</v>
       </c>
       <c r="J23" s="15">
-        <v>4447</v>
+        <v>4545</v>
       </c>
       <c r="K23" s="16">
-        <v>2.833370811783</v>
+        <v>3.146314631463</v>
       </c>
       <c r="L23" s="16">
-        <v>15.508966910836</v>
+        <v>14.705162711035</v>
       </c>
       <c r="M23" s="16">
-        <v>48.715447154471</v>
+        <v>48.166877370417</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2110</v>
+        <v>2029</v>
       </c>
       <c r="D24" s="15">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="E24" s="16">
-        <v>-12.917870408584</v>
+        <v>-16.295379537953</v>
       </c>
       <c r="F24" s="15">
-        <v>8658</v>
+        <v>8452</v>
       </c>
       <c r="G24" s="15">
-        <v>9486</v>
+        <v>9514</v>
       </c>
       <c r="H24" s="16">
-        <v>-8.728652751423</v>
+        <v>-11.162497372293</v>
       </c>
       <c r="I24" s="15">
-        <v>80966</v>
+        <v>82995</v>
       </c>
       <c r="J24" s="15">
-        <v>84325</v>
+        <v>86749</v>
       </c>
       <c r="K24" s="16">
-        <v>-3.983397568929</v>
+        <v>-4.327427405503</v>
       </c>
       <c r="L24" s="16">
-        <v>36.891759375105</v>
+        <v>35.792470426544</v>
       </c>
       <c r="M24" s="16">
-        <v>36.228421442272</v>
+        <v>35.750269881252</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="D25" s="15">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E25" s="16">
-        <v>1.126408010012</v>
+        <v>4.010025062656</v>
       </c>
       <c r="F25" s="15">
-        <v>3525</v>
+        <v>3438</v>
       </c>
       <c r="G25" s="15">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="H25" s="16">
-        <v>11.304073255446</v>
+        <v>8.488482171031</v>
       </c>
       <c r="I25" s="15">
-        <v>32206</v>
+        <v>33039</v>
       </c>
       <c r="J25" s="15">
-        <v>30498</v>
+        <v>31295</v>
       </c>
       <c r="K25" s="16">
-        <v>5.600367237195</v>
+        <v>5.572775203706</v>
       </c>
       <c r="L25" s="16">
-        <v>25.490960099750</v>
+        <v>24.529795333760</v>
       </c>
       <c r="M25" s="16">
-        <v>-5.758763972610</v>
+        <v>-6.003015733022</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D26" s="15">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E26" s="16">
-        <v>-10.526315789473</v>
+        <v>-2.5</v>
       </c>
       <c r="F26" s="15">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G26" s="15">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H26" s="16">
-        <v>-15.277777777777</v>
+        <v>-9.268292682926</v>
       </c>
       <c r="I26" s="15">
-        <v>1782</v>
+        <v>1828</v>
       </c>
       <c r="J26" s="15">
-        <v>1961</v>
+        <v>2001</v>
       </c>
       <c r="K26" s="16">
-        <v>-9.127995920448</v>
+        <v>-8.645677161419</v>
       </c>
       <c r="L26" s="16">
-        <v>-1.109877913429</v>
+        <v>-1.455525606469</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D27" s="15">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E27" s="16">
-        <v>3.571428571428</v>
+        <v>-2.272727272727</v>
       </c>
       <c r="F27" s="15">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G27" s="15">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H27" s="16">
-        <v>3.667481662591</v>
+        <v>1.477832512315</v>
       </c>
       <c r="I27" s="15">
-        <v>3870</v>
+        <v>3948</v>
       </c>
       <c r="J27" s="15">
-        <v>3784</v>
+        <v>3873</v>
       </c>
       <c r="K27" s="16">
-        <v>2.272727272727</v>
+        <v>1.936483346243</v>
       </c>
       <c r="L27" s="16">
-        <v>10.099573257468</v>
+        <v>9.121061359867</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D28" s="15">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E28" s="16">
-        <v>-50</v>
+        <v>-31.818181818181</v>
       </c>
       <c r="F28" s="15">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G28" s="15">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H28" s="16">
-        <v>-35.714285714285</v>
+        <v>-34.507042253521</v>
       </c>
       <c r="I28" s="15">
-        <v>878</v>
+        <v>907</v>
       </c>
       <c r="J28" s="15">
-        <v>1233</v>
+        <v>1277</v>
       </c>
       <c r="K28" s="16">
-        <v>-28.791565287915</v>
+        <v>-28.974158183242</v>
       </c>
       <c r="L28" s="16">
-        <v>-37.597725657427</v>
+        <v>-37.361878453038</v>
       </c>
       <c r="M28" s="16">
-        <v>-35.393671817512</v>
+        <v>-34.841954022988</v>
       </c>
       <c r="N28" s="16">
-        <v>-80.077149988654</v>
+        <v>-79.973504084786</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D29" s="15">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16">
-        <v>-43.75</v>
+        <v>-20.689655172413</v>
       </c>
       <c r="F29" s="15">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G29" s="15">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H29" s="16">
-        <v>-31.632653061224</v>
+        <v>-29.523809523809</v>
       </c>
       <c r="I29" s="15">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="J29" s="15">
-        <v>1014</v>
+        <v>1043</v>
       </c>
       <c r="K29" s="16">
-        <v>-26.627218934911</v>
+        <v>-26.558005752636</v>
       </c>
       <c r="L29" s="16">
-        <v>-36.355859709153</v>
+        <v>-36.272878535773</v>
       </c>
       <c r="M29" s="16">
-        <v>-33.630686886708</v>
+        <v>-33.506944444444</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.231079717457</v>
+        <v>-81.188605108055</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D30" s="15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16">
-        <v>-93.75</v>
+        <v>-46.153846153846</v>
       </c>
       <c r="F30" s="15">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G30" s="15">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H30" s="16">
-        <v>-35.897435897435</v>
+        <v>-31.111111111111</v>
       </c>
       <c r="I30" s="15">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="J30" s="15">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="K30" s="16">
-        <v>-26.122448979591</v>
+        <v>-26.043737574552</v>
       </c>
       <c r="L30" s="16">
-        <v>-11.707317073170</v>
+        <v>-10.576923076923</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7</t>
+      <t xml:space="preserve">8</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/12/2024</t>
+      <t xml:space="preserve">2/19/2024</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/18/2024</t>
+      <t xml:space="preserve">2/25/2024</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="16">
-        <v>-50</v>
+        <v>-80</v>
       </c>
       <c r="F14" s="15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G14" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H14" s="16">
-        <v>-21.428571428571</v>
+        <v>-43.333333333333</v>
       </c>
       <c r="I14" s="15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J14" s="15">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K14" s="16">
-        <v>-23.636363636363</v>
+        <v>-26.666666666666</v>
       </c>
       <c r="L14" s="16">
-        <v>-23.636363636363</v>
+        <v>-31.25</v>
       </c>
       <c r="M14" s="16">
-        <v>-20.754716981132</v>
+        <v>-35.294117647058</v>
       </c>
       <c r="N14" s="16">
-        <v>-84.615384615384</v>
+        <v>-85.526315789473</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -867,37 +867,37 @@
         <v>29</v>
       </c>
       <c r="D15" s="15">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E15" s="16">
-        <v>-21.621621621621</v>
+        <v>45</v>
       </c>
       <c r="F15" s="15">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G15" s="15">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H15" s="16">
-        <v>-8.771929824561</v>
+        <v>2.777777777777</v>
       </c>
       <c r="I15" s="15">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="J15" s="15">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="K15" s="16">
-        <v>-20.093457943925</v>
+        <v>-14.529914529914</v>
       </c>
       <c r="L15" s="16">
-        <v>-20.093457943925</v>
+        <v>-21.259842519685</v>
       </c>
       <c r="M15" s="16">
-        <v>13.245033112582</v>
+        <v>16.959064327485</v>
       </c>
       <c r="N15" s="16">
-        <v>-57.673267326732</v>
+        <v>-56.331877729257</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D16" s="15">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E16" s="16">
-        <v>-15.527950310559</v>
+        <v>-7.792207792207</v>
       </c>
       <c r="F16" s="15">
-        <v>1214</v>
+        <v>1166</v>
       </c>
       <c r="G16" s="15">
-        <v>1169</v>
+        <v>1192</v>
       </c>
       <c r="H16" s="16">
-        <v>3.849443969204</v>
+        <v>-2.181208053691</v>
       </c>
       <c r="I16" s="15">
-        <v>2182</v>
+        <v>2462</v>
       </c>
       <c r="J16" s="15">
-        <v>2082</v>
+        <v>2390</v>
       </c>
       <c r="K16" s="16">
-        <v>4.803073967339</v>
+        <v>3.012552301255</v>
       </c>
       <c r="L16" s="16">
-        <v>6.180048661800</v>
+        <v>1.819685690653</v>
       </c>
       <c r="M16" s="16">
-        <v>-11.480730223123</v>
+        <v>-10.505270810614</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.209094040647</v>
+        <v>-81.191749427043</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>536</v>
+        <v>405</v>
       </c>
       <c r="D17" s="15">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="E17" s="16">
-        <v>7.414829659318</v>
+        <v>-10.989010989011</v>
       </c>
       <c r="F17" s="15">
-        <v>1957</v>
+        <v>1903</v>
       </c>
       <c r="G17" s="15">
-        <v>1875</v>
+        <v>1902</v>
       </c>
       <c r="H17" s="16">
-        <v>4.373333333333</v>
+        <v>0.052576235541</v>
       </c>
       <c r="I17" s="15">
-        <v>3372</v>
+        <v>3796</v>
       </c>
       <c r="J17" s="15">
-        <v>3347</v>
+        <v>3802</v>
       </c>
       <c r="K17" s="16">
-        <v>0.746937556020</v>
+        <v>-0.157811678064</v>
       </c>
       <c r="L17" s="16">
-        <v>14.421445537835</v>
+        <v>13.686732554657</v>
       </c>
       <c r="M17" s="16">
-        <v>75.899843505477</v>
+        <v>70.071684587813</v>
       </c>
       <c r="N17" s="16">
-        <v>-27.044569450454</v>
+        <v>-27.584891262876</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D18" s="15">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E18" s="16">
-        <v>-12.543554006968</v>
+        <v>-13.829787234042</v>
       </c>
       <c r="F18" s="15">
-        <v>971</v>
+        <v>940</v>
       </c>
       <c r="G18" s="15">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="H18" s="16">
-        <v>-12.758310871518</v>
+        <v>-16.295636687444</v>
       </c>
       <c r="I18" s="15">
-        <v>1686</v>
+        <v>1930</v>
       </c>
       <c r="J18" s="15">
-        <v>2023</v>
+        <v>2305</v>
       </c>
       <c r="K18" s="16">
-        <v>-16.658428077113</v>
+        <v>-16.268980477223</v>
       </c>
       <c r="L18" s="16">
-        <v>-16.035856573705</v>
+        <v>-16.702632714717</v>
       </c>
       <c r="M18" s="16">
-        <v>-32.180209171359</v>
+        <v>-32.446622331116</v>
       </c>
       <c r="N18" s="16">
-        <v>-87.664618086040</v>
+        <v>-87.538739669421</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>765</v>
+        <v>857</v>
       </c>
       <c r="D19" s="15">
-        <v>869</v>
+        <v>899</v>
       </c>
       <c r="E19" s="16">
-        <v>-11.967779056386</v>
+        <v>-4.671857619577</v>
       </c>
       <c r="F19" s="15">
-        <v>3701</v>
+        <v>3561</v>
       </c>
       <c r="G19" s="15">
-        <v>3612</v>
+        <v>3630</v>
       </c>
       <c r="H19" s="16">
-        <v>2.464008859357</v>
+        <v>-1.900826446280</v>
       </c>
       <c r="I19" s="15">
-        <v>6314</v>
+        <v>7188</v>
       </c>
       <c r="J19" s="15">
-        <v>6378</v>
+        <v>7277</v>
       </c>
       <c r="K19" s="16">
-        <v>-1.003449357165</v>
+        <v>-1.223031469011</v>
       </c>
       <c r="L19" s="16">
-        <v>-4.391278013325</v>
+        <v>-4.769475357710</v>
       </c>
       <c r="M19" s="16">
-        <v>36.963123644251</v>
+        <v>36.731976412402</v>
       </c>
       <c r="N19" s="16">
-        <v>-39.247570480130</v>
+        <v>-38.736895934543</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D20" s="15">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="E20" s="16">
-        <v>-8.888888888888</v>
+        <v>-21.993127147766</v>
       </c>
       <c r="F20" s="15">
-        <v>1009</v>
+        <v>963</v>
       </c>
       <c r="G20" s="15">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="H20" s="16">
-        <v>-10.151380231522</v>
+        <v>-14.854111405835</v>
       </c>
       <c r="I20" s="15">
-        <v>1803</v>
+        <v>2024</v>
       </c>
       <c r="J20" s="15">
-        <v>1941</v>
+        <v>2232</v>
       </c>
       <c r="K20" s="16">
-        <v>-7.109737248840</v>
+        <v>-9.318996415770</v>
       </c>
       <c r="L20" s="16">
-        <v>-3.634420096205</v>
+        <v>-5.420560747663</v>
       </c>
       <c r="M20" s="16">
-        <v>41.745283018867</v>
+        <v>40.947075208913</v>
       </c>
       <c r="N20" s="16">
-        <v>-88.529074945921</v>
+        <v>-88.629852255491</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2102</v>
+        <v>2046</v>
       </c>
       <c r="D21" s="18">
-        <v>2290</v>
+        <v>2260</v>
       </c>
       <c r="E21" s="19">
-        <v>-8.209606986899</v>
+        <v>-9.469026548672</v>
       </c>
       <c r="F21" s="18">
-        <v>8978</v>
+        <v>8661</v>
       </c>
       <c r="G21" s="18">
-        <v>9034</v>
+        <v>9116</v>
       </c>
       <c r="H21" s="19">
-        <v>-0.619880451627</v>
+        <v>-4.991224221149</v>
       </c>
       <c r="I21" s="18">
-        <v>15570</v>
+        <v>17644</v>
       </c>
       <c r="J21" s="18">
-        <v>16040</v>
+        <v>18300</v>
       </c>
       <c r="K21" s="19">
-        <v>-2.930174563591</v>
+        <v>-3.584699453551</v>
       </c>
       <c r="L21" s="19">
-        <v>-1.167957344166</v>
+        <v>-2.411504424778</v>
       </c>
       <c r="M21" s="19">
-        <v>20.194534506716</v>
+        <v>19.442187923097</v>
       </c>
       <c r="N21" s="19">
-        <v>-72.534838595872</v>
+        <v>-72.481127955580</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D22" s="15">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E22" s="16">
-        <v>1.960784313725</v>
+        <v>-21.428571428571</v>
       </c>
       <c r="F22" s="15">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G22" s="15">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H22" s="16">
-        <v>3.550295857988</v>
+        <v>-12.643678160919</v>
       </c>
       <c r="I22" s="15">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="J22" s="15">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="K22" s="16">
-        <v>18.283582089552</v>
+        <v>13.225806451612</v>
       </c>
       <c r="L22" s="16">
-        <v>0</v>
+        <v>-4.619565217391</v>
       </c>
       <c r="M22" s="16">
-        <v>13.620071684587</v>
+        <v>10.031347962382</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D23" s="15">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="16">
-        <v>4.587155963302</v>
+        <v>-10.909090909090</v>
       </c>
       <c r="F23" s="15">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="G23" s="15">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="H23" s="16">
-        <v>-4.708520179372</v>
+        <v>-11.663066954643</v>
       </c>
       <c r="I23" s="15">
-        <v>760</v>
+        <v>861</v>
       </c>
       <c r="J23" s="15">
-        <v>792</v>
+        <v>902</v>
       </c>
       <c r="K23" s="16">
-        <v>-4.040404040404</v>
+        <v>-4.545454545454</v>
       </c>
       <c r="L23" s="16">
-        <v>1.740294511378</v>
+        <v>0.819672131147</v>
       </c>
       <c r="M23" s="16">
-        <v>55.102040816326</v>
+        <v>53.75</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1995</v>
+        <v>2106</v>
       </c>
       <c r="D24" s="15">
-        <v>2048</v>
+        <v>2073</v>
       </c>
       <c r="E24" s="16">
-        <v>-2.587890625</v>
+        <v>1.591895803183</v>
       </c>
       <c r="F24" s="15">
-        <v>8329</v>
+        <v>8391</v>
       </c>
       <c r="G24" s="15">
-        <v>8173</v>
+        <v>8100</v>
       </c>
       <c r="H24" s="16">
-        <v>1.908723846812</v>
+        <v>3.592592592592</v>
       </c>
       <c r="I24" s="15">
-        <v>14076</v>
+        <v>16207</v>
       </c>
       <c r="J24" s="15">
-        <v>14124</v>
+        <v>16196</v>
       </c>
       <c r="K24" s="16">
-        <v>-0.339847068819</v>
+        <v>0.067918004445</v>
       </c>
       <c r="L24" s="16">
-        <v>7.507828610708</v>
+        <v>6.491885143570</v>
       </c>
       <c r="M24" s="16">
-        <v>43.310934636530</v>
+        <v>46.351815062308</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>870</v>
+        <v>783</v>
       </c>
       <c r="D25" s="15">
-        <v>764</v>
+        <v>704</v>
       </c>
       <c r="E25" s="16">
-        <v>13.874345549738</v>
+        <v>11.221590909090</v>
       </c>
       <c r="F25" s="15">
-        <v>3357</v>
+        <v>3327</v>
       </c>
       <c r="G25" s="15">
-        <v>3045</v>
+        <v>2978</v>
       </c>
       <c r="H25" s="16">
-        <v>10.246305418719</v>
+        <v>11.719274680994</v>
       </c>
       <c r="I25" s="15">
-        <v>5609</v>
+        <v>6396</v>
       </c>
       <c r="J25" s="15">
-        <v>5247</v>
+        <v>5951</v>
       </c>
       <c r="K25" s="16">
-        <v>6.899180484086</v>
+        <v>7.477734834481</v>
       </c>
       <c r="L25" s="16">
-        <v>17.000417188151</v>
+        <v>16.354375113698</v>
       </c>
       <c r="M25" s="16">
-        <v>4.684583799925</v>
+        <v>4.254278728606</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D26" s="15">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E26" s="16">
-        <v>-16.071428571428</v>
+        <v>24.242424242424</v>
       </c>
       <c r="F26" s="15">
         <v>171</v>
       </c>
       <c r="G26" s="15">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H26" s="16">
-        <v>-10.471204188481</v>
+        <v>-5.524861878453</v>
       </c>
       <c r="I26" s="15">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="J26" s="15">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="K26" s="16">
-        <v>-12.941176470588</v>
+        <v>-9.383378016085</v>
       </c>
       <c r="L26" s="16">
-        <v>-11.111111111111</v>
+        <v>-13.775510204081</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
+        <v>76</v>
+      </c>
+      <c r="D27" s="15">
         <v>83</v>
       </c>
-      <c r="D27" s="15">
-        <v>81</v>
-      </c>
       <c r="E27" s="16">
-        <v>2.469135802469</v>
+        <v>-8.433734939759</v>
       </c>
       <c r="F27" s="15">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="G27" s="15">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H27" s="16">
-        <v>9.329446064139</v>
+        <v>5.865102639296</v>
       </c>
       <c r="I27" s="15">
-        <v>621</v>
+        <v>691</v>
       </c>
       <c r="J27" s="15">
-        <v>626</v>
+        <v>709</v>
       </c>
       <c r="K27" s="16">
-        <v>-0.798722044728</v>
+        <v>-2.538787023977</v>
       </c>
       <c r="L27" s="16">
-        <v>7.068965517241</v>
+        <v>6.144393241167</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D28" s="15">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E28" s="16">
-        <v>-11.111111111111</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="F28" s="15">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G28" s="15">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H28" s="16">
-        <v>-16.25</v>
+        <v>-25.609756097561</v>
       </c>
       <c r="I28" s="15">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J28" s="15">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="K28" s="16">
-        <v>-18.243243243243</v>
+        <v>-16.981132075471</v>
       </c>
       <c r="L28" s="16">
-        <v>-28.823529411764</v>
+        <v>-28.260869565217</v>
       </c>
       <c r="M28" s="16">
-        <v>-20.915032679738</v>
+        <v>-28.260869565217</v>
       </c>
       <c r="N28" s="16">
-        <v>-83.648648648648</v>
+        <v>-84.543325526932</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1441,37 +1441,37 @@
         <v>9</v>
       </c>
       <c r="D29" s="15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E29" s="16">
-        <v>-43.75</v>
+        <v>0</v>
       </c>
       <c r="F29" s="15">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G29" s="15">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H29" s="16">
-        <v>-18.181818181818</v>
+        <v>-26.865671641791</v>
       </c>
       <c r="I29" s="15">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J29" s="15">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K29" s="16">
-        <v>-18.852459016393</v>
+        <v>-16.793893129771</v>
       </c>
       <c r="L29" s="16">
-        <v>-34.437086092715</v>
+        <v>-33.939393939393</v>
       </c>
       <c r="M29" s="16">
-        <v>-27.205882352941</v>
+        <v>-30.128205128205</v>
       </c>
       <c r="N29" s="16">
-        <v>-85.547445255474</v>
+        <v>-86.185044359949</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="16">
-        <v>-77.777777777777</v>
+        <v>-28.571428571428</v>
       </c>
       <c r="F30" s="15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G30" s="15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30" s="16">
-        <v>-3.125</v>
+        <v>-12.121212121212</v>
       </c>
       <c r="I30" s="15">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J30" s="15">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K30" s="16">
-        <v>-3.508771929824</v>
+        <v>-6.25</v>
       </c>
       <c r="L30" s="16">
-        <v>-41.489361702127</v>
+        <v>-49.152542372881</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10</t>
+      <t xml:space="preserve">11</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/4/2024</t>
+      <t xml:space="preserve">3/11/2024</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/10/2024</t>
+      <t xml:space="preserve">3/17/2024</t>
     </r>
   </si>
   <si>
@@ -857,40 +857,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D14" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="16">
-        <v>-75</v>
+        <v>28.571428571428</v>
       </c>
       <c r="F14" s="15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G14" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="16">
-        <v>-37.5</v>
+        <v>-24</v>
       </c>
       <c r="I14" s="15">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J14" s="15">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K14" s="16">
-        <v>-24.657534246575</v>
+        <v>-18.75</v>
       </c>
       <c r="L14" s="16">
-        <v>-30.379746835443</v>
+        <v>-26.136363636363</v>
       </c>
       <c r="M14" s="16">
-        <v>-33.734939759036</v>
+        <v>-29.347826086956</v>
       </c>
       <c r="N14" s="16">
-        <v>-85.135135135135</v>
+        <v>-83.990147783251</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -898,40 +898,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D15" s="15">
+        <v>30</v>
+      </c>
+      <c r="E15" s="16">
+        <v>36.666666666666</v>
+      </c>
+      <c r="F15" s="15">
+        <v>129</v>
+      </c>
+      <c r="G15" s="15">
+        <v>100</v>
+      </c>
+      <c r="H15" s="16">
         <v>29</v>
       </c>
-      <c r="E15" s="16">
-        <v>10.344827586206</v>
-      </c>
-      <c r="F15" s="15">
-        <v>117</v>
-      </c>
-      <c r="G15" s="15">
-        <v>107</v>
-      </c>
-      <c r="H15" s="16">
-        <v>9.345794392523</v>
-      </c>
       <c r="I15" s="15">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="J15" s="15">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="K15" s="16">
-        <v>-8.421052631578</v>
+        <v>-3.809523809523</v>
       </c>
       <c r="L15" s="16">
-        <v>-19.195046439628</v>
+        <v>-13.920454545454</v>
       </c>
       <c r="M15" s="16">
-        <v>23.696682464455</v>
+        <v>28.936170212766</v>
       </c>
       <c r="N15" s="16">
-        <v>-54.370629370629</v>
+        <v>-51.364365971107</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -939,40 +939,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D16" s="15">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E16" s="16">
-        <v>-0.732600732600</v>
+        <v>8.59375</v>
       </c>
       <c r="F16" s="15">
-        <v>1149</v>
+        <v>1157</v>
       </c>
       <c r="G16" s="15">
-        <v>1147</v>
+        <v>1081</v>
       </c>
       <c r="H16" s="16">
-        <v>0.174367916303</v>
+        <v>7.030527289546</v>
       </c>
       <c r="I16" s="15">
-        <v>3063</v>
+        <v>3348</v>
       </c>
       <c r="J16" s="15">
-        <v>2907</v>
+        <v>3163</v>
       </c>
       <c r="K16" s="16">
-        <v>5.366357069143</v>
+        <v>5.848877647802</v>
       </c>
       <c r="L16" s="16">
-        <v>3.689911983750</v>
+        <v>3.589108910891</v>
       </c>
       <c r="M16" s="16">
-        <v>-7.685352622061</v>
+        <v>-8.047239769294</v>
       </c>
       <c r="N16" s="16">
-        <v>-81.089090572328</v>
+        <v>-80.917640353377</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -980,40 +980,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>445</v>
+        <v>563</v>
       </c>
       <c r="D17" s="15">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="E17" s="16">
-        <v>-10.821643286573</v>
+        <v>19.532908704883</v>
       </c>
       <c r="F17" s="15">
-        <v>1914</v>
+        <v>1941</v>
       </c>
       <c r="G17" s="15">
-        <v>1840</v>
+        <v>1812</v>
       </c>
       <c r="H17" s="16">
-        <v>4.021739130434</v>
+        <v>7.119205298013</v>
       </c>
       <c r="I17" s="15">
-        <v>4772</v>
+        <v>5356</v>
       </c>
       <c r="J17" s="15">
-        <v>4687</v>
+        <v>5158</v>
       </c>
       <c r="K17" s="16">
-        <v>1.813526776189</v>
+        <v>3.838697169445</v>
       </c>
       <c r="L17" s="16">
-        <v>14.518838492920</v>
+        <v>16.106655105137</v>
       </c>
       <c r="M17" s="16">
-        <v>68.562345460967</v>
+        <v>70.790816326530</v>
       </c>
       <c r="N17" s="16">
-        <v>-27.222815311880</v>
+        <v>-24.985994397759</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1021,40 +1021,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D18" s="15">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="E18" s="16">
-        <v>-20.134228187919</v>
+        <v>-8.661417322834</v>
       </c>
       <c r="F18" s="15">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="G18" s="15">
-        <v>1085</v>
+        <v>1053</v>
       </c>
       <c r="H18" s="16">
-        <v>-7.741935483870</v>
+        <v>-6.362773029439</v>
       </c>
       <c r="I18" s="15">
-        <v>2447</v>
+        <v>2684</v>
       </c>
       <c r="J18" s="15">
-        <v>2821</v>
+        <v>3076</v>
       </c>
       <c r="K18" s="16">
-        <v>-13.257710031903</v>
+        <v>-12.743823146944</v>
       </c>
       <c r="L18" s="16">
-        <v>-15.093684941013</v>
+        <v>-15.517784073024</v>
       </c>
       <c r="M18" s="16">
-        <v>-28.80418970032</v>
+        <v>-28.139223560910</v>
       </c>
       <c r="N18" s="16">
-        <v>-87.039194915254</v>
+        <v>-86.876589086641</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1062,40 +1062,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="D19" s="15">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E19" s="16">
-        <v>-1.548672566371</v>
+        <v>-0.221729490022</v>
       </c>
       <c r="F19" s="15">
-        <v>3371</v>
+        <v>3496</v>
       </c>
       <c r="G19" s="15">
-        <v>3492</v>
+        <v>3527</v>
       </c>
       <c r="H19" s="16">
-        <v>-3.465063001145</v>
+        <v>-0.878933938191</v>
       </c>
       <c r="I19" s="15">
-        <v>8933</v>
+        <v>9845</v>
       </c>
       <c r="J19" s="15">
-        <v>9001</v>
+        <v>9905</v>
       </c>
       <c r="K19" s="16">
-        <v>-0.755471614265</v>
+        <v>-0.605754669358</v>
       </c>
       <c r="L19" s="16">
-        <v>-3.656169111302</v>
+        <v>-3.157584103875</v>
       </c>
       <c r="M19" s="16">
-        <v>39.621756798999</v>
+        <v>40.462262804965</v>
       </c>
       <c r="N19" s="16">
-        <v>-38.115691028749</v>
+        <v>-37.072547139661</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1103,40 +1103,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="D20" s="15">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="E20" s="16">
-        <v>0.858369098712</v>
+        <v>-1.438848920863</v>
       </c>
       <c r="F20" s="15">
-        <v>876</v>
+        <v>903</v>
       </c>
       <c r="G20" s="15">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="H20" s="16">
-        <v>-15.033947623666</v>
+        <v>-13.089509143407</v>
       </c>
       <c r="I20" s="15">
-        <v>2428</v>
+        <v>2695</v>
       </c>
       <c r="J20" s="15">
-        <v>2702</v>
+        <v>2980</v>
       </c>
       <c r="K20" s="16">
-        <v>-10.140636565507</v>
+        <v>-9.563758389261</v>
       </c>
       <c r="L20" s="16">
-        <v>-5.451713395638</v>
+        <v>-4.466501240694</v>
       </c>
       <c r="M20" s="16">
-        <v>39.380022962112</v>
+        <v>40</v>
       </c>
       <c r="N20" s="16">
-        <v>-88.829591461170</v>
+        <v>-88.451814714830</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1144,40 +1144,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2113</v>
+        <v>2297</v>
       </c>
       <c r="D21" s="18">
-        <v>2244</v>
+        <v>2198</v>
       </c>
       <c r="E21" s="19">
-        <v>-5.837789661319</v>
+        <v>4.504094631483</v>
       </c>
       <c r="F21" s="18">
-        <v>8443</v>
+        <v>8631</v>
       </c>
       <c r="G21" s="18">
-        <v>8726</v>
+        <v>8637</v>
       </c>
       <c r="H21" s="19">
-        <v>-3.243181297272</v>
+        <v>-0.069468565474</v>
       </c>
       <c r="I21" s="18">
-        <v>21959</v>
+        <v>24296</v>
       </c>
       <c r="J21" s="18">
-        <v>22476</v>
+        <v>24677</v>
       </c>
       <c r="K21" s="19">
-        <v>-2.300231357892</v>
+        <v>-1.543947805648</v>
       </c>
       <c r="L21" s="19">
-        <v>-1.285682175769</v>
+        <v>-0.625792465949</v>
       </c>
       <c r="M21" s="19">
-        <v>21.859045504994</v>
+        <v>22.874627016638</v>
       </c>
       <c r="N21" s="19">
-        <v>-72.114493250536</v>
+        <v>-71.466153051158</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1185,37 +1185,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D22" s="15">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E22" s="16">
-        <v>16.666666666666</v>
+        <v>-42.307692307692</v>
       </c>
       <c r="F22" s="15">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="G22" s="15">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H22" s="16">
-        <v>1.785714285714</v>
+        <v>-12.426035502958</v>
       </c>
       <c r="I22" s="15">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="J22" s="15">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="K22" s="16">
-        <v>13.246753246753</v>
+        <v>6.864988558352</v>
       </c>
       <c r="L22" s="16">
-        <v>-6.638115631691</v>
+        <v>-7.157057654075</v>
       </c>
       <c r="M22" s="16">
-        <v>12.082262210796</v>
+        <v>10.926365795724</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1226,37 +1226,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D23" s="15">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E23" s="16">
-        <v>-3.809523809523</v>
+        <v>8.256880733944</v>
       </c>
       <c r="F23" s="15">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G23" s="15">
         <v>440</v>
       </c>
       <c r="H23" s="16">
-        <v>-4.318181818181</v>
+        <v>-3.181818181818</v>
       </c>
       <c r="I23" s="15">
-        <v>1069</v>
+        <v>1193</v>
       </c>
       <c r="J23" s="15">
-        <v>1123</v>
+        <v>1232</v>
       </c>
       <c r="K23" s="16">
-        <v>-4.808548530721</v>
+        <v>-3.165584415584</v>
       </c>
       <c r="L23" s="16">
-        <v>2.003816793893</v>
+        <v>3.022452504317</v>
       </c>
       <c r="M23" s="16">
-        <v>54.479768786127</v>
+        <v>58.643617021276</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1267,37 +1267,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1974</v>
+        <v>2014</v>
       </c>
       <c r="D24" s="15">
-        <v>2085</v>
+        <v>1878</v>
       </c>
       <c r="E24" s="16">
-        <v>-5.323741007194</v>
+        <v>7.241746538871</v>
       </c>
       <c r="F24" s="15">
-        <v>8150</v>
+        <v>8169</v>
       </c>
       <c r="G24" s="15">
-        <v>8001</v>
+        <v>7829</v>
       </c>
       <c r="H24" s="16">
-        <v>1.862267216597</v>
+        <v>4.342827947375</v>
       </c>
       <c r="I24" s="15">
-        <v>20227</v>
+        <v>22250</v>
       </c>
       <c r="J24" s="15">
-        <v>20076</v>
+        <v>21952</v>
       </c>
       <c r="K24" s="16">
-        <v>0.752141860928</v>
+        <v>1.357507288629</v>
       </c>
       <c r="L24" s="16">
-        <v>5.629536790432</v>
+        <v>4.942929912272</v>
       </c>
       <c r="M24" s="16">
-        <v>49.974049084303</v>
+        <v>50.449658529988</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1308,34 +1308,34 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>1146</v>
+        <v>1115</v>
       </c>
       <c r="D25" s="15">
-        <v>1107</v>
+        <v>956</v>
       </c>
       <c r="E25" s="16">
-        <v>3.523035230352</v>
+        <v>16.631799163179</v>
       </c>
       <c r="F25" s="15">
-        <v>4613</v>
+        <v>4605</v>
       </c>
       <c r="G25" s="15">
-        <v>4203</v>
+        <v>4057</v>
       </c>
       <c r="H25" s="16">
-        <v>9.754936949797</v>
+        <v>13.507517870347</v>
       </c>
       <c r="I25" s="15">
-        <v>11324</v>
+        <v>12450</v>
       </c>
       <c r="J25" s="15">
-        <v>10849</v>
+        <v>11805</v>
       </c>
       <c r="K25" s="16">
-        <v>4.378283712784</v>
+        <v>5.463786531130</v>
       </c>
       <c r="L25" s="16">
-        <v>4.513151822796</v>
+        <v>3.508480212836</v>
       </c>
       <c r="M25" s="14" t="s">
         <v>28</v>
@@ -1349,37 +1349,37 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>862</v>
+        <v>1015</v>
       </c>
       <c r="D26" s="15">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="E26" s="16">
-        <v>6.815365551425</v>
+        <v>29.299363057324</v>
       </c>
       <c r="F26" s="15">
-        <v>3385</v>
+        <v>3539</v>
       </c>
       <c r="G26" s="15">
-        <v>2897</v>
+        <v>2918</v>
       </c>
       <c r="H26" s="16">
-        <v>16.845012081463</v>
+        <v>21.281699794379</v>
       </c>
       <c r="I26" s="15">
-        <v>8113</v>
+        <v>9141</v>
       </c>
       <c r="J26" s="15">
-        <v>7380</v>
+        <v>8165</v>
       </c>
       <c r="K26" s="16">
-        <v>9.932249322493</v>
+        <v>11.953459889773</v>
       </c>
       <c r="L26" s="16">
-        <v>16.482412060301</v>
+        <v>17.538896746817</v>
       </c>
       <c r="M26" s="16">
-        <v>5.036250647332</v>
+        <v>6.364905748196</v>
       </c>
       <c r="N26" s="14" t="s">
         <v>28</v>
@@ -1390,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
+        <v>54</v>
+      </c>
+      <c r="D27" s="15">
         <v>47</v>
       </c>
-      <c r="D27" s="15">
-        <v>39</v>
-      </c>
       <c r="E27" s="16">
-        <v>20.512820512820</v>
+        <v>14.893617021276</v>
       </c>
       <c r="F27" s="15">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G27" s="15">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H27" s="16">
-        <v>10.179640718562</v>
+        <v>20.886075949367</v>
       </c>
       <c r="I27" s="15">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="J27" s="15">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="K27" s="16">
-        <v>-3.318584070796</v>
+        <v>-1.402805611222</v>
       </c>
       <c r="L27" s="16">
-        <v>-15.145631067961</v>
+        <v>-12.142857142857</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1431,34 +1431,34 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D28" s="15">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E28" s="16">
-        <v>7.216494845360</v>
+        <v>25</v>
       </c>
       <c r="F28" s="15">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="G28" s="15">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H28" s="16">
-        <v>3.488372093023</v>
+        <v>9.401709401709</v>
       </c>
       <c r="I28" s="15">
-        <v>882</v>
+        <v>986</v>
       </c>
       <c r="J28" s="15">
-        <v>889</v>
+        <v>977</v>
       </c>
       <c r="K28" s="16">
-        <v>-0.787401574803</v>
+        <v>0.921187308085</v>
       </c>
       <c r="L28" s="16">
-        <v>7.692307692307</v>
+        <v>6.941431670282</v>
       </c>
       <c r="M28" s="14" t="s">
         <v>28</v>
@@ -1472,40 +1472,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D29" s="15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16">
-        <v>-52.380952380952</v>
+        <v>-4.166666666666</v>
       </c>
       <c r="F29" s="15">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G29" s="15">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H29" s="16">
-        <v>-20</v>
+        <v>-18.309859154929</v>
       </c>
       <c r="I29" s="15">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J29" s="15">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="K29" s="16">
-        <v>-19.487179487179</v>
+        <v>-17.808219178082</v>
       </c>
       <c r="L29" s="16">
-        <v>-30.837004405286</v>
+        <v>-29.411764705882</v>
       </c>
       <c r="M29" s="16">
-        <v>-30.837004405286</v>
+        <v>-31.297709923664</v>
       </c>
       <c r="N29" s="16">
-        <v>-84.547244094488</v>
+        <v>-83.651226158038</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1513,40 +1513,40 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D30" s="15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16">
-        <v>-44.444444444444</v>
+        <v>-5</v>
       </c>
       <c r="F30" s="15">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" s="15">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H30" s="16">
-        <v>-21.818181818181</v>
+        <v>-11.864406779661</v>
       </c>
       <c r="I30" s="15">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="J30" s="15">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K30" s="16">
-        <v>-17.391304347826</v>
+        <v>-16.022099447513</v>
       </c>
       <c r="L30" s="16">
-        <v>-34.482758620689</v>
+        <v>-33.624454148471</v>
       </c>
       <c r="M30" s="16">
-        <v>-30</v>
+        <v>-30.909090909090</v>
       </c>
       <c r="N30" s="16">
-        <v>-85.714285714285</v>
+        <v>-84.965380811078</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1554,34 +1554,34 @@
         <v>37</v>
       </c>
       <c r="C31" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="16">
-        <v>-81.818181818181</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F31" s="15">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G31" s="15">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H31" s="16">
-        <v>-29.411764705882</v>
+        <v>16.216216216216</v>
       </c>
       <c r="I31" s="15">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J31" s="15">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K31" s="16">
-        <v>-6.097560975609</v>
+        <v>4.255319148936</v>
       </c>
       <c r="L31" s="16">
-        <v>-51.265822784810</v>
+        <v>-42.690058479532</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>28</v>
@@ -1613,34 +1613,34 @@
         <v>39</v>
       </c>
       <c r="C33" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D33" s="15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E33" s="16">
-        <v>-42.857142857142</v>
+        <v>133.333333333333</v>
       </c>
       <c r="F33" s="15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G33" s="15">
         <v>18</v>
       </c>
       <c r="H33" s="16">
-        <v>11.111111111111</v>
+        <v>38.888888888888</v>
       </c>
       <c r="I33" s="15">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J33" s="15">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K33" s="16">
-        <v>20</v>
+        <v>30.232558139534</v>
       </c>
       <c r="L33" s="16">
-        <v>-5.882352941176</v>
+        <v>5.660377358490</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">20</t>
+      <t xml:space="preserve">21</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/13/2024</t>
+      <t xml:space="preserve">5/20/2024</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/19/2024</t>
+      <t xml:space="preserve">5/26/2024</t>
     </r>
   </si>
   <si>
@@ -857,40 +857,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" s="16">
-        <v>-70</v>
+        <v>66.666666666666</v>
       </c>
       <c r="F14" s="15">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G14" s="15">
         <v>31</v>
       </c>
       <c r="H14" s="16">
-        <v>-19.354838709677</v>
+        <v>0</v>
       </c>
       <c r="I14" s="15">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J14" s="15">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K14" s="16">
-        <v>-17.307692307692</v>
+        <v>-14.197530864197</v>
       </c>
       <c r="L14" s="16">
-        <v>-21.818181818181</v>
+        <v>-21.468926553672</v>
       </c>
       <c r="M14" s="16">
-        <v>-25.433526011560</v>
+        <v>-24.043715846994</v>
       </c>
       <c r="N14" s="16">
-        <v>-82.008368200836</v>
+        <v>-81.317204301075</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -898,40 +898,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="16">
-        <v>3.333333333333</v>
+        <v>-7.142857142857</v>
       </c>
       <c r="F15" s="15">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G15" s="15">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="H15" s="16">
-        <v>-2.5</v>
+        <v>14.285714285714</v>
       </c>
       <c r="I15" s="15">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="J15" s="15">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="K15" s="16">
-        <v>1.576182136602</v>
+        <v>2.003338898163</v>
       </c>
       <c r="L15" s="16">
-        <v>-3.654485049833</v>
+        <v>-4.828660436137</v>
       </c>
       <c r="M15" s="16">
-        <v>22.881355932203</v>
+        <v>23.434343434343</v>
       </c>
       <c r="N15" s="16">
-        <v>-51.301427371956</v>
+        <v>-51.73775671406</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -939,40 +939,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D16" s="15">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E16" s="16">
-        <v>2.588996763754</v>
+        <v>5.882352941176</v>
       </c>
       <c r="F16" s="15">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G16" s="15">
-        <v>1208</v>
+        <v>1223</v>
       </c>
       <c r="H16" s="16">
-        <v>3.807947019867</v>
+        <v>2.943581357318</v>
       </c>
       <c r="I16" s="15">
-        <v>6155</v>
+        <v>6489</v>
       </c>
       <c r="J16" s="15">
-        <v>5852</v>
+        <v>6158</v>
       </c>
       <c r="K16" s="16">
-        <v>5.177717019822</v>
+        <v>5.375121792789</v>
       </c>
       <c r="L16" s="16">
-        <v>2.600433405567</v>
+        <v>2.463287541449</v>
       </c>
       <c r="M16" s="16">
-        <v>-8.175443831120</v>
+        <v>-8.682803264846</v>
       </c>
       <c r="N16" s="16">
-        <v>-80.509816339455</v>
+        <v>-80.361952607208</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -980,40 +980,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="D17" s="15">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="E17" s="16">
-        <v>-2.941176470588</v>
+        <v>10.720562390158</v>
       </c>
       <c r="F17" s="15">
-        <v>2236</v>
+        <v>2346</v>
       </c>
       <c r="G17" s="15">
-        <v>2095</v>
+        <v>2176</v>
       </c>
       <c r="H17" s="16">
-        <v>6.730310262529</v>
+        <v>7.8125</v>
       </c>
       <c r="I17" s="15">
-        <v>10353</v>
+        <v>11014</v>
       </c>
       <c r="J17" s="15">
-        <v>9941</v>
+        <v>10510</v>
       </c>
       <c r="K17" s="16">
-        <v>4.144452268383</v>
+        <v>4.795432921027</v>
       </c>
       <c r="L17" s="16">
-        <v>13.308525774324</v>
+        <v>13.745739956625</v>
       </c>
       <c r="M17" s="16">
-        <v>70.307616384273</v>
+        <v>70.918684047175</v>
       </c>
       <c r="N17" s="16">
-        <v>-28.427238161078</v>
+        <v>-28.121125106049</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1021,40 +1021,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D18" s="15">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="E18" s="16">
-        <v>-10.752688172043</v>
+        <v>-6.25</v>
       </c>
       <c r="F18" s="15">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="G18" s="15">
-        <v>1078</v>
+        <v>1038</v>
       </c>
       <c r="H18" s="16">
-        <v>-11.224489795918</v>
+        <v>-9.344894026974</v>
       </c>
       <c r="I18" s="15">
-        <v>4818</v>
+        <v>5073</v>
       </c>
       <c r="J18" s="15">
-        <v>5488</v>
+        <v>5744</v>
       </c>
       <c r="K18" s="16">
-        <v>-12.208454810495</v>
+        <v>-11.681754874651</v>
       </c>
       <c r="L18" s="16">
-        <v>-17.753499487879</v>
+        <v>-16.781496062992</v>
       </c>
       <c r="M18" s="16">
-        <v>-26.966803092314</v>
+        <v>-27.435273923616</v>
       </c>
       <c r="N18" s="16">
-        <v>-87.088302291303</v>
+        <v>-87.045785347667</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1062,40 +1062,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="D19" s="15">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E19" s="16">
-        <v>-7.142857142857</v>
+        <v>-6.543967280163</v>
       </c>
       <c r="F19" s="15">
-        <v>3649</v>
+        <v>3658</v>
       </c>
       <c r="G19" s="15">
-        <v>3864</v>
+        <v>3853</v>
       </c>
       <c r="H19" s="16">
-        <v>-5.564182194616</v>
+        <v>-5.060991435245</v>
       </c>
       <c r="I19" s="15">
-        <v>17927</v>
+        <v>18872</v>
       </c>
       <c r="J19" s="15">
-        <v>18568</v>
+        <v>19546</v>
       </c>
       <c r="K19" s="16">
-        <v>-3.452175786299</v>
+        <v>-3.448275862068</v>
       </c>
       <c r="L19" s="16">
-        <v>-3.504144687264</v>
+        <v>-3.369175627240</v>
       </c>
       <c r="M19" s="16">
-        <v>35.298113207547</v>
+        <v>35.496840896036</v>
       </c>
       <c r="N19" s="16">
-        <v>-40.750900618038</v>
+        <v>-41.025</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1103,40 +1103,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D20" s="15">
         <v>304</v>
       </c>
       <c r="E20" s="16">
-        <v>-4.605263157894</v>
+        <v>-6.25</v>
       </c>
       <c r="F20" s="15">
-        <v>1055</v>
+        <v>1096</v>
       </c>
       <c r="G20" s="15">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="H20" s="16">
-        <v>-14.087947882736</v>
+        <v>-11.038961038961</v>
       </c>
       <c r="I20" s="15">
-        <v>5021</v>
+        <v>5309</v>
       </c>
       <c r="J20" s="15">
-        <v>5629</v>
+        <v>5933</v>
       </c>
       <c r="K20" s="16">
-        <v>-10.801208029845</v>
+        <v>-10.517444800269</v>
       </c>
       <c r="L20" s="16">
-        <v>3.611225753198</v>
+        <v>4.323049715071</v>
       </c>
       <c r="M20" s="16">
-        <v>34.828141783029</v>
+        <v>35.020345879959</v>
       </c>
       <c r="N20" s="16">
-        <v>-88.308845786667</v>
+        <v>-88.214793109572</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1144,40 +1144,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2361</v>
+        <v>2429</v>
       </c>
       <c r="D21" s="18">
-        <v>2490</v>
+        <v>2447</v>
       </c>
       <c r="E21" s="19">
-        <v>-5.180722891566</v>
+        <v>-0.735594605639</v>
       </c>
       <c r="F21" s="18">
-        <v>9293</v>
+        <v>9451</v>
       </c>
       <c r="G21" s="18">
-        <v>9624</v>
+        <v>9658</v>
       </c>
       <c r="H21" s="19">
-        <v>-3.439318370739</v>
+        <v>-2.143300890453</v>
       </c>
       <c r="I21" s="18">
-        <v>44983</v>
+        <v>47507</v>
       </c>
       <c r="J21" s="18">
-        <v>46205</v>
+        <v>48652</v>
       </c>
       <c r="K21" s="19">
-        <v>-2.644735418244</v>
+        <v>-2.353448984625</v>
       </c>
       <c r="L21" s="19">
-        <v>-0.447051012504</v>
+        <v>-0.090431125131</v>
       </c>
       <c r="M21" s="19">
-        <v>21.582247689064</v>
+        <v>21.566570280713</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.614543894189</v>
+        <v>-71.481826094786</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1185,37 +1185,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
+        <v>47</v>
+      </c>
+      <c r="D22" s="15">
         <v>37</v>
       </c>
-      <c r="D22" s="15">
-        <v>49</v>
-      </c>
       <c r="E22" s="16">
-        <v>-24.489795918367</v>
+        <v>27.027027027027</v>
       </c>
       <c r="F22" s="15">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G22" s="15">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H22" s="16">
-        <v>-12.716763005780</v>
+        <v>-4.597701149425</v>
       </c>
       <c r="I22" s="15">
-        <v>790</v>
+        <v>836</v>
       </c>
       <c r="J22" s="15">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="K22" s="16">
-        <v>-6.287069988137</v>
+        <v>-5</v>
       </c>
       <c r="L22" s="16">
-        <v>-11.434977578475</v>
+        <v>-11.627906976744</v>
       </c>
       <c r="M22" s="16">
-        <v>0.381194409148</v>
+        <v>1.456310679611</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1226,37 +1226,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D23" s="15">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E23" s="16">
-        <v>-14.754098360655</v>
+        <v>16.814159292035</v>
       </c>
       <c r="F23" s="15">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G23" s="15">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H23" s="16">
-        <v>-0.851063829787</v>
+        <v>0</v>
       </c>
       <c r="I23" s="15">
-        <v>2225</v>
+        <v>2364</v>
       </c>
       <c r="J23" s="15">
-        <v>2327</v>
+        <v>2440</v>
       </c>
       <c r="K23" s="16">
-        <v>-4.383326171035</v>
+        <v>-3.114754098360</v>
       </c>
       <c r="L23" s="16">
-        <v>3.632976245924</v>
+        <v>4.973357015985</v>
       </c>
       <c r="M23" s="16">
-        <v>56.579873328641</v>
+        <v>56.660039761431</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1267,37 +1267,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>2015</v>
+        <v>2165</v>
       </c>
       <c r="D24" s="15">
-        <v>2152</v>
+        <v>2296</v>
       </c>
       <c r="E24" s="16">
-        <v>-6.366171003717</v>
+        <v>-5.705574912891</v>
       </c>
       <c r="F24" s="15">
-        <v>7973</v>
+        <v>8077</v>
       </c>
       <c r="G24" s="15">
-        <v>8367</v>
+        <v>8496</v>
       </c>
       <c r="H24" s="16">
-        <v>-4.708975738018</v>
+        <v>-4.931732580037</v>
       </c>
       <c r="I24" s="15">
-        <v>40361</v>
+        <v>42542</v>
       </c>
       <c r="J24" s="15">
-        <v>40385</v>
+        <v>42681</v>
       </c>
       <c r="K24" s="16">
-        <v>-0.059428005447</v>
+        <v>-0.325671844614</v>
       </c>
       <c r="L24" s="16">
-        <v>-1.317848410757</v>
+        <v>-1.589210946355</v>
       </c>
       <c r="M24" s="16">
-        <v>40.709106121879</v>
+        <v>40.458267300581</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1308,34 +1308,34 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>1162</v>
+        <v>1224</v>
       </c>
       <c r="D25" s="15">
-        <v>1138</v>
+        <v>1282</v>
       </c>
       <c r="E25" s="16">
-        <v>2.108963093145</v>
+        <v>-4.524180967238</v>
       </c>
       <c r="F25" s="15">
-        <v>4456</v>
+        <v>4487</v>
       </c>
       <c r="G25" s="15">
-        <v>4480</v>
+        <v>4575</v>
       </c>
       <c r="H25" s="16">
-        <v>-0.535714285714</v>
+        <v>-1.923497267759</v>
       </c>
       <c r="I25" s="15">
-        <v>22748</v>
+        <v>23977</v>
       </c>
       <c r="J25" s="15">
-        <v>21690</v>
+        <v>22972</v>
       </c>
       <c r="K25" s="16">
-        <v>4.877823881973</v>
+        <v>4.374891171861</v>
       </c>
       <c r="L25" s="16">
-        <v>-0.983720727779</v>
+        <v>-1.231669138243</v>
       </c>
       <c r="M25" s="14" t="s">
         <v>28</v>
@@ -1349,37 +1349,37 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>910</v>
+        <v>1064</v>
       </c>
       <c r="D26" s="15">
-        <v>946</v>
+        <v>868</v>
       </c>
       <c r="E26" s="16">
-        <v>-3.805496828752</v>
+        <v>22.580645161290</v>
       </c>
       <c r="F26" s="15">
-        <v>3664</v>
+        <v>3930</v>
       </c>
       <c r="G26" s="15">
-        <v>3573</v>
+        <v>3621</v>
       </c>
       <c r="H26" s="16">
-        <v>2.546879373075</v>
+        <v>8.533554266777</v>
       </c>
       <c r="I26" s="15">
-        <v>16891</v>
+        <v>17987</v>
       </c>
       <c r="J26" s="15">
-        <v>15918</v>
+        <v>16786</v>
       </c>
       <c r="K26" s="16">
-        <v>6.112576956904</v>
+        <v>7.154771833670</v>
       </c>
       <c r="L26" s="16">
-        <v>12.225101322171</v>
+        <v>12.997864053273</v>
       </c>
       <c r="M26" s="16">
-        <v>1.143712574850</v>
+        <v>1.466689231116</v>
       </c>
       <c r="N26" s="14" t="s">
         <v>28</v>
@@ -1390,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D27" s="15">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E27" s="16">
-        <v>-7.692307692307</v>
+        <v>-32.758620689655</v>
       </c>
       <c r="F27" s="15">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G27" s="15">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H27" s="16">
-        <v>-10.426540284360</v>
+        <v>-10.144927536231</v>
       </c>
       <c r="I27" s="15">
-        <v>929</v>
+        <v>972</v>
       </c>
       <c r="J27" s="15">
-        <v>939</v>
+        <v>997</v>
       </c>
       <c r="K27" s="16">
-        <v>-1.064962726304</v>
+        <v>-2.507522567703</v>
       </c>
       <c r="L27" s="16">
-        <v>-6.445115810674</v>
+        <v>-8.474576271186</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1431,34 +1431,34 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D28" s="15">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E28" s="16">
-        <v>4.580152671755</v>
+        <v>-0.884955752212</v>
       </c>
       <c r="F28" s="15">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G28" s="15">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="H28" s="16">
-        <v>0.894854586129</v>
+        <v>1.089324618736</v>
       </c>
       <c r="I28" s="15">
-        <v>1953</v>
+        <v>2064</v>
       </c>
       <c r="J28" s="15">
-        <v>1934</v>
+        <v>2047</v>
       </c>
       <c r="K28" s="16">
-        <v>0.982419855222</v>
+        <v>0.830483634587</v>
       </c>
       <c r="L28" s="16">
-        <v>6.779661016949</v>
+        <v>5.629477993858</v>
       </c>
       <c r="M28" s="14" t="s">
         <v>28</v>
@@ -1472,40 +1472,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D29" s="15">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16">
-        <v>-11.538461538461</v>
+        <v>86.666666666666</v>
       </c>
       <c r="F29" s="15">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G29" s="15">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H29" s="16">
-        <v>11.392405063291</v>
+        <v>20.481927710843</v>
       </c>
       <c r="I29" s="15">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="J29" s="15">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="K29" s="16">
-        <v>-15.980629539951</v>
+        <v>-12.383177570093</v>
       </c>
       <c r="L29" s="16">
-        <v>-36.330275229357</v>
+        <v>-34.325744308231</v>
       </c>
       <c r="M29" s="16">
-        <v>-37.701974865350</v>
+        <v>-36.868686868686</v>
       </c>
       <c r="N29" s="16">
-        <v>-83.616619452313</v>
+        <v>-83.092876465284</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1513,40 +1513,40 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D30" s="15">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16">
-        <v>-16.666666666666</v>
+        <v>71.428571428571</v>
       </c>
       <c r="F30" s="15">
+        <v>83</v>
+      </c>
+      <c r="G30" s="15">
         <v>73</v>
       </c>
-      <c r="G30" s="15">
-        <v>70</v>
-      </c>
       <c r="H30" s="16">
-        <v>4.285714285714</v>
+        <v>13.698630136986</v>
       </c>
       <c r="I30" s="15">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="J30" s="15">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="K30" s="16">
-        <v>-16.045845272206</v>
+        <v>-12.672176308539</v>
       </c>
       <c r="L30" s="16">
-        <v>-36.580086580086</v>
+        <v>-34.773662551440</v>
       </c>
       <c r="M30" s="16">
-        <v>-36.026200873362</v>
+        <v>-34.907597535934</v>
       </c>
       <c r="N30" s="16">
-        <v>-84.699738903394</v>
+        <v>-84.19740777667</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1554,34 +1554,34 @@
         <v>37</v>
       </c>
       <c r="C31" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16">
-        <v>-42.857142857142</v>
+        <v>-52.631578947368</v>
       </c>
       <c r="F31" s="15">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G31" s="15">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H31" s="16">
-        <v>2.040816326530</v>
+        <v>15.094339622641</v>
       </c>
       <c r="I31" s="15">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="J31" s="15">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K31" s="16">
-        <v>11.004784688995</v>
+        <v>11.403508771929</v>
       </c>
       <c r="L31" s="16">
-        <v>-14.074074074074</v>
+        <v>-8.960573476702</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>28</v>
@@ -1613,13 +1613,13 @@
         <v>39</v>
       </c>
       <c r="C33" s="15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D33" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" s="16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F33" s="15">
         <v>12</v>
@@ -1631,16 +1631,16 @@
         <v>-40</v>
       </c>
       <c r="I33" s="15">
+        <v>93</v>
+      </c>
+      <c r="J33" s="15">
         <v>91</v>
       </c>
-      <c r="J33" s="15">
-        <v>88</v>
-      </c>
       <c r="K33" s="16">
-        <v>3.409090909090</v>
+        <v>2.197802197802</v>
       </c>
       <c r="L33" s="16">
-        <v>12.345679012345</v>
+        <v>6.896551724137</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>28</v>

--- a/data/source/weekly/cs-en-us-city.xlsx
+++ b/data/source/weekly/cs-en-us-city.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61" xml:space="preserve">
   <si>
     <t>Police Department</t>
   </si>
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7</t>
+      <t xml:space="preserve">8</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/10/2025</t>
+      <t xml:space="preserve">2/17/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/16/2025</t>
+      <t xml:space="preserve">2/23/2025</t>
     </r>
   </si>
   <si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Hate Crimes</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Traffic Statistics</t>
@@ -854,40 +857,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D14" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="15">
-        <v>14.285714285714</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="F14" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="14">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H14" s="15">
-        <v>-33.333333333333</v>
+        <v>-12.5</v>
       </c>
       <c r="I14" s="14">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J14" s="14">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K14" s="15">
-        <v>-22.448979591836</v>
+        <v>-21.818181818181</v>
       </c>
       <c r="L14" s="15">
-        <v>-30.909090909090</v>
+        <v>-25.862068965517</v>
       </c>
       <c r="M14" s="15">
-        <v>-25.490196078431</v>
+        <v>-36.764705882352</v>
       </c>
       <c r="N14" s="15">
-        <v>-85.767790262172</v>
+        <v>-85.570469798657</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -895,40 +898,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="14">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D15" s="14">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E15" s="15">
-        <v>7.407407407407</v>
+        <v>16.129032258064</v>
       </c>
       <c r="F15" s="14">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G15" s="14">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H15" s="15">
-        <v>28.301886792452</v>
+        <v>22.807017543859</v>
       </c>
       <c r="I15" s="14">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="J15" s="14">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="K15" s="15">
-        <v>34.705882352941</v>
+        <v>32.835820895522</v>
       </c>
       <c r="L15" s="15">
-        <v>10.096153846153</v>
+        <v>16.593886462882</v>
       </c>
       <c r="M15" s="15">
-        <v>54.729729729729</v>
+        <v>64.814814814814</v>
       </c>
       <c r="N15" s="15">
-        <v>-40.364583333333</v>
+        <v>-39.179954441913</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -936,40 +939,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="14">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="D16" s="14">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="E16" s="15">
-        <v>-7.220216606498</v>
+        <v>-25</v>
       </c>
       <c r="F16" s="14">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="G16" s="14">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="H16" s="15">
-        <v>-21.575061525840</v>
+        <v>-22.277227722772</v>
       </c>
       <c r="I16" s="14">
-        <v>1604</v>
+        <v>1834</v>
       </c>
       <c r="J16" s="14">
-        <v>2114</v>
+        <v>2414</v>
       </c>
       <c r="K16" s="15">
-        <v>-24.124881740775</v>
+        <v>-24.026512013256</v>
       </c>
       <c r="L16" s="15">
-        <v>-19.477911646586</v>
+        <v>-21.118279569892</v>
       </c>
       <c r="M16" s="15">
-        <v>-32.802681189778</v>
+        <v>-31.387953610175</v>
       </c>
       <c r="N16" s="15">
-        <v>-85.616929698708</v>
+        <v>-85.496243574535</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -977,40 +980,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="14">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="D17" s="14">
-        <v>559</v>
+        <v>453</v>
       </c>
       <c r="E17" s="15">
-        <v>-15.384615384615</v>
+        <v>-5.077262693156</v>
       </c>
       <c r="F17" s="14">
-        <v>1795</v>
+        <v>1847</v>
       </c>
       <c r="G17" s="14">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="H17" s="15">
-        <v>-9.571788413098</v>
+        <v>-7.511266900350</v>
       </c>
       <c r="I17" s="14">
-        <v>3083</v>
+        <v>3533</v>
       </c>
       <c r="J17" s="14">
-        <v>3292</v>
+        <v>3745</v>
       </c>
       <c r="K17" s="15">
-        <v>-6.348724179829</v>
+        <v>-5.660881174899</v>
       </c>
       <c r="L17" s="15">
-        <v>-4.314090626939</v>
+        <v>-3.942359978249</v>
       </c>
       <c r="M17" s="15">
-        <v>67.10027100271</v>
+        <v>63.792304126101</v>
       </c>
       <c r="N17" s="15">
-        <v>-30.625562556255</v>
+        <v>-30.246791707798</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1018,40 +1021,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="14">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D18" s="14">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E18" s="15">
-        <v>-10.887096774193</v>
+        <v>-8.300395256917</v>
       </c>
       <c r="F18" s="14">
-        <v>935</v>
+        <v>911</v>
       </c>
       <c r="G18" s="14">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="H18" s="15">
-        <v>-5.076142131979</v>
+        <v>-5.399792315680</v>
       </c>
       <c r="I18" s="14">
-        <v>1554</v>
+        <v>1808</v>
       </c>
       <c r="J18" s="14">
-        <v>1658</v>
+        <v>1911</v>
       </c>
       <c r="K18" s="15">
-        <v>-6.272617611580</v>
+        <v>-5.389848246991</v>
       </c>
       <c r="L18" s="15">
-        <v>-20.592743995912</v>
+        <v>-19.141323792486</v>
       </c>
       <c r="M18" s="15">
-        <v>-35.195996663886</v>
+        <v>-33.869787856620</v>
       </c>
       <c r="N18" s="15">
-        <v>-88.107446238616</v>
+        <v>-87.899879534198</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1059,40 +1062,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="14">
-        <v>681</v>
+        <v>766</v>
       </c>
       <c r="D19" s="14">
-        <v>835</v>
+        <v>872</v>
       </c>
       <c r="E19" s="15">
-        <v>-18.443113772455</v>
+        <v>-12.155963302752</v>
       </c>
       <c r="F19" s="14">
-        <v>2955</v>
+        <v>3016</v>
       </c>
       <c r="G19" s="14">
-        <v>3836</v>
+        <v>3727</v>
       </c>
       <c r="H19" s="15">
-        <v>-22.966631908237</v>
+        <v>-19.077005634558</v>
       </c>
       <c r="I19" s="14">
-        <v>4957</v>
+        <v>5739</v>
       </c>
       <c r="J19" s="14">
-        <v>6295</v>
+        <v>7167</v>
       </c>
       <c r="K19" s="15">
-        <v>-21.254964257347</v>
+        <v>-19.924654667224</v>
       </c>
       <c r="L19" s="15">
-        <v>-19.148589137171</v>
+        <v>-18.607289746135</v>
       </c>
       <c r="M19" s="15">
-        <v>12.505674080798</v>
+        <v>13.666072489601</v>
       </c>
       <c r="N19" s="15">
-        <v>-49.959620432061</v>
+        <v>-49.360275302214</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1100,40 +1103,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="14">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="14">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E20" s="15">
-        <v>-14.583333333333</v>
+        <v>-5.990783410138</v>
       </c>
       <c r="F20" s="14">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="G20" s="14">
-        <v>999</v>
+        <v>959</v>
       </c>
       <c r="H20" s="15">
-        <v>-19.219219219219</v>
+        <v>-14.494264859228</v>
       </c>
       <c r="I20" s="14">
-        <v>1370</v>
+        <v>1571</v>
       </c>
       <c r="J20" s="14">
-        <v>1737</v>
+        <v>1954</v>
       </c>
       <c r="K20" s="15">
-        <v>-21.128382268278</v>
+        <v>-19.600818833162</v>
       </c>
       <c r="L20" s="15">
-        <v>-26.462694578636</v>
+        <v>-27.201112140871</v>
       </c>
       <c r="M20" s="15">
-        <v>11.201298701298</v>
+        <v>13.923132704858</v>
       </c>
       <c r="N20" s="15">
-        <v>-90.92354577978</v>
+        <v>-90.848721384050</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1141,40 +1144,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="17">
-        <v>1874</v>
+        <v>1898</v>
       </c>
       <c r="D21" s="17">
-        <v>2193</v>
+        <v>2132</v>
       </c>
       <c r="E21" s="18">
-        <v>-14.546283629731</v>
+        <v>-10.975609756097</v>
       </c>
       <c r="F21" s="17">
-        <v>7604</v>
+        <v>7697</v>
       </c>
       <c r="G21" s="17">
-        <v>9160</v>
+        <v>8996</v>
       </c>
       <c r="H21" s="18">
-        <v>-16.986899563318</v>
+        <v>-14.439751000444</v>
       </c>
       <c r="I21" s="17">
-        <v>12835</v>
+        <v>14795</v>
       </c>
       <c r="J21" s="17">
-        <v>15315</v>
+        <v>17447</v>
       </c>
       <c r="K21" s="18">
-        <v>-16.193274567417</v>
+        <v>-15.200320972086</v>
       </c>
       <c r="L21" s="18">
-        <v>-16.807103966813</v>
+        <v>-16.577389343106</v>
       </c>
       <c r="M21" s="18">
-        <v>2.951792732814</v>
+        <v>4.028969202643</v>
       </c>
       <c r="N21" s="18">
-        <v>-76.368891998379</v>
+        <v>-76.094297855838</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1182,37 +1185,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="14">
+        <v>33</v>
+      </c>
+      <c r="D22" s="14">
         <v>40</v>
       </c>
-      <c r="D22" s="14">
-        <v>50</v>
-      </c>
       <c r="E22" s="15">
-        <v>-20</v>
+        <v>-17.5</v>
       </c>
       <c r="F22" s="14">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="14">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="H22" s="15">
-        <v>-22.826086956521</v>
+        <v>-16.071428571428</v>
       </c>
       <c r="I22" s="14">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="J22" s="14">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K22" s="15">
-        <v>-28.213166144200</v>
+        <v>-26.462395543175</v>
       </c>
       <c r="L22" s="15">
-        <v>-10.894941634241</v>
+        <v>-11.705685618729</v>
       </c>
       <c r="M22" s="15">
-        <v>-15.185185185185</v>
+        <v>-15.112540192926</v>
       </c>
       <c r="N22" s="13" t="s">
         <v>28</v>
@@ -1223,37 +1226,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="14">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D23" s="14">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E23" s="15">
-        <v>-13.793103448275</v>
+        <v>-7.920792079207</v>
       </c>
       <c r="F23" s="14">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="G23" s="14">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="H23" s="15">
-        <v>-9.468822170900</v>
+        <v>-3.546099290780</v>
       </c>
       <c r="I23" s="14">
-        <v>653</v>
+        <v>755</v>
       </c>
       <c r="J23" s="14">
-        <v>753</v>
+        <v>854</v>
       </c>
       <c r="K23" s="15">
-        <v>-13.280212483399</v>
+        <v>-11.592505854800</v>
       </c>
       <c r="L23" s="15">
-        <v>-14.528795811518</v>
+        <v>-13.118527042577</v>
       </c>
       <c r="M23" s="15">
-        <v>38.641188959660</v>
+        <v>40.074211502782</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>28</v>
@@ -1264,37 +1267,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="14">
-        <v>1951</v>
+        <v>1997</v>
       </c>
       <c r="D24" s="14">
-        <v>2066</v>
+        <v>2044</v>
       </c>
       <c r="E24" s="15">
-        <v>-5.566311713455</v>
+        <v>-2.299412915851</v>
       </c>
       <c r="F24" s="14">
-        <v>7969</v>
+        <v>7966</v>
       </c>
       <c r="G24" s="14">
-        <v>8402</v>
+        <v>8358</v>
       </c>
       <c r="H24" s="15">
-        <v>-5.153534872649</v>
+        <v>-4.690117252931</v>
       </c>
       <c r="I24" s="14">
-        <v>13044</v>
+        <v>15038</v>
       </c>
       <c r="J24" s="14">
-        <v>13606</v>
+        <v>15650</v>
       </c>
       <c r="K24" s="15">
-        <v>-4.130530648243</v>
+        <v>-3.910543130990</v>
       </c>
       <c r="L24" s="15">
-        <v>-3.911602209944</v>
+        <v>-4.204357242960</v>
       </c>
       <c r="M24" s="15">
-        <v>38.251192368839</v>
+        <v>40.647212869435</v>
       </c>
       <c r="N24" s="13" t="s">
         <v>28</v>
@@ -1305,34 +1308,34 @@
         <v>31</v>
       </c>
       <c r="C25" s="14">
-        <v>1062</v>
+        <v>1158</v>
       </c>
       <c r="D25" s="14">
-        <v>1187</v>
+        <v>1132</v>
       </c>
       <c r="E25" s="15">
-        <v>-10.530749789385</v>
+        <v>2.296819787985</v>
       </c>
       <c r="F25" s="14">
-        <v>4366</v>
+        <v>4380</v>
       </c>
       <c r="G25" s="14">
-        <v>4693</v>
+        <v>4661</v>
       </c>
       <c r="H25" s="15">
-        <v>-6.967824419347</v>
+        <v>-6.028749195451</v>
       </c>
       <c r="I25" s="14">
-        <v>6985</v>
+        <v>8157</v>
       </c>
       <c r="J25" s="14">
-        <v>7595</v>
+        <v>8727</v>
       </c>
       <c r="K25" s="15">
-        <v>-8.031599736668</v>
+        <v>-6.531454107940</v>
       </c>
       <c r="L25" s="15">
-        <v>-6.102970829412</v>
+        <v>-4.830241512075</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>28</v>
@@ -1346,37 +1349,37 @@
         <v>32</v>
       </c>
       <c r="C26" s="14">
-        <v>831</v>
+        <v>689</v>
       </c>
       <c r="D26" s="14">
-        <v>883</v>
+        <v>776</v>
       </c>
       <c r="E26" s="15">
-        <v>-5.889014722536</v>
+        <v>-11.211340206185</v>
       </c>
       <c r="F26" s="14">
-        <v>2987</v>
+        <v>2960</v>
       </c>
       <c r="G26" s="14">
-        <v>3310</v>
+        <v>3318</v>
       </c>
       <c r="H26" s="15">
-        <v>-9.758308157099</v>
+        <v>-10.789632308619</v>
       </c>
       <c r="I26" s="14">
-        <v>5115</v>
+        <v>5807</v>
       </c>
       <c r="J26" s="14">
-        <v>5332</v>
+        <v>6108</v>
       </c>
       <c r="K26" s="15">
-        <v>-4.069767441860</v>
+        <v>-4.927963326784</v>
       </c>
       <c r="L26" s="15">
-        <v>1.186943620178</v>
+        <v>0.903562119895</v>
       </c>
       <c r="M26" s="15">
-        <v>-0.968054211035</v>
+        <v>-1.742808798646</v>
       </c>
       <c r="N26" s="13" t="s">
         <v>28</v>
@@ -1387,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="14">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D27" s="14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" s="15">
-        <v>-9.523809523809</v>
+        <v>-4.545454545454</v>
       </c>
       <c r="F27" s="14">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G27" s="14">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H27" s="15">
-        <v>-1.162790697674</v>
+        <v>-0.574712643678</v>
       </c>
       <c r="I27" s="14">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="J27" s="14">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="K27" s="15">
-        <v>-1.023890784982</v>
+        <v>0</v>
       </c>
       <c r="L27" s="15">
-        <v>-10.769230769230</v>
+        <v>-7.923497267759</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>28</v>
@@ -1428,34 +1431,34 @@
         <v>34</v>
       </c>
       <c r="C28" s="14">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D28" s="14">
         <v>81</v>
       </c>
       <c r="E28" s="15">
-        <v>33.333333333333</v>
+        <v>13.580246913580</v>
       </c>
       <c r="F28" s="14">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="G28" s="14">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H28" s="15">
-        <v>4.735376044568</v>
+        <v>9.550561797752</v>
       </c>
       <c r="I28" s="14">
-        <v>630</v>
+        <v>713</v>
       </c>
       <c r="J28" s="14">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="K28" s="15">
-        <v>9.375</v>
+        <v>8.523592085235</v>
       </c>
       <c r="L28" s="15">
-        <v>5.175292153589</v>
+        <v>3.333333333333</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>28</v>
@@ -1469,40 +1472,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29" s="14">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E29" s="15">
-        <v>-56.521739130434</v>
+        <v>27.272727272727</v>
       </c>
       <c r="F29" s="14">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G29" s="14">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H29" s="15">
-        <v>-38.888888888888</v>
+        <v>-18.461538461538</v>
       </c>
       <c r="I29" s="14">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="J29" s="14">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K29" s="15">
-        <v>-23.931623931623</v>
+        <v>-17.96875</v>
       </c>
       <c r="L29" s="15">
-        <v>-38.194444444444</v>
+        <v>-32.258064516129</v>
       </c>
       <c r="M29" s="15">
-        <v>-41.447368421052</v>
+        <v>-42.622950819672</v>
       </c>
       <c r="N29" s="15">
-        <v>-87.517531556802</v>
+        <v>-87.241798298906</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1510,75 +1513,75 @@
         <v>36</v>
       </c>
       <c r="C30" s="14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D30" s="14">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E30" s="15">
-        <v>-28.571428571428</v>
+        <v>62.5</v>
       </c>
       <c r="F30" s="14">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G30" s="14">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H30" s="15">
-        <v>-27.586206896551</v>
+        <v>-1.923076923076</v>
       </c>
       <c r="I30" s="14">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="J30" s="14">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K30" s="15">
-        <v>-26.804123711340</v>
+        <v>-18.095238095238</v>
       </c>
       <c r="L30" s="15">
-        <v>-39.830508474576</v>
+        <v>-32.8125</v>
       </c>
       <c r="M30" s="15">
-        <v>-47.407407407407</v>
+        <v>-44.516129032258</v>
       </c>
       <c r="N30" s="15">
-        <v>-89.209726443769</v>
+        <v>-88.713910761154</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="14">
-        <v>6</v>
+      <c r="C31" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F31" s="14">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G31" s="14">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H31" s="15">
-        <v>-21.621621621621</v>
+        <v>-31.428571428571</v>
       </c>
       <c r="I31" s="14">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31" s="14">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K31" s="15">
-        <v>-22.950819672131</v>
+        <v>-27.272727272727</v>
       </c>
       <c r="L31" s="15">
-        <v>-14.545454545454</v>
+        <v>-23.809523809523</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>28</v>
@@ -1589,7 +1592,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -1607,37 +1610,37 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="14">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33" s="15">
-        <v>-33.333333333333</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G33" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H33" s="15">
-        <v>21.428571428571</v>
+        <v>-25</v>
       </c>
       <c r="I33" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J33" s="14">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K33" s="15">
-        <v>-21.428571428571</v>
+        <v>-32.352941176470</v>
       </c>
       <c r="L33" s="15">
-        <v>0</v>
+        <v>-17.857142857142</v>
       </c>
       <c r="M33" s="13" t="s">
         <v>28</v>
@@ -1648,7 +1651,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -1666,7 +1669,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -1699,45 +1702,45 @@
         <v>17</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38" s="22">
         <v>2024</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -1998,42 +2001,42 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:11" customHeight="1" ht="29.250000">
       <c r="A57" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K57" s="25" t="s">
         <v>7</v>
@@ -2041,7 +2044,7 @@
     </row>
     <row r="58" spans="1:1" customHeight="1" ht="29.250000">
       <c r="A58" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
